--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="base_damage">Hoja1!$C$3</definedName>
+    <definedName name="base_damage">Hoja1!$D$3</definedName>
     <definedName name="explosion_shot_base">Hoja1!$F$3</definedName>
-    <definedName name="hits_1_round_behind">Hoja1!$O$1</definedName>
+    <definedName name="hits_1_round_behind">Hoja1!$L$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>tesla trooper life</t>
   </si>
@@ -43,18 +43,6 @@
     <t>explosion shot</t>
   </si>
   <si>
-    <t>damage (cool formula)</t>
-  </si>
-  <si>
-    <t>WEAPONS</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>ENEMIES</t>
-  </si>
-  <si>
     <t>hits to kill 1 round behind</t>
   </si>
   <si>
@@ -62,6 +50,33 @@
   </si>
   <si>
     <t>hits to take down with lvl 1 explosion shot</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>Takes</t>
+  </si>
+  <si>
+    <t>hits to kill</t>
+  </si>
+  <si>
+    <t>average weapon damage</t>
+  </si>
+  <si>
+    <t>ENEMY LIFE</t>
+  </si>
+  <si>
+    <t>WEAPON DAMAGE</t>
   </si>
 </sst>
 </file>
@@ -227,7 +242,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$12</c:f>
+              <c:f>Hoja1!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -994,13 +1009,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1288,62 +1303,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1351,12 +1375,12 @@
         <f xml:space="preserve"> base_damage</f>
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f xml:space="preserve"> 100</f>
         <v>100</v>
       </c>
-      <c r="D3">
-        <f>ROUNDUP(B3/base_damage, 0)</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E34" si="0">ROUNDUP(B3/base_damage, 0)</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -1364,332 +1388,338 @@
         <v>66.666666666666671</v>
       </c>
       <c r="G3">
-        <f>ROUNDUP(B3/explosion_shot_base, 0)</f>
+        <f t="shared" ref="G3:G34" si="1">ROUNDUP(B3/explosion_shot_base, 0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B61" si="0" xml:space="preserve"> B3 *hits_1_round_behind</f>
+        <f t="shared" ref="B4:B61" si="2" xml:space="preserve"> B3 *hits_1_round_behind</f>
         <v>200</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
         <v>200</v>
       </c>
-      <c r="D4">
-        <f>ROUNDUP(B4/base_damage, 0)</f>
+      <c r="E4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F4">
-        <f>C4/1.75</f>
+        <f>D4/1.75</f>
         <v>114.28571428571429</v>
       </c>
       <c r="G4">
-        <f>ROUNDUP(B4/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A4</f>
         <v>400</v>
       </c>
-      <c r="D5">
-        <f>ROUNDUP(B5/base_damage, 0)</f>
+      <c r="E5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F61" si="1">C5/1.75</f>
+        <f t="shared" ref="F5:F61" si="3">D5/1.75</f>
         <v>228.57142857142858</v>
       </c>
       <c r="G5">
-        <f>ROUNDUP(B5/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A5</f>
         <v>800</v>
       </c>
-      <c r="D6">
-        <f>ROUNDUP(B6/base_damage, 0)</f>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>457.14285714285717</v>
       </c>
       <c r="G6">
-        <f>ROUNDUP(B6/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A6</f>
         <v>1600</v>
       </c>
-      <c r="D7">
-        <f>ROUNDUP(B7/base_damage, 0)</f>
+      <c r="E7">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>914.28571428571433</v>
       </c>
       <c r="G7">
-        <f>ROUNDUP(B7/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3200</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A7</f>
         <v>3200</v>
       </c>
-      <c r="D8">
-        <f>ROUNDUP(B8/base_damage, 0)</f>
+      <c r="E8">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1828.5714285714287</v>
       </c>
       <c r="G8">
-        <f>ROUNDUP(B8/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6400</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A8</f>
         <v>6400</v>
       </c>
-      <c r="D9">
-        <f>ROUNDUP(B9/base_damage, 0)</f>
+      <c r="E9">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3657.1428571428573</v>
       </c>
       <c r="G9">
-        <f>ROUNDUP(B9/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12800</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A9</f>
         <v>12800</v>
       </c>
-      <c r="D10">
-        <f>ROUNDUP(B10/base_damage, 0)</f>
+      <c r="E10">
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7314.2857142857147</v>
       </c>
       <c r="G10">
-        <f>ROUNDUP(B10/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25600</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A10</f>
         <v>25600</v>
       </c>
-      <c r="D11">
-        <f>ROUNDUP(B11/base_damage, 0)</f>
+      <c r="E11">
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14628.571428571429</v>
       </c>
       <c r="G11">
-        <f>ROUNDUP(B11/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51200</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A11</f>
         <v>51200</v>
       </c>
-      <c r="D12">
-        <f>ROUNDUP(B12/base_damage, 0)</f>
+      <c r="E12">
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29257.142857142859</v>
       </c>
       <c r="G12">
-        <f>ROUNDUP(B12/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>768</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>102400</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A12</f>
         <v>102400</v>
       </c>
-      <c r="D13">
-        <f>ROUNDUP(B13/base_damage, 0)</f>
+      <c r="E13">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58514.285714285717</v>
       </c>
       <c r="G13">
-        <f>ROUNDUP(B13/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>1536</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>204800</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A13</f>
         <v>204800</v>
       </c>
-      <c r="D14">
-        <f>ROUNDUP(B14/base_damage, 0)</f>
+      <c r="E14">
+        <f t="shared" si="0"/>
         <v>2048</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>117028.57142857143</v>
       </c>
       <c r="G14">
-        <f>ROUNDUP(B14/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>3072</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>409600</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A14</f>
         <v>409600</v>
       </c>
-      <c r="D15">
-        <f>ROUNDUP(B15/base_damage, 0)</f>
+      <c r="E15">
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>234057.14285714287</v>
       </c>
       <c r="G15">
-        <f>ROUNDUP(B15/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>6144</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>819200</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A15</f>
         <v>819200</v>
       </c>
-      <c r="D16">
-        <f>ROUNDUP(B16/base_damage, 0)</f>
+      <c r="E16">
+        <f t="shared" si="0"/>
         <v>8192</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>468114.28571428574</v>
       </c>
       <c r="G16">
-        <f>ROUNDUP(B16/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>12288</v>
       </c>
     </row>
@@ -1698,23 +1728,23 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1638400</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A16</f>
         <v>1638400</v>
       </c>
-      <c r="D17">
-        <f>ROUNDUP(B17/base_damage, 0)</f>
+      <c r="E17">
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>936228.57142857148</v>
       </c>
       <c r="G17">
-        <f>ROUNDUP(B17/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>24576</v>
       </c>
     </row>
@@ -1723,23 +1753,23 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3276800</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A17</f>
         <v>3276800</v>
       </c>
-      <c r="D18">
-        <f>ROUNDUP(B18/base_damage, 0)</f>
+      <c r="E18">
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1872457.142857143</v>
       </c>
       <c r="G18">
-        <f>ROUNDUP(B18/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>49152</v>
       </c>
     </row>
@@ -1748,23 +1778,23 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6553600</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A18</f>
         <v>6553600</v>
       </c>
-      <c r="D19">
-        <f>ROUNDUP(B19/base_damage, 0)</f>
+      <c r="E19">
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3744914.2857142859</v>
       </c>
       <c r="G19">
-        <f>ROUNDUP(B19/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>98304</v>
       </c>
     </row>
@@ -1773,23 +1803,23 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13107200</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A19</f>
         <v>13107200</v>
       </c>
-      <c r="D20">
-        <f>ROUNDUP(B20/base_damage, 0)</f>
+      <c r="E20">
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7489828.5714285718</v>
       </c>
       <c r="G20">
-        <f>ROUNDUP(B20/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>196608</v>
       </c>
     </row>
@@ -1798,23 +1828,23 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26214400</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A20</f>
         <v>26214400</v>
       </c>
-      <c r="D21">
-        <f>ROUNDUP(B21/base_damage, 0)</f>
+      <c r="E21">
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14979657.142857144</v>
       </c>
       <c r="G21">
-        <f>ROUNDUP(B21/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>393216</v>
       </c>
     </row>
@@ -1823,23 +1853,23 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52428800</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A21</f>
         <v>52428800</v>
       </c>
-      <c r="D22">
-        <f>ROUNDUP(B22/base_damage, 0)</f>
+      <c r="E22">
+        <f t="shared" si="0"/>
         <v>524288</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29959314.285714287</v>
       </c>
       <c r="G22">
-        <f>ROUNDUP(B22/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>786432</v>
       </c>
     </row>
@@ -1848,23 +1878,23 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104857600</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A22</f>
         <v>104857600</v>
       </c>
-      <c r="D23">
-        <f>ROUNDUP(B23/base_damage, 0)</f>
+      <c r="E23">
+        <f t="shared" si="0"/>
         <v>1048576</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59918628.571428575</v>
       </c>
       <c r="G23">
-        <f>ROUNDUP(B23/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>1572864</v>
       </c>
     </row>
@@ -1873,23 +1903,23 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>209715200</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A23</f>
         <v>209715200</v>
       </c>
-      <c r="D24">
-        <f>ROUNDUP(B24/base_damage, 0)</f>
+      <c r="E24">
+        <f t="shared" si="0"/>
         <v>2097152</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119837257.14285715</v>
       </c>
       <c r="G24">
-        <f>ROUNDUP(B24/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>3145728</v>
       </c>
     </row>
@@ -1898,23 +1928,23 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>419430400</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A24</f>
         <v>419430400</v>
       </c>
-      <c r="D25">
-        <f>ROUNDUP(B25/base_damage, 0)</f>
+      <c r="E25">
+        <f t="shared" si="0"/>
         <v>4194304</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>239674514.2857143</v>
       </c>
       <c r="G25">
-        <f>ROUNDUP(B25/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>6291456</v>
       </c>
     </row>
@@ -1923,23 +1953,23 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>838860800</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A25</f>
         <v>838860800</v>
       </c>
-      <c r="D26">
-        <f>ROUNDUP(B26/base_damage, 0)</f>
+      <c r="E26">
+        <f t="shared" si="0"/>
         <v>8388608</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>479349028.5714286</v>
       </c>
       <c r="G26">
-        <f>ROUNDUP(B26/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>12582912</v>
       </c>
     </row>
@@ -1948,23 +1978,23 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1677721600</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A26</f>
         <v>1677721600</v>
       </c>
-      <c r="D27">
-        <f>ROUNDUP(B27/base_damage, 0)</f>
+      <c r="E27">
+        <f t="shared" si="0"/>
         <v>16777216</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>958698057.14285719</v>
       </c>
       <c r="G27">
-        <f>ROUNDUP(B27/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>25165824</v>
       </c>
     </row>
@@ -1973,23 +2003,23 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3355443200</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A27</f>
         <v>3355443200</v>
       </c>
-      <c r="D28">
-        <f>ROUNDUP(B28/base_damage, 0)</f>
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>33554432</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1917396114.2857144</v>
       </c>
       <c r="G28">
-        <f>ROUNDUP(B28/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>50331648</v>
       </c>
     </row>
@@ -1998,23 +2028,23 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6710886400</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A28</f>
         <v>6710886400</v>
       </c>
-      <c r="D29">
-        <f>ROUNDUP(B29/base_damage, 0)</f>
+      <c r="E29">
+        <f t="shared" si="0"/>
         <v>67108864</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3834792228.5714288</v>
       </c>
       <c r="G29">
-        <f>ROUNDUP(B29/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>100663296</v>
       </c>
     </row>
@@ -2023,23 +2053,23 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13421772800</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A29</f>
         <v>13421772800</v>
       </c>
-      <c r="D30">
-        <f>ROUNDUP(B30/base_damage, 0)</f>
+      <c r="E30">
+        <f t="shared" si="0"/>
         <v>134217728</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7669584457.1428576</v>
       </c>
       <c r="G30">
-        <f>ROUNDUP(B30/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>201326592</v>
       </c>
     </row>
@@ -2048,23 +2078,23 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26843545600</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A30</f>
         <v>26843545600</v>
       </c>
-      <c r="D31">
-        <f>ROUNDUP(B31/base_damage, 0)</f>
+      <c r="E31">
+        <f t="shared" si="0"/>
         <v>268435456</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15339168914.285715</v>
       </c>
       <c r="G31">
-        <f>ROUNDUP(B31/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>402653184</v>
       </c>
     </row>
@@ -2073,23 +2103,23 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53687091200</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A31</f>
         <v>53687091200</v>
       </c>
-      <c r="D32">
-        <f>ROUNDUP(B32/base_damage, 0)</f>
+      <c r="E32">
+        <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30678337828.57143</v>
       </c>
       <c r="G32">
-        <f>ROUNDUP(B32/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>805306368</v>
       </c>
     </row>
@@ -2098,23 +2128,23 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>107374182400</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A32</f>
         <v>107374182400</v>
       </c>
-      <c r="D33">
-        <f>ROUNDUP(B33/base_damage, 0)</f>
+      <c r="E33">
+        <f t="shared" si="0"/>
         <v>1073741824</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61356675657.14286</v>
       </c>
       <c r="G33">
-        <f>ROUNDUP(B33/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>1610612736</v>
       </c>
     </row>
@@ -2123,23 +2153,23 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>214748364800</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A33</f>
         <v>214748364800</v>
       </c>
-      <c r="D34">
-        <f>ROUNDUP(B34/base_damage, 0)</f>
+      <c r="E34">
+        <f t="shared" si="0"/>
         <v>2147483648</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>122713351314.28572</v>
       </c>
       <c r="G34">
-        <f>ROUNDUP(B34/explosion_shot_base, 0)</f>
+        <f t="shared" si="1"/>
         <v>3221225472</v>
       </c>
     </row>
@@ -2148,23 +2178,23 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>429496729600</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A34</f>
         <v>429496729600</v>
       </c>
-      <c r="D35">
-        <f>ROUNDUP(B35/base_damage, 0)</f>
+      <c r="E35">
+        <f t="shared" ref="E35:E61" si="4">ROUNDUP(B35/base_damage, 0)</f>
         <v>4294967296</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>245426702628.57144</v>
       </c>
       <c r="G35">
-        <f>ROUNDUP(B35/explosion_shot_base, 0)</f>
+        <f t="shared" ref="G35:G61" si="5">ROUNDUP(B35/explosion_shot_base, 0)</f>
         <v>6442450944</v>
       </c>
     </row>
@@ -2173,23 +2203,23 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>858993459200</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
         <v>858993459200</v>
       </c>
-      <c r="D36">
-        <f>ROUNDUP(B36/base_damage, 0)</f>
+      <c r="E36">
+        <f t="shared" si="4"/>
         <v>8589934592</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>490853405257.14288</v>
       </c>
       <c r="G36">
-        <f>ROUNDUP(B36/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>12884901888</v>
       </c>
     </row>
@@ -2198,23 +2228,23 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1717986918400</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A36</f>
         <v>1717986918400</v>
       </c>
-      <c r="D37">
-        <f>ROUNDUP(B37/base_damage, 0)</f>
+      <c r="E37">
+        <f t="shared" si="4"/>
         <v>17179869184</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>981706810514.28577</v>
       </c>
       <c r="G37">
-        <f>ROUNDUP(B37/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>25769803776</v>
       </c>
     </row>
@@ -2223,23 +2253,23 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3435973836800</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A37</f>
         <v>3435973836800</v>
       </c>
-      <c r="D38">
-        <f>ROUNDUP(B38/base_damage, 0)</f>
+      <c r="E38">
+        <f t="shared" si="4"/>
         <v>34359738368</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1963413621028.5715</v>
       </c>
       <c r="G38">
-        <f>ROUNDUP(B38/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>51539607552</v>
       </c>
     </row>
@@ -2248,23 +2278,23 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6871947673600</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A38</f>
         <v>6871947673600</v>
       </c>
-      <c r="D39">
-        <f>ROUNDUP(B39/base_damage, 0)</f>
+      <c r="E39">
+        <f t="shared" si="4"/>
         <v>68719476736</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3926827242057.1431</v>
       </c>
       <c r="G39">
-        <f>ROUNDUP(B39/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>103079215104</v>
       </c>
     </row>
@@ -2273,23 +2303,23 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13743895347200</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A39</f>
         <v>13743895347200</v>
       </c>
-      <c r="D40">
-        <f>ROUNDUP(B40/base_damage, 0)</f>
+      <c r="E40">
+        <f t="shared" si="4"/>
         <v>137438953472</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7853654484114.2861</v>
       </c>
       <c r="G40">
-        <f>ROUNDUP(B40/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>206158430208</v>
       </c>
     </row>
@@ -2298,23 +2328,23 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27487790694400</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A40</f>
         <v>27487790694400</v>
       </c>
-      <c r="D41">
-        <f>ROUNDUP(B41/base_damage, 0)</f>
+      <c r="E41">
+        <f t="shared" si="4"/>
         <v>274877906944</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15707308968228.572</v>
       </c>
       <c r="G41">
-        <f>ROUNDUP(B41/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>412316860416</v>
       </c>
     </row>
@@ -2323,23 +2353,23 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54975581388800</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A41</f>
         <v>54975581388800</v>
       </c>
-      <c r="D42">
-        <f>ROUNDUP(B42/base_damage, 0)</f>
+      <c r="E42">
+        <f t="shared" si="4"/>
         <v>549755813888</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31414617936457.145</v>
       </c>
       <c r="G42">
-        <f>ROUNDUP(B42/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>824633720832</v>
       </c>
     </row>
@@ -2348,23 +2378,23 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>109951162777600</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A42</f>
         <v>109951162777600</v>
       </c>
-      <c r="D43">
-        <f>ROUNDUP(B43/base_damage, 0)</f>
+      <c r="E43">
+        <f t="shared" si="4"/>
         <v>1099511627776</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62829235872914.289</v>
       </c>
       <c r="G43">
-        <f>ROUNDUP(B43/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>1649267441664</v>
       </c>
     </row>
@@ -2373,23 +2403,23 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>219902325555200</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A43</f>
         <v>219902325555200</v>
       </c>
-      <c r="D44">
-        <f>ROUNDUP(B44/base_damage, 0)</f>
+      <c r="E44">
+        <f t="shared" si="4"/>
         <v>2199023255552</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>125658471745828.58</v>
       </c>
       <c r="G44">
-        <f>ROUNDUP(B44/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>3298534883328</v>
       </c>
     </row>
@@ -2398,23 +2428,23 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>439804651110400</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A44</f>
         <v>439804651110400</v>
       </c>
-      <c r="D45">
-        <f>ROUNDUP(B45/base_damage, 0)</f>
+      <c r="E45">
+        <f t="shared" si="4"/>
         <v>4398046511104</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>251316943491657.16</v>
       </c>
       <c r="G45">
-        <f>ROUNDUP(B45/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>6597069766656</v>
       </c>
     </row>
@@ -2423,23 +2453,23 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>879609302220800</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A45</f>
         <v>879609302220800</v>
       </c>
-      <c r="D46">
-        <f>ROUNDUP(B46/base_damage, 0)</f>
+      <c r="E46">
+        <f t="shared" si="4"/>
         <v>8796093022208</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>502633886983314.31</v>
       </c>
       <c r="G46">
-        <f>ROUNDUP(B46/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>13194139533312</v>
       </c>
     </row>
@@ -2448,23 +2478,23 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1759218604441600</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A46</f>
         <v>1759218604441600</v>
       </c>
-      <c r="D47">
-        <f>ROUNDUP(B47/base_damage, 0)</f>
+      <c r="E47">
+        <f t="shared" si="4"/>
         <v>17592186044416</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1005267773966628.6</v>
       </c>
       <c r="G47">
-        <f>ROUNDUP(B47/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>26388279066624</v>
       </c>
     </row>
@@ -2473,23 +2503,23 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3518437208883200</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A47</f>
         <v>3518437208883200</v>
       </c>
-      <c r="D48">
-        <f>ROUNDUP(B48/base_damage, 0)</f>
+      <c r="E48">
+        <f t="shared" si="4"/>
         <v>35184372088832</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2010535547933257.3</v>
       </c>
       <c r="G48">
-        <f>ROUNDUP(B48/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>52776558133248</v>
       </c>
     </row>
@@ -2498,23 +2528,23 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7036874417766400</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A48</f>
         <v>7036874417766400</v>
       </c>
-      <c r="D49">
-        <f>ROUNDUP(B49/base_damage, 0)</f>
+      <c r="E49">
+        <f t="shared" si="4"/>
         <v>70368744177664</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4021071095866514.5</v>
       </c>
       <c r="G49">
-        <f>ROUNDUP(B49/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>105553116266496</v>
       </c>
     </row>
@@ -2523,23 +2553,23 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.40737488355328E+16</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A49</f>
         <v>1.40737488355328E+16</v>
       </c>
-      <c r="D50">
-        <f>ROUNDUP(B50/base_damage, 0)</f>
+      <c r="E50">
+        <f t="shared" si="4"/>
         <v>140737488355328</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8042142191733029</v>
       </c>
       <c r="G50">
-        <f>ROUNDUP(B50/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>211106232532992</v>
       </c>
     </row>
@@ -2548,23 +2578,23 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.81474976710656E+16</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A50</f>
         <v>2.81474976710656E+16</v>
       </c>
-      <c r="D51">
-        <f>ROUNDUP(B51/base_damage, 0)</f>
+      <c r="E51">
+        <f t="shared" si="4"/>
         <v>281474976710656</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6084284383466058E+16</v>
       </c>
       <c r="G51">
-        <f>ROUNDUP(B51/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>422212465065984</v>
       </c>
     </row>
@@ -2573,23 +2603,23 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.62949953421312E+16</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A51</f>
         <v>5.62949953421312E+16</v>
       </c>
-      <c r="D52">
-        <f>ROUNDUP(B52/base_damage, 0)</f>
+      <c r="E52">
+        <f t="shared" si="4"/>
         <v>562949953421312</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2168568766932116E+16</v>
       </c>
       <c r="G52">
-        <f>ROUNDUP(B52/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>844424930131968</v>
       </c>
     </row>
@@ -2598,23 +2628,23 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.125899906842624E+17</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A52</f>
         <v>1.125899906842624E+17</v>
       </c>
-      <c r="D53">
-        <f>ROUNDUP(B53/base_damage, 0)</f>
+      <c r="E53">
+        <f t="shared" si="4"/>
         <v>1125899906842620</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4337137533864232E+16</v>
       </c>
       <c r="G53">
-        <f>ROUNDUP(B53/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>1688849860263940</v>
       </c>
     </row>
@@ -2623,23 +2653,23 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.251799813685248E+17</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A53</f>
         <v>2.251799813685248E+17</v>
       </c>
-      <c r="D54">
-        <f>ROUNDUP(B54/base_damage, 0)</f>
+      <c r="E54">
+        <f t="shared" si="4"/>
         <v>2251799813685250</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2867427506772846E+17</v>
       </c>
       <c r="G54">
-        <f>ROUNDUP(B54/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>3377699720527870</v>
       </c>
     </row>
@@ -2648,23 +2678,23 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.503599627370496E+17</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A54</f>
         <v>4.503599627370496E+17</v>
       </c>
-      <c r="D55">
-        <f>ROUNDUP(B55/base_damage, 0)</f>
+      <c r="E55">
+        <f t="shared" si="4"/>
         <v>4503599627370500</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5734855013545693E+17</v>
       </c>
       <c r="G55">
-        <f>ROUNDUP(B55/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>6755399441055740</v>
       </c>
     </row>
@@ -2673,23 +2703,23 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.007199254740992E+17</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A55</f>
         <v>9.007199254740992E+17</v>
       </c>
-      <c r="D56">
-        <f>ROUNDUP(B56/base_damage, 0)</f>
+      <c r="E56">
+        <f t="shared" si="4"/>
         <v>9007199254740990</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1469710027091386E+17</v>
       </c>
       <c r="G56">
-        <f>ROUNDUP(B56/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>1.35107988821115E+16</v>
       </c>
     </row>
@@ -2698,23 +2728,23 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8014398509481984E+18</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A56</f>
         <v>1.8014398509481984E+18</v>
       </c>
-      <c r="D57">
-        <f>ROUNDUP(B57/base_damage, 0)</f>
+      <c r="E57">
+        <f t="shared" si="4"/>
         <v>1.8014398509482E+16</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0293942005418277E+18</v>
       </c>
       <c r="G57">
-        <f>ROUNDUP(B57/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>2.7021597764223E+16</v>
       </c>
     </row>
@@ -2723,23 +2753,23 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6028797018963968E+18</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A57</f>
         <v>3.6028797018963968E+18</v>
       </c>
-      <c r="D58">
-        <f>ROUNDUP(B58/base_damage, 0)</f>
+      <c r="E58">
+        <f t="shared" si="4"/>
         <v>3.6028797018964E+16</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0587884010836554E+18</v>
       </c>
       <c r="G58">
-        <f>ROUNDUP(B58/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>5.4043195528446E+16</v>
       </c>
     </row>
@@ -2748,23 +2778,23 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.2057594037927936E+18</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A58</f>
         <v>7.2057594037927936E+18</v>
       </c>
-      <c r="D59">
-        <f>ROUNDUP(B59/base_damage, 0)</f>
+      <c r="E59">
+        <f t="shared" si="4"/>
         <v>7.2057594037927904E+16</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1175768021673108E+18</v>
       </c>
       <c r="G59">
-        <f>ROUNDUP(B59/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>1.08086391056892E+17</v>
       </c>
     </row>
@@ -2773,23 +2803,23 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4411518807585587E+19</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A59</f>
         <v>1.4411518807585587E+19</v>
       </c>
-      <c r="D60">
-        <f>ROUNDUP(B60/base_damage, 0)</f>
+      <c r="E60">
+        <f t="shared" si="4"/>
         <v>1.44115188075856E+17</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.2351536043346217E+18</v>
       </c>
       <c r="G60">
-        <f>ROUNDUP(B60/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>2.16172782113784E+17</v>
       </c>
     </row>
@@ -2798,23 +2828,23 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8823037615171174E+19</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A60</f>
         <v>2.8823037615171174E+19</v>
       </c>
-      <c r="D61">
-        <f>ROUNDUP(B61/base_damage, 0)</f>
+      <c r="E61">
+        <f t="shared" si="4"/>
         <v>2.88230376151712E+17</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6470307208669243E+19</v>
       </c>
       <c r="G61">
-        <f>ROUNDUP(B61/explosion_shot_base, 0)</f>
+        <f t="shared" si="5"/>
         <v>4.32345564227568E+17</v>
       </c>
     </row>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Custom\Desktop\Uni repositories\Tankerfield\docs\Balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaumemg1\Documents\GitHub\Tankerfield\docs\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>hits with weapon level 1</t>
-  </si>
-  <si>
-    <t>explosion shot</t>
   </si>
   <si>
     <t>hits to kill 1 round behind</t>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>WEAPON DAMAGE</t>
+  </si>
+  <si>
+    <t>double missile</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -338,7 +338,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2122365711"/>
@@ -397,7 +397,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2122368207"/>
@@ -438,7 +438,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,25 +1317,25 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L1">
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1346,25 +1346,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>9</v>
-      </c>
-      <c r="R2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1384,18 +1384,18 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f>base_damage/1.5</f>
-        <v>66.666666666666671</v>
+        <f>base_damage/2</f>
+        <v>50</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G34" si="1">ROUNDUP(B3/explosion_shot_base, 0)</f>
         <v>2</v>
       </c>
       <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
         <v>11</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>200</v>
       </c>
       <c r="D4">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
+        <f t="shared" ref="D4:D35" si="3" xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
         <v>200</v>
       </c>
       <c r="E4">
@@ -1415,12 +1415,12 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <f>D4/1.75</f>
-        <v>114.28571428571429</v>
+        <f>D4/2</f>
+        <v>100</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1432,7 +1432,7 @@
         <v>400</v>
       </c>
       <c r="D5">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A4</f>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="E5">
@@ -1440,12 +1440,12 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F61" si="3">D5/1.75</f>
-        <v>228.57142857142858</v>
+        <f t="shared" ref="F5:F61" si="4">D5/2</f>
+        <v>200</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>800</v>
       </c>
       <c r="D6">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A5</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="E6">
@@ -1465,12 +1465,12 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
-        <v>457.14285714285717</v>
+        <f t="shared" si="4"/>
+        <v>400</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>1600</v>
       </c>
       <c r="D7">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A6</f>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="E7">
@@ -1490,12 +1490,12 @@
         <v>16</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
-        <v>914.28571428571433</v>
+        <f t="shared" si="4"/>
+        <v>800</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
         <v>3200</v>
       </c>
       <c r="D8">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A7</f>
+        <f t="shared" si="3"/>
         <v>3200</v>
       </c>
       <c r="E8">
@@ -1515,12 +1515,12 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
-        <v>1828.5714285714287</v>
+        <f t="shared" si="4"/>
+        <v>1600</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>6400</v>
       </c>
       <c r="D9">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A8</f>
+        <f t="shared" si="3"/>
         <v>6400</v>
       </c>
       <c r="E9">
@@ -1540,12 +1540,12 @@
         <v>64</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
-        <v>3657.1428571428573</v>
+        <f t="shared" si="4"/>
+        <v>3200</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>12800</v>
       </c>
       <c r="D10">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A9</f>
+        <f t="shared" si="3"/>
         <v>12800</v>
       </c>
       <c r="E10">
@@ -1565,12 +1565,12 @@
         <v>128</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
-        <v>7314.2857142857147</v>
+        <f t="shared" si="4"/>
+        <v>6400</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>25600</v>
       </c>
       <c r="D11">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A10</f>
+        <f t="shared" si="3"/>
         <v>25600</v>
       </c>
       <c r="E11">
@@ -1590,12 +1590,12 @@
         <v>256</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
-        <v>14628.571428571429</v>
+        <f t="shared" si="4"/>
+        <v>12800</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>384</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>51200</v>
       </c>
       <c r="D12">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A11</f>
+        <f t="shared" si="3"/>
         <v>51200</v>
       </c>
       <c r="E12">
@@ -1615,12 +1615,12 @@
         <v>512</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
-        <v>29257.142857142859</v>
+        <f t="shared" si="4"/>
+        <v>25600</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>102400</v>
       </c>
       <c r="D13">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A12</f>
+        <f t="shared" si="3"/>
         <v>102400</v>
       </c>
       <c r="E13">
@@ -1640,12 +1640,12 @@
         <v>1024</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
-        <v>58514.285714285717</v>
+        <f t="shared" si="4"/>
+        <v>51200</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>1536</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
         <v>204800</v>
       </c>
       <c r="D14">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A13</f>
+        <f t="shared" si="3"/>
         <v>204800</v>
       </c>
       <c r="E14">
@@ -1665,12 +1665,12 @@
         <v>2048</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
-        <v>117028.57142857143</v>
+        <f t="shared" si="4"/>
+        <v>102400</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>3072</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>409600</v>
       </c>
       <c r="D15">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A14</f>
+        <f t="shared" si="3"/>
         <v>409600</v>
       </c>
       <c r="E15">
@@ -1690,12 +1690,12 @@
         <v>4096</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
-        <v>234057.14285714287</v>
+        <f t="shared" si="4"/>
+        <v>204800</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>6144</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>819200</v>
       </c>
       <c r="D16">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A15</f>
+        <f t="shared" si="3"/>
         <v>819200</v>
       </c>
       <c r="E16">
@@ -1715,12 +1715,12 @@
         <v>8192</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>468114.28571428574</v>
+        <f t="shared" si="4"/>
+        <v>409600</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>12288</v>
+        <v>16384</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>1638400</v>
       </c>
       <c r="D17">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A16</f>
+        <f t="shared" si="3"/>
         <v>1638400</v>
       </c>
       <c r="E17">
@@ -1740,12 +1740,12 @@
         <v>16384</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
-        <v>936228.57142857148</v>
+        <f t="shared" si="4"/>
+        <v>819200</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>24576</v>
+        <v>32768</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>3276800</v>
       </c>
       <c r="D18">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A17</f>
+        <f t="shared" si="3"/>
         <v>3276800</v>
       </c>
       <c r="E18">
@@ -1765,12 +1765,12 @@
         <v>32768</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
-        <v>1872457.142857143</v>
+        <f t="shared" si="4"/>
+        <v>1638400</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>49152</v>
+        <v>65536</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
         <v>6553600</v>
       </c>
       <c r="D19">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A18</f>
+        <f t="shared" si="3"/>
         <v>6553600</v>
       </c>
       <c r="E19">
@@ -1790,12 +1790,12 @@
         <v>65536</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
-        <v>3744914.2857142859</v>
+        <f t="shared" si="4"/>
+        <v>3276800</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>98304</v>
+        <v>131072</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>13107200</v>
       </c>
       <c r="D20">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A19</f>
+        <f t="shared" si="3"/>
         <v>13107200</v>
       </c>
       <c r="E20">
@@ -1815,12 +1815,12 @@
         <v>131072</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
-        <v>7489828.5714285718</v>
+        <f t="shared" si="4"/>
+        <v>6553600</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>196608</v>
+        <v>262144</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1832,7 +1832,7 @@
         <v>26214400</v>
       </c>
       <c r="D21">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A20</f>
+        <f t="shared" si="3"/>
         <v>26214400</v>
       </c>
       <c r="E21">
@@ -1840,12 +1840,12 @@
         <v>262144</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
-        <v>14979657.142857144</v>
+        <f t="shared" si="4"/>
+        <v>13107200</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,7 +1857,7 @@
         <v>52428800</v>
       </c>
       <c r="D22">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A21</f>
+        <f t="shared" si="3"/>
         <v>52428800</v>
       </c>
       <c r="E22">
@@ -1865,12 +1865,12 @@
         <v>524288</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
-        <v>29959314.285714287</v>
+        <f t="shared" si="4"/>
+        <v>26214400</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>786432</v>
+        <v>1048576</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>104857600</v>
       </c>
       <c r="D23">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A22</f>
+        <f t="shared" si="3"/>
         <v>104857600</v>
       </c>
       <c r="E23">
@@ -1890,12 +1890,12 @@
         <v>1048576</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
-        <v>59918628.571428575</v>
+        <f t="shared" si="4"/>
+        <v>52428800</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>1572864</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1907,7 +1907,7 @@
         <v>209715200</v>
       </c>
       <c r="D24">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A23</f>
+        <f t="shared" si="3"/>
         <v>209715200</v>
       </c>
       <c r="E24">
@@ -1915,12 +1915,12 @@
         <v>2097152</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
-        <v>119837257.14285715</v>
+        <f t="shared" si="4"/>
+        <v>104857600</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>419430400</v>
       </c>
       <c r="D25">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A24</f>
+        <f t="shared" si="3"/>
         <v>419430400</v>
       </c>
       <c r="E25">
@@ -1940,12 +1940,12 @@
         <v>4194304</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
-        <v>239674514.2857143</v>
+        <f t="shared" si="4"/>
+        <v>209715200</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>6291456</v>
+        <v>8388608</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>838860800</v>
       </c>
       <c r="D26">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A25</f>
+        <f t="shared" si="3"/>
         <v>838860800</v>
       </c>
       <c r="E26">
@@ -1965,12 +1965,12 @@
         <v>8388608</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
-        <v>479349028.5714286</v>
+        <f t="shared" si="4"/>
+        <v>419430400</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>12582912</v>
+        <v>16777216</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>1677721600</v>
       </c>
       <c r="D27">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A26</f>
+        <f t="shared" si="3"/>
         <v>1677721600</v>
       </c>
       <c r="E27">
@@ -1990,12 +1990,12 @@
         <v>16777216</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
-        <v>958698057.14285719</v>
+        <f t="shared" si="4"/>
+        <v>838860800</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>25165824</v>
+        <v>33554432</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>3355443200</v>
       </c>
       <c r="D28">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A27</f>
+        <f t="shared" si="3"/>
         <v>3355443200</v>
       </c>
       <c r="E28">
@@ -2015,12 +2015,12 @@
         <v>33554432</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
-        <v>1917396114.2857144</v>
+        <f t="shared" si="4"/>
+        <v>1677721600</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>50331648</v>
+        <v>67108864</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>6710886400</v>
       </c>
       <c r="D29">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A28</f>
+        <f t="shared" si="3"/>
         <v>6710886400</v>
       </c>
       <c r="E29">
@@ -2040,12 +2040,12 @@
         <v>67108864</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
-        <v>3834792228.5714288</v>
+        <f t="shared" si="4"/>
+        <v>3355443200</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>100663296</v>
+        <v>134217728</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>13421772800</v>
       </c>
       <c r="D30">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A29</f>
+        <f t="shared" si="3"/>
         <v>13421772800</v>
       </c>
       <c r="E30">
@@ -2065,12 +2065,12 @@
         <v>134217728</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
-        <v>7669584457.1428576</v>
+        <f t="shared" si="4"/>
+        <v>6710886400</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>201326592</v>
+        <v>268435456</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>26843545600</v>
       </c>
       <c r="D31">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A30</f>
+        <f t="shared" si="3"/>
         <v>26843545600</v>
       </c>
       <c r="E31">
@@ -2090,12 +2090,12 @@
         <v>268435456</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
-        <v>15339168914.285715</v>
+        <f t="shared" si="4"/>
+        <v>13421772800</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>402653184</v>
+        <v>536870912</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
         <v>53687091200</v>
       </c>
       <c r="D32">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A31</f>
+        <f t="shared" si="3"/>
         <v>53687091200</v>
       </c>
       <c r="E32">
@@ -2115,12 +2115,12 @@
         <v>536870912</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
-        <v>30678337828.57143</v>
+        <f t="shared" si="4"/>
+        <v>26843545600</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>805306368</v>
+        <v>1073741824</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>107374182400</v>
       </c>
       <c r="D33">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A32</f>
+        <f t="shared" si="3"/>
         <v>107374182400</v>
       </c>
       <c r="E33">
@@ -2140,12 +2140,12 @@
         <v>1073741824</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
-        <v>61356675657.14286</v>
+        <f t="shared" si="4"/>
+        <v>53687091200</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>1610612736</v>
+        <v>2147483648</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>214748364800</v>
       </c>
       <c r="D34">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A33</f>
+        <f t="shared" si="3"/>
         <v>214748364800</v>
       </c>
       <c r="E34">
@@ -2165,12 +2165,12 @@
         <v>2147483648</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
-        <v>122713351314.28572</v>
+        <f t="shared" si="4"/>
+        <v>107374182400</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>3221225472</v>
+        <v>4294967296</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2182,20 +2182,20 @@
         <v>429496729600</v>
       </c>
       <c r="D35">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A34</f>
+        <f t="shared" si="3"/>
         <v>429496729600</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:E61" si="4">ROUNDUP(B35/base_damage, 0)</f>
+        <f t="shared" ref="E35:E61" si="5">ROUNDUP(B35/base_damage, 0)</f>
         <v>4294967296</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
-        <v>245426702628.57144</v>
+        <f t="shared" si="4"/>
+        <v>214748364800</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G61" si="5">ROUNDUP(B35/explosion_shot_base, 0)</f>
-        <v>6442450944</v>
+        <f t="shared" ref="G35:G61" si="6">ROUNDUP(B35/explosion_shot_base, 0)</f>
+        <v>8589934592</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,20 +2207,20 @@
         <v>858993459200</v>
       </c>
       <c r="D36">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
+        <f t="shared" ref="D36:D61" si="7" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
         <v>858993459200</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8589934592</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
-        <v>490853405257.14288</v>
+        <f t="shared" si="4"/>
+        <v>429496729600</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
-        <v>12884901888</v>
+        <f t="shared" si="6"/>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2232,20 +2232,20 @@
         <v>1717986918400</v>
       </c>
       <c r="D37">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A36</f>
+        <f t="shared" si="7"/>
         <v>1717986918400</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17179869184</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
-        <v>981706810514.28577</v>
+        <f t="shared" si="4"/>
+        <v>858993459200</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
-        <v>25769803776</v>
+        <f t="shared" si="6"/>
+        <v>34359738368</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2257,20 +2257,20 @@
         <v>3435973836800</v>
       </c>
       <c r="D38">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A37</f>
+        <f t="shared" si="7"/>
         <v>3435973836800</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34359738368</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
-        <v>1963413621028.5715</v>
+        <f t="shared" si="4"/>
+        <v>1717986918400</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
-        <v>51539607552</v>
+        <f t="shared" si="6"/>
+        <v>68719476736</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2282,20 +2282,20 @@
         <v>6871947673600</v>
       </c>
       <c r="D39">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A38</f>
+        <f t="shared" si="7"/>
         <v>6871947673600</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68719476736</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
-        <v>3926827242057.1431</v>
+        <f t="shared" si="4"/>
+        <v>3435973836800</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
-        <v>103079215104</v>
+        <f t="shared" si="6"/>
+        <v>137438953472</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2307,20 +2307,20 @@
         <v>13743895347200</v>
       </c>
       <c r="D40">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A39</f>
+        <f t="shared" si="7"/>
         <v>13743895347200</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137438953472</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
-        <v>7853654484114.2861</v>
+        <f t="shared" si="4"/>
+        <v>6871947673600</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
-        <v>206158430208</v>
+        <f t="shared" si="6"/>
+        <v>274877906944</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2332,20 +2332,20 @@
         <v>27487790694400</v>
       </c>
       <c r="D41">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A40</f>
+        <f t="shared" si="7"/>
         <v>27487790694400</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>274877906944</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
-        <v>15707308968228.572</v>
+        <f t="shared" si="4"/>
+        <v>13743895347200</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
-        <v>412316860416</v>
+        <f t="shared" si="6"/>
+        <v>549755813888</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2357,20 +2357,20 @@
         <v>54975581388800</v>
       </c>
       <c r="D42">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A41</f>
+        <f t="shared" si="7"/>
         <v>54975581388800</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>549755813888</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
-        <v>31414617936457.145</v>
+        <f t="shared" si="4"/>
+        <v>27487790694400</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
-        <v>824633720832</v>
+        <f t="shared" si="6"/>
+        <v>1099511627776</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2382,20 +2382,20 @@
         <v>109951162777600</v>
       </c>
       <c r="D43">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A42</f>
+        <f t="shared" si="7"/>
         <v>109951162777600</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1099511627776</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
-        <v>62829235872914.289</v>
+        <f t="shared" si="4"/>
+        <v>54975581388800</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
-        <v>1649267441664</v>
+        <f t="shared" si="6"/>
+        <v>2199023255552</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2407,20 +2407,20 @@
         <v>219902325555200</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A43</f>
+        <f t="shared" si="7"/>
         <v>219902325555200</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2199023255552</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
-        <v>125658471745828.58</v>
+        <f t="shared" si="4"/>
+        <v>109951162777600</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
-        <v>3298534883328</v>
+        <f t="shared" si="6"/>
+        <v>4398046511104</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,20 +2432,20 @@
         <v>439804651110400</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A44</f>
+        <f t="shared" si="7"/>
         <v>439804651110400</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4398046511104</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
-        <v>251316943491657.16</v>
+        <f t="shared" si="4"/>
+        <v>219902325555200</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
-        <v>6597069766656</v>
+        <f t="shared" si="6"/>
+        <v>8796093022208</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2457,20 +2457,20 @@
         <v>879609302220800</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A45</f>
+        <f t="shared" si="7"/>
         <v>879609302220800</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8796093022208</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
-        <v>502633886983314.31</v>
+        <f t="shared" si="4"/>
+        <v>439804651110400</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
-        <v>13194139533312</v>
+        <f t="shared" si="6"/>
+        <v>17592186044416</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2482,20 +2482,20 @@
         <v>1759218604441600</v>
       </c>
       <c r="D47">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A46</f>
+        <f t="shared" si="7"/>
         <v>1759218604441600</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17592186044416</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
-        <v>1005267773966628.6</v>
+        <f t="shared" si="4"/>
+        <v>879609302220800</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
-        <v>26388279066624</v>
+        <f t="shared" si="6"/>
+        <v>35184372088832</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,20 +2507,20 @@
         <v>3518437208883200</v>
       </c>
       <c r="D48">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A47</f>
+        <f t="shared" si="7"/>
         <v>3518437208883200</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35184372088832</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
-        <v>2010535547933257.3</v>
+        <f t="shared" si="4"/>
+        <v>1759218604441600</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
-        <v>52776558133248</v>
+        <f t="shared" si="6"/>
+        <v>70368744177664</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2532,20 +2532,20 @@
         <v>7036874417766400</v>
       </c>
       <c r="D49">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A48</f>
+        <f t="shared" si="7"/>
         <v>7036874417766400</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70368744177664</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
-        <v>4021071095866514.5</v>
+        <f t="shared" si="4"/>
+        <v>3518437208883200</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
-        <v>105553116266496</v>
+        <f t="shared" si="6"/>
+        <v>140737488355328</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2557,20 +2557,20 @@
         <v>1.40737488355328E+16</v>
       </c>
       <c r="D50">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A49</f>
+        <f t="shared" si="7"/>
         <v>1.40737488355328E+16</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140737488355328</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
-        <v>8042142191733029</v>
+        <f t="shared" si="4"/>
+        <v>7036874417766400</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
-        <v>211106232532992</v>
+        <f t="shared" si="6"/>
+        <v>281474976710656</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2582,20 +2582,20 @@
         <v>2.81474976710656E+16</v>
       </c>
       <c r="D51">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A50</f>
+        <f t="shared" si="7"/>
         <v>2.81474976710656E+16</v>
       </c>
       <c r="E51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>281474976710656</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
-        <v>1.6084284383466058E+16</v>
+        <f t="shared" si="4"/>
+        <v>1.40737488355328E+16</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
-        <v>422212465065984</v>
+        <f t="shared" si="6"/>
+        <v>562949953421312</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2607,20 +2607,20 @@
         <v>5.62949953421312E+16</v>
       </c>
       <c r="D52">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A51</f>
+        <f t="shared" si="7"/>
         <v>5.62949953421312E+16</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>562949953421312</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
-        <v>3.2168568766932116E+16</v>
+        <f t="shared" si="4"/>
+        <v>2.81474976710656E+16</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
-        <v>844424930131968</v>
+        <f t="shared" si="6"/>
+        <v>1125899906842620</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2632,20 +2632,20 @@
         <v>1.125899906842624E+17</v>
       </c>
       <c r="D53">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A52</f>
+        <f t="shared" si="7"/>
         <v>1.125899906842624E+17</v>
       </c>
       <c r="E53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1125899906842620</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
-        <v>6.4337137533864232E+16</v>
+        <f t="shared" si="4"/>
+        <v>5.62949953421312E+16</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
-        <v>1688849860263940</v>
+        <f t="shared" si="6"/>
+        <v>2251799813685250</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2657,20 +2657,20 @@
         <v>2.251799813685248E+17</v>
       </c>
       <c r="D54">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A53</f>
+        <f t="shared" si="7"/>
         <v>2.251799813685248E+17</v>
       </c>
       <c r="E54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2251799813685250</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
-        <v>1.2867427506772846E+17</v>
+        <f t="shared" si="4"/>
+        <v>1.125899906842624E+17</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
-        <v>3377699720527870</v>
+        <f t="shared" si="6"/>
+        <v>4503599627370500</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2682,20 +2682,20 @@
         <v>4.503599627370496E+17</v>
       </c>
       <c r="D55">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A54</f>
+        <f t="shared" si="7"/>
         <v>4.503599627370496E+17</v>
       </c>
       <c r="E55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4503599627370500</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
-        <v>2.5734855013545693E+17</v>
+        <f t="shared" si="4"/>
+        <v>2.251799813685248E+17</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
-        <v>6755399441055740</v>
+        <f t="shared" si="6"/>
+        <v>9007199254740990</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,20 +2707,20 @@
         <v>9.007199254740992E+17</v>
       </c>
       <c r="D56">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A55</f>
+        <f t="shared" si="7"/>
         <v>9.007199254740992E+17</v>
       </c>
       <c r="E56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9007199254740990</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
-        <v>5.1469710027091386E+17</v>
+        <f t="shared" si="4"/>
+        <v>4.503599627370496E+17</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
-        <v>1.35107988821115E+16</v>
+        <f t="shared" si="6"/>
+        <v>1.8014398509482E+16</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2732,20 +2732,20 @@
         <v>1.8014398509481984E+18</v>
       </c>
       <c r="D57">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A56</f>
+        <f t="shared" si="7"/>
         <v>1.8014398509481984E+18</v>
       </c>
       <c r="E57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8014398509482E+16</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
-        <v>1.0293942005418277E+18</v>
+        <f t="shared" si="4"/>
+        <v>9.007199254740992E+17</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
-        <v>2.7021597764223E+16</v>
+        <f t="shared" si="6"/>
+        <v>3.6028797018964E+16</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2757,20 +2757,20 @@
         <v>3.6028797018963968E+18</v>
       </c>
       <c r="D58">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A57</f>
+        <f t="shared" si="7"/>
         <v>3.6028797018963968E+18</v>
       </c>
       <c r="E58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6028797018964E+16</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
-        <v>2.0587884010836554E+18</v>
+        <f t="shared" si="4"/>
+        <v>1.8014398509481984E+18</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
-        <v>5.4043195528446E+16</v>
+        <f t="shared" si="6"/>
+        <v>7.2057594037927904E+16</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,20 +2782,20 @@
         <v>7.2057594037927936E+18</v>
       </c>
       <c r="D59">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A58</f>
+        <f t="shared" si="7"/>
         <v>7.2057594037927936E+18</v>
       </c>
       <c r="E59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2057594037927904E+16</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
-        <v>4.1175768021673108E+18</v>
+        <f t="shared" si="4"/>
+        <v>3.6028797018963968E+18</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
-        <v>1.08086391056892E+17</v>
+        <f t="shared" si="6"/>
+        <v>1.44115188075856E+17</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2807,20 +2807,20 @@
         <v>1.4411518807585587E+19</v>
       </c>
       <c r="D60">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A59</f>
+        <f t="shared" si="7"/>
         <v>1.4411518807585587E+19</v>
       </c>
       <c r="E60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.44115188075856E+17</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
-        <v>8.2351536043346217E+18</v>
+        <f t="shared" si="4"/>
+        <v>7.2057594037927936E+18</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
-        <v>2.16172782113784E+17</v>
+        <f t="shared" si="6"/>
+        <v>2.88230376151712E+17</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2832,20 +2832,20 @@
         <v>2.8823037615171174E+19</v>
       </c>
       <c r="D61">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A60</f>
+        <f t="shared" si="7"/>
         <v>2.8823037615171174E+19</v>
       </c>
       <c r="E61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.88230376151712E+17</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
-        <v>1.6470307208669243E+19</v>
+        <f t="shared" si="4"/>
+        <v>1.4411518807585587E+19</v>
       </c>
       <c r="G61">
-        <f t="shared" si="5"/>
-        <v>4.32345564227568E+17</v>
+        <f t="shared" si="6"/>
+        <v>5.7646075230342298E+17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -5,14 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaumemg1\Documents\GitHub\Tankerfield\docs\Balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Custom\Desktop\Uni repositories\Tankerfield\docs\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="base_damage">Hoja1!$D$3</definedName>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>tesla trooper life</t>
   </si>
@@ -78,12 +81,65 @@
   <si>
     <t>double missile</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">weapon level </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">↓, enemy level → </t>
+    </r>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>In the middle, hits to take down that enemy</t>
+  </si>
+  <si>
+    <t>basic weapon hits</t>
+  </si>
+  <si>
+    <t>double missile hits</t>
+  </si>
+  <si>
+    <t>Weapon level</t>
+  </si>
+  <si>
+    <t>Enemy level</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>tesla trooper life multiplier</t>
+  </si>
+  <si>
+    <t>brute life multiplier</t>
+  </si>
+  <si>
+    <t>Weapon type</t>
+  </si>
+  <si>
+    <t>Enemy type</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Enemy life</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +153,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,12 +187,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -215,7 +280,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -338,7 +403,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2122365711"/>
@@ -397,7 +462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2122368207"/>
@@ -438,7 +503,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1305,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -2852,4 +2917,1303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <v>17</v>
+      </c>
+      <c r="U4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>13</v>
+      </c>
+      <c r="R5">
+        <v>14</v>
+      </c>
+      <c r="S5">
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <v>16</v>
+      </c>
+      <c r="U5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
+      </c>
+      <c r="S6">
+        <v>14</v>
+      </c>
+      <c r="T6">
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <v>13</v>
+      </c>
+      <c r="T7">
+        <v>14</v>
+      </c>
+      <c r="U7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>12</v>
+      </c>
+      <c r="T8">
+        <v>13</v>
+      </c>
+      <c r="U8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>11</v>
+      </c>
+      <c r="T9">
+        <v>12</v>
+      </c>
+      <c r="U9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>9</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>8</v>
+      </c>
+      <c r="U13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3.5</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4.5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5.5</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>6.5</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>7.5</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>8.5</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>9.5</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.75</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.25</v>
+      </c>
+      <c r="G5">
+        <v>1.5</v>
+      </c>
+      <c r="H5">
+        <v>1.75</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2.25</v>
+      </c>
+      <c r="K5">
+        <v>2.5</v>
+      </c>
+      <c r="L5">
+        <v>2.75</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3.25</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>3.75</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>4.25</v>
+      </c>
+      <c r="S5">
+        <v>4.5</v>
+      </c>
+      <c r="T5">
+        <v>4.75</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f>MAX(((H4-H2)+1 )*H3* H5, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <f xml:space="preserve"> H8 /H6</f>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -4119,7 +4119,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,8 +4163,8 @@
         <v>26</v>
       </c>
       <c r="H3" s="3">
-        <f>E2</f>
-        <v>2</v>
+        <f>D2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="H6">
         <f>MAX(((H4-H2)+1 )*H3* H5, 1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H9">
         <f xml:space="preserve"> H8 /H6</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
-  <si>
-    <t>tesla trooper life</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>round</t>
   </si>
@@ -52,9 +49,6 @@
     <t>hits to take down with lvl 1 explosion shot</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
     <t>Weapon</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
   </si>
   <si>
     <t>hits to kill</t>
-  </si>
-  <si>
-    <t>average weapon damage</t>
   </si>
   <si>
     <t>ENEMY LIFE</t>
@@ -134,12 +125,24 @@
   <si>
     <t>Enemy life</t>
   </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Formula: Hits to kill</t>
+  </si>
+  <si>
+    <t>tesla trooper</t>
+  </si>
+  <si>
+    <t>average weapon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +162,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -196,6 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -315,31 +327,31 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>240.25000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>372.38750000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600</c:v>
+                  <c:v>577.20062500000017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3200</c:v>
+                  <c:v>894.66096875000028</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6400</c:v>
+                  <c:v>1386.7245015625006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12800</c:v>
+                  <c:v>2149.4229774218761</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25600</c:v>
+                  <c:v>3331.605615003908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51200</c:v>
+                  <c:v>5163.9887032560582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,71 +1380,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>1.55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="str">
+        <f>D2</f>
+        <v>average weapon</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1456,24 +1473,31 @@
         <f t="shared" ref="G3:G34" si="1">ROUNDUP(B3/explosion_shot_base, 0)</f>
         <v>2</v>
       </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="str">
+        <f>B2</f>
+        <v>tesla trooper</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B61" si="2" xml:space="preserve"> B3 *hits_1_round_behind</f>
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D35" si="3" xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -1481,311 +1505,322 @@
       </c>
       <c r="F4">
         <f>D4/2</f>
-        <v>100</v>
+        <v>77.5</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="str">
+        <f ca="1">OFFSET(O2,1, 0)</f>
+        <v>tesla trooper</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>240.25</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>240.25000000000003</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F61" si="4">D5/2</f>
-        <v>200</v>
+        <v>120.12500000000001</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>372.38749999999999</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>800</v>
+        <v>372.38750000000005</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>186.19375000000002</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>577.20062499999995</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>577.20062500000017</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>800</v>
+        <v>288.60031250000009</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
-        <v>3200</v>
+        <v>894.66096874999994</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>3200</v>
+        <v>894.66096875000028</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>1600</v>
+        <v>447.33048437500014</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
-        <v>6400</v>
+        <v>1386.7245015624999</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>6400</v>
+        <v>1386.7245015625006</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>3200</v>
+        <v>693.36225078125028</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" si="2"/>
-        <v>12800</v>
+        <v>2149.4229774218747</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>12800</v>
+        <v>2149.4229774218761</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>6400</v>
+        <v>1074.7114887109381</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
-        <v>25600</v>
+        <v>3331.6056150039058</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>25600</v>
+        <v>3331.605615003908</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>12800</v>
+        <v>1665.802807501954</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="2"/>
-        <v>51200</v>
+        <v>5163.9887032560537</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>51200</v>
+        <v>5163.9887032560582</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>25600</v>
+        <v>2581.9943516280291</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <f t="shared" si="2"/>
-        <v>102400</v>
+        <v>8004.1824900468837</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>102400</v>
+        <v>8004.1824900468891</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>1024</v>
+        <v>81</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>51200</v>
+        <v>4002.0912450234446</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <f t="shared" si="2"/>
-        <v>204800</v>
+        <v>12406.48285957267</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>204800</v>
+        <v>12406.482859572679</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2048</v>
+        <v>125</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>102400</v>
+        <v>6203.2414297863397</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <f t="shared" si="2"/>
-        <v>409600</v>
+        <v>19230.04843233764</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>409600</v>
+        <v>19230.048432337655</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4096</v>
+        <v>193</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>204800</v>
+        <v>9615.0242161688275</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <f t="shared" si="2"/>
-        <v>819200</v>
+        <v>29806.575070123345</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>819200</v>
+        <v>29806.57507012337</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>8192</v>
+        <v>299</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>409600</v>
+        <v>14903.287535061685</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>16384</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1794,23 +1829,23 @@
       </c>
       <c r="B17">
         <f t="shared" si="2"/>
-        <v>1638400</v>
+        <v>46200.191358691183</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>1638400</v>
+        <v>46200.191358691227</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>16384</v>
+        <v>463</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>819200</v>
+        <v>23100.095679345613</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>32768</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1819,23 +1854,23 @@
       </c>
       <c r="B18">
         <f t="shared" si="2"/>
-        <v>3276800</v>
+        <v>71610.296605971336</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>3276800</v>
+        <v>71610.296605971409</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>32768</v>
+        <v>717</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>1638400</v>
+        <v>35805.148302985705</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>65536</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1844,23 +1879,23 @@
       </c>
       <c r="B19">
         <f t="shared" si="2"/>
-        <v>6553600</v>
+        <v>110995.95973925557</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>6553600</v>
+        <v>110995.95973925568</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>65536</v>
+        <v>1110</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>3276800</v>
+        <v>55497.979869627838</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>131072</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,23 +1904,23 @@
       </c>
       <c r="B20">
         <f t="shared" si="2"/>
-        <v>13107200</v>
+        <v>172043.73759584615</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>13107200</v>
+        <v>172043.73759584629</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>131072</v>
+        <v>1721</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>6553600</v>
+        <v>86021.868797923147</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>262144</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1894,23 +1929,23 @@
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>26214400</v>
+        <v>266667.79327356152</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>26214400</v>
+        <v>266667.79327356181</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>262144</v>
+        <v>2667</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>13107200</v>
+        <v>133333.8966367809</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>524288</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1919,23 +1954,23 @@
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>52428800</v>
+        <v>413335.07957402035</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>52428800</v>
+        <v>413335.07957402081</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>524288</v>
+        <v>4134</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>26214400</v>
+        <v>206667.53978701041</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>1048576</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1944,23 +1979,23 @@
       </c>
       <c r="B23">
         <f t="shared" si="2"/>
-        <v>104857600</v>
+        <v>640669.3733397316</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>104857600</v>
+        <v>640669.37333973229</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1048576</v>
+        <v>6407</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>52428800</v>
+        <v>320334.68666986615</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>2097152</v>
+        <v>12814</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1969,23 +2004,23 @@
       </c>
       <c r="B24">
         <f t="shared" si="2"/>
-        <v>209715200</v>
+        <v>993037.52867658401</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>209715200</v>
+        <v>993037.52867658518</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>2097152</v>
+        <v>9931</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>104857600</v>
+        <v>496518.76433829259</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>4194304</v>
+        <v>19861</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,23 +2029,23 @@
       </c>
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>419430400</v>
+        <v>1539208.1694487052</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>419430400</v>
+        <v>1539208.169448707</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>15393</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>209715200</v>
+        <v>769604.08472435351</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>8388608</v>
+        <v>30785</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2019,23 +2054,23 @@
       </c>
       <c r="B26">
         <f t="shared" si="2"/>
-        <v>838860800</v>
+        <v>2385772.6626454932</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>838860800</v>
+        <v>2385772.662645496</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>8388608</v>
+        <v>23858</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>419430400</v>
+        <v>1192886.331322748</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>16777216</v>
+        <v>47716</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2044,23 +2079,23 @@
       </c>
       <c r="B27">
         <f t="shared" si="2"/>
-        <v>1677721600</v>
+        <v>3697947.6271005147</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>1677721600</v>
+        <v>3697947.6271005194</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>16777216</v>
+        <v>36980</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>838860800</v>
+        <v>1848973.8135502597</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>33554432</v>
+        <v>73959</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2069,23 +2104,23 @@
       </c>
       <c r="B28">
         <f t="shared" si="2"/>
-        <v>3355443200</v>
+        <v>5731818.8220057981</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>3355443200</v>
+        <v>5731818.8220058056</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>33554432</v>
+        <v>57319</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>1677721600</v>
+        <v>2865909.4110029028</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>67108864</v>
+        <v>114637</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2094,23 +2129,23 @@
       </c>
       <c r="B29">
         <f t="shared" si="2"/>
-        <v>6710886400</v>
+        <v>8884319.1741089877</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>6710886400</v>
+        <v>8884319.1741089988</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>67108864</v>
+        <v>88844</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>3355443200</v>
+        <v>4442159.5870544994</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>134217728</v>
+        <v>177687</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2119,23 +2154,23 @@
       </c>
       <c r="B30">
         <f t="shared" si="2"/>
-        <v>13421772800</v>
+        <v>13770694.719868932</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>13421772800</v>
+        <v>13770694.719868949</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>134217728</v>
+        <v>137707</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>6710886400</v>
+        <v>6885347.3599344743</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>268435456</v>
+        <v>275414</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2144,23 +2179,23 @@
       </c>
       <c r="B31">
         <f t="shared" si="2"/>
-        <v>26843545600</v>
+        <v>21344576.815796845</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>26843545600</v>
+        <v>21344576.815796874</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>268435456</v>
+        <v>213446</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>13421772800</v>
+        <v>10672288.407898437</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>536870912</v>
+        <v>426892</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2169,23 +2204,23 @@
       </c>
       <c r="B32">
         <f t="shared" si="2"/>
-        <v>53687091200</v>
+        <v>33084094.06448511</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>53687091200</v>
+        <v>33084094.064485155</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>536870912</v>
+        <v>330841</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>26843545600</v>
+        <v>16542047.032242578</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>1073741824</v>
+        <v>661682</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2194,23 +2229,23 @@
       </c>
       <c r="B33">
         <f t="shared" si="2"/>
-        <v>107374182400</v>
+        <v>51280345.799951926</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>107374182400</v>
+        <v>51280345.799952</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>1073741824</v>
+        <v>512804</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>53687091200</v>
+        <v>25640172.899976</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>2147483648</v>
+        <v>1025607</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2219,23 +2254,23 @@
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>214748364800</v>
+        <v>79484535.989925489</v>
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>214748364800</v>
+        <v>79484535.989925608</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>2147483648</v>
+        <v>794846</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>107374182400</v>
+        <v>39742267.994962804</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>4294967296</v>
+        <v>1589691</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2244,23 +2279,23 @@
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>429496729600</v>
+        <v>123201030.7843845</v>
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>429496729600</v>
+        <v>123201030.78438467</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:E61" si="5">ROUNDUP(B35/base_damage, 0)</f>
-        <v>4294967296</v>
+        <v>1232011</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>214748364800</v>
+        <v>61600515.392192334</v>
       </c>
       <c r="G35">
         <f t="shared" ref="G35:G61" si="6">ROUNDUP(B35/explosion_shot_base, 0)</f>
-        <v>8589934592</v>
+        <v>2464021</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2269,23 +2304,23 @@
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>858993459200</v>
+        <v>190961597.71579599</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:D61" si="7" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
-        <v>858993459200</v>
+        <v>190961597.71579626</v>
       </c>
       <c r="E36">
         <f t="shared" si="5"/>
-        <v>8589934592</v>
+        <v>1909616</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>429496729600</v>
+        <v>95480798.857898131</v>
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>17179869184</v>
+        <v>3819232</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,23 +2329,23 @@
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>1717986918400</v>
+        <v>295990476.4594838</v>
       </c>
       <c r="D37">
         <f t="shared" si="7"/>
-        <v>1717986918400</v>
+        <v>295990476.45948422</v>
       </c>
       <c r="E37">
         <f t="shared" si="5"/>
-        <v>17179869184</v>
+        <v>2959905</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>858993459200</v>
+        <v>147995238.22974211</v>
       </c>
       <c r="G37">
         <f t="shared" si="6"/>
-        <v>34359738368</v>
+        <v>5919810</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2319,23 +2354,23 @@
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>3435973836800</v>
+        <v>458785238.51219988</v>
       </c>
       <c r="D38">
         <f t="shared" si="7"/>
-        <v>3435973836800</v>
+        <v>458785238.51220059</v>
       </c>
       <c r="E38">
         <f t="shared" si="5"/>
-        <v>34359738368</v>
+        <v>4587853</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>1717986918400</v>
+        <v>229392619.2561003</v>
       </c>
       <c r="G38">
         <f t="shared" si="6"/>
-        <v>68719476736</v>
+        <v>9175705</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2344,23 +2379,23 @@
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>6871947673600</v>
+        <v>711117119.69390988</v>
       </c>
       <c r="D39">
         <f t="shared" si="7"/>
-        <v>6871947673600</v>
+        <v>711117119.69391084</v>
       </c>
       <c r="E39">
         <f t="shared" si="5"/>
-        <v>68719476736</v>
+        <v>7111172</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>3435973836800</v>
+        <v>355558559.84695542</v>
       </c>
       <c r="G39">
         <f t="shared" si="6"/>
-        <v>137438953472</v>
+        <v>14222343</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,23 +2404,23 @@
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>13743895347200</v>
+        <v>1102231535.5255604</v>
       </c>
       <c r="D40">
         <f t="shared" si="7"/>
-        <v>13743895347200</v>
+        <v>1102231535.5255618</v>
       </c>
       <c r="E40">
         <f t="shared" si="5"/>
-        <v>137438953472</v>
+        <v>11022316</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>6871947673600</v>
+        <v>551115767.7627809</v>
       </c>
       <c r="G40">
         <f t="shared" si="6"/>
-        <v>274877906944</v>
+        <v>22044631</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2394,23 +2429,23 @@
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>27487790694400</v>
+        <v>1708458880.0646186</v>
       </c>
       <c r="D41">
         <f t="shared" si="7"/>
-        <v>27487790694400</v>
+        <v>1708458880.0646212</v>
       </c>
       <c r="E41">
         <f t="shared" si="5"/>
-        <v>274877906944</v>
+        <v>17084589</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>13743895347200</v>
+        <v>854229440.03231061</v>
       </c>
       <c r="G41">
         <f t="shared" si="6"/>
-        <v>549755813888</v>
+        <v>34169178</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2419,23 +2454,23 @@
       </c>
       <c r="B42">
         <f t="shared" si="2"/>
-        <v>54975581388800</v>
+        <v>2648111264.1001587</v>
       </c>
       <c r="D42">
         <f t="shared" si="7"/>
-        <v>54975581388800</v>
+        <v>2648111264.100163</v>
       </c>
       <c r="E42">
         <f t="shared" si="5"/>
-        <v>549755813888</v>
+        <v>26481113</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>27487790694400</v>
+        <v>1324055632.0500815</v>
       </c>
       <c r="G42">
         <f t="shared" si="6"/>
-        <v>1099511627776</v>
+        <v>52962226</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2444,23 +2479,23 @@
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>109951162777600</v>
+        <v>4104572459.3552461</v>
       </c>
       <c r="D43">
         <f t="shared" si="7"/>
-        <v>109951162777600</v>
+        <v>4104572459.3552532</v>
       </c>
       <c r="E43">
         <f t="shared" si="5"/>
-        <v>1099511627776</v>
+        <v>41045725</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>54975581388800</v>
+        <v>2052286229.6776266</v>
       </c>
       <c r="G43">
         <f t="shared" si="6"/>
-        <v>2199023255552</v>
+        <v>82091450</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2469,23 +2504,23 @@
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>219902325555200</v>
+        <v>6362087312.0006313</v>
       </c>
       <c r="D44">
         <f t="shared" si="7"/>
-        <v>219902325555200</v>
+        <v>6362087312.0006428</v>
       </c>
       <c r="E44">
         <f t="shared" si="5"/>
-        <v>2199023255552</v>
+        <v>63620874</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>109951162777600</v>
+        <v>3181043656.0003214</v>
       </c>
       <c r="G44">
         <f t="shared" si="6"/>
-        <v>4398046511104</v>
+        <v>127241747</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2494,23 +2529,23 @@
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>439804651110400</v>
+        <v>9861235333.6009789</v>
       </c>
       <c r="D45">
         <f t="shared" si="7"/>
-        <v>439804651110400</v>
+        <v>9861235333.600996</v>
       </c>
       <c r="E45">
         <f t="shared" si="5"/>
-        <v>4398046511104</v>
+        <v>98612354</v>
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>219902325555200</v>
+        <v>4930617666.800498</v>
       </c>
       <c r="G45">
         <f t="shared" si="6"/>
-        <v>8796093022208</v>
+        <v>197224707</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2519,23 +2554,23 @@
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
-        <v>879609302220800</v>
+        <v>15284914767.081518</v>
       </c>
       <c r="D46">
         <f t="shared" si="7"/>
-        <v>879609302220800</v>
+        <v>15284914767.081543</v>
       </c>
       <c r="E46">
         <f t="shared" si="5"/>
-        <v>8796093022208</v>
+        <v>152849148</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>439804651110400</v>
+        <v>7642457383.5407715</v>
       </c>
       <c r="G46">
         <f t="shared" si="6"/>
-        <v>17592186044416</v>
+        <v>305698296</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2544,23 +2579,23 @@
       </c>
       <c r="B47">
         <f t="shared" si="2"/>
-        <v>1759218604441600</v>
+        <v>23691617888.976353</v>
       </c>
       <c r="D47">
         <f t="shared" si="7"/>
-        <v>1759218604441600</v>
+        <v>23691617888.976398</v>
       </c>
       <c r="E47">
         <f t="shared" si="5"/>
-        <v>17592186044416</v>
+        <v>236916179</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>879609302220800</v>
+        <v>11845808944.488199</v>
       </c>
       <c r="G47">
         <f t="shared" si="6"/>
-        <v>35184372088832</v>
+        <v>473832358</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2569,23 +2604,23 @@
       </c>
       <c r="B48">
         <f t="shared" si="2"/>
-        <v>3518437208883200</v>
+        <v>36722007727.913345</v>
       </c>
       <c r="D48">
         <f t="shared" si="7"/>
-        <v>3518437208883200</v>
+        <v>36722007727.913422</v>
       </c>
       <c r="E48">
         <f t="shared" si="5"/>
-        <v>35184372088832</v>
+        <v>367220078</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>1759218604441600</v>
+        <v>18361003863.956711</v>
       </c>
       <c r="G48">
         <f t="shared" si="6"/>
-        <v>70368744177664</v>
+        <v>734440155</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2594,23 +2629,23 @@
       </c>
       <c r="B49">
         <f t="shared" si="2"/>
-        <v>7036874417766400</v>
+        <v>56919111978.265686</v>
       </c>
       <c r="D49">
         <f t="shared" si="7"/>
-        <v>7036874417766400</v>
+        <v>56919111978.265808</v>
       </c>
       <c r="E49">
         <f t="shared" si="5"/>
-        <v>70368744177664</v>
+        <v>569191120</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>3518437208883200</v>
+        <v>28459555989.132904</v>
       </c>
       <c r="G49">
         <f t="shared" si="6"/>
-        <v>140737488355328</v>
+        <v>1138382240</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2619,23 +2654,23 @@
       </c>
       <c r="B50">
         <f t="shared" si="2"/>
-        <v>1.40737488355328E+16</v>
+        <v>88224623566.311813</v>
       </c>
       <c r="D50">
         <f t="shared" si="7"/>
-        <v>1.40737488355328E+16</v>
+        <v>88224623566.311996</v>
       </c>
       <c r="E50">
         <f t="shared" si="5"/>
-        <v>140737488355328</v>
+        <v>882246236</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>7036874417766400</v>
+        <v>44112311783.155998</v>
       </c>
       <c r="G50">
         <f t="shared" si="6"/>
-        <v>281474976710656</v>
+        <v>1764492472</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,23 +2679,23 @@
       </c>
       <c r="B51">
         <f t="shared" si="2"/>
-        <v>2.81474976710656E+16</v>
+        <v>136748166527.78331</v>
       </c>
       <c r="D51">
         <f t="shared" si="7"/>
-        <v>2.81474976710656E+16</v>
+        <v>136748166527.78362</v>
       </c>
       <c r="E51">
         <f t="shared" si="5"/>
-        <v>281474976710656</v>
+        <v>1367481666</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>1.40737488355328E+16</v>
+        <v>68374083263.891808</v>
       </c>
       <c r="G51">
         <f t="shared" si="6"/>
-        <v>562949953421312</v>
+        <v>2734963331</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2669,23 +2704,23 @@
       </c>
       <c r="B52">
         <f t="shared" si="2"/>
-        <v>5.62949953421312E+16</v>
+        <v>211959658118.06415</v>
       </c>
       <c r="D52">
         <f t="shared" si="7"/>
-        <v>5.62949953421312E+16</v>
+        <v>211959658118.06461</v>
       </c>
       <c r="E52">
         <f t="shared" si="5"/>
-        <v>562949953421312</v>
+        <v>2119596582</v>
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>2.81474976710656E+16</v>
+        <v>105979829059.0323</v>
       </c>
       <c r="G52">
         <f t="shared" si="6"/>
-        <v>1125899906842620</v>
+        <v>4239193163</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2694,23 +2729,23 @@
       </c>
       <c r="B53">
         <f t="shared" si="2"/>
-        <v>1.125899906842624E+17</v>
+        <v>328537470082.99945</v>
       </c>
       <c r="D53">
         <f t="shared" si="7"/>
-        <v>1.125899906842624E+17</v>
+        <v>328537470083.00012</v>
       </c>
       <c r="E53">
         <f t="shared" si="5"/>
-        <v>1125899906842620</v>
+        <v>3285374701</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
-        <v>5.62949953421312E+16</v>
+        <v>164268735041.50006</v>
       </c>
       <c r="G53">
         <f t="shared" si="6"/>
-        <v>2251799813685250</v>
+        <v>6570749402</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2719,23 +2754,23 @@
       </c>
       <c r="B54">
         <f t="shared" si="2"/>
-        <v>2.251799813685248E+17</v>
+        <v>509233078628.64917</v>
       </c>
       <c r="D54">
         <f t="shared" si="7"/>
-        <v>2.251799813685248E+17</v>
+        <v>509233078628.65027</v>
       </c>
       <c r="E54">
         <f t="shared" si="5"/>
-        <v>2251799813685250</v>
+        <v>5092330787</v>
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>1.125899906842624E+17</v>
+        <v>254616539314.32513</v>
       </c>
       <c r="G54">
         <f t="shared" si="6"/>
-        <v>4503599627370500</v>
+        <v>10184661573</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2744,23 +2779,23 @@
       </c>
       <c r="B55">
         <f t="shared" si="2"/>
-        <v>4.503599627370496E+17</v>
+        <v>789311271874.40625</v>
       </c>
       <c r="D55">
         <f t="shared" si="7"/>
-        <v>4.503599627370496E+17</v>
+        <v>789311271874.40796</v>
       </c>
       <c r="E55">
         <f t="shared" si="5"/>
-        <v>4503599627370500</v>
+        <v>7893112719</v>
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>2.251799813685248E+17</v>
+        <v>394655635937.20398</v>
       </c>
       <c r="G55">
         <f t="shared" si="6"/>
-        <v>9007199254740990</v>
+        <v>15786225438</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2769,23 +2804,23 @@
       </c>
       <c r="B56">
         <f t="shared" si="2"/>
-        <v>9.007199254740992E+17</v>
+        <v>1223432471405.3298</v>
       </c>
       <c r="D56">
         <f t="shared" si="7"/>
-        <v>9.007199254740992E+17</v>
+        <v>1223432471405.3323</v>
       </c>
       <c r="E56">
         <f t="shared" si="5"/>
-        <v>9007199254740990</v>
+        <v>12234324715</v>
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
-        <v>4.503599627370496E+17</v>
+        <v>611716235702.66614</v>
       </c>
       <c r="G56">
         <f t="shared" si="6"/>
-        <v>1.8014398509482E+16</v>
+        <v>24468649429</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,23 +2829,23 @@
       </c>
       <c r="B57">
         <f t="shared" si="2"/>
-        <v>1.8014398509481984E+18</v>
+        <v>1896320330678.2612</v>
       </c>
       <c r="D57">
         <f t="shared" si="7"/>
-        <v>1.8014398509481984E+18</v>
+        <v>1896320330678.2654</v>
       </c>
       <c r="E57">
         <f t="shared" si="5"/>
-        <v>1.8014398509482E+16</v>
+        <v>18963203307</v>
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
-        <v>9.007199254740992E+17</v>
+        <v>948160165339.13269</v>
       </c>
       <c r="G57">
         <f t="shared" si="6"/>
-        <v>3.6028797018964E+16</v>
+        <v>37926406614</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2819,23 +2854,23 @@
       </c>
       <c r="B58">
         <f t="shared" si="2"/>
-        <v>3.6028797018963968E+18</v>
+        <v>2939296512551.3052</v>
       </c>
       <c r="D58">
         <f t="shared" si="7"/>
-        <v>3.6028797018963968E+18</v>
+        <v>2939296512551.3115</v>
       </c>
       <c r="E58">
         <f t="shared" si="5"/>
-        <v>3.6028797018964E+16</v>
+        <v>29392965126</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>1.8014398509481984E+18</v>
+        <v>1469648256275.6558</v>
       </c>
       <c r="G58">
         <f t="shared" si="6"/>
-        <v>7.2057594037927904E+16</v>
+        <v>58785930252</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2844,23 +2879,23 @@
       </c>
       <c r="B59">
         <f t="shared" si="2"/>
-        <v>7.2057594037927936E+18</v>
+        <v>4555909594454.5234</v>
       </c>
       <c r="D59">
         <f t="shared" si="7"/>
-        <v>7.2057594037927936E+18</v>
+        <v>4555909594454.5332</v>
       </c>
       <c r="E59">
         <f t="shared" si="5"/>
-        <v>7.2057594037927904E+16</v>
+        <v>45559095945</v>
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>3.6028797018963968E+18</v>
+        <v>2277954797227.2666</v>
       </c>
       <c r="G59">
         <f t="shared" si="6"/>
-        <v>1.44115188075856E+17</v>
+        <v>91118191890</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,23 +2904,23 @@
       </c>
       <c r="B60">
         <f t="shared" si="2"/>
-        <v>1.4411518807585587E+19</v>
+        <v>7061659871404.5117</v>
       </c>
       <c r="D60">
         <f t="shared" si="7"/>
-        <v>1.4411518807585587E+19</v>
+        <v>7061659871404.5273</v>
       </c>
       <c r="E60">
         <f t="shared" si="5"/>
-        <v>1.44115188075856E+17</v>
+        <v>70616598715</v>
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>7.2057594037927936E+18</v>
+        <v>3530829935702.2637</v>
       </c>
       <c r="G60">
         <f t="shared" si="6"/>
-        <v>2.88230376151712E+17</v>
+        <v>141233197429</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2894,28 +2929,29 @@
       </c>
       <c r="B61">
         <f t="shared" si="2"/>
-        <v>2.8823037615171174E+19</v>
+        <v>10945572800676.994</v>
       </c>
       <c r="D61">
         <f t="shared" si="7"/>
-        <v>2.8823037615171174E+19</v>
+        <v>10945572800677.02</v>
       </c>
       <c r="E61">
         <f t="shared" si="5"/>
-        <v>2.88230376151712E+17</v>
+        <v>109455728007</v>
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>1.4411518807585587E+19</v>
+        <v>5472786400338.5098</v>
       </c>
       <c r="G61">
         <f t="shared" si="6"/>
-        <v>5.7646075230342298E+17</v>
+        <v>218911456014</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2931,7 +2967,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -3726,12 +3762,12 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +3788,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4100,12 +4136,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4118,7 +4154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4126,16 +4162,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4152,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4160,7 +4196,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3">
         <f>D2</f>
@@ -4169,7 +4205,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4177,7 +4213,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <f>A2</f>
@@ -4186,19 +4222,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <f>MAX(((H4-H2)+1 )*H3* H5, 1)</f>
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4206,7 +4242,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <f xml:space="preserve"> H8 /H6</f>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -18,9 +18,10 @@
     <sheet name="Hoja5" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="base_damage">Hoja1!$D$3</definedName>
-    <definedName name="explosion_shot_base">Hoja1!$F$3</definedName>
-    <definedName name="hits_1_round_behind">Hoja1!$L$1</definedName>
+    <definedName name="base_damage">Hoja1!$E$3</definedName>
+    <definedName name="brute_life_multiplier">Hoja1!$M$2</definedName>
+    <definedName name="explosion_shot_base">Hoja1!$G$3</definedName>
+    <definedName name="hits_1_round_behind">Hoja1!$M$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>round</t>
   </si>
@@ -136,6 +137,9 @@
   </si>
   <si>
     <t>average weapon</t>
+  </si>
+  <si>
+    <t>brute</t>
   </si>
 </sst>
 </file>
@@ -319,7 +323,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$12</c:f>
+              <c:f>Hoja1!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1086,13 +1090,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1380,76 +1384,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>1.55</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" t="str">
-        <f>D2</f>
+      <c r="P2" t="str">
+        <f>E2</f>
         <v>average weapon</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1457,1494 +1471,1730 @@
         <f xml:space="preserve"> base_damage</f>
         <v>100</v>
       </c>
-      <c r="D3">
+      <c r="C3">
+        <f xml:space="preserve"> $B$3*brute_life_multiplier</f>
+        <v>1500</v>
+      </c>
+      <c r="E3">
         <f xml:space="preserve"> 100</f>
         <v>100</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E34" si="0">ROUNDUP(B3/base_damage, 0)</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F34" si="0">ROUNDUP(B3/base_damage, 0)</f>
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f>base_damage/2</f>
         <v>50</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G34" si="1">ROUNDUP(B3/explosion_shot_base, 0)</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="1">ROUNDUP(B3/explosion_shot_base, 0)</f>
         <v>2</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>B2</f>
         <v>tesla trooper</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B61" si="2" xml:space="preserve"> B3 *hits_1_round_behind</f>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A3</f>
         <v>155</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D35" si="3" xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
+      <c r="C4">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A3*brute_life_multiplier</f>
+        <v>2325</v>
+      </c>
+      <c r="E4">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
         <v>155</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F4">
-        <f>D4/2</f>
+      <c r="G4">
+        <f>E4/2</f>
         <v>77.5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="str">
-        <f ca="1">OFFSET(O2,1, 0)</f>
+      <c r="P4" t="str">
+        <f ca="1">OFFSET(P2,1, 0)</f>
         <v>tesla trooper</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="2"/>
-        <v>240.25</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A4</f>
         <v>240.25000000000003</v>
       </c>
+      <c r="C5">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A4*brute_life_multiplier</f>
+        <v>3603.7500000000005</v>
+      </c>
       <c r="E5">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A4</f>
+        <v>240.25000000000003</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F61" si="4">D5/2</f>
+      <c r="G5">
+        <f t="shared" ref="G5:G61" si="2">E5/2</f>
         <v>120.12500000000001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="2"/>
-        <v>372.38749999999999</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A5</f>
         <v>372.38750000000005</v>
       </c>
+      <c r="C6">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A5*brute_life_multiplier</f>
+        <v>5585.8125000000009</v>
+      </c>
       <c r="E6">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A5</f>
+        <v>372.38750000000005</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="4"/>
+      <c r="G6">
+        <f t="shared" si="2"/>
         <v>186.19375000000002</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="2"/>
-        <v>577.20062499999995</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A6</f>
         <v>577.20062500000017</v>
       </c>
+      <c r="C7">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A6*brute_life_multiplier</f>
+        <v>8658.0093750000033</v>
+      </c>
       <c r="E7">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A6</f>
+        <v>577.20062500000017</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="4"/>
+      <c r="G7">
+        <f t="shared" si="2"/>
         <v>288.60031250000009</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="2"/>
-        <v>894.66096874999994</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A7</f>
         <v>894.66096875000028</v>
       </c>
+      <c r="C8">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A7*brute_life_multiplier</f>
+        <v>13419.914531250004</v>
+      </c>
       <c r="E8">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A7</f>
+        <v>894.66096875000028</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="4"/>
+      <c r="G8">
+        <f t="shared" si="2"/>
         <v>447.33048437500014</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="2"/>
-        <v>1386.7245015624999</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A8</f>
         <v>1386.7245015625006</v>
       </c>
+      <c r="C9">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A8*brute_life_multiplier</f>
+        <v>20800.867523437508</v>
+      </c>
       <c r="E9">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A8</f>
+        <v>1386.7245015625006</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
+      <c r="G9">
+        <f t="shared" si="2"/>
         <v>693.36225078125028</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
-        <v>2149.4229774218747</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A9</f>
         <v>2149.4229774218761</v>
       </c>
+      <c r="C10">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A9*brute_life_multiplier</f>
+        <v>32241.344661328141</v>
+      </c>
       <c r="E10">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A9</f>
+        <v>2149.4229774218761</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="4"/>
+      <c r="G10">
+        <f t="shared" si="2"/>
         <v>1074.7114887109381</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="2"/>
-        <v>3331.6056150039058</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A10</f>
         <v>3331.605615003908</v>
       </c>
+      <c r="C11">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A10*brute_life_multiplier</f>
+        <v>49974.084225058621</v>
+      </c>
       <c r="E11">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A10</f>
+        <v>3331.605615003908</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
+      <c r="G11">
+        <f t="shared" si="2"/>
         <v>1665.802807501954</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="2"/>
-        <v>5163.9887032560537</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A11</f>
         <v>5163.9887032560582</v>
       </c>
+      <c r="C12">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A11*brute_life_multiplier</f>
+        <v>77459.830548840866</v>
+      </c>
       <c r="E12">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A11</f>
+        <v>5163.9887032560582</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
+      <c r="G12">
+        <f t="shared" si="2"/>
         <v>2581.9943516280291</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="2"/>
-        <v>8004.1824900468837</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A12</f>
         <v>8004.1824900468891</v>
       </c>
+      <c r="C13">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A12*brute_life_multiplier</f>
+        <v>120062.73735070333</v>
+      </c>
       <c r="E13">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A12</f>
+        <v>8004.1824900468891</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="4"/>
+      <c r="G13">
+        <f t="shared" si="2"/>
         <v>4002.0912450234446</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="2"/>
-        <v>12406.48285957267</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A13</f>
         <v>12406.482859572679</v>
       </c>
+      <c r="C14">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A13*brute_life_multiplier</f>
+        <v>186097.24289359018</v>
+      </c>
       <c r="E14">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A13</f>
+        <v>12406.482859572679</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="4"/>
+      <c r="G14">
+        <f t="shared" si="2"/>
         <v>6203.2414297863397</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
-        <v>19230.04843233764</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A14</f>
         <v>19230.048432337655</v>
       </c>
+      <c r="C15">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A14*brute_life_multiplier</f>
+        <v>288450.72648506484</v>
+      </c>
       <c r="E15">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A14</f>
+        <v>19230.048432337655</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="4"/>
+      <c r="G15">
+        <f t="shared" si="2"/>
         <v>9615.0242161688275</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
-        <v>29806.575070123345</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A15</f>
         <v>29806.57507012337</v>
       </c>
+      <c r="C16">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A15*brute_life_multiplier</f>
+        <v>447098.62605185056</v>
+      </c>
       <c r="E16">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A15</f>
+        <v>29806.57507012337</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="4"/>
+      <c r="G16">
+        <f t="shared" si="2"/>
         <v>14903.287535061685</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
-        <v>46200.191358691183</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A16</f>
         <v>46200.191358691227</v>
       </c>
+      <c r="C17">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A16*brute_life_multiplier</f>
+        <v>693002.87038036843</v>
+      </c>
       <c r="E17">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A16</f>
+        <v>46200.191358691227</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="4"/>
+      <c r="G17">
+        <f t="shared" si="2"/>
         <v>23100.095679345613</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
-        <v>71610.296605971336</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A17</f>
         <v>71610.296605971409</v>
       </c>
+      <c r="C18">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A17*brute_life_multiplier</f>
+        <v>1074154.4490895711</v>
+      </c>
       <c r="E18">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A17</f>
+        <v>71610.296605971409</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>717</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
+      <c r="G18">
+        <f t="shared" si="2"/>
         <v>35805.148302985705</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>1433</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
-        <v>110995.95973925557</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A18</f>
         <v>110995.95973925568</v>
       </c>
+      <c r="C19">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A18*brute_life_multiplier</f>
+        <v>1664939.3960888351</v>
+      </c>
       <c r="E19">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A18</f>
+        <v>110995.95973925568</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
+      <c r="G19">
+        <f t="shared" si="2"/>
         <v>55497.979869627838</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>2220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
-        <v>172043.73759584615</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A19</f>
         <v>172043.73759584629</v>
       </c>
+      <c r="C20">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A19*brute_life_multiplier</f>
+        <v>2580656.0639376943</v>
+      </c>
       <c r="E20">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A19</f>
+        <v>172043.73759584629</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>1721</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="4"/>
+      <c r="G20">
+        <f t="shared" si="2"/>
         <v>86021.868797923147</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>3441</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" si="2"/>
-        <v>266667.79327356152</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A20</f>
         <v>266667.79327356181</v>
       </c>
+      <c r="C21">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A20*brute_life_multiplier</f>
+        <v>4000016.8991034273</v>
+      </c>
       <c r="E21">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A20</f>
+        <v>266667.79327356181</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>2667</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="4"/>
+      <c r="G21">
+        <f t="shared" si="2"/>
         <v>133333.8966367809</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>5334</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="2"/>
-        <v>413335.07957402035</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A21</f>
         <v>413335.07957402081</v>
       </c>
+      <c r="C22">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A21*brute_life_multiplier</f>
+        <v>6200026.1936103124</v>
+      </c>
       <c r="E22">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A21</f>
+        <v>413335.07957402081</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>4134</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="4"/>
+      <c r="G22">
+        <f t="shared" si="2"/>
         <v>206667.53978701041</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>8267</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
-        <v>640669.3733397316</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A22</f>
         <v>640669.37333973229</v>
       </c>
+      <c r="C23">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A22*brute_life_multiplier</f>
+        <v>9610040.6000959836</v>
+      </c>
       <c r="E23">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A22</f>
+        <v>640669.37333973229</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>6407</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="4"/>
+      <c r="G23">
+        <f t="shared" si="2"/>
         <v>320334.68666986615</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>12814</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
-        <v>993037.52867658401</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A23</f>
         <v>993037.52867658518</v>
       </c>
+      <c r="C24">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A23*brute_life_multiplier</f>
+        <v>14895562.930148778</v>
+      </c>
       <c r="E24">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A23</f>
+        <v>993037.52867658518</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>9931</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="4"/>
+      <c r="G24">
+        <f t="shared" si="2"/>
         <v>496518.76433829259</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>19861</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
-        <v>1539208.1694487052</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A24</f>
         <v>1539208.169448707</v>
       </c>
+      <c r="C25">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A24*brute_life_multiplier</f>
+        <v>23088122.541730605</v>
+      </c>
       <c r="E25">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A24</f>
+        <v>1539208.169448707</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>15393</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="4"/>
+      <c r="G25">
+        <f t="shared" si="2"/>
         <v>769604.08472435351</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>30785</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
-        <v>2385772.6626454932</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A25</f>
         <v>2385772.662645496</v>
       </c>
+      <c r="C26">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A25*brute_life_multiplier</f>
+        <v>35786589.939682439</v>
+      </c>
       <c r="E26">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A25</f>
+        <v>2385772.662645496</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>23858</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="4"/>
+      <c r="G26">
+        <f t="shared" si="2"/>
         <v>1192886.331322748</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>47716</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
-        <v>3697947.6271005147</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A26</f>
         <v>3697947.6271005194</v>
       </c>
+      <c r="C27">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A26*brute_life_multiplier</f>
+        <v>55469214.40650779</v>
+      </c>
       <c r="E27">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A26</f>
+        <v>3697947.6271005194</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>36980</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="4"/>
+      <c r="G27">
+        <f t="shared" si="2"/>
         <v>1848973.8135502597</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>73959</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
-        <v>5731818.8220057981</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A27</f>
         <v>5731818.8220058056</v>
       </c>
+      <c r="C28">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A27*brute_life_multiplier</f>
+        <v>85977282.330087081</v>
+      </c>
       <c r="E28">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A27</f>
+        <v>5731818.8220058056</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>57319</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="4"/>
+      <c r="G28">
+        <f t="shared" si="2"/>
         <v>2865909.4110029028</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>114637</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
-        <v>8884319.1741089877</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A28</f>
         <v>8884319.1741089988</v>
       </c>
+      <c r="C29">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A28*brute_life_multiplier</f>
+        <v>133264787.61163498</v>
+      </c>
       <c r="E29">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A28</f>
+        <v>8884319.1741089988</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>88844</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="4"/>
+      <c r="G29">
+        <f t="shared" si="2"/>
         <v>4442159.5870544994</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>177687</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
-        <v>13770694.719868932</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A29</f>
         <v>13770694.719868949</v>
       </c>
+      <c r="C30">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A29*brute_life_multiplier</f>
+        <v>206560420.79803422</v>
+      </c>
       <c r="E30">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A29</f>
+        <v>13770694.719868949</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>137707</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="4"/>
+      <c r="G30">
+        <f t="shared" si="2"/>
         <v>6885347.3599344743</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>275414</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
-        <v>21344576.815796845</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A30</f>
         <v>21344576.815796874</v>
       </c>
+      <c r="C31">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A30*brute_life_multiplier</f>
+        <v>320168652.23695314</v>
+      </c>
       <c r="E31">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A30</f>
+        <v>21344576.815796874</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>213446</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="4"/>
+      <c r="G31">
+        <f t="shared" si="2"/>
         <v>10672288.407898437</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>426892</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
-        <v>33084094.06448511</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A31</f>
         <v>33084094.064485155</v>
       </c>
+      <c r="C32">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A31*brute_life_multiplier</f>
+        <v>496261410.96727735</v>
+      </c>
       <c r="E32">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A31</f>
+        <v>33084094.064485155</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>330841</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="4"/>
+      <c r="G32">
+        <f t="shared" si="2"/>
         <v>16542047.032242578</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>661682</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
-        <v>51280345.799951926</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A32</f>
         <v>51280345.799952</v>
       </c>
+      <c r="C33">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A32*brute_life_multiplier</f>
+        <v>769205186.99927998</v>
+      </c>
       <c r="E33">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A32</f>
+        <v>51280345.799952</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="0"/>
         <v>512804</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="4"/>
+      <c r="G33">
+        <f t="shared" si="2"/>
         <v>25640172.899976</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>1025607</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
-        <v>79484535.989925489</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A33</f>
         <v>79484535.989925608</v>
       </c>
+      <c r="C34">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A33*brute_life_multiplier</f>
+        <v>1192268039.8488841</v>
+      </c>
       <c r="E34">
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A33</f>
+        <v>79484535.989925608</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>794846</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="4"/>
+      <c r="G34">
+        <f t="shared" si="2"/>
         <v>39742267.994962804</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>1589691</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
-        <v>123201030.7843845</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A34</f>
         <v>123201030.78438467</v>
       </c>
+      <c r="C35">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A34*brute_life_multiplier</f>
+        <v>1848015461.76577</v>
+      </c>
       <c r="E35">
-        <f t="shared" ref="E35:E61" si="5">ROUNDUP(B35/base_damage, 0)</f>
+        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A34</f>
+        <v>123201030.78438467</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F61" si="3">ROUNDUP(B35/base_damage, 0)</f>
         <v>1232011</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="4"/>
+      <c r="G35">
+        <f t="shared" si="2"/>
         <v>61600515.392192334</v>
       </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G61" si="6">ROUNDUP(B35/explosion_shot_base, 0)</f>
+      <c r="H35">
+        <f t="shared" ref="H35:H61" si="4">ROUNDUP(B35/explosion_shot_base, 0)</f>
         <v>2464021</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
-        <v>190961597.71579599</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ref="D36:D61" si="7" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A35</f>
         <v>190961597.71579626</v>
       </c>
+      <c r="C36">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A35*brute_life_multiplier</f>
+        <v>2864423965.7369437</v>
+      </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E36:E61" si="5" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
+        <v>190961597.71579626</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
         <v>1909616</v>
       </c>
-      <c r="F36">
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>95480798.857898131</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="4"/>
-        <v>95480798.857898131</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="6"/>
         <v>3819232</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
-        <v>295990476.4594838</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A36</f>
         <v>295990476.45948422</v>
+      </c>
+      <c r="C37">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A36*brute_life_multiplier</f>
+        <v>4439857146.8922634</v>
       </c>
       <c r="E37">
         <f t="shared" si="5"/>
+        <v>295990476.45948422</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
         <v>2959905</v>
       </c>
-      <c r="F37">
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>147995238.22974211</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="4"/>
-        <v>147995238.22974211</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="6"/>
         <v>5919810</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
-        <v>458785238.51219988</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A37</f>
         <v>458785238.51220059</v>
+      </c>
+      <c r="C38">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A37*brute_life_multiplier</f>
+        <v>6881778577.6830091</v>
       </c>
       <c r="E38">
         <f t="shared" si="5"/>
+        <v>458785238.51220059</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
         <v>4587853</v>
       </c>
-      <c r="F38">
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>229392619.2561003</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="4"/>
-        <v>229392619.2561003</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="6"/>
         <v>9175705</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <f t="shared" si="2"/>
-        <v>711117119.69390988</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A38</f>
         <v>711117119.69391084</v>
+      </c>
+      <c r="C39">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A38*brute_life_multiplier</f>
+        <v>10666756795.408663</v>
       </c>
       <c r="E39">
         <f t="shared" si="5"/>
+        <v>711117119.69391084</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
         <v>7111172</v>
       </c>
-      <c r="F39">
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>355558559.84695542</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="4"/>
-        <v>355558559.84695542</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="6"/>
         <v>14222343</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <f t="shared" si="2"/>
-        <v>1102231535.5255604</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A39</f>
         <v>1102231535.5255618</v>
+      </c>
+      <c r="C40">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A39*brute_life_multiplier</f>
+        <v>16533473032.883427</v>
       </c>
       <c r="E40">
         <f t="shared" si="5"/>
+        <v>1102231535.5255618</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
         <v>11022316</v>
       </c>
-      <c r="F40">
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>551115767.7627809</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="4"/>
-        <v>551115767.7627809</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
         <v>22044631</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" si="2"/>
-        <v>1708458880.0646186</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A40</f>
         <v>1708458880.0646212</v>
+      </c>
+      <c r="C41">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A40*brute_life_multiplier</f>
+        <v>25626883200.969318</v>
       </c>
       <c r="E41">
         <f t="shared" si="5"/>
+        <v>1708458880.0646212</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
         <v>17084589</v>
       </c>
-      <c r="F41">
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>854229440.03231061</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="4"/>
-        <v>854229440.03231061</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="6"/>
         <v>34169178</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="2"/>
-        <v>2648111264.1001587</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A41</f>
         <v>2648111264.100163</v>
+      </c>
+      <c r="C42">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A41*brute_life_multiplier</f>
+        <v>39721668961.502441</v>
       </c>
       <c r="E42">
         <f t="shared" si="5"/>
+        <v>2648111264.100163</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
         <v>26481113</v>
       </c>
-      <c r="F42">
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>1324055632.0500815</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="4"/>
-        <v>1324055632.0500815</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="6"/>
         <v>52962226</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
-        <v>4104572459.3552461</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A42</f>
         <v>4104572459.3552532</v>
+      </c>
+      <c r="C43">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A42*brute_life_multiplier</f>
+        <v>61568586890.328796</v>
       </c>
       <c r="E43">
         <f t="shared" si="5"/>
+        <v>4104572459.3552532</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
         <v>41045725</v>
       </c>
-      <c r="F43">
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>2052286229.6776266</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="4"/>
-        <v>2052286229.6776266</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="6"/>
         <v>82091450</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="2"/>
-        <v>6362087312.0006313</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A43</f>
         <v>6362087312.0006428</v>
+      </c>
+      <c r="C44">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A43*brute_life_multiplier</f>
+        <v>95431309680.009644</v>
       </c>
       <c r="E44">
         <f t="shared" si="5"/>
+        <v>6362087312.0006428</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
         <v>63620874</v>
       </c>
-      <c r="F44">
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>3181043656.0003214</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="4"/>
-        <v>3181043656.0003214</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="6"/>
         <v>127241747</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" si="2"/>
-        <v>9861235333.6009789</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A44</f>
         <v>9861235333.600996</v>
+      </c>
+      <c r="C45">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A44*brute_life_multiplier</f>
+        <v>147918530004.01495</v>
       </c>
       <c r="E45">
         <f t="shared" si="5"/>
+        <v>9861235333.600996</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
         <v>98612354</v>
       </c>
-      <c r="F45">
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>4930617666.800498</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="4"/>
-        <v>4930617666.800498</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="6"/>
         <v>197224707</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" si="2"/>
-        <v>15284914767.081518</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A45</f>
         <v>15284914767.081543</v>
+      </c>
+      <c r="C46">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A45*brute_life_multiplier</f>
+        <v>229273721506.22314</v>
       </c>
       <c r="E46">
         <f t="shared" si="5"/>
+        <v>15284914767.081543</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
         <v>152849148</v>
       </c>
-      <c r="F46">
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>7642457383.5407715</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="4"/>
-        <v>7642457383.5407715</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="6"/>
         <v>305698296</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
-        <v>23691617888.976353</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A46</f>
         <v>23691617888.976398</v>
+      </c>
+      <c r="C47">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A46*brute_life_multiplier</f>
+        <v>355374268334.646</v>
       </c>
       <c r="E47">
         <f t="shared" si="5"/>
+        <v>23691617888.976398</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
         <v>236916179</v>
       </c>
-      <c r="F47">
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>11845808944.488199</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="4"/>
-        <v>11845808944.488199</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="6"/>
         <v>473832358</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
-        <v>36722007727.913345</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A47</f>
         <v>36722007727.913422</v>
+      </c>
+      <c r="C48">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A47*brute_life_multiplier</f>
+        <v>550830115918.70129</v>
       </c>
       <c r="E48">
         <f t="shared" si="5"/>
+        <v>36722007727.913422</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
         <v>367220078</v>
       </c>
-      <c r="F48">
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>18361003863.956711</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="4"/>
-        <v>18361003863.956711</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="6"/>
         <v>734440155</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" si="2"/>
-        <v>56919111978.265686</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A48</f>
         <v>56919111978.265808</v>
+      </c>
+      <c r="C49">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A48*brute_life_multiplier</f>
+        <v>853786679673.98706</v>
       </c>
       <c r="E49">
         <f t="shared" si="5"/>
+        <v>56919111978.265808</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
         <v>569191120</v>
       </c>
-      <c r="F49">
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>28459555989.132904</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="4"/>
-        <v>28459555989.132904</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="6"/>
         <v>1138382240</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <f t="shared" si="2"/>
-        <v>88224623566.311813</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A49</f>
         <v>88224623566.311996</v>
+      </c>
+      <c r="C50">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A49*brute_life_multiplier</f>
+        <v>1323369353494.6799</v>
       </c>
       <c r="E50">
         <f t="shared" si="5"/>
+        <v>88224623566.311996</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
         <v>882246236</v>
       </c>
-      <c r="F50">
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>44112311783.155998</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="4"/>
-        <v>44112311783.155998</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="6"/>
         <v>1764492472</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" si="2"/>
-        <v>136748166527.78331</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A50</f>
         <v>136748166527.78362</v>
+      </c>
+      <c r="C51">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A50*brute_life_multiplier</f>
+        <v>2051222497916.7542</v>
       </c>
       <c r="E51">
         <f t="shared" si="5"/>
+        <v>136748166527.78362</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
         <v>1367481666</v>
       </c>
-      <c r="F51">
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>68374083263.891808</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="4"/>
-        <v>68374083263.891808</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="6"/>
         <v>2734963331</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" si="2"/>
-        <v>211959658118.06415</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A51</f>
         <v>211959658118.06461</v>
+      </c>
+      <c r="C52">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A51*brute_life_multiplier</f>
+        <v>3179394871770.9692</v>
       </c>
       <c r="E52">
         <f t="shared" si="5"/>
+        <v>211959658118.06461</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
         <v>2119596582</v>
       </c>
-      <c r="F52">
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>105979829059.0323</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="4"/>
-        <v>105979829059.0323</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="6"/>
         <v>4239193163</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <f t="shared" si="2"/>
-        <v>328537470082.99945</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A52</f>
         <v>328537470083.00012</v>
+      </c>
+      <c r="C53">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A52*brute_life_multiplier</f>
+        <v>4928062051245.002</v>
       </c>
       <c r="E53">
         <f t="shared" si="5"/>
+        <v>328537470083.00012</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
         <v>3285374701</v>
       </c>
-      <c r="F53">
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>164268735041.50006</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="4"/>
-        <v>164268735041.50006</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="6"/>
         <v>6570749402</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <f t="shared" si="2"/>
-        <v>509233078628.64917</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A53</f>
         <v>509233078628.65027</v>
+      </c>
+      <c r="C54">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A53*brute_life_multiplier</f>
+        <v>7638496179429.7539</v>
       </c>
       <c r="E54">
         <f t="shared" si="5"/>
+        <v>509233078628.65027</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
         <v>5092330787</v>
       </c>
-      <c r="F54">
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>254616539314.32513</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="4"/>
-        <v>254616539314.32513</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="6"/>
         <v>10184661573</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <f t="shared" si="2"/>
-        <v>789311271874.40625</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A54</f>
         <v>789311271874.40796</v>
+      </c>
+      <c r="C55">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A54*brute_life_multiplier</f>
+        <v>11839669078116.119</v>
       </c>
       <c r="E55">
         <f t="shared" si="5"/>
+        <v>789311271874.40796</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
         <v>7893112719</v>
       </c>
-      <c r="F55">
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>394655635937.20398</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="4"/>
-        <v>394655635937.20398</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="6"/>
         <v>15786225438</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <f t="shared" si="2"/>
-        <v>1223432471405.3298</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A55</f>
         <v>1223432471405.3323</v>
+      </c>
+      <c r="C56">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A55*brute_life_multiplier</f>
+        <v>18351487071079.984</v>
       </c>
       <c r="E56">
         <f t="shared" si="5"/>
+        <v>1223432471405.3323</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
         <v>12234324715</v>
       </c>
-      <c r="F56">
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>611716235702.66614</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="4"/>
-        <v>611716235702.66614</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="6"/>
         <v>24468649429</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <f t="shared" si="2"/>
-        <v>1896320330678.2612</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A56</f>
         <v>1896320330678.2654</v>
+      </c>
+      <c r="C57">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A56*brute_life_multiplier</f>
+        <v>28444804960173.98</v>
       </c>
       <c r="E57">
         <f t="shared" si="5"/>
+        <v>1896320330678.2654</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
         <v>18963203307</v>
       </c>
-      <c r="F57">
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>948160165339.13269</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="4"/>
-        <v>948160165339.13269</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="6"/>
         <v>37926406614</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <f t="shared" si="2"/>
-        <v>2939296512551.3052</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A57</f>
         <v>2939296512551.3115</v>
+      </c>
+      <c r="C58">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A57*brute_life_multiplier</f>
+        <v>44089447688269.672</v>
       </c>
       <c r="E58">
         <f t="shared" si="5"/>
+        <v>2939296512551.3115</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
         <v>29392965126</v>
       </c>
-      <c r="F58">
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>1469648256275.6558</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="4"/>
-        <v>1469648256275.6558</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="6"/>
         <v>58785930252</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <f t="shared" si="2"/>
-        <v>4555909594454.5234</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A58</f>
         <v>4555909594454.5332</v>
+      </c>
+      <c r="C59">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A58*brute_life_multiplier</f>
+        <v>68338643916818</v>
       </c>
       <c r="E59">
         <f t="shared" si="5"/>
+        <v>4555909594454.5332</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
         <v>45559095945</v>
       </c>
-      <c r="F59">
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>2277954797227.2666</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="4"/>
-        <v>2277954797227.2666</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="6"/>
         <v>91118191890</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <f t="shared" si="2"/>
-        <v>7061659871404.5117</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A59</f>
         <v>7061659871404.5273</v>
+      </c>
+      <c r="C60">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A59*brute_life_multiplier</f>
+        <v>105924898071067.91</v>
       </c>
       <c r="E60">
         <f t="shared" si="5"/>
+        <v>7061659871404.5273</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
         <v>70616598715</v>
       </c>
-      <c r="F60">
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>3530829935702.2637</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="4"/>
-        <v>3530829935702.2637</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="6"/>
         <v>141233197429</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <f t="shared" si="2"/>
-        <v>10945572800676.994</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A60</f>
         <v>10945572800677.02</v>
+      </c>
+      <c r="C61">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A60*brute_life_multiplier</f>
+        <v>164183592010155.28</v>
       </c>
       <c r="E61">
         <f t="shared" si="5"/>
+        <v>10945572800677.02</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
         <v>109455728007</v>
       </c>
-      <c r="F61">
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>5472786400338.5098</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="4"/>
-        <v>5472786400338.5098</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="6"/>
         <v>218911456014</v>
       </c>
     </row>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -202,11 +202,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1387,7 +1384,7 @@
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,37 +1395,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1">
         <v>1.55</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
@@ -1437,26 +1437,26 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P2" t="str">
         <f>E2</f>
         <v>average weapon</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="R2">
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f xml:space="preserve"> base_damage</f>
+        <f xml:space="preserve"> base_damage* hits_1_round_behind ^ A2</f>
         <v>100</v>
       </c>
       <c r="C3">
@@ -1491,14 +1491,14 @@
         <f t="shared" ref="H3:H34" si="1">ROUNDUP(B3/explosion_shot_base, 0)</f>
         <v>2</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P3" t="str">
         <f>B2</f>
         <v>tesla trooper</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R3">
@@ -1533,14 +1533,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="P4" t="str">
         <f ca="1">OFFSET(P2,1, 0)</f>
         <v>tesla trooper</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4448,7 +4448,7 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f>D2</f>
         <v>1</v>
       </c>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -1381,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1395,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3196,6 +3196,1195 @@
       <c r="H61">
         <f t="shared" si="4"/>
         <v>218911456014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A61</f>
+        <v>16965637841049.377</v>
+      </c>
+      <c r="C62">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A61*brute_life_multiplier</f>
+        <v>254484567615740.66</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:E84" si="6" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
+        <v>16965637841049.377</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:F84" si="7">ROUNDUP(B62/base_damage, 0)</f>
+        <v>169656378411</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62:G84" si="8">E62/2</f>
+        <v>8482818920524.6885</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62:H84" si="9">ROUNDUP(B62/explosion_shot_base, 0)</f>
+        <v>339312756821</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A62</f>
+        <v>26296738653626.543</v>
+      </c>
+      <c r="C63">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A62*brute_life_multiplier</f>
+        <v>394451079804398.13</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>26296738653626.543</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="7"/>
+        <v>262967386537</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="8"/>
+        <v>13148369326813.271</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="9"/>
+        <v>525934773073</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A63</f>
+        <v>40759944913121.133</v>
+      </c>
+      <c r="C64">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A63*brute_life_multiplier</f>
+        <v>611399173696817</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>40759944913121.133</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="7"/>
+        <v>407599449132</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="8"/>
+        <v>20379972456560.566</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="9"/>
+        <v>815198898263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A64</f>
+        <v>63177914615337.781</v>
+      </c>
+      <c r="C65">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A64*brute_life_multiplier</f>
+        <v>947668719230066.75</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>63177914615337.781</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="7"/>
+        <v>631779146154</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="8"/>
+        <v>31588957307668.891</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="9"/>
+        <v>1263558292307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A65</f>
+        <v>97925767653773.563</v>
+      </c>
+      <c r="C66">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A65*brute_life_multiplier</f>
+        <v>1468886514806603.5</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>97925767653773.563</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="7"/>
+        <v>979257676538</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="8"/>
+        <v>48962883826886.781</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="9"/>
+        <v>1958515353076</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A66</f>
+        <v>151784939863349</v>
+      </c>
+      <c r="C67">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A66*brute_life_multiplier</f>
+        <v>2276774097950235</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>151784939863349</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="7"/>
+        <v>1517849398634</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="8"/>
+        <v>75892469931674.5</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="9"/>
+        <v>3035698797267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A67</f>
+        <v>235266656788190.97</v>
+      </c>
+      <c r="C68">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A67*brute_life_multiplier</f>
+        <v>3528999851822864.5</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>235266656788190.97</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="7"/>
+        <v>2352666567882</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="8"/>
+        <v>117633328394095.48</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="9"/>
+        <v>4705333135764</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A68</f>
+        <v>364663318021696</v>
+      </c>
+      <c r="C69">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A68*brute_life_multiplier</f>
+        <v>5469949770325440</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>364663318021696</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="7"/>
+        <v>3646633180217</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>182331659010848</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="9"/>
+        <v>7293266360434</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A69</f>
+        <v>565228142933628.75</v>
+      </c>
+      <c r="C70">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A69*brute_life_multiplier</f>
+        <v>8478422144004431</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>565228142933628.75</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="7"/>
+        <v>5652281429337</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>282614071466814.38</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="9"/>
+        <v>11304562858673</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A70</f>
+        <v>876103621547124.75</v>
+      </c>
+      <c r="C71">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A70*brute_life_multiplier</f>
+        <v>1.3141554323206872E+16</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>876103621547124.75</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>8761036215472</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>438051810773562.38</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="9"/>
+        <v>17522072430943</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A71</f>
+        <v>1357960613398043.3</v>
+      </c>
+      <c r="C72">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A71*brute_life_multiplier</f>
+        <v>2.0369409200970648E+16</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>1357960613398043.3</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="7"/>
+        <v>13579606133981</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>678980306699021.63</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="9"/>
+        <v>27159212267961</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A72</f>
+        <v>2104838950766967.5</v>
+      </c>
+      <c r="C73">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A72*brute_life_multiplier</f>
+        <v>3.1572584261504512E+16</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>2104838950766967.5</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="7"/>
+        <v>21048389507670</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>1052419475383483.8</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="9"/>
+        <v>42096779015340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A73</f>
+        <v>3262500373688800</v>
+      </c>
+      <c r="C74">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A73*brute_life_multiplier</f>
+        <v>4.8937505605332E+16</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>3262500373688800</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="7"/>
+        <v>32625003736888</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>1631250186844400</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="9"/>
+        <v>65250007473776</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A74</f>
+        <v>5056875579217641</v>
+      </c>
+      <c r="C75">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A74*brute_life_multiplier</f>
+        <v>7.5853133688264608E+16</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>5056875579217641</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="7"/>
+        <v>50568755792177</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>2528437789608820.5</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>101137511584353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A75</f>
+        <v>7838157147787344</v>
+      </c>
+      <c r="C76">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A75*brute_life_multiplier</f>
+        <v>1.1757235721681016E+17</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>7838157147787344</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="7"/>
+        <v>78381571477874</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>3919078573893672</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>156763142955747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A76</f>
+        <v>1.2149143579070382E+16</v>
+      </c>
+      <c r="C77">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A76*brute_life_multiplier</f>
+        <v>1.8223715368605574E+17</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>1.2149143579070382E+16</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="7"/>
+        <v>121491435790704</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>6074571789535191</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>242982871581408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A77</f>
+        <v>1.8831172547559092E+16</v>
+      </c>
+      <c r="C78">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A77*brute_life_multiplier</f>
+        <v>2.8246758821338637E+17</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>1.8831172547559092E+16</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="7"/>
+        <v>188311725475591</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>9415586273779546</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="9"/>
+        <v>376623450951182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A78</f>
+        <v>2.91883174487166E+16</v>
+      </c>
+      <c r="C79">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A78*brute_life_multiplier</f>
+        <v>4.3782476173074899E+17</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>2.91883174487166E+16</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="7"/>
+        <v>291883174487166</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>1.45941587243583E+16</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>583766348974332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A79</f>
+        <v>4.5241892045510728E+16</v>
+      </c>
+      <c r="C80">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A79*brute_life_multiplier</f>
+        <v>6.7862838068266086E+17</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>4.5241892045510728E+16</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="7"/>
+        <v>452418920455107</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>2.2620946022755364E+16</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>904837840910215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A80</f>
+        <v>7.012493267054164E+16</v>
+      </c>
+      <c r="C81">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A80*brute_life_multiplier</f>
+        <v>1.0518739900581245E+18</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>7.012493267054164E+16</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="7"/>
+        <v>701249326705416</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>3.506246633527082E+16</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>1402498653410830</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A81</f>
+        <v>1.0869364563933955E+17</v>
+      </c>
+      <c r="C82">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A81*brute_life_multiplier</f>
+        <v>1.6304046845900933E+18</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>1.0869364563933955E+17</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="7"/>
+        <v>1086936456393400</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>5.4346822819669776E+16</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="9"/>
+        <v>2173872912786790</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A82</f>
+        <v>1.6847515074097629E+17</v>
+      </c>
+      <c r="C83">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A82*brute_life_multiplier</f>
+        <v>2.5271272611146445E+18</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>1.6847515074097629E+17</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="7"/>
+        <v>1684751507409760</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>8.4237575370488144E+16</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="9"/>
+        <v>3369503014819530</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A83</f>
+        <v>2.6113648364851325E+17</v>
+      </c>
+      <c r="C84">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A83*brute_life_multiplier</f>
+        <v>3.9170472547276989E+18</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>2.6113648364851325E+17</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="7"/>
+        <v>2611364836485130</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>1.3056824182425662E+17</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="9"/>
+        <v>5222729672970270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A84</f>
+        <v>4.0476154965519558E+17</v>
+      </c>
+      <c r="C85">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A84*brute_life_multiplier</f>
+        <v>6.0714232448279337E+18</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85:E102" si="10" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
+        <v>4.0476154965519558E+17</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ref="F85:F102" si="11">ROUNDUP(B85/base_damage, 0)</f>
+        <v>4047615496551960</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ref="G85:G102" si="12">E85/2</f>
+        <v>2.0238077482759779E+17</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ref="H85:H102" si="13">ROUNDUP(B85/explosion_shot_base, 0)</f>
+        <v>8095230993103910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A85</f>
+        <v>6.2738040196555315E+17</v>
+      </c>
+      <c r="C86">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A85*brute_life_multiplier</f>
+        <v>9.4107060294832968E+18</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="10"/>
+        <v>6.2738040196555315E+17</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="11"/>
+        <v>6273804019655530</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="12"/>
+        <v>3.1369020098277658E+17</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="13"/>
+        <v>1.25476080393111E+16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A86</f>
+        <v>9.7243962304660762E+17</v>
+      </c>
+      <c r="C87">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A86*brute_life_multiplier</f>
+        <v>1.4586594345699115E+19</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="10"/>
+        <v>9.7243962304660762E+17</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="11"/>
+        <v>9724396230466080</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="12"/>
+        <v>4.8621981152330381E+17</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="13"/>
+        <v>1.94487924609322E+16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A87</f>
+        <v>1.5072814157222418E+18</v>
+      </c>
+      <c r="C88">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A87*brute_life_multiplier</f>
+        <v>2.2609221235833627E+19</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="10"/>
+        <v>1.5072814157222418E+18</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="11"/>
+        <v>1.50728141572224E+16</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="12"/>
+        <v>7.536407078611209E+17</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="13"/>
+        <v>3.01456283144448E+16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A88</f>
+        <v>2.3362861943694751E+18</v>
+      </c>
+      <c r="C89">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A88*brute_life_multiplier</f>
+        <v>3.5044292915542127E+19</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="10"/>
+        <v>2.3362861943694751E+18</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="11"/>
+        <v>2.33628619436948E+16</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="12"/>
+        <v>1.1681430971847375E+18</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="13"/>
+        <v>4.6725723887389504E+16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A89</f>
+        <v>3.6212436012726866E+18</v>
+      </c>
+      <c r="C90">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A89*brute_life_multiplier</f>
+        <v>5.4318654019090301E+19</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="10"/>
+        <v>3.6212436012726866E+18</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="11"/>
+        <v>3.6212436012726896E+16</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="12"/>
+        <v>1.8106218006363433E+18</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="13"/>
+        <v>7.2424872025453696E+16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A90</f>
+        <v>5.6129275819726643E+18</v>
+      </c>
+      <c r="C91">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A90*brute_life_multiplier</f>
+        <v>8.4193913729589969E+19</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="10"/>
+        <v>5.6129275819726643E+18</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="11"/>
+        <v>5.61292758197266E+16</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="12"/>
+        <v>2.8064637909863322E+18</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="13"/>
+        <v>1.1225855163945299E+17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A91</f>
+        <v>8.7000377520576317E+18</v>
+      </c>
+      <c r="C92">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A91*brute_life_multiplier</f>
+        <v>1.3050056628086448E+20</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="10"/>
+        <v>8.7000377520576317E+18</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="11"/>
+        <v>8.7000377520576304E+16</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="12"/>
+        <v>4.3500188760288159E+18</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="13"/>
+        <v>1.7400075504115299E+17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A92</f>
+        <v>1.3485058515689329E+19</v>
+      </c>
+      <c r="C93">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A92*brute_life_multiplier</f>
+        <v>2.0227587773533992E+20</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="10"/>
+        <v>1.3485058515689329E+19</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="11"/>
+        <v>1.3485058515689299E+17</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="12"/>
+        <v>6.7425292578446643E+18</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="13"/>
+        <v>2.6970117031378701E+17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A93</f>
+        <v>2.0901840699318456E+19</v>
+      </c>
+      <c r="C94">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A93*brute_life_multiplier</f>
+        <v>3.1352761048977683E+20</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="10"/>
+        <v>2.0901840699318456E+19</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="11"/>
+        <v>2.0901840699318499E+17</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="12"/>
+        <v>1.0450920349659228E+19</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="13"/>
+        <v>4.1803681398636902E+17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A94</f>
+        <v>3.2397853083943617E+19</v>
+      </c>
+      <c r="C95">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A94*brute_life_multiplier</f>
+        <v>4.8596779625915423E+20</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="10"/>
+        <v>3.2397853083943617E+19</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="11"/>
+        <v>3.2397853083943603E+17</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="12"/>
+        <v>1.6198926541971808E+19</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="13"/>
+        <v>6.4795706167887206E+17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A95</f>
+        <v>5.0216672280112611E+19</v>
+      </c>
+      <c r="C96">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A95*brute_life_multiplier</f>
+        <v>7.5325008420168912E+20</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="10"/>
+        <v>5.0216672280112611E+19</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="11"/>
+        <v>5.0216672280112602E+17</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="12"/>
+        <v>2.5108336140056306E+19</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="13"/>
+        <v>1.00433344560225E+18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A96</f>
+        <v>7.7835842034174558E+19</v>
+      </c>
+      <c r="C97">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A96*brute_life_multiplier</f>
+        <v>1.1675376305126184E+21</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="10"/>
+        <v>7.7835842034174558E+19</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="11"/>
+        <v>7.7835842034174605E+17</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="12"/>
+        <v>3.8917921017087279E+19</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="13"/>
+        <v>1.55671684068349E+18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A97</f>
+        <v>1.2064555515297058E+20</v>
+      </c>
+      <c r="C98">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A97*brute_life_multiplier</f>
+        <v>1.8096833272945587E+21</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="10"/>
+        <v>1.2064555515297058E+20</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="11"/>
+        <v>1.2064555515297101E+18</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="12"/>
+        <v>6.032277757648529E+19</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="13"/>
+        <v>2.4129111030594099E+18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A98</f>
+        <v>1.8700061048710437E+20</v>
+      </c>
+      <c r="C99">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A98*brute_life_multiplier</f>
+        <v>2.8050091573065658E+21</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="10"/>
+        <v>1.8700061048710437E+20</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="11"/>
+        <v>1.87000610487104E+18</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="12"/>
+        <v>9.3500305243552186E+19</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="13"/>
+        <v>3.7400122097420902E+18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A99</f>
+        <v>2.8985094625501177E+20</v>
+      </c>
+      <c r="C100">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A99*brute_life_multiplier</f>
+        <v>4.3477641938251767E+21</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="10"/>
+        <v>2.8985094625501177E+20</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="11"/>
+        <v>2.8985094625501199E+18</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="12"/>
+        <v>1.4492547312750589E+20</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="13"/>
+        <v>5.7970189251002399E+18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A100</f>
+        <v>4.4926896669526832E+20</v>
+      </c>
+      <c r="C101">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A100*brute_life_multiplier</f>
+        <v>6.7390345004290251E+21</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="10"/>
+        <v>4.4926896669526832E+20</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="11"/>
+        <v>4.4926896669526799E+18</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="12"/>
+        <v>2.2463448334763416E+20</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="13"/>
+        <v>8.9853793339053701E+18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A101</f>
+        <v>6.9636689837766594E+20</v>
+      </c>
+      <c r="C102">
+        <f xml:space="preserve"> $B$3*hits_1_round_behind^A101*brute_life_multiplier</f>
+        <v>1.0445503475664988E+22</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="10"/>
+        <v>6.9636689837766594E+20</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="11"/>
+        <v>6.9636689837766605E+18</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="12"/>
+        <v>3.4818344918883297E+20</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="13"/>
+        <v>1.39273379675533E+19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="base_damage">Hoja1!$E$3</definedName>
-    <definedName name="brute_life_multiplier">Hoja1!$M$2</definedName>
-    <definedName name="explosion_shot_base">Hoja1!$G$3</definedName>
-    <definedName name="hits_1_round_behind">Hoja1!$M$1</definedName>
+    <definedName name="brute_life_multiplier">Hoja1!$O$2</definedName>
+    <definedName name="explosion_shot_base">Hoja1!$I$3</definedName>
+    <definedName name="hits_1_round_behind">Hoja1!$O$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>round</t>
-  </si>
-  <si>
-    <t>hits with weapon level 1</t>
   </si>
   <si>
     <t>hits to kill 1 round behind</t>
@@ -140,6 +137,15 @@
   </si>
   <si>
     <t>brute</t>
+  </si>
+  <si>
+    <t>hits level 1</t>
+  </si>
+  <si>
+    <t>hits level 2</t>
+  </si>
+  <si>
+    <t>hits level 3</t>
   </si>
 </sst>
 </file>
@@ -1087,13 +1093,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1381,89 +1387,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1">
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1">
         <v>1.55</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
+      <c r="G2" t="s">
+        <v>32</v>
       </c>
       <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" t="str">
+      <c r="R2" t="str">
         <f>E2</f>
         <v>average weapon</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2">
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1480,32 +1494,40 @@
         <v>100</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F34" si="0">ROUNDUP(B3/base_damage, 0)</f>
+        <f>ROUNDUP(B3/base_damage, 0)</f>
         <v>1</v>
       </c>
       <c r="G3">
+        <f>ROUNDUP(B3/$E$4, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>ROUNDUP(B3/$E$5, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
         <f>base_damage/2</f>
         <v>50</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H34" si="1">ROUNDUP(B3/explosion_shot_base, 0)</f>
+      <c r="J3">
+        <f>ROUNDUP(B3/explosion_shot_base, 0)</f>
         <v>2</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" t="str">
+      <c r="Q3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="str">
         <f>B2</f>
         <v>tesla trooper</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3">
+      <c r="S3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1522,29 +1544,37 @@
         <v>155</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F34" si="0">ROUNDUP(B4/base_damage, 0)</f>
         <v>2</v>
       </c>
       <c r="G4">
+        <f t="shared" ref="G4:G67" si="1">ROUNDUP(B4/$E$4, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="2">ROUNDUP(B4/$E$5, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
         <f>E4/2</f>
         <v>77.5</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
+      <c r="J4">
+        <f t="shared" ref="J4:J34" si="3">ROUNDUP(B4/explosion_shot_base, 0)</f>
         <v>4</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="str">
+        <f ca="1">OFFSET(R2,1, 0)</f>
+        <v>tesla trooper</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P4" t="str">
-        <f ca="1">OFFSET(P2,1, 0)</f>
-        <v>tesla trooper</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1565,16 +1595,24 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G61" si="2">E5/2</f>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I61" si="4">E5/2</f>
         <v>120.12500000000001</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="J5">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1595,15 +1633,23 @@
         <v>4</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
         <v>186.19375000000002</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="J6">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1624,15 +1670,23 @@
         <v>6</v>
       </c>
       <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
         <v>288.60031250000009</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="J7">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1653,15 +1707,23 @@
         <v>9</v>
       </c>
       <c r="G8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
         <v>447.33048437500014</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="J8">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1682,15 +1744,23 @@
         <v>14</v>
       </c>
       <c r="G9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
         <v>693.36225078125028</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+      <c r="J9">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1711,15 +1781,23 @@
         <v>22</v>
       </c>
       <c r="G10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
         <v>1074.7114887109381</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
+      <c r="J10">
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1740,15 +1818,23 @@
         <v>34</v>
       </c>
       <c r="G11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
         <v>1665.802807501954</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="J11">
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1769,15 +1855,23 @@
         <v>52</v>
       </c>
       <c r="G12">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
         <v>2581.9943516280291</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
+      <c r="J12">
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1798,15 +1892,23 @@
         <v>81</v>
       </c>
       <c r="G13">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
         <v>4002.0912450234446</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
+      <c r="J13">
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1827,15 +1929,23 @@
         <v>125</v>
       </c>
       <c r="G14">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
         <v>6203.2414297863397</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
+      <c r="J14">
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1856,15 +1966,23 @@
         <v>193</v>
       </c>
       <c r="G15">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
         <v>9615.0242161688275</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
+      <c r="J15">
+        <f t="shared" si="3"/>
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1885,15 +2003,23 @@
         <v>299</v>
       </c>
       <c r="G16">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
         <v>14903.287535061685</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
+      <c r="J16">
+        <f t="shared" si="3"/>
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1914,15 +2040,23 @@
         <v>463</v>
       </c>
       <c r="G17">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
         <v>23100.095679345613</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
+      <c r="J17">
+        <f t="shared" si="3"/>
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1943,15 +2077,23 @@
         <v>717</v>
       </c>
       <c r="G18">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
         <v>35805.148302985705</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
+      <c r="J18">
+        <f t="shared" si="3"/>
         <v>1433</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1972,15 +2114,23 @@
         <v>1110</v>
       </c>
       <c r="G19">
+        <f t="shared" si="1"/>
+        <v>717</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="2"/>
+        <v>463</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
         <v>55497.979869627838</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
+      <c r="J19">
+        <f t="shared" si="3"/>
         <v>2220</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2001,15 +2151,23 @@
         <v>1721</v>
       </c>
       <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="2"/>
+        <v>717</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
         <v>86021.868797923147</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
+      <c r="J20">
+        <f t="shared" si="3"/>
         <v>3441</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2030,15 +2188,23 @@
         <v>2667</v>
       </c>
       <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1721</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
         <v>133333.8966367809</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
+      <c r="J21">
+        <f t="shared" si="3"/>
         <v>5334</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2059,15 +2225,23 @@
         <v>4134</v>
       </c>
       <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2667</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="2"/>
+        <v>1721</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
         <v>206667.53978701041</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
+      <c r="J22">
+        <f t="shared" si="3"/>
         <v>8267</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2088,15 +2262,23 @@
         <v>6407</v>
       </c>
       <c r="G23">
+        <f t="shared" si="1"/>
+        <v>4134</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="2"/>
+        <v>2667</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
         <v>320334.68666986615</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
+      <c r="J23">
+        <f t="shared" si="3"/>
         <v>12814</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2117,15 +2299,23 @@
         <v>9931</v>
       </c>
       <c r="G24">
+        <f t="shared" si="1"/>
+        <v>6407</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="2"/>
+        <v>4134</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
         <v>496518.76433829259</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
+      <c r="J24">
+        <f t="shared" si="3"/>
         <v>19861</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2146,15 +2336,23 @@
         <v>15393</v>
       </c>
       <c r="G25">
+        <f t="shared" si="1"/>
+        <v>9931</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="2"/>
+        <v>6407</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
         <v>769604.08472435351</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
+      <c r="J25">
+        <f t="shared" si="3"/>
         <v>30785</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2175,15 +2373,23 @@
         <v>23858</v>
       </c>
       <c r="G26">
+        <f t="shared" si="1"/>
+        <v>15393</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="2"/>
+        <v>9931</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
         <v>1192886.331322748</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
+      <c r="J26">
+        <f t="shared" si="3"/>
         <v>47716</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2204,15 +2410,23 @@
         <v>36980</v>
       </c>
       <c r="G27">
+        <f t="shared" si="1"/>
+        <v>23858</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="2"/>
+        <v>15393</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
         <v>1848973.8135502597</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
+      <c r="J27">
+        <f t="shared" si="3"/>
         <v>73959</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2233,15 +2447,23 @@
         <v>57319</v>
       </c>
       <c r="G28">
+        <f t="shared" si="1"/>
+        <v>36980</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="2"/>
+        <v>23858</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
         <v>2865909.4110029028</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
+      <c r="J28">
+        <f t="shared" si="3"/>
         <v>114637</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2262,15 +2484,23 @@
         <v>88844</v>
       </c>
       <c r="G29">
+        <f t="shared" si="1"/>
+        <v>57319</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="2"/>
+        <v>36980</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
         <v>4442159.5870544994</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
+      <c r="J29">
+        <f t="shared" si="3"/>
         <v>177687</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2291,15 +2521,23 @@
         <v>137707</v>
       </c>
       <c r="G30">
+        <f t="shared" si="1"/>
+        <v>88844</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="2"/>
+        <v>57319</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
         <v>6885347.3599344743</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
+      <c r="J30">
+        <f t="shared" si="3"/>
         <v>275414</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2320,15 +2558,23 @@
         <v>213446</v>
       </c>
       <c r="G31">
+        <f t="shared" si="1"/>
+        <v>137707</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="2"/>
+        <v>88844</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
         <v>10672288.407898437</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
+      <c r="J31">
+        <f t="shared" si="3"/>
         <v>426892</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2349,15 +2595,23 @@
         <v>330841</v>
       </c>
       <c r="G32">
+        <f t="shared" si="1"/>
+        <v>213446</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="2"/>
+        <v>137707</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
         <v>16542047.032242578</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
+      <c r="J32">
+        <f t="shared" si="3"/>
         <v>661682</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2378,15 +2632,23 @@
         <v>512804</v>
       </c>
       <c r="G33">
+        <f t="shared" si="1"/>
+        <v>330841</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="2"/>
+        <v>213446</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
         <v>25640172.899976</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
+      <c r="J33">
+        <f t="shared" si="3"/>
         <v>1025607</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2407,15 +2669,23 @@
         <v>794846</v>
       </c>
       <c r="G34">
+        <f t="shared" si="1"/>
+        <v>512804</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="2"/>
+        <v>330841</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
         <v>39742267.994962804</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
+      <c r="J34">
+        <f t="shared" si="3"/>
         <v>1589691</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2432,19 +2702,27 @@
         <v>123201030.78438467</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F61" si="3">ROUNDUP(B35/base_damage, 0)</f>
+        <f t="shared" ref="F35:F61" si="5">ROUNDUP(B35/base_damage, 0)</f>
         <v>1232011</v>
       </c>
       <c r="G35">
+        <f t="shared" si="1"/>
+        <v>794846</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="2"/>
+        <v>512804</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
         <v>61600515.392192334</v>
       </c>
-      <c r="H35">
-        <f t="shared" ref="H35:H61" si="4">ROUNDUP(B35/explosion_shot_base, 0)</f>
+      <c r="J35">
+        <f t="shared" ref="J35:J61" si="6">ROUNDUP(B35/explosion_shot_base, 0)</f>
         <v>2464021</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2457,23 +2735,31 @@
         <v>2864423965.7369437</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E61" si="5" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
+        <f t="shared" ref="E36:E61" si="7" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
         <v>190961597.71579626</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1909616</v>
       </c>
       <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1232011</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="2"/>
+        <v>794846</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
         <v>95480798.857898131</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="4"/>
+      <c r="J36">
+        <f t="shared" si="6"/>
         <v>3819232</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2486,23 +2772,31 @@
         <v>4439857146.8922634</v>
       </c>
       <c r="E37">
+        <f t="shared" si="7"/>
+        <v>295990476.45948422</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="5"/>
-        <v>295990476.45948422</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
         <v>2959905</v>
       </c>
       <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1909616</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="2"/>
+        <v>1232011</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
         <v>147995238.22974211</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="4"/>
+      <c r="J37">
+        <f t="shared" si="6"/>
         <v>5919810</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2515,23 +2809,31 @@
         <v>6881778577.6830091</v>
       </c>
       <c r="E38">
+        <f t="shared" si="7"/>
+        <v>458785238.51220059</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="5"/>
-        <v>458785238.51220059</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
         <v>4587853</v>
       </c>
       <c r="G38">
+        <f t="shared" si="1"/>
+        <v>2959905</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="2"/>
+        <v>1909616</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
         <v>229392619.2561003</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="4"/>
+      <c r="J38">
+        <f t="shared" si="6"/>
         <v>9175705</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2544,23 +2846,31 @@
         <v>10666756795.408663</v>
       </c>
       <c r="E39">
+        <f t="shared" si="7"/>
+        <v>711117119.69391084</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="5"/>
-        <v>711117119.69391084</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
         <v>7111172</v>
       </c>
       <c r="G39">
+        <f t="shared" si="1"/>
+        <v>4587853</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="2"/>
+        <v>2959905</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
         <v>355558559.84695542</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="4"/>
+      <c r="J39">
+        <f t="shared" si="6"/>
         <v>14222343</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2573,23 +2883,31 @@
         <v>16533473032.883427</v>
       </c>
       <c r="E40">
+        <f t="shared" si="7"/>
+        <v>1102231535.5255618</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="5"/>
-        <v>1102231535.5255618</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
         <v>11022316</v>
       </c>
       <c r="G40">
+        <f t="shared" si="1"/>
+        <v>7111172</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="2"/>
+        <v>4587853</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
         <v>551115767.7627809</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="4"/>
+      <c r="J40">
+        <f t="shared" si="6"/>
         <v>22044631</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2602,23 +2920,31 @@
         <v>25626883200.969318</v>
       </c>
       <c r="E41">
+        <f t="shared" si="7"/>
+        <v>1708458880.0646212</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="5"/>
-        <v>1708458880.0646212</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
         <v>17084589</v>
       </c>
       <c r="G41">
+        <f t="shared" si="1"/>
+        <v>11022316</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="2"/>
+        <v>7111172</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
         <v>854229440.03231061</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="4"/>
+      <c r="J41">
+        <f t="shared" si="6"/>
         <v>34169178</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2631,23 +2957,31 @@
         <v>39721668961.502441</v>
       </c>
       <c r="E42">
+        <f t="shared" si="7"/>
+        <v>2648111264.100163</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="5"/>
-        <v>2648111264.100163</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
         <v>26481113</v>
       </c>
       <c r="G42">
+        <f t="shared" si="1"/>
+        <v>17084589</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="2"/>
+        <v>11022316</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
         <v>1324055632.0500815</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="4"/>
+      <c r="J42">
+        <f t="shared" si="6"/>
         <v>52962226</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2660,23 +2994,31 @@
         <v>61568586890.328796</v>
       </c>
       <c r="E43">
+        <f t="shared" si="7"/>
+        <v>4104572459.3552532</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="5"/>
-        <v>4104572459.3552532</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
         <v>41045725</v>
       </c>
       <c r="G43">
+        <f t="shared" si="1"/>
+        <v>26481113</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="2"/>
+        <v>17084589</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
         <v>2052286229.6776266</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="4"/>
+      <c r="J43">
+        <f t="shared" si="6"/>
         <v>82091450</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2689,23 +3031,31 @@
         <v>95431309680.009644</v>
       </c>
       <c r="E44">
+        <f t="shared" si="7"/>
+        <v>6362087312.0006428</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="5"/>
-        <v>6362087312.0006428</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
         <v>63620874</v>
       </c>
       <c r="G44">
+        <f t="shared" si="1"/>
+        <v>41045725</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="2"/>
+        <v>26481113</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
         <v>3181043656.0003214</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="4"/>
+      <c r="J44">
+        <f t="shared" si="6"/>
         <v>127241747</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2718,23 +3068,31 @@
         <v>147918530004.01495</v>
       </c>
       <c r="E45">
+        <f t="shared" si="7"/>
+        <v>9861235333.600996</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="5"/>
-        <v>9861235333.600996</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="3"/>
         <v>98612354</v>
       </c>
       <c r="G45">
+        <f t="shared" si="1"/>
+        <v>63620874</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="2"/>
+        <v>41045725</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
         <v>4930617666.800498</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="4"/>
+      <c r="J45">
+        <f t="shared" si="6"/>
         <v>197224707</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2747,23 +3105,31 @@
         <v>229273721506.22314</v>
       </c>
       <c r="E46">
+        <f t="shared" si="7"/>
+        <v>15284914767.081543</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="5"/>
-        <v>15284914767.081543</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
         <v>152849148</v>
       </c>
       <c r="G46">
+        <f t="shared" si="1"/>
+        <v>98612354</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="2"/>
+        <v>63620874</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
         <v>7642457383.5407715</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="4"/>
+      <c r="J46">
+        <f t="shared" si="6"/>
         <v>305698296</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2776,23 +3142,31 @@
         <v>355374268334.646</v>
       </c>
       <c r="E47">
+        <f t="shared" si="7"/>
+        <v>23691617888.976398</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="5"/>
-        <v>23691617888.976398</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="3"/>
         <v>236916179</v>
       </c>
       <c r="G47">
+        <f t="shared" si="1"/>
+        <v>152849148</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="2"/>
+        <v>98612354</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
         <v>11845808944.488199</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="4"/>
+      <c r="J47">
+        <f t="shared" si="6"/>
         <v>473832358</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2805,23 +3179,31 @@
         <v>550830115918.70129</v>
       </c>
       <c r="E48">
+        <f t="shared" si="7"/>
+        <v>36722007727.913422</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="5"/>
-        <v>36722007727.913422</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
         <v>367220078</v>
       </c>
       <c r="G48">
+        <f t="shared" si="1"/>
+        <v>236916179</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="2"/>
+        <v>152849148</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
         <v>18361003863.956711</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="4"/>
+      <c r="J48">
+        <f t="shared" si="6"/>
         <v>734440155</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2834,23 +3216,31 @@
         <v>853786679673.98706</v>
       </c>
       <c r="E49">
+        <f t="shared" si="7"/>
+        <v>56919111978.265808</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="5"/>
-        <v>56919111978.265808</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="3"/>
         <v>569191120</v>
       </c>
       <c r="G49">
+        <f t="shared" si="1"/>
+        <v>367220078</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="2"/>
+        <v>236916179</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
         <v>28459555989.132904</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="4"/>
+      <c r="J49">
+        <f t="shared" si="6"/>
         <v>1138382240</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2863,23 +3253,31 @@
         <v>1323369353494.6799</v>
       </c>
       <c r="E50">
+        <f t="shared" si="7"/>
+        <v>88224623566.311996</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="5"/>
-        <v>88224623566.311996</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="3"/>
         <v>882246236</v>
       </c>
       <c r="G50">
+        <f t="shared" si="1"/>
+        <v>569191120</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="2"/>
+        <v>367220078</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
         <v>44112311783.155998</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="4"/>
+      <c r="J50">
+        <f t="shared" si="6"/>
         <v>1764492472</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2892,23 +3290,31 @@
         <v>2051222497916.7542</v>
       </c>
       <c r="E51">
+        <f t="shared" si="7"/>
+        <v>136748166527.78362</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="5"/>
-        <v>136748166527.78362</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="3"/>
         <v>1367481666</v>
       </c>
       <c r="G51">
+        <f t="shared" si="1"/>
+        <v>882246236</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="2"/>
+        <v>569191120</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
         <v>68374083263.891808</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="4"/>
+      <c r="J51">
+        <f t="shared" si="6"/>
         <v>2734963331</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2921,23 +3327,31 @@
         <v>3179394871770.9692</v>
       </c>
       <c r="E52">
+        <f t="shared" si="7"/>
+        <v>211959658118.06461</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="5"/>
-        <v>211959658118.06461</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="3"/>
         <v>2119596582</v>
       </c>
       <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1367481666</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="2"/>
+        <v>882246236</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
         <v>105979829059.0323</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="4"/>
+      <c r="J52">
+        <f t="shared" si="6"/>
         <v>4239193163</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2950,23 +3364,31 @@
         <v>4928062051245.002</v>
       </c>
       <c r="E53">
+        <f t="shared" si="7"/>
+        <v>328537470083.00012</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="5"/>
-        <v>328537470083.00012</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="3"/>
         <v>3285374701</v>
       </c>
       <c r="G53">
+        <f t="shared" si="1"/>
+        <v>2119596582</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="2"/>
+        <v>1367481666</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
         <v>164268735041.50006</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="4"/>
+      <c r="J53">
+        <f t="shared" si="6"/>
         <v>6570749402</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2979,23 +3401,31 @@
         <v>7638496179429.7539</v>
       </c>
       <c r="E54">
+        <f t="shared" si="7"/>
+        <v>509233078628.65027</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="5"/>
-        <v>509233078628.65027</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="3"/>
         <v>5092330787</v>
       </c>
       <c r="G54">
+        <f t="shared" si="1"/>
+        <v>3285374701</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="2"/>
+        <v>2119596582</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
         <v>254616539314.32513</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="4"/>
+      <c r="J54">
+        <f t="shared" si="6"/>
         <v>10184661573</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3008,23 +3438,31 @@
         <v>11839669078116.119</v>
       </c>
       <c r="E55">
+        <f t="shared" si="7"/>
+        <v>789311271874.40796</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="5"/>
-        <v>789311271874.40796</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="3"/>
         <v>7893112719</v>
       </c>
       <c r="G55">
+        <f t="shared" si="1"/>
+        <v>5092330787</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="2"/>
+        <v>3285374701</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
         <v>394655635937.20398</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="4"/>
+      <c r="J55">
+        <f t="shared" si="6"/>
         <v>15786225438</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3037,23 +3475,31 @@
         <v>18351487071079.984</v>
       </c>
       <c r="E56">
+        <f t="shared" si="7"/>
+        <v>1223432471405.3323</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="5"/>
-        <v>1223432471405.3323</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="3"/>
         <v>12234324715</v>
       </c>
       <c r="G56">
+        <f t="shared" si="1"/>
+        <v>7893112719</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="2"/>
+        <v>5092330787</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
         <v>611716235702.66614</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="4"/>
+      <c r="J56">
+        <f t="shared" si="6"/>
         <v>24468649429</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3066,23 +3512,31 @@
         <v>28444804960173.98</v>
       </c>
       <c r="E57">
+        <f t="shared" si="7"/>
+        <v>1896320330678.2654</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="5"/>
-        <v>1896320330678.2654</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="3"/>
         <v>18963203307</v>
       </c>
       <c r="G57">
+        <f t="shared" si="1"/>
+        <v>12234324715</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="2"/>
+        <v>7893112719</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
         <v>948160165339.13269</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="4"/>
+      <c r="J57">
+        <f t="shared" si="6"/>
         <v>37926406614</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3095,23 +3549,31 @@
         <v>44089447688269.672</v>
       </c>
       <c r="E58">
+        <f t="shared" si="7"/>
+        <v>2939296512551.3115</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="5"/>
-        <v>2939296512551.3115</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="3"/>
         <v>29392965126</v>
       </c>
       <c r="G58">
+        <f t="shared" si="1"/>
+        <v>18963203307</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="2"/>
+        <v>12234324715</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
         <v>1469648256275.6558</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="4"/>
+      <c r="J58">
+        <f t="shared" si="6"/>
         <v>58785930252</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3124,23 +3586,31 @@
         <v>68338643916818</v>
       </c>
       <c r="E59">
+        <f t="shared" si="7"/>
+        <v>4555909594454.5332</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="5"/>
-        <v>4555909594454.5332</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="3"/>
         <v>45559095945</v>
       </c>
       <c r="G59">
+        <f t="shared" si="1"/>
+        <v>29392965126</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="2"/>
+        <v>18963203307</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
         <v>2277954797227.2666</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="4"/>
+      <c r="J59">
+        <f t="shared" si="6"/>
         <v>91118191890</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3153,23 +3623,31 @@
         <v>105924898071067.91</v>
       </c>
       <c r="E60">
+        <f t="shared" si="7"/>
+        <v>7061659871404.5273</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="5"/>
-        <v>7061659871404.5273</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="3"/>
         <v>70616598715</v>
       </c>
       <c r="G60">
+        <f t="shared" si="1"/>
+        <v>45559095945</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="2"/>
+        <v>29392965126</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
         <v>3530829935702.2637</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="4"/>
+      <c r="J60">
+        <f t="shared" si="6"/>
         <v>141233197429</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3182,23 +3660,31 @@
         <v>164183592010155.28</v>
       </c>
       <c r="E61">
+        <f t="shared" si="7"/>
+        <v>10945572800677.02</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="5"/>
-        <v>10945572800677.02</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="3"/>
         <v>109455728007</v>
       </c>
       <c r="G61">
+        <f t="shared" si="1"/>
+        <v>70616598715</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="2"/>
+        <v>45559095945</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
         <v>5472786400338.5098</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="4"/>
+      <c r="J61">
+        <f t="shared" si="6"/>
         <v>218911456014</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3211,23 +3697,31 @@
         <v>254484567615740.66</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62:E84" si="6" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
+        <f t="shared" ref="E62:E84" si="8" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
         <v>16965637841049.377</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62:F84" si="7">ROUNDUP(B62/base_damage, 0)</f>
+        <f t="shared" ref="F62:F84" si="9">ROUNDUP(B62/base_damage, 0)</f>
         <v>169656378411</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:G84" si="8">E62/2</f>
+        <f t="shared" si="1"/>
+        <v>109455728007</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>70616598715</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62:I84" si="10">E62/2</f>
         <v>8482818920524.6885</v>
       </c>
-      <c r="H62">
-        <f t="shared" ref="H62:H84" si="9">ROUNDUP(B62/explosion_shot_base, 0)</f>
+      <c r="J62">
+        <f t="shared" ref="J62:J84" si="11">ROUNDUP(B62/explosion_shot_base, 0)</f>
         <v>339312756821</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3240,23 +3734,31 @@
         <v>394451079804398.13</v>
       </c>
       <c r="E63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26296738653626.543</v>
       </c>
       <c r="F63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>262967386537</v>
       </c>
       <c r="G63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
+        <v>169656378411</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>109455728007</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="10"/>
         <v>13148369326813.271</v>
       </c>
-      <c r="H63">
-        <f t="shared" si="9"/>
+      <c r="J63">
+        <f t="shared" si="11"/>
         <v>525934773073</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3269,23 +3771,31 @@
         <v>611399173696817</v>
       </c>
       <c r="E64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40759944913121.133</v>
       </c>
       <c r="F64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>407599449132</v>
       </c>
       <c r="G64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
+        <v>262967386537</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>169656378411</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="10"/>
         <v>20379972456560.566</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="9"/>
+      <c r="J64">
+        <f t="shared" si="11"/>
         <v>815198898263</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3298,23 +3808,31 @@
         <v>947668719230066.75</v>
       </c>
       <c r="E65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>63177914615337.781</v>
       </c>
       <c r="F65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>631779146154</v>
       </c>
       <c r="G65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
+        <v>407599449132</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>262967386537</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="10"/>
         <v>31588957307668.891</v>
       </c>
-      <c r="H65">
-        <f t="shared" si="9"/>
+      <c r="J65">
+        <f t="shared" si="11"/>
         <v>1263558292307</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3327,23 +3845,31 @@
         <v>1468886514806603.5</v>
       </c>
       <c r="E66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>97925767653773.563</v>
       </c>
       <c r="F66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>979257676538</v>
       </c>
       <c r="G66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
+        <v>631779146154</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>407599449132</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="10"/>
         <v>48962883826886.781</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="9"/>
+      <c r="J66">
+        <f t="shared" si="11"/>
         <v>1958515353076</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3356,23 +3882,31 @@
         <v>2276774097950235</v>
       </c>
       <c r="E67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>151784939863349</v>
       </c>
       <c r="F67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1517849398634</v>
       </c>
       <c r="G67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
+        <v>979257676538</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>631779146154</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="10"/>
         <v>75892469931674.5</v>
       </c>
-      <c r="H67">
-        <f t="shared" si="9"/>
+      <c r="J67">
+        <f t="shared" si="11"/>
         <v>3035698797267</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3385,23 +3919,31 @@
         <v>3528999851822864.5</v>
       </c>
       <c r="E68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>235266656788190.97</v>
       </c>
       <c r="F68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2352666567882</v>
       </c>
       <c r="G68">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G68:G92" si="12">ROUNDUP(B68/$E$4, 0)</f>
+        <v>1517849398634</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H102" si="13">ROUNDUP(B68/$E$5, 0)</f>
+        <v>979257676538</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="10"/>
         <v>117633328394095.48</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="9"/>
+      <c r="J68">
+        <f t="shared" si="11"/>
         <v>4705333135764</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3414,23 +3956,31 @@
         <v>5469949770325440</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>364663318021696</v>
       </c>
       <c r="F69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3646633180217</v>
       </c>
       <c r="G69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>2352666567882</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="13"/>
+        <v>1517849398634</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
         <v>182331659010848</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="9"/>
+      <c r="J69">
+        <f t="shared" si="11"/>
         <v>7293266360434</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3443,23 +3993,31 @@
         <v>8478422144004431</v>
       </c>
       <c r="E70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>565228142933628.75</v>
       </c>
       <c r="F70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5652281429337</v>
       </c>
       <c r="G70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>3646633180217</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="13"/>
+        <v>2352666567882</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
         <v>282614071466814.38</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="9"/>
+      <c r="J70">
+        <f t="shared" si="11"/>
         <v>11304562858673</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3472,23 +4030,31 @@
         <v>1.3141554323206872E+16</v>
       </c>
       <c r="E71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>876103621547124.75</v>
       </c>
       <c r="F71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8761036215472</v>
       </c>
       <c r="G71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>5652281429337</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="13"/>
+        <v>3646633180217</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="10"/>
         <v>438051810773562.38</v>
       </c>
-      <c r="H71">
-        <f t="shared" si="9"/>
+      <c r="J71">
+        <f t="shared" si="11"/>
         <v>17522072430943</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3501,23 +4067,31 @@
         <v>2.0369409200970648E+16</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1357960613398043.3</v>
       </c>
       <c r="F72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13579606133981</v>
       </c>
       <c r="G72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>8761036215472</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="13"/>
+        <v>5652281429337</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="10"/>
         <v>678980306699021.63</v>
       </c>
-      <c r="H72">
-        <f t="shared" si="9"/>
+      <c r="J72">
+        <f t="shared" si="11"/>
         <v>27159212267961</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3530,23 +4104,31 @@
         <v>3.1572584261504512E+16</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2104838950766967.5</v>
       </c>
       <c r="F73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21048389507670</v>
       </c>
       <c r="G73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>13579606133981</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="13"/>
+        <v>8761036215472</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="10"/>
         <v>1052419475383483.8</v>
       </c>
-      <c r="H73">
-        <f t="shared" si="9"/>
+      <c r="J73">
+        <f t="shared" si="11"/>
         <v>42096779015340</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3559,23 +4141,31 @@
         <v>4.8937505605332E+16</v>
       </c>
       <c r="E74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3262500373688800</v>
       </c>
       <c r="F74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32625003736888</v>
       </c>
       <c r="G74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>21048389507670</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="13"/>
+        <v>13579606133981</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="10"/>
         <v>1631250186844400</v>
       </c>
-      <c r="H74">
-        <f t="shared" si="9"/>
+      <c r="J74">
+        <f t="shared" si="11"/>
         <v>65250007473776</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3588,23 +4178,31 @@
         <v>7.5853133688264608E+16</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5056875579217641</v>
       </c>
       <c r="F75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50568755792177</v>
       </c>
       <c r="G75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>32625003736888</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="13"/>
+        <v>21048389507670</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="10"/>
         <v>2528437789608820.5</v>
       </c>
-      <c r="H75">
-        <f t="shared" si="9"/>
+      <c r="J75">
+        <f t="shared" si="11"/>
         <v>101137511584353</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3617,23 +4215,31 @@
         <v>1.1757235721681016E+17</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7838157147787344</v>
       </c>
       <c r="F76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78381571477874</v>
       </c>
       <c r="G76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>50568755792177</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="13"/>
+        <v>32625003736888</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
         <v>3919078573893672</v>
       </c>
-      <c r="H76">
-        <f t="shared" si="9"/>
+      <c r="J76">
+        <f t="shared" si="11"/>
         <v>156763142955747</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3646,23 +4252,31 @@
         <v>1.8223715368605574E+17</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2149143579070382E+16</v>
       </c>
       <c r="F77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>121491435790704</v>
       </c>
       <c r="G77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>78381571477874</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="13"/>
+        <v>50568755792177</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
         <v>6074571789535191</v>
       </c>
-      <c r="H77">
-        <f t="shared" si="9"/>
+      <c r="J77">
+        <f t="shared" si="11"/>
         <v>242982871581408</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3675,23 +4289,31 @@
         <v>2.8246758821338637E+17</v>
       </c>
       <c r="E78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8831172547559092E+16</v>
       </c>
       <c r="F78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>188311725475591</v>
       </c>
       <c r="G78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>121491435790704</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="13"/>
+        <v>78381571477874</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
         <v>9415586273779546</v>
       </c>
-      <c r="H78">
-        <f t="shared" si="9"/>
+      <c r="J78">
+        <f t="shared" si="11"/>
         <v>376623450951182</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3704,23 +4326,31 @@
         <v>4.3782476173074899E+17</v>
       </c>
       <c r="E79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.91883174487166E+16</v>
       </c>
       <c r="F79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>291883174487166</v>
       </c>
       <c r="G79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>188311725475591</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="13"/>
+        <v>121491435790704</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
         <v>1.45941587243583E+16</v>
       </c>
-      <c r="H79">
-        <f t="shared" si="9"/>
+      <c r="J79">
+        <f t="shared" si="11"/>
         <v>583766348974332</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3733,23 +4363,31 @@
         <v>6.7862838068266086E+17</v>
       </c>
       <c r="E80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5241892045510728E+16</v>
       </c>
       <c r="F80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>452418920455107</v>
       </c>
       <c r="G80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>291883174487166</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="13"/>
+        <v>188311725475591</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
         <v>2.2620946022755364E+16</v>
       </c>
-      <c r="H80">
-        <f t="shared" si="9"/>
+      <c r="J80">
+        <f t="shared" si="11"/>
         <v>904837840910215</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3762,23 +4400,31 @@
         <v>1.0518739900581245E+18</v>
       </c>
       <c r="E81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.012493267054164E+16</v>
       </c>
       <c r="F81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>701249326705416</v>
       </c>
       <c r="G81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>452418920455107</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="13"/>
+        <v>291883174487166</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="10"/>
         <v>3.506246633527082E+16</v>
       </c>
-      <c r="H81">
-        <f t="shared" si="9"/>
+      <c r="J81">
+        <f t="shared" si="11"/>
         <v>1402498653410830</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3791,23 +4437,31 @@
         <v>1.6304046845900933E+18</v>
       </c>
       <c r="E82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0869364563933955E+17</v>
       </c>
       <c r="F82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1086936456393400</v>
       </c>
       <c r="G82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>701249326705417</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="13"/>
+        <v>452418920455107</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="10"/>
         <v>5.4346822819669776E+16</v>
       </c>
-      <c r="H82">
-        <f t="shared" si="9"/>
+      <c r="J82">
+        <f t="shared" si="11"/>
         <v>2173872912786790</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3820,23 +4474,31 @@
         <v>2.5271272611146445E+18</v>
       </c>
       <c r="E83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6847515074097629E+17</v>
       </c>
       <c r="F83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1684751507409760</v>
       </c>
       <c r="G83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>1086936456393400</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="13"/>
+        <v>701249326705416</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="10"/>
         <v>8.4237575370488144E+16</v>
       </c>
-      <c r="H83">
-        <f t="shared" si="9"/>
+      <c r="J83">
+        <f t="shared" si="11"/>
         <v>3369503014819530</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3849,23 +4511,31 @@
         <v>3.9170472547276989E+18</v>
       </c>
       <c r="E84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6113648364851325E+17</v>
       </c>
       <c r="F84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2611364836485130</v>
       </c>
       <c r="G84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>1684751507409760</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="13"/>
+        <v>1086936456393400</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="10"/>
         <v>1.3056824182425662E+17</v>
       </c>
-      <c r="H84">
-        <f t="shared" si="9"/>
+      <c r="J84">
+        <f t="shared" si="11"/>
         <v>5222729672970270</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3878,23 +4548,31 @@
         <v>6.0714232448279337E+18</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85:E102" si="10" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
+        <f t="shared" ref="E85:E102" si="14" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
         <v>4.0476154965519558E+17</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85:F102" si="11">ROUNDUP(B85/base_damage, 0)</f>
+        <f t="shared" ref="F85:F102" si="15">ROUNDUP(B85/base_damage, 0)</f>
         <v>4047615496551960</v>
       </c>
       <c r="G85">
-        <f t="shared" ref="G85:G102" si="12">E85/2</f>
+        <f t="shared" si="12"/>
+        <v>2611364836485130</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="13"/>
+        <v>1684751507409760</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ref="I85:I102" si="16">E85/2</f>
         <v>2.0238077482759779E+17</v>
       </c>
-      <c r="H85">
-        <f t="shared" ref="H85:H102" si="13">ROUNDUP(B85/explosion_shot_base, 0)</f>
+      <c r="J85">
+        <f t="shared" ref="J85:J102" si="17">ROUNDUP(B85/explosion_shot_base, 0)</f>
         <v>8095230993103910</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3907,23 +4585,31 @@
         <v>9.4107060294832968E+18</v>
       </c>
       <c r="E86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.2738040196555315E+17</v>
       </c>
       <c r="F86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6273804019655530</v>
       </c>
       <c r="G86">
         <f t="shared" si="12"/>
-        <v>3.1369020098277658E+17</v>
+        <v>4047615496551960</v>
       </c>
       <c r="H86">
         <f t="shared" si="13"/>
+        <v>2611364836485130</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="16"/>
+        <v>3.1369020098277658E+17</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="17"/>
         <v>1.25476080393111E+16</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3936,23 +4622,31 @@
         <v>1.4586594345699115E+19</v>
       </c>
       <c r="E87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.7243962304660762E+17</v>
       </c>
       <c r="F87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9724396230466080</v>
       </c>
       <c r="G87">
         <f t="shared" si="12"/>
-        <v>4.8621981152330381E+17</v>
+        <v>6273804019655530</v>
       </c>
       <c r="H87">
         <f t="shared" si="13"/>
+        <v>4047615496551960</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="16"/>
+        <v>4.8621981152330381E+17</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="17"/>
         <v>1.94487924609322E+16</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3965,23 +4659,31 @@
         <v>2.2609221235833627E+19</v>
       </c>
       <c r="E88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.5072814157222418E+18</v>
       </c>
       <c r="F88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.50728141572224E+16</v>
       </c>
       <c r="G88">
         <f t="shared" si="12"/>
-        <v>7.536407078611209E+17</v>
+        <v>9724396230466080</v>
       </c>
       <c r="H88">
         <f t="shared" si="13"/>
+        <v>6273804019655530</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="16"/>
+        <v>7.536407078611209E+17</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="17"/>
         <v>3.01456283144448E+16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3994,23 +4696,31 @@
         <v>3.5044292915542127E+19</v>
       </c>
       <c r="E89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.3362861943694751E+18</v>
       </c>
       <c r="F89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.33628619436948E+16</v>
       </c>
       <c r="G89">
         <f t="shared" si="12"/>
-        <v>1.1681430971847375E+18</v>
+        <v>1.50728141572224E+16</v>
       </c>
       <c r="H89">
         <f t="shared" si="13"/>
+        <v>9724396230466080</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="16"/>
+        <v>1.1681430971847375E+18</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="17"/>
         <v>4.6725723887389504E+16</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4023,23 +4733,31 @@
         <v>5.4318654019090301E+19</v>
       </c>
       <c r="E90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.6212436012726866E+18</v>
       </c>
       <c r="F90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.6212436012726896E+16</v>
       </c>
       <c r="G90">
         <f t="shared" si="12"/>
-        <v>1.8106218006363433E+18</v>
+        <v>2.33628619436948E+16</v>
       </c>
       <c r="H90">
         <f t="shared" si="13"/>
+        <v>1.50728141572224E+16</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="16"/>
+        <v>1.8106218006363433E+18</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="17"/>
         <v>7.2424872025453696E+16</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4052,23 +4770,31 @@
         <v>8.4193913729589969E+19</v>
       </c>
       <c r="E91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.6129275819726643E+18</v>
       </c>
       <c r="F91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.61292758197266E+16</v>
       </c>
       <c r="G91">
         <f t="shared" si="12"/>
-        <v>2.8064637909863322E+18</v>
+        <v>3.6212436012726896E+16</v>
       </c>
       <c r="H91">
         <f t="shared" si="13"/>
+        <v>2.33628619436947E+16</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="16"/>
+        <v>2.8064637909863322E+18</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="17"/>
         <v>1.1225855163945299E+17</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4081,23 +4807,31 @@
         <v>1.3050056628086448E+20</v>
       </c>
       <c r="E92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8.7000377520576317E+18</v>
       </c>
       <c r="F92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>8.7000377520576304E+16</v>
       </c>
       <c r="G92">
         <f t="shared" si="12"/>
-        <v>4.3500188760288159E+18</v>
+        <v>5.6129275819726704E+16</v>
       </c>
       <c r="H92">
         <f t="shared" si="13"/>
+        <v>3.6212436012726896E+16</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="16"/>
+        <v>4.3500188760288159E+18</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="17"/>
         <v>1.7400075504115299E+17</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4110,23 +4844,31 @@
         <v>2.0227587773533992E+20</v>
       </c>
       <c r="E93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.3485058515689329E+19</v>
       </c>
       <c r="F93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.3485058515689299E+17</v>
       </c>
       <c r="G93">
-        <f t="shared" si="12"/>
-        <v>6.7425292578446643E+18</v>
+        <f>ROUNDUP(B93/$E$4, 0)</f>
+        <v>8.7000377520576304E+16</v>
       </c>
       <c r="H93">
         <f t="shared" si="13"/>
+        <v>5.61292758197266E+16</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="16"/>
+        <v>6.7425292578446643E+18</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="17"/>
         <v>2.6970117031378701E+17</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4139,23 +4881,31 @@
         <v>3.1352761048977683E+20</v>
       </c>
       <c r="E94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0901840699318456E+19</v>
       </c>
       <c r="F94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.0901840699318499E+17</v>
       </c>
       <c r="G94">
-        <f t="shared" si="12"/>
-        <v>1.0450920349659228E+19</v>
+        <f t="shared" ref="G94:G102" si="18">ROUNDUP(B94/$E$4, 0)</f>
+        <v>1.3485058515689299E+17</v>
       </c>
       <c r="H94">
         <f t="shared" si="13"/>
+        <v>8.7000377520576304E+16</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="16"/>
+        <v>1.0450920349659228E+19</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="17"/>
         <v>4.1803681398636902E+17</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4168,23 +4918,31 @@
         <v>4.8596779625915423E+20</v>
       </c>
       <c r="E95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.2397853083943617E+19</v>
       </c>
       <c r="F95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.2397853083943603E+17</v>
       </c>
       <c r="G95">
-        <f t="shared" si="12"/>
-        <v>1.6198926541971808E+19</v>
+        <f t="shared" si="18"/>
+        <v>2.0901840699318499E+17</v>
       </c>
       <c r="H95">
         <f t="shared" si="13"/>
+        <v>1.3485058515689299E+17</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="16"/>
+        <v>1.6198926541971808E+19</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="17"/>
         <v>6.4795706167887206E+17</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4197,23 +4955,31 @@
         <v>7.5325008420168912E+20</v>
       </c>
       <c r="E96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.0216672280112611E+19</v>
       </c>
       <c r="F96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.0216672280112602E+17</v>
       </c>
       <c r="G96">
-        <f t="shared" si="12"/>
-        <v>2.5108336140056306E+19</v>
+        <f t="shared" si="18"/>
+        <v>3.2397853083943603E+17</v>
       </c>
       <c r="H96">
         <f t="shared" si="13"/>
+        <v>2.0901840699318499E+17</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="16"/>
+        <v>2.5108336140056306E+19</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="17"/>
         <v>1.00433344560225E+18</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4226,23 +4992,31 @@
         <v>1.1675376305126184E+21</v>
       </c>
       <c r="E97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7.7835842034174558E+19</v>
       </c>
       <c r="F97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7.7835842034174605E+17</v>
       </c>
       <c r="G97">
-        <f t="shared" si="12"/>
-        <v>3.8917921017087279E+19</v>
+        <f t="shared" si="18"/>
+        <v>5.0216672280112602E+17</v>
       </c>
       <c r="H97">
         <f t="shared" si="13"/>
+        <v>3.2397853083943603E+17</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="16"/>
+        <v>3.8917921017087279E+19</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="17"/>
         <v>1.55671684068349E+18</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4255,23 +5029,31 @@
         <v>1.8096833272945587E+21</v>
       </c>
       <c r="E98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.2064555515297058E+20</v>
       </c>
       <c r="F98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.2064555515297101E+18</v>
       </c>
       <c r="G98">
-        <f t="shared" si="12"/>
-        <v>6.032277757648529E+19</v>
+        <f t="shared" si="18"/>
+        <v>7.7835842034174605E+17</v>
       </c>
       <c r="H98">
         <f t="shared" si="13"/>
+        <v>5.0216672280112602E+17</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="16"/>
+        <v>6.032277757648529E+19</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="17"/>
         <v>2.4129111030594099E+18</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4284,23 +5066,31 @@
         <v>2.8050091573065658E+21</v>
       </c>
       <c r="E99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.8700061048710437E+20</v>
       </c>
       <c r="F99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.87000610487104E+18</v>
       </c>
       <c r="G99">
-        <f t="shared" si="12"/>
-        <v>9.3500305243552186E+19</v>
+        <f t="shared" si="18"/>
+        <v>1.2064555515297101E+18</v>
       </c>
       <c r="H99">
         <f t="shared" si="13"/>
+        <v>7.7835842034174605E+17</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="16"/>
+        <v>9.3500305243552186E+19</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="17"/>
         <v>3.7400122097420902E+18</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4313,23 +5103,31 @@
         <v>4.3477641938251767E+21</v>
       </c>
       <c r="E100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.8985094625501177E+20</v>
       </c>
       <c r="F100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.8985094625501199E+18</v>
       </c>
       <c r="G100">
-        <f t="shared" si="12"/>
-        <v>1.4492547312750589E+20</v>
+        <f t="shared" si="18"/>
+        <v>1.87000610487104E+18</v>
       </c>
       <c r="H100">
         <f t="shared" si="13"/>
+        <v>1.2064555515297101E+18</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="16"/>
+        <v>1.4492547312750589E+20</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="17"/>
         <v>5.7970189251002399E+18</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4342,23 +5140,31 @@
         <v>6.7390345004290251E+21</v>
       </c>
       <c r="E101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.4926896669526832E+20</v>
       </c>
       <c r="F101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.4926896669526799E+18</v>
       </c>
       <c r="G101">
-        <f t="shared" si="12"/>
-        <v>2.2463448334763416E+20</v>
+        <f t="shared" si="18"/>
+        <v>2.8985094625501199E+18</v>
       </c>
       <c r="H101">
         <f t="shared" si="13"/>
+        <v>1.87000610487104E+18</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="16"/>
+        <v>2.2463448334763416E+20</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="17"/>
         <v>8.9853793339053701E+18</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4371,19 +5177,27 @@
         <v>1.0445503475664988E+22</v>
       </c>
       <c r="E102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.9636689837766594E+20</v>
       </c>
       <c r="F102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.9636689837766605E+18</v>
       </c>
       <c r="G102">
-        <f t="shared" si="12"/>
-        <v>3.4818344918883297E+20</v>
+        <f t="shared" si="18"/>
+        <v>4.4926896669526799E+18</v>
       </c>
       <c r="H102">
         <f t="shared" si="13"/>
+        <v>2.8985094625501199E+18</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="16"/>
+        <v>3.4818344918883297E+20</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="17"/>
         <v>1.39273379675533E+19</v>
       </c>
     </row>
@@ -4406,7 +5220,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5201,12 +6015,12 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5227,7 +6041,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5575,12 +6389,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5601,16 +6415,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5627,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5635,7 +6449,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
         <f>D2</f>
@@ -5644,7 +6458,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5652,7 +6466,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <f>A2</f>
@@ -5661,19 +6475,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <f>MAX(((H4-H2)+1 )*H3* H5, 1)</f>
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -5681,7 +6495,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <f xml:space="preserve"> H8 /H6</f>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -1390,7 +1390,7 @@
   <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1439,7 @@
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -331,34 +331,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240.25000000000003</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>372.38750000000005</c:v>
+                  <c:v>66.40625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>577.20062500000017</c:v>
+                  <c:v>83.0078125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>894.66096875000028</c:v>
+                  <c:v>103.759765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1386.7245015625006</c:v>
+                  <c:v>129.69970703125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2149.4229774218761</c:v>
+                  <c:v>162.1246337890625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3331.605615003908</c:v>
+                  <c:v>202.65579223632813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5163.9887032560582</c:v>
+                  <c:v>253.31974029541016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,7 +1390,7 @@
   <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="O1">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>27</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f xml:space="preserve"> base_damage* hits_1_round_behind ^ A2</f>
+        <f xml:space="preserve"> 100* hits_1_round_behind ^ A2</f>
         <v>100</v>
       </c>
       <c r="C3">
@@ -1490,28 +1490,28 @@
         <v>1500</v>
       </c>
       <c r="E3">
-        <f xml:space="preserve"> 100</f>
-        <v>100</v>
+        <f xml:space="preserve"> 34</f>
+        <v>34</v>
       </c>
       <c r="F3">
         <f>ROUNDUP(B3/base_damage, 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <f>ROUNDUP(B3/$E$4, 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <f>ROUNDUP(B3/$E$5, 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <f>base_damage/2</f>
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <f>ROUNDUP(B3/explosion_shot_base, 0)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>6</v>
@@ -1532,36 +1532,36 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A3</f>
-        <v>155</v>
+        <f t="shared" ref="B4:B35" si="0" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A3</f>
+        <v>125</v>
       </c>
       <c r="C4">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A3*brute_life_multiplier</f>
-        <v>2325</v>
+        <f t="shared" ref="C4:C35" si="1" xml:space="preserve"> $B$3*hits_1_round_behind^A3*brute_life_multiplier</f>
+        <v>1875</v>
       </c>
       <c r="E4">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
-        <v>155</v>
+        <f t="shared" ref="E4:E35" si="2" xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
+        <v>42.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F34" si="0">ROUNDUP(B4/base_damage, 0)</f>
-        <v>2</v>
+        <f t="shared" ref="F4:F34" si="3">ROUNDUP(B4/base_damage, 0)</f>
+        <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="1">ROUNDUP(B4/$E$4, 0)</f>
-        <v>1</v>
+        <f t="shared" ref="G4:G67" si="4">ROUNDUP(B4/$E$4, 0)</f>
+        <v>3</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="2">ROUNDUP(B4/$E$5, 0)</f>
-        <v>1</v>
+        <f t="shared" ref="H4:H67" si="5">ROUNDUP(B4/$E$5, 0)</f>
+        <v>3</v>
       </c>
       <c r="I4">
         <f>E4/2</f>
-        <v>77.5</v>
+        <v>21.25</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J34" si="3">ROUNDUP(B4/explosion_shot_base, 0)</f>
-        <v>4</v>
+        <f t="shared" ref="J4:J34" si="6">ROUNDUP(B4/explosion_shot_base, 0)</f>
+        <v>8</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>7</v>
@@ -1579,36 +1579,36 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A4</f>
-        <v>240.25000000000003</v>
+        <f t="shared" si="0"/>
+        <v>156.25</v>
       </c>
       <c r="C5">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A4*brute_life_multiplier</f>
-        <v>3603.7500000000005</v>
+        <f t="shared" si="1"/>
+        <v>2343.75</v>
       </c>
       <c r="E5">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A4</f>
-        <v>240.25000000000003</v>
+        <f t="shared" si="2"/>
+        <v>53.125</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I61" si="4">E5/2</f>
-        <v>120.12500000000001</v>
-      </c>
-      <c r="J5">
         <f t="shared" si="3"/>
         <v>5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I61" si="7">E5/2</f>
+        <v>26.5625</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="R5" s="3"/>
     </row>
@@ -1617,36 +1617,36 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A5</f>
-        <v>372.38750000000005</v>
+        <f t="shared" si="0"/>
+        <v>195.3125</v>
       </c>
       <c r="C6">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A5*brute_life_multiplier</f>
-        <v>5585.8125000000009</v>
+        <f t="shared" si="1"/>
+        <v>2929.6875</v>
       </c>
       <c r="E6">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A5</f>
-        <v>372.38750000000005</v>
+        <f t="shared" si="2"/>
+        <v>66.40625</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="I6">
-        <f t="shared" si="4"/>
-        <v>186.19375000000002</v>
+        <f t="shared" si="7"/>
+        <v>33.203125</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1654,36 +1654,36 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A6</f>
-        <v>577.20062500000017</v>
+        <f t="shared" si="0"/>
+        <v>244.140625</v>
       </c>
       <c r="C7">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A6*brute_life_multiplier</f>
-        <v>8658.0093750000033</v>
+        <f t="shared" si="1"/>
+        <v>3662.109375</v>
       </c>
       <c r="E7">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A6</f>
-        <v>577.20062500000017</v>
+        <f t="shared" si="2"/>
+        <v>83.0078125</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
-        <v>288.60031250000009</v>
+        <f t="shared" si="7"/>
+        <v>41.50390625</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1691,35 +1691,35 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A7</f>
-        <v>894.66096875000028</v>
+        <f t="shared" si="0"/>
+        <v>305.17578125</v>
       </c>
       <c r="C8">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A7*brute_life_multiplier</f>
-        <v>13419.914531250004</v>
+        <f t="shared" si="1"/>
+        <v>4577.63671875</v>
       </c>
       <c r="E8">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A7</f>
-        <v>894.66096875000028</v>
+        <f t="shared" si="2"/>
+        <v>103.759765625</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
       <c r="I8">
-        <f t="shared" si="4"/>
-        <v>447.33048437500014</v>
+        <f t="shared" si="7"/>
+        <v>51.8798828125</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -1728,36 +1728,36 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A8</f>
-        <v>1386.7245015625006</v>
+        <f t="shared" si="0"/>
+        <v>381.4697265625</v>
       </c>
       <c r="C9">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A8*brute_life_multiplier</f>
-        <v>20800.867523437508</v>
+        <f t="shared" si="1"/>
+        <v>5722.0458984375</v>
       </c>
       <c r="E9">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A8</f>
-        <v>1386.7245015625006</v>
+        <f t="shared" si="2"/>
+        <v>129.69970703125</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
-        <v>693.36225078125028</v>
+        <f t="shared" si="7"/>
+        <v>64.849853515625</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1765,36 +1765,36 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A9</f>
-        <v>2149.4229774218761</v>
+        <f t="shared" si="0"/>
+        <v>476.837158203125</v>
       </c>
       <c r="C10">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A9*brute_life_multiplier</f>
-        <v>32241.344661328141</v>
+        <f t="shared" si="1"/>
+        <v>7152.557373046875</v>
       </c>
       <c r="E10">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A9</f>
-        <v>2149.4229774218761</v>
+        <f t="shared" si="2"/>
+        <v>162.1246337890625</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
-        <v>1074.7114887109381</v>
+        <f t="shared" si="7"/>
+        <v>81.06231689453125</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f t="shared" si="6"/>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1802,36 +1802,36 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A10</f>
-        <v>3331.605615003908</v>
+        <f t="shared" si="0"/>
+        <v>596.04644775390625</v>
       </c>
       <c r="C11">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A10*brute_life_multiplier</f>
-        <v>49974.084225058621</v>
+        <f t="shared" si="1"/>
+        <v>8940.6967163085938</v>
       </c>
       <c r="E11">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A10</f>
-        <v>3331.605615003908</v>
+        <f t="shared" si="2"/>
+        <v>202.65579223632813</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
-        <v>1665.802807501954</v>
+        <f t="shared" si="7"/>
+        <v>101.32789611816406</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
-        <v>67</v>
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1839,36 +1839,36 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A11</f>
-        <v>5163.9887032560582</v>
+        <f t="shared" si="0"/>
+        <v>745.05805969238281</v>
       </c>
       <c r="C12">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A11*brute_life_multiplier</f>
-        <v>77459.830548840866</v>
+        <f t="shared" si="1"/>
+        <v>11175.870895385742</v>
       </c>
       <c r="E12">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A11</f>
-        <v>5163.9887032560582</v>
+        <f t="shared" si="2"/>
+        <v>253.31974029541016</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
-        <v>2581.9943516280291</v>
+        <f t="shared" si="7"/>
+        <v>126.65987014770508</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
-        <v>104</v>
+        <f t="shared" si="6"/>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1876,36 +1876,36 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A12</f>
-        <v>8004.1824900468891</v>
+        <f t="shared" si="0"/>
+        <v>931.32257461547852</v>
       </c>
       <c r="C13">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A12*brute_life_multiplier</f>
-        <v>120062.73735070333</v>
+        <f t="shared" si="1"/>
+        <v>13969.838619232178</v>
       </c>
       <c r="E13">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A12</f>
-        <v>8004.1824900468891</v>
+        <f t="shared" si="2"/>
+        <v>316.6496753692627</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>81</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
-        <v>4002.0912450234446</v>
+        <f t="shared" si="7"/>
+        <v>158.32483768463135</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
-        <v>161</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1913,36 +1913,36 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A13</f>
-        <v>12406.482859572679</v>
+        <f t="shared" si="0"/>
+        <v>1164.1532182693481</v>
       </c>
       <c r="C14">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A13*brute_life_multiplier</f>
-        <v>186097.24289359018</v>
+        <f t="shared" si="1"/>
+        <v>17462.298274040222</v>
       </c>
       <c r="E14">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A13</f>
-        <v>12406.482859572679</v>
+        <f t="shared" si="2"/>
+        <v>395.81209421157837</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
-        <v>6203.2414297863397</v>
+        <f t="shared" si="7"/>
+        <v>197.90604710578918</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
-        <v>249</v>
+        <f t="shared" si="6"/>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1950,36 +1950,36 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A14</f>
-        <v>19230.048432337655</v>
+        <f t="shared" si="0"/>
+        <v>1455.1915228366852</v>
       </c>
       <c r="C15">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A14*brute_life_multiplier</f>
-        <v>288450.72648506484</v>
+        <f t="shared" si="1"/>
+        <v>21827.872842550278</v>
       </c>
       <c r="E15">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A14</f>
-        <v>19230.048432337655</v>
+        <f t="shared" si="2"/>
+        <v>494.76511776447296</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>193</v>
+        <f t="shared" si="3"/>
+        <v>43</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
-        <v>9615.0242161688275</v>
+        <f t="shared" si="7"/>
+        <v>247.38255888223648</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
-        <v>385</v>
+        <f t="shared" si="6"/>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1987,36 +1987,36 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A15</f>
-        <v>29806.57507012337</v>
+        <f t="shared" si="0"/>
+        <v>1818.9894035458565</v>
       </c>
       <c r="C16">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A15*brute_life_multiplier</f>
-        <v>447098.62605185056</v>
+        <f t="shared" si="1"/>
+        <v>27284.841053187847</v>
       </c>
       <c r="E16">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A15</f>
-        <v>29806.57507012337</v>
+        <f t="shared" si="2"/>
+        <v>618.4563972055912</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>299</v>
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>193</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
-        <v>14903.287535061685</v>
+        <f t="shared" si="7"/>
+        <v>309.2281986027956</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
-        <v>597</v>
+        <f t="shared" si="6"/>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2024,36 +2024,36 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A16</f>
-        <v>46200.191358691227</v>
+        <f t="shared" si="0"/>
+        <v>2273.7367544323206</v>
       </c>
       <c r="C17">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A16*brute_life_multiplier</f>
-        <v>693002.87038036843</v>
+        <f t="shared" si="1"/>
+        <v>34106.051316484809</v>
       </c>
       <c r="E17">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A16</f>
-        <v>46200.191358691227</v>
+        <f t="shared" si="2"/>
+        <v>773.070496506989</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>463</v>
+        <f t="shared" si="3"/>
+        <v>67</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>299</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
-        <v>193</v>
+        <f t="shared" si="5"/>
+        <v>43</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
-        <v>23100.095679345613</v>
+        <f t="shared" si="7"/>
+        <v>386.5352482534945</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
-        <v>925</v>
+        <f t="shared" si="6"/>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2061,36 +2061,36 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A17</f>
-        <v>71610.296605971409</v>
+        <f t="shared" si="0"/>
+        <v>2842.1709430404007</v>
       </c>
       <c r="C18">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A17*brute_life_multiplier</f>
-        <v>1074154.4490895711</v>
+        <f t="shared" si="1"/>
+        <v>42632.564145606011</v>
       </c>
       <c r="E18">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A17</f>
-        <v>71610.296605971409</v>
+        <f t="shared" si="2"/>
+        <v>966.33812063373625</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>717</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>463</v>
+        <f t="shared" si="4"/>
+        <v>67</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
-        <v>299</v>
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
-        <v>35805.148302985705</v>
+        <f t="shared" si="7"/>
+        <v>483.16906031686813</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
-        <v>1433</v>
+        <f t="shared" si="6"/>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2098,36 +2098,36 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A18</f>
-        <v>110995.95973925568</v>
+        <f t="shared" si="0"/>
+        <v>3552.7136788005009</v>
       </c>
       <c r="C19">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A18*brute_life_multiplier</f>
-        <v>1664939.3960888351</v>
+        <f t="shared" si="1"/>
+        <v>53290.705182007514</v>
       </c>
       <c r="E19">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A18</f>
-        <v>110995.95973925568</v>
+        <f t="shared" si="2"/>
+        <v>1207.9226507921703</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1110</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>717</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
-        <v>463</v>
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
-        <v>55497.979869627838</v>
+        <f t="shared" si="7"/>
+        <v>603.96132539608516</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
-        <v>2220</v>
+        <f t="shared" si="6"/>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2135,36 +2135,36 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A19</f>
-        <v>172043.73759584629</v>
+        <f t="shared" si="0"/>
+        <v>4440.8920985006262</v>
       </c>
       <c r="C20">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A19*brute_life_multiplier</f>
-        <v>2580656.0639376943</v>
+        <f t="shared" si="1"/>
+        <v>66613.381477509392</v>
       </c>
       <c r="E20">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A19</f>
-        <v>172043.73759584629</v>
+        <f t="shared" si="2"/>
+        <v>1509.9033134902129</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1721</v>
+        <f t="shared" si="3"/>
+        <v>131</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>1110</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>717</v>
+        <f t="shared" si="5"/>
+        <v>84</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
-        <v>86021.868797923147</v>
+        <f t="shared" si="7"/>
+        <v>754.95165674510645</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
-        <v>3441</v>
+        <f t="shared" si="6"/>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2172,36 +2172,36 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A20</f>
-        <v>266667.79327356181</v>
+        <f t="shared" si="0"/>
+        <v>5551.1151231257827</v>
       </c>
       <c r="C21">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A20*brute_life_multiplier</f>
-        <v>4000016.8991034273</v>
+        <f t="shared" si="1"/>
+        <v>83266.726846886741</v>
       </c>
       <c r="E21">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A20</f>
-        <v>266667.79327356181</v>
+        <f t="shared" si="2"/>
+        <v>1887.3791418627661</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>2667</v>
+        <f t="shared" si="3"/>
+        <v>164</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>1721</v>
+        <f t="shared" si="4"/>
+        <v>131</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
-        <v>1110</v>
+        <f t="shared" si="5"/>
+        <v>105</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
-        <v>133333.8966367809</v>
+        <f t="shared" si="7"/>
+        <v>943.68957093138306</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
-        <v>5334</v>
+        <f t="shared" si="6"/>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2209,36 +2209,36 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A21</f>
-        <v>413335.07957402081</v>
+        <f t="shared" si="0"/>
+        <v>6938.8939039072284</v>
       </c>
       <c r="C22">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A21*brute_life_multiplier</f>
-        <v>6200026.1936103124</v>
+        <f t="shared" si="1"/>
+        <v>104083.40855860843</v>
       </c>
       <c r="E22">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A21</f>
-        <v>413335.07957402081</v>
+        <f t="shared" si="2"/>
+        <v>2359.2239273284576</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>4134</v>
+        <f t="shared" si="3"/>
+        <v>205</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>2667</v>
+        <f t="shared" si="4"/>
+        <v>164</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>1721</v>
+        <f t="shared" si="5"/>
+        <v>131</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
-        <v>206667.53978701041</v>
+        <f t="shared" si="7"/>
+        <v>1179.6119636642288</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
-        <v>8267</v>
+        <f t="shared" si="6"/>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2246,36 +2246,36 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A22</f>
-        <v>640669.37333973229</v>
+        <f t="shared" si="0"/>
+        <v>8673.6173798840355</v>
       </c>
       <c r="C23">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A22*brute_life_multiplier</f>
-        <v>9610040.6000959836</v>
+        <f t="shared" si="1"/>
+        <v>130104.26069826054</v>
       </c>
       <c r="E23">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A22</f>
-        <v>640669.37333973229</v>
+        <f t="shared" si="2"/>
+        <v>2949.0299091605721</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>6407</v>
+        <f t="shared" si="3"/>
+        <v>256</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>4134</v>
+        <f t="shared" si="4"/>
+        <v>205</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
-        <v>2667</v>
+        <f t="shared" si="5"/>
+        <v>164</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
-        <v>320334.68666986615</v>
+        <f t="shared" si="7"/>
+        <v>1474.514954580286</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
-        <v>12814</v>
+        <f t="shared" si="6"/>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2283,36 +2283,36 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A23</f>
-        <v>993037.52867658518</v>
+        <f t="shared" si="0"/>
+        <v>10842.021724855043</v>
       </c>
       <c r="C24">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A23*brute_life_multiplier</f>
-        <v>14895562.930148778</v>
+        <f t="shared" si="1"/>
+        <v>162630.32587282566</v>
       </c>
       <c r="E24">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A23</f>
-        <v>993037.52867658518</v>
+        <f t="shared" si="2"/>
+        <v>3686.2873864507151</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>9931</v>
+        <f t="shared" si="3"/>
+        <v>319</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>6407</v>
+        <f t="shared" si="4"/>
+        <v>256</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>4134</v>
+        <f t="shared" si="5"/>
+        <v>205</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
-        <v>496518.76433829259</v>
+        <f t="shared" si="7"/>
+        <v>1843.1436932253575</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
-        <v>19861</v>
+        <f t="shared" si="6"/>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2320,36 +2320,36 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A24</f>
-        <v>1539208.169448707</v>
+        <f t="shared" si="0"/>
+        <v>13552.527156068805</v>
       </c>
       <c r="C25">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A24*brute_life_multiplier</f>
-        <v>23088122.541730605</v>
+        <f t="shared" si="1"/>
+        <v>203287.90734103209</v>
       </c>
       <c r="E25">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A24</f>
-        <v>1539208.169448707</v>
+        <f t="shared" si="2"/>
+        <v>4607.8592330633937</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>15393</v>
+        <f t="shared" si="3"/>
+        <v>399</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>9931</v>
+        <f t="shared" si="4"/>
+        <v>319</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>6407</v>
+        <f t="shared" si="5"/>
+        <v>256</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
-        <v>769604.08472435351</v>
+        <f t="shared" si="7"/>
+        <v>2303.9296165316969</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
-        <v>30785</v>
+        <f t="shared" si="6"/>
+        <v>798</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2357,36 +2357,36 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A25</f>
-        <v>2385772.662645496</v>
+        <f t="shared" si="0"/>
+        <v>16940.658945086005</v>
       </c>
       <c r="C26">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A25*brute_life_multiplier</f>
-        <v>35786589.939682439</v>
+        <f t="shared" si="1"/>
+        <v>254109.88417629007</v>
       </c>
       <c r="E26">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A25</f>
-        <v>2385772.662645496</v>
+        <f t="shared" si="2"/>
+        <v>5759.8240413292415</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>23858</v>
+        <f t="shared" si="3"/>
+        <v>499</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>15393</v>
+        <f t="shared" si="4"/>
+        <v>399</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>9931</v>
+        <f t="shared" si="5"/>
+        <v>319</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
-        <v>1192886.331322748</v>
+        <f t="shared" si="7"/>
+        <v>2879.9120206646207</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
-        <v>47716</v>
+        <f t="shared" si="6"/>
+        <v>997</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2394,36 +2394,36 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A26</f>
-        <v>3697947.6271005194</v>
+        <f t="shared" si="0"/>
+        <v>21175.823681357509</v>
       </c>
       <c r="C27">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A26*brute_life_multiplier</f>
-        <v>55469214.40650779</v>
+        <f t="shared" si="1"/>
+        <v>317637.35522036266</v>
       </c>
       <c r="E27">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A26</f>
-        <v>3697947.6271005194</v>
+        <f t="shared" si="2"/>
+        <v>7199.7800516615525</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>36980</v>
+        <f t="shared" si="3"/>
+        <v>623</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>23858</v>
+        <f t="shared" si="4"/>
+        <v>499</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
-        <v>15393</v>
+        <f t="shared" si="5"/>
+        <v>399</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
-        <v>1848973.8135502597</v>
+        <f t="shared" si="7"/>
+        <v>3599.8900258307763</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
-        <v>73959</v>
+        <f t="shared" si="6"/>
+        <v>1246</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2431,36 +2431,36 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A27</f>
-        <v>5731818.8220058056</v>
+        <f t="shared" si="0"/>
+        <v>26469.77960169689</v>
       </c>
       <c r="C28">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A27*brute_life_multiplier</f>
-        <v>85977282.330087081</v>
+        <f t="shared" si="1"/>
+        <v>397046.69402545335</v>
       </c>
       <c r="E28">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A27</f>
-        <v>5731818.8220058056</v>
+        <f t="shared" si="2"/>
+        <v>8999.7250645769418</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>57319</v>
+        <f t="shared" si="3"/>
+        <v>779</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>36980</v>
+        <f t="shared" si="4"/>
+        <v>623</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>23858</v>
+        <f t="shared" si="5"/>
+        <v>499</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
-        <v>2865909.4110029028</v>
+        <f t="shared" si="7"/>
+        <v>4499.8625322884709</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
-        <v>114637</v>
+        <f t="shared" si="6"/>
+        <v>1558</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2468,36 +2468,36 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A28</f>
-        <v>8884319.1741089988</v>
+        <f t="shared" si="0"/>
+        <v>33087.224502121106</v>
       </c>
       <c r="C29">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A28*brute_life_multiplier</f>
-        <v>133264787.61163498</v>
+        <f t="shared" si="1"/>
+        <v>496308.36753181659</v>
       </c>
       <c r="E29">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A28</f>
-        <v>8884319.1741089988</v>
+        <f t="shared" si="2"/>
+        <v>11249.656330721176</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>88844</v>
+        <f t="shared" si="3"/>
+        <v>974</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>57319</v>
+        <f t="shared" si="4"/>
+        <v>779</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
-        <v>36980</v>
+        <f t="shared" si="5"/>
+        <v>623</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
-        <v>4442159.5870544994</v>
+        <f t="shared" si="7"/>
+        <v>5624.8281653605882</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
-        <v>177687</v>
+        <f t="shared" si="6"/>
+        <v>1947</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,36 +2505,36 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A29</f>
-        <v>13770694.719868949</v>
+        <f t="shared" si="0"/>
+        <v>41359.030627651387</v>
       </c>
       <c r="C30">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A29*brute_life_multiplier</f>
-        <v>206560420.79803422</v>
+        <f t="shared" si="1"/>
+        <v>620385.45941477083</v>
       </c>
       <c r="E30">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A29</f>
-        <v>13770694.719868949</v>
+        <f t="shared" si="2"/>
+        <v>14062.07041340147</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>137707</v>
+        <f t="shared" si="3"/>
+        <v>1217</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>88844</v>
+        <f t="shared" si="4"/>
+        <v>974</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
-        <v>57319</v>
+        <f t="shared" si="5"/>
+        <v>779</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
-        <v>6885347.3599344743</v>
+        <f t="shared" si="7"/>
+        <v>7031.0352067007352</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
-        <v>275414</v>
+        <f t="shared" si="6"/>
+        <v>2433</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2542,36 +2542,36 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A30</f>
-        <v>21344576.815796874</v>
+        <f t="shared" si="0"/>
+        <v>51698.788284564231</v>
       </c>
       <c r="C31">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A30*brute_life_multiplier</f>
-        <v>320168652.23695314</v>
+        <f t="shared" si="1"/>
+        <v>775481.82426846342</v>
       </c>
       <c r="E31">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A30</f>
-        <v>21344576.815796874</v>
+        <f t="shared" si="2"/>
+        <v>17577.588016751837</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>213446</v>
+        <f t="shared" si="3"/>
+        <v>1521</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>137707</v>
+        <f t="shared" si="4"/>
+        <v>1217</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
-        <v>88844</v>
+        <f t="shared" si="5"/>
+        <v>974</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
-        <v>10672288.407898437</v>
+        <f t="shared" si="7"/>
+        <v>8788.7940083759186</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
-        <v>426892</v>
+        <f t="shared" si="6"/>
+        <v>3042</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2579,36 +2579,36 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A31</f>
-        <v>33084094.064485155</v>
+        <f t="shared" si="0"/>
+        <v>64623.485355705285</v>
       </c>
       <c r="C32">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A31*brute_life_multiplier</f>
-        <v>496261410.96727735</v>
+        <f t="shared" si="1"/>
+        <v>969352.2803355793</v>
       </c>
       <c r="E32">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A31</f>
-        <v>33084094.064485155</v>
+        <f t="shared" si="2"/>
+        <v>21971.985020939796</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>330841</v>
+        <f t="shared" si="3"/>
+        <v>1901</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>213446</v>
+        <f t="shared" si="4"/>
+        <v>1521</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>137707</v>
+        <f t="shared" si="5"/>
+        <v>1217</v>
       </c>
       <c r="I32">
-        <f t="shared" si="4"/>
-        <v>16542047.032242578</v>
+        <f t="shared" si="7"/>
+        <v>10985.992510469898</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
-        <v>661682</v>
+        <f t="shared" si="6"/>
+        <v>3802</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2616,36 +2616,36 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A32</f>
-        <v>51280345.799952</v>
+        <f t="shared" si="0"/>
+        <v>80779.356694631613</v>
       </c>
       <c r="C33">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A32*brute_life_multiplier</f>
-        <v>769205186.99927998</v>
+        <f t="shared" si="1"/>
+        <v>1211690.3504194743</v>
       </c>
       <c r="E33">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A32</f>
-        <v>51280345.799952</v>
+        <f t="shared" si="2"/>
+        <v>27464.981276174749</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>512804</v>
+        <f t="shared" si="3"/>
+        <v>2376</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>330841</v>
+        <f t="shared" si="4"/>
+        <v>1901</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
-        <v>213446</v>
+        <f t="shared" si="5"/>
+        <v>1521</v>
       </c>
       <c r="I33">
-        <f t="shared" si="4"/>
-        <v>25640172.899976</v>
+        <f t="shared" si="7"/>
+        <v>13732.490638087374</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
-        <v>1025607</v>
+        <f t="shared" si="6"/>
+        <v>4752</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2653,36 +2653,36 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A33</f>
-        <v>79484535.989925608</v>
+        <f t="shared" si="0"/>
+        <v>100974.19586828951</v>
       </c>
       <c r="C34">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A33*brute_life_multiplier</f>
-        <v>1192268039.8488841</v>
+        <f t="shared" si="1"/>
+        <v>1514612.9380243425</v>
       </c>
       <c r="E34">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A33</f>
-        <v>79484535.989925608</v>
+        <f t="shared" si="2"/>
+        <v>34331.226595218432</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>794846</v>
+        <f t="shared" si="3"/>
+        <v>2970</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>512804</v>
+        <f t="shared" si="4"/>
+        <v>2376</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
-        <v>330841</v>
+        <f t="shared" si="5"/>
+        <v>1901</v>
       </c>
       <c r="I34">
-        <f t="shared" si="4"/>
-        <v>39742267.994962804</v>
+        <f t="shared" si="7"/>
+        <v>17165.613297609216</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
-        <v>1589691</v>
+        <f t="shared" si="6"/>
+        <v>5940</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2690,36 +2690,36 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A34</f>
-        <v>123201030.78438467</v>
+        <f t="shared" si="0"/>
+        <v>126217.7448353619</v>
       </c>
       <c r="C35">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A34*brute_life_multiplier</f>
-        <v>1848015461.76577</v>
+        <f t="shared" si="1"/>
+        <v>1893266.1725304285</v>
       </c>
       <c r="E35">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A34</f>
-        <v>123201030.78438467</v>
+        <f t="shared" si="2"/>
+        <v>42914.033244023041</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F61" si="5">ROUNDUP(B35/base_damage, 0)</f>
-        <v>1232011</v>
+        <f t="shared" ref="F35:F61" si="8">ROUNDUP(B35/base_damage, 0)</f>
+        <v>3713</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>794846</v>
+        <f t="shared" si="4"/>
+        <v>2970</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
-        <v>512804</v>
+        <f t="shared" si="5"/>
+        <v>2376</v>
       </c>
       <c r="I35">
-        <f t="shared" si="4"/>
-        <v>61600515.392192334</v>
+        <f t="shared" si="7"/>
+        <v>21457.016622011521</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J61" si="6">ROUNDUP(B35/explosion_shot_base, 0)</f>
-        <v>2464021</v>
+        <f t="shared" ref="J35:J61" si="9">ROUNDUP(B35/explosion_shot_base, 0)</f>
+        <v>7425</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2727,36 +2727,36 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A35</f>
-        <v>190961597.71579626</v>
+        <f t="shared" ref="B36:B67" si="10" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A35</f>
+        <v>157772.18104420239</v>
       </c>
       <c r="C36">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A35*brute_life_multiplier</f>
-        <v>2864423965.7369437</v>
+        <f t="shared" ref="C36:C67" si="11" xml:space="preserve"> $B$3*hits_1_round_behind^A35*brute_life_multiplier</f>
+        <v>2366582.7156630359</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E61" si="7" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
-        <v>190961597.71579626</v>
+        <f t="shared" ref="E36:E61" si="12" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
+        <v>53642.541555028809</v>
       </c>
       <c r="F36">
+        <f t="shared" si="8"/>
+        <v>4641</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>3713</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="5"/>
-        <v>1909616</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>1232011</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
-        <v>794846</v>
+        <v>2970</v>
       </c>
       <c r="I36">
-        <f t="shared" si="4"/>
-        <v>95480798.857898131</v>
+        <f t="shared" si="7"/>
+        <v>26821.270777514404</v>
       </c>
       <c r="J36">
-        <f t="shared" si="6"/>
-        <v>3819232</v>
+        <f t="shared" si="9"/>
+        <v>9281</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2764,36 +2764,36 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A36</f>
-        <v>295990476.45948422</v>
+        <f t="shared" si="10"/>
+        <v>197215.22630525296</v>
       </c>
       <c r="C37">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A36*brute_life_multiplier</f>
-        <v>4439857146.8922634</v>
+        <f t="shared" si="11"/>
+        <v>2958228.3945787945</v>
       </c>
       <c r="E37">
+        <f t="shared" si="12"/>
+        <v>67053.176943786006</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="8"/>
+        <v>5801</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>4641</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>3713</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="7"/>
-        <v>295990476.45948422</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="5"/>
-        <v>2959905</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>1909616</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
-        <v>1232011</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="4"/>
-        <v>147995238.22974211</v>
+        <v>33526.588471893003</v>
       </c>
       <c r="J37">
-        <f t="shared" si="6"/>
-        <v>5919810</v>
+        <f t="shared" si="9"/>
+        <v>11601</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2801,36 +2801,36 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A37</f>
-        <v>458785238.51220059</v>
+        <f t="shared" si="10"/>
+        <v>246519.03288156618</v>
       </c>
       <c r="C38">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A37*brute_life_multiplier</f>
-        <v>6881778577.6830091</v>
+        <f t="shared" si="11"/>
+        <v>3697785.4932234925</v>
       </c>
       <c r="E38">
+        <f t="shared" si="12"/>
+        <v>83816.4711797325</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="8"/>
+        <v>7251</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>5801</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>4641</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="7"/>
-        <v>458785238.51220059</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="5"/>
-        <v>4587853</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>2959905</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="2"/>
-        <v>1909616</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="4"/>
-        <v>229392619.2561003</v>
+        <v>41908.23558986625</v>
       </c>
       <c r="J38">
-        <f t="shared" si="6"/>
-        <v>9175705</v>
+        <f t="shared" si="9"/>
+        <v>14502</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2838,36 +2838,36 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A38</f>
-        <v>711117119.69391084</v>
+        <f t="shared" si="10"/>
+        <v>308148.79110195773</v>
       </c>
       <c r="C39">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A38*brute_life_multiplier</f>
-        <v>10666756795.408663</v>
+        <f t="shared" si="11"/>
+        <v>4622231.866529366</v>
       </c>
       <c r="E39">
+        <f t="shared" si="12"/>
+        <v>104770.58897466563</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="8"/>
+        <v>9064</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>7251</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>5801</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="7"/>
-        <v>711117119.69391084</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="5"/>
-        <v>7111172</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>4587853</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="2"/>
-        <v>2959905</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
-        <v>355558559.84695542</v>
+        <v>52385.294487332816</v>
       </c>
       <c r="J39">
-        <f t="shared" si="6"/>
-        <v>14222343</v>
+        <f t="shared" si="9"/>
+        <v>18127</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2875,36 +2875,36 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A39</f>
-        <v>1102231535.5255618</v>
+        <f t="shared" si="10"/>
+        <v>385185.98887744721</v>
       </c>
       <c r="C40">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A39*brute_life_multiplier</f>
-        <v>16533473032.883427</v>
+        <f t="shared" si="11"/>
+        <v>5777789.833161708</v>
       </c>
       <c r="E40">
+        <f t="shared" si="12"/>
+        <v>130963.23621833205</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="8"/>
+        <v>11329</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>7251</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="7"/>
-        <v>1102231535.5255618</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="5"/>
-        <v>11022316</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>7111172</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="2"/>
-        <v>4587853</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="4"/>
-        <v>551115767.7627809</v>
+        <v>65481.618109166026</v>
       </c>
       <c r="J40">
-        <f t="shared" si="6"/>
-        <v>22044631</v>
+        <f t="shared" si="9"/>
+        <v>22658</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2912,36 +2912,36 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A40</f>
-        <v>1708458880.0646212</v>
+        <f t="shared" si="10"/>
+        <v>481482.48609680898</v>
       </c>
       <c r="C41">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A40*brute_life_multiplier</f>
-        <v>25626883200.969318</v>
+        <f t="shared" si="11"/>
+        <v>7222237.291452135</v>
       </c>
       <c r="E41">
+        <f t="shared" si="12"/>
+        <v>163704.04527291504</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="8"/>
+        <v>14162</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>11329</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>9064</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="7"/>
-        <v>1708458880.0646212</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="5"/>
-        <v>17084589</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>11022316</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="2"/>
-        <v>7111172</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="4"/>
-        <v>854229440.03231061</v>
+        <v>81852.022636457521</v>
       </c>
       <c r="J41">
-        <f t="shared" si="6"/>
-        <v>34169178</v>
+        <f t="shared" si="9"/>
+        <v>28323</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2949,36 +2949,36 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A41</f>
-        <v>2648111264.100163</v>
+        <f t="shared" si="10"/>
+        <v>601853.10762101121</v>
       </c>
       <c r="C42">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A41*brute_life_multiplier</f>
-        <v>39721668961.502441</v>
+        <f t="shared" si="11"/>
+        <v>9027796.6143151689</v>
       </c>
       <c r="E42">
+        <f t="shared" si="12"/>
+        <v>204630.05659114383</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>17702</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>14162</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>11329</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="7"/>
-        <v>2648111264.100163</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="5"/>
-        <v>26481113</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>17084589</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="2"/>
-        <v>11022316</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="4"/>
-        <v>1324055632.0500815</v>
+        <v>102315.02829557192</v>
       </c>
       <c r="J42">
-        <f t="shared" si="6"/>
-        <v>52962226</v>
+        <f t="shared" si="9"/>
+        <v>35404</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2986,36 +2986,36 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A42</f>
-        <v>4104572459.3552532</v>
+        <f t="shared" si="10"/>
+        <v>752316.38452626404</v>
       </c>
       <c r="C43">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A42*brute_life_multiplier</f>
-        <v>61568586890.328796</v>
+        <f t="shared" si="11"/>
+        <v>11284745.767893961</v>
       </c>
       <c r="E43">
+        <f t="shared" si="12"/>
+        <v>255787.57073892976</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>22127</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>17702</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>14162</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="7"/>
-        <v>4104572459.3552532</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="5"/>
-        <v>41045725</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>26481113</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="2"/>
-        <v>17084589</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="4"/>
-        <v>2052286229.6776266</v>
+        <v>127893.78536946488</v>
       </c>
       <c r="J43">
-        <f t="shared" si="6"/>
-        <v>82091450</v>
+        <f t="shared" si="9"/>
+        <v>44254</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3023,36 +3023,36 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A43</f>
-        <v>6362087312.0006428</v>
+        <f t="shared" si="10"/>
+        <v>940395.48065783002</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A43*brute_life_multiplier</f>
-        <v>95431309680.009644</v>
+        <f t="shared" si="11"/>
+        <v>14105932.209867449</v>
       </c>
       <c r="E44">
+        <f t="shared" si="12"/>
+        <v>319734.46342366218</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>27659</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>22127</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>17702</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="7"/>
-        <v>6362087312.0006428</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="5"/>
-        <v>63620874</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>41045725</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="2"/>
-        <v>26481113</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="4"/>
-        <v>3181043656.0003214</v>
+        <v>159867.23171183109</v>
       </c>
       <c r="J44">
-        <f t="shared" si="6"/>
-        <v>127241747</v>
+        <f t="shared" si="9"/>
+        <v>55318</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3060,36 +3060,36 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A44</f>
-        <v>9861235333.600996</v>
+        <f t="shared" si="10"/>
+        <v>1175494.3508222876</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A44*brute_life_multiplier</f>
-        <v>147918530004.01495</v>
+        <f t="shared" si="11"/>
+        <v>17632415.262334313</v>
       </c>
       <c r="E45">
+        <f t="shared" si="12"/>
+        <v>399668.07927957777</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="8"/>
+        <v>34574</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>27659</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>22127</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="7"/>
-        <v>9861235333.600996</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="5"/>
-        <v>98612354</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>63620874</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="2"/>
-        <v>41045725</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="4"/>
-        <v>4930617666.800498</v>
+        <v>199834.03963978888</v>
       </c>
       <c r="J45">
-        <f t="shared" si="6"/>
-        <v>197224707</v>
+        <f t="shared" si="9"/>
+        <v>69147</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3097,36 +3097,36 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A45</f>
-        <v>15284914767.081543</v>
+        <f t="shared" si="10"/>
+        <v>1469367.9385278595</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A45*brute_life_multiplier</f>
-        <v>229273721506.22314</v>
+        <f t="shared" si="11"/>
+        <v>22040519.077917892</v>
       </c>
       <c r="E46">
+        <f t="shared" si="12"/>
+        <v>499585.09909947222</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="8"/>
+        <v>43217</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>34574</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>27659</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="7"/>
-        <v>15284914767.081543</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="5"/>
-        <v>152849148</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>98612354</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="2"/>
-        <v>63620874</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="4"/>
-        <v>7642457383.5407715</v>
+        <v>249792.54954973611</v>
       </c>
       <c r="J46">
-        <f t="shared" si="6"/>
-        <v>305698296</v>
+        <f t="shared" si="9"/>
+        <v>86434</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3134,36 +3134,36 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A46</f>
-        <v>23691617888.976398</v>
+        <f t="shared" si="10"/>
+        <v>1836709.9231598245</v>
       </c>
       <c r="C47">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A46*brute_life_multiplier</f>
-        <v>355374268334.646</v>
+        <f t="shared" si="11"/>
+        <v>27550648.847397368</v>
       </c>
       <c r="E47">
+        <f t="shared" si="12"/>
+        <v>624481.37387434032</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="8"/>
+        <v>54021</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>43217</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>34574</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="7"/>
-        <v>23691617888.976398</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="5"/>
-        <v>236916179</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>152849148</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="2"/>
-        <v>98612354</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="4"/>
-        <v>11845808944.488199</v>
+        <v>312240.68693717016</v>
       </c>
       <c r="J47">
-        <f t="shared" si="6"/>
-        <v>473832358</v>
+        <f t="shared" si="9"/>
+        <v>108042</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3171,36 +3171,36 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A47</f>
-        <v>36722007727.913422</v>
+        <f t="shared" si="10"/>
+        <v>2295887.4039497804</v>
       </c>
       <c r="C48">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A47*brute_life_multiplier</f>
-        <v>550830115918.70129</v>
+        <f t="shared" si="11"/>
+        <v>34438311.059246704</v>
       </c>
       <c r="E48">
+        <f t="shared" si="12"/>
+        <v>780601.71734292537</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="8"/>
+        <v>67527</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>54021</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>43217</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="7"/>
-        <v>36722007727.913422</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="5"/>
-        <v>367220078</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>236916179</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="2"/>
-        <v>152849148</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="4"/>
-        <v>18361003863.956711</v>
+        <v>390300.85867146269</v>
       </c>
       <c r="J48">
-        <f t="shared" si="6"/>
-        <v>734440155</v>
+        <f t="shared" si="9"/>
+        <v>135053</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3208,36 +3208,36 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A48</f>
-        <v>56919111978.265808</v>
+        <f t="shared" si="10"/>
+        <v>2869859.2549372255</v>
       </c>
       <c r="C49">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A48*brute_life_multiplier</f>
-        <v>853786679673.98706</v>
+        <f t="shared" si="11"/>
+        <v>43047888.824058384</v>
       </c>
       <c r="E49">
+        <f t="shared" si="12"/>
+        <v>975752.14667865657</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="8"/>
+        <v>84408</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>67527</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>54021</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="7"/>
-        <v>56919111978.265808</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="5"/>
-        <v>569191120</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>367220078</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="2"/>
-        <v>236916179</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="4"/>
-        <v>28459555989.132904</v>
+        <v>487876.07333932829</v>
       </c>
       <c r="J49">
-        <f t="shared" si="6"/>
-        <v>1138382240</v>
+        <f t="shared" si="9"/>
+        <v>168816</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3245,36 +3245,36 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A49</f>
-        <v>88224623566.311996</v>
+        <f t="shared" si="10"/>
+        <v>3587324.068671532</v>
       </c>
       <c r="C50">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A49*brute_life_multiplier</f>
-        <v>1323369353494.6799</v>
+        <f t="shared" si="11"/>
+        <v>53809861.03007298</v>
       </c>
       <c r="E50">
+        <f t="shared" si="12"/>
+        <v>1219690.1833483209</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="8"/>
+        <v>105510</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>84408</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>67527</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="7"/>
-        <v>88224623566.311996</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="5"/>
-        <v>882246236</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>569191120</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="2"/>
-        <v>367220078</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="4"/>
-        <v>44112311783.155998</v>
+        <v>609845.09167416045</v>
       </c>
       <c r="J50">
-        <f t="shared" si="6"/>
-        <v>1764492472</v>
+        <f t="shared" si="9"/>
+        <v>211020</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3282,36 +3282,36 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A50</f>
-        <v>136748166527.78362</v>
+        <f t="shared" si="10"/>
+        <v>4484155.085839415</v>
       </c>
       <c r="C51">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A50*brute_life_multiplier</f>
-        <v>2051222497916.7542</v>
+        <f t="shared" si="11"/>
+        <v>67262326.287591219</v>
       </c>
       <c r="E51">
+        <f t="shared" si="12"/>
+        <v>1524612.729185401</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="8"/>
+        <v>131887</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>105510</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>84408</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="7"/>
-        <v>136748166527.78362</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="5"/>
-        <v>1367481666</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>882246236</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="2"/>
-        <v>569191120</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="4"/>
-        <v>68374083263.891808</v>
+        <v>762306.3645927005</v>
       </c>
       <c r="J51">
-        <f t="shared" si="6"/>
-        <v>2734963331</v>
+        <f t="shared" si="9"/>
+        <v>263774</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3319,36 +3319,36 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A51</f>
-        <v>211959658118.06461</v>
+        <f t="shared" si="10"/>
+        <v>5605193.8572992682</v>
       </c>
       <c r="C52">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A51*brute_life_multiplier</f>
-        <v>3179394871770.9692</v>
+        <f t="shared" si="11"/>
+        <v>84077907.859489024</v>
       </c>
       <c r="E52">
+        <f t="shared" si="12"/>
+        <v>1905765.9114817514</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="8"/>
+        <v>164859</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>131887</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>105510</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="7"/>
-        <v>211959658118.06461</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="5"/>
-        <v>2119596582</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>1367481666</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="2"/>
-        <v>882246236</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="4"/>
-        <v>105979829059.0323</v>
+        <v>952882.95574087568</v>
       </c>
       <c r="J52">
-        <f t="shared" si="6"/>
-        <v>4239193163</v>
+        <f t="shared" si="9"/>
+        <v>329718</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3356,36 +3356,36 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A52</f>
-        <v>328537470083.00012</v>
+        <f t="shared" si="10"/>
+        <v>7006492.3216240862</v>
       </c>
       <c r="C53">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A52*brute_life_multiplier</f>
-        <v>4928062051245.002</v>
+        <f t="shared" si="11"/>
+        <v>105097384.82436129</v>
       </c>
       <c r="E53">
+        <f t="shared" si="12"/>
+        <v>2382207.3893521894</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="8"/>
+        <v>206074</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>164859</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>131887</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="7"/>
-        <v>328537470083.00012</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="5"/>
-        <v>3285374701</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>2119596582</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="2"/>
-        <v>1367481666</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="4"/>
-        <v>164268735041.50006</v>
+        <v>1191103.6946760947</v>
       </c>
       <c r="J53">
-        <f t="shared" si="6"/>
-        <v>6570749402</v>
+        <f t="shared" si="9"/>
+        <v>412147</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3393,36 +3393,36 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A53</f>
-        <v>509233078628.65027</v>
+        <f t="shared" si="10"/>
+        <v>8758115.4020301066</v>
       </c>
       <c r="C54">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A53*brute_life_multiplier</f>
-        <v>7638496179429.7539</v>
+        <f t="shared" si="11"/>
+        <v>131371731.0304516</v>
       </c>
       <c r="E54">
+        <f t="shared" si="12"/>
+        <v>2977759.2366902363</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>257592</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>206074</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>164859</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="7"/>
-        <v>509233078628.65027</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="5"/>
-        <v>5092330787</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>3285374701</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="2"/>
-        <v>2119596582</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="4"/>
-        <v>254616539314.32513</v>
+        <v>1488879.6183451181</v>
       </c>
       <c r="J54">
-        <f t="shared" si="6"/>
-        <v>10184661573</v>
+        <f t="shared" si="9"/>
+        <v>515184</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3430,36 +3430,36 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A54</f>
-        <v>789311271874.40796</v>
+        <f t="shared" si="10"/>
+        <v>10947644.252537634</v>
       </c>
       <c r="C55">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A54*brute_life_multiplier</f>
-        <v>11839669078116.119</v>
+        <f t="shared" si="11"/>
+        <v>164214663.78806451</v>
       </c>
       <c r="E55">
+        <f t="shared" si="12"/>
+        <v>3722199.0458627953</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="8"/>
+        <v>321990</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>257592</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>206074</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="7"/>
-        <v>789311271874.40796</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="5"/>
-        <v>7893112719</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>5092330787</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="2"/>
-        <v>3285374701</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="4"/>
-        <v>394655635937.20398</v>
+        <v>1861099.5229313977</v>
       </c>
       <c r="J55">
-        <f t="shared" si="6"/>
-        <v>15786225438</v>
+        <f t="shared" si="9"/>
+        <v>643980</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3467,36 +3467,36 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A55</f>
-        <v>1223432471405.3323</v>
+        <f t="shared" si="10"/>
+        <v>13684555.315672042</v>
       </c>
       <c r="C56">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A55*brute_life_multiplier</f>
-        <v>18351487071079.984</v>
+        <f t="shared" si="11"/>
+        <v>205268329.73508063</v>
       </c>
       <c r="E56">
+        <f t="shared" si="12"/>
+        <v>4652748.8073284943</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="8"/>
+        <v>402487</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>321990</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>257592</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="7"/>
-        <v>1223432471405.3323</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="5"/>
-        <v>12234324715</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>7893112719</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="2"/>
-        <v>5092330787</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="4"/>
-        <v>611716235702.66614</v>
+        <v>2326374.4036642471</v>
       </c>
       <c r="J56">
-        <f t="shared" si="6"/>
-        <v>24468649429</v>
+        <f t="shared" si="9"/>
+        <v>804974</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3504,36 +3504,36 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A56</f>
-        <v>1896320330678.2654</v>
+        <f t="shared" si="10"/>
+        <v>17105694.144590054</v>
       </c>
       <c r="C57">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A56*brute_life_multiplier</f>
-        <v>28444804960173.98</v>
+        <f t="shared" si="11"/>
+        <v>256585412.16885081</v>
       </c>
       <c r="E57">
+        <f t="shared" si="12"/>
+        <v>5815936.0091606183</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="8"/>
+        <v>503109</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>402487</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>321990</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="7"/>
-        <v>1896320330678.2654</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="5"/>
-        <v>18963203307</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>12234324715</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="2"/>
-        <v>7893112719</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="4"/>
-        <v>948160165339.13269</v>
+        <v>2907968.0045803091</v>
       </c>
       <c r="J57">
-        <f t="shared" si="6"/>
-        <v>37926406614</v>
+        <f t="shared" si="9"/>
+        <v>1006218</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3541,36 +3541,36 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A57</f>
-        <v>2939296512551.3115</v>
+        <f t="shared" si="10"/>
+        <v>21382117.680737566</v>
       </c>
       <c r="C58">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A57*brute_life_multiplier</f>
-        <v>44089447688269.672</v>
+        <f t="shared" si="11"/>
+        <v>320731765.2110635</v>
       </c>
       <c r="E58">
+        <f t="shared" si="12"/>
+        <v>7269920.0114507722</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="8"/>
+        <v>628886</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>503109</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>402487</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="7"/>
-        <v>2939296512551.3115</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="5"/>
-        <v>29392965126</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>18963203307</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="2"/>
-        <v>12234324715</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="4"/>
-        <v>1469648256275.6558</v>
+        <v>3634960.0057253861</v>
       </c>
       <c r="J58">
-        <f t="shared" si="6"/>
-        <v>58785930252</v>
+        <f t="shared" si="9"/>
+        <v>1257772</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3578,36 +3578,36 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A58</f>
-        <v>4555909594454.5332</v>
+        <f t="shared" si="10"/>
+        <v>26727647.100921959</v>
       </c>
       <c r="C59">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A58*brute_life_multiplier</f>
-        <v>68338643916818</v>
+        <f t="shared" si="11"/>
+        <v>400914706.51382935</v>
       </c>
       <c r="E59">
+        <f t="shared" si="12"/>
+        <v>9087400.0143134668</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="8"/>
+        <v>786108</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>628886</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>503109</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="7"/>
-        <v>4555909594454.5332</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="5"/>
-        <v>45559095945</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>29392965126</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="2"/>
-        <v>18963203307</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="4"/>
-        <v>2277954797227.2666</v>
+        <v>4543700.0071567334</v>
       </c>
       <c r="J59">
-        <f t="shared" si="6"/>
-        <v>91118191890</v>
+        <f t="shared" si="9"/>
+        <v>1572215</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3615,36 +3615,36 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A59</f>
-        <v>7061659871404.5273</v>
+        <f t="shared" si="10"/>
+        <v>33409558.876152452</v>
       </c>
       <c r="C60">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A59*brute_life_multiplier</f>
-        <v>105924898071067.91</v>
+        <f t="shared" si="11"/>
+        <v>501143383.14228678</v>
       </c>
       <c r="E60">
+        <f t="shared" si="12"/>
+        <v>11359250.017891834</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="8"/>
+        <v>982635</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>786108</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="5"/>
+        <v>628886</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="7"/>
-        <v>7061659871404.5273</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="5"/>
-        <v>70616598715</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>45559095945</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="2"/>
-        <v>29392965126</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="4"/>
-        <v>3530829935702.2637</v>
+        <v>5679625.0089459168</v>
       </c>
       <c r="J60">
-        <f t="shared" si="6"/>
-        <v>141233197429</v>
+        <f t="shared" si="9"/>
+        <v>1965269</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3652,36 +3652,36 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A60</f>
-        <v>10945572800677.02</v>
+        <f t="shared" si="10"/>
+        <v>41761948.595190562</v>
       </c>
       <c r="C61">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A60*brute_life_multiplier</f>
-        <v>164183592010155.28</v>
+        <f t="shared" si="11"/>
+        <v>626429228.92785847</v>
       </c>
       <c r="E61">
+        <f t="shared" si="12"/>
+        <v>14199062.522364791</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>1228293</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>982635</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="5"/>
+        <v>786108</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="7"/>
-        <v>10945572800677.02</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="5"/>
-        <v>109455728007</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>70616598715</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="2"/>
-        <v>45559095945</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="4"/>
-        <v>5472786400338.5098</v>
+        <v>7099531.2611823957</v>
       </c>
       <c r="J61">
-        <f t="shared" si="6"/>
-        <v>218911456014</v>
+        <f t="shared" si="9"/>
+        <v>2456586</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3689,36 +3689,36 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A61</f>
-        <v>16965637841049.377</v>
+        <f t="shared" si="10"/>
+        <v>52202435.743988201</v>
       </c>
       <c r="C62">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A61*brute_life_multiplier</f>
-        <v>254484567615740.66</v>
+        <f t="shared" si="11"/>
+        <v>783036536.15982306</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62:E84" si="8" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
-        <v>16965637841049.377</v>
+        <f t="shared" ref="E62:E84" si="13" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
+        <v>17748828.152955987</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62:F84" si="9">ROUNDUP(B62/base_damage, 0)</f>
-        <v>169656378411</v>
+        <f t="shared" ref="F62:F84" si="14">ROUNDUP(B62/base_damage, 0)</f>
+        <v>1535366</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>109455728007</v>
+        <f t="shared" si="4"/>
+        <v>1228293</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
-        <v>70616598715</v>
+        <f t="shared" si="5"/>
+        <v>982635</v>
       </c>
       <c r="I62">
-        <f t="shared" ref="I62:I84" si="10">E62/2</f>
-        <v>8482818920524.6885</v>
+        <f t="shared" ref="I62:I84" si="15">E62/2</f>
+        <v>8874414.0764779933</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:J84" si="11">ROUNDUP(B62/explosion_shot_base, 0)</f>
-        <v>339312756821</v>
+        <f t="shared" ref="J62:J84" si="16">ROUNDUP(B62/explosion_shot_base, 0)</f>
+        <v>3070732</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3726,36 +3726,36 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A62</f>
-        <v>26296738653626.543</v>
+        <f t="shared" si="10"/>
+        <v>65253044.67998524</v>
       </c>
       <c r="C63">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A62*brute_life_multiplier</f>
-        <v>394451079804398.13</v>
+        <f t="shared" si="11"/>
+        <v>978795670.19977856</v>
       </c>
       <c r="E63">
-        <f t="shared" si="8"/>
-        <v>26296738653626.543</v>
+        <f t="shared" si="13"/>
+        <v>22186035.191194981</v>
       </c>
       <c r="F63">
-        <f t="shared" si="9"/>
-        <v>262967386537</v>
+        <f t="shared" si="14"/>
+        <v>1919208</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>169656378411</v>
+        <f t="shared" si="4"/>
+        <v>1535366</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
-        <v>109455728007</v>
+        <f t="shared" si="5"/>
+        <v>1228293</v>
       </c>
       <c r="I63">
-        <f t="shared" si="10"/>
-        <v>13148369326813.271</v>
+        <f t="shared" si="15"/>
+        <v>11093017.595597491</v>
       </c>
       <c r="J63">
-        <f t="shared" si="11"/>
-        <v>525934773073</v>
+        <f t="shared" si="16"/>
+        <v>3838415</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3763,36 +3763,36 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A63</f>
-        <v>40759944913121.133</v>
+        <f t="shared" si="10"/>
+        <v>81566305.849981546</v>
       </c>
       <c r="C64">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A63*brute_life_multiplier</f>
-        <v>611399173696817</v>
+        <f t="shared" si="11"/>
+        <v>1223494587.7497232</v>
       </c>
       <c r="E64">
-        <f t="shared" si="8"/>
-        <v>40759944913121.133</v>
+        <f t="shared" si="13"/>
+        <v>27732543.988993727</v>
       </c>
       <c r="F64">
-        <f t="shared" si="9"/>
-        <v>407599449132</v>
+        <f t="shared" si="14"/>
+        <v>2399009</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>262967386537</v>
+        <f t="shared" si="4"/>
+        <v>1919208</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
-        <v>169656378411</v>
+        <f t="shared" si="5"/>
+        <v>1535366</v>
       </c>
       <c r="I64">
-        <f t="shared" si="10"/>
-        <v>20379972456560.566</v>
+        <f t="shared" si="15"/>
+        <v>13866271.994496863</v>
       </c>
       <c r="J64">
-        <f t="shared" si="11"/>
-        <v>815198898263</v>
+        <f t="shared" si="16"/>
+        <v>4798018</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3800,36 +3800,36 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A64</f>
-        <v>63177914615337.781</v>
+        <f t="shared" si="10"/>
+        <v>101957882.31247695</v>
       </c>
       <c r="C65">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A64*brute_life_multiplier</f>
-        <v>947668719230066.75</v>
+        <f t="shared" si="11"/>
+        <v>1529368234.6871543</v>
       </c>
       <c r="E65">
-        <f t="shared" si="8"/>
-        <v>63177914615337.781</v>
+        <f t="shared" si="13"/>
+        <v>34665679.98624216</v>
       </c>
       <c r="F65">
-        <f t="shared" si="9"/>
-        <v>631779146154</v>
+        <f t="shared" si="14"/>
+        <v>2998762</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>407599449132</v>
+        <f t="shared" si="4"/>
+        <v>2399009</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
-        <v>262967386537</v>
+        <f t="shared" si="5"/>
+        <v>1919208</v>
       </c>
       <c r="I65">
-        <f t="shared" si="10"/>
-        <v>31588957307668.891</v>
+        <f t="shared" si="15"/>
+        <v>17332839.99312108</v>
       </c>
       <c r="J65">
-        <f t="shared" si="11"/>
-        <v>1263558292307</v>
+        <f t="shared" si="16"/>
+        <v>5997523</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3837,36 +3837,36 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A65</f>
-        <v>97925767653773.563</v>
+        <f t="shared" si="10"/>
+        <v>127447352.8905962</v>
       </c>
       <c r="C66">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A65*brute_life_multiplier</f>
-        <v>1468886514806603.5</v>
+        <f t="shared" si="11"/>
+        <v>1911710293.358943</v>
       </c>
       <c r="E66">
-        <f t="shared" si="8"/>
-        <v>97925767653773.563</v>
+        <f t="shared" si="13"/>
+        <v>43332099.982802704</v>
       </c>
       <c r="F66">
-        <f t="shared" si="9"/>
-        <v>979257676538</v>
+        <f t="shared" si="14"/>
+        <v>3748452</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>631779146154</v>
+        <f t="shared" si="4"/>
+        <v>2998762</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
-        <v>407599449132</v>
+        <f t="shared" si="5"/>
+        <v>2399009</v>
       </c>
       <c r="I66">
-        <f t="shared" si="10"/>
-        <v>48962883826886.781</v>
+        <f t="shared" si="15"/>
+        <v>21666049.991401352</v>
       </c>
       <c r="J66">
-        <f t="shared" si="11"/>
-        <v>1958515353076</v>
+        <f t="shared" si="16"/>
+        <v>7496904</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3874,36 +3874,36 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A66</f>
-        <v>151784939863349</v>
+        <f t="shared" si="10"/>
+        <v>159309191.11324525</v>
       </c>
       <c r="C67">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A66*brute_life_multiplier</f>
-        <v>2276774097950235</v>
+        <f t="shared" si="11"/>
+        <v>2389637866.698679</v>
       </c>
       <c r="E67">
-        <f t="shared" si="8"/>
-        <v>151784939863349</v>
+        <f t="shared" si="13"/>
+        <v>54165124.978503384</v>
       </c>
       <c r="F67">
-        <f t="shared" si="9"/>
-        <v>1517849398634</v>
+        <f t="shared" si="14"/>
+        <v>4685565</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
-        <v>979257676538</v>
+        <f t="shared" si="4"/>
+        <v>3748452</v>
       </c>
       <c r="H67">
-        <f t="shared" si="2"/>
-        <v>631779146154</v>
+        <f t="shared" si="5"/>
+        <v>2998762</v>
       </c>
       <c r="I67">
-        <f t="shared" si="10"/>
-        <v>75892469931674.5</v>
+        <f t="shared" si="15"/>
+        <v>27082562.489251692</v>
       </c>
       <c r="J67">
-        <f t="shared" si="11"/>
-        <v>3035698797267</v>
+        <f t="shared" si="16"/>
+        <v>9371129</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3911,36 +3911,36 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A67</f>
-        <v>235266656788190.97</v>
+        <f t="shared" ref="B68:B102" si="17" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A67</f>
+        <v>199136488.89155659</v>
       </c>
       <c r="C68">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A67*brute_life_multiplier</f>
-        <v>3528999851822864.5</v>
+        <f t="shared" ref="C68:C102" si="18" xml:space="preserve"> $B$3*hits_1_round_behind^A67*brute_life_multiplier</f>
+        <v>2987047333.3733487</v>
       </c>
       <c r="E68">
-        <f t="shared" si="8"/>
-        <v>235266656788190.97</v>
+        <f t="shared" si="13"/>
+        <v>67706406.223129243</v>
       </c>
       <c r="F68">
-        <f t="shared" si="9"/>
-        <v>2352666567882</v>
+        <f t="shared" si="14"/>
+        <v>5856956</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G92" si="12">ROUNDUP(B68/$E$4, 0)</f>
-        <v>1517849398634</v>
+        <f t="shared" ref="G68:G92" si="19">ROUNDUP(B68/$E$4, 0)</f>
+        <v>4685565</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H102" si="13">ROUNDUP(B68/$E$5, 0)</f>
-        <v>979257676538</v>
+        <f t="shared" ref="H68:H102" si="20">ROUNDUP(B68/$E$5, 0)</f>
+        <v>3748452</v>
       </c>
       <c r="I68">
-        <f t="shared" si="10"/>
-        <v>117633328394095.48</v>
+        <f t="shared" si="15"/>
+        <v>33853203.111564621</v>
       </c>
       <c r="J68">
-        <f t="shared" si="11"/>
-        <v>4705333135764</v>
+        <f t="shared" si="16"/>
+        <v>11713912</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3948,36 +3948,36 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A68</f>
-        <v>364663318021696</v>
+        <f t="shared" si="17"/>
+        <v>248920611.11444569</v>
       </c>
       <c r="C69">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A68*brute_life_multiplier</f>
-        <v>5469949770325440</v>
+        <f t="shared" si="18"/>
+        <v>3733809166.7166853</v>
       </c>
       <c r="E69">
-        <f t="shared" si="8"/>
-        <v>364663318021696</v>
+        <f t="shared" si="13"/>
+        <v>84633007.778911531</v>
       </c>
       <c r="F69">
-        <f t="shared" si="9"/>
-        <v>3646633180217</v>
+        <f t="shared" si="14"/>
+        <v>7321195</v>
       </c>
       <c r="G69">
-        <f t="shared" si="12"/>
-        <v>2352666567882</v>
+        <f t="shared" si="19"/>
+        <v>5856956</v>
       </c>
       <c r="H69">
-        <f t="shared" si="13"/>
-        <v>1517849398634</v>
+        <f t="shared" si="20"/>
+        <v>4685565</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
-        <v>182331659010848</v>
+        <f t="shared" si="15"/>
+        <v>42316503.889455765</v>
       </c>
       <c r="J69">
-        <f t="shared" si="11"/>
-        <v>7293266360434</v>
+        <f t="shared" si="16"/>
+        <v>14642389</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3985,36 +3985,36 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A69</f>
-        <v>565228142933628.75</v>
+        <f t="shared" si="17"/>
+        <v>311150763.89305711</v>
       </c>
       <c r="C70">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A69*brute_life_multiplier</f>
-        <v>8478422144004431</v>
+        <f t="shared" si="18"/>
+        <v>4667261458.3958569</v>
       </c>
       <c r="E70">
-        <f t="shared" si="8"/>
-        <v>565228142933628.75</v>
+        <f t="shared" si="13"/>
+        <v>105791259.72363943</v>
       </c>
       <c r="F70">
-        <f t="shared" si="9"/>
-        <v>5652281429337</v>
+        <f t="shared" si="14"/>
+        <v>9151494</v>
       </c>
       <c r="G70">
-        <f t="shared" si="12"/>
-        <v>3646633180217</v>
+        <f t="shared" si="19"/>
+        <v>7321195</v>
       </c>
       <c r="H70">
-        <f t="shared" si="13"/>
-        <v>2352666567882</v>
+        <f t="shared" si="20"/>
+        <v>5856956</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
-        <v>282614071466814.38</v>
+        <f t="shared" si="15"/>
+        <v>52895629.861819714</v>
       </c>
       <c r="J70">
-        <f t="shared" si="11"/>
-        <v>11304562858673</v>
+        <f t="shared" si="16"/>
+        <v>18302987</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -4022,36 +4022,36 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A70</f>
-        <v>876103621547124.75</v>
+        <f t="shared" si="17"/>
+        <v>388938454.86632144</v>
       </c>
       <c r="C71">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A70*brute_life_multiplier</f>
-        <v>1.3141554323206872E+16</v>
+        <f t="shared" si="18"/>
+        <v>5834076822.9948215</v>
       </c>
       <c r="E71">
-        <f t="shared" si="8"/>
-        <v>876103621547124.75</v>
+        <f t="shared" si="13"/>
+        <v>132239074.65454929</v>
       </c>
       <c r="F71">
-        <f t="shared" si="9"/>
-        <v>8761036215472</v>
+        <f t="shared" si="14"/>
+        <v>11439367</v>
       </c>
       <c r="G71">
-        <f t="shared" si="12"/>
-        <v>5652281429337</v>
+        <f t="shared" si="19"/>
+        <v>9151494</v>
       </c>
       <c r="H71">
-        <f t="shared" si="13"/>
-        <v>3646633180217</v>
+        <f t="shared" si="20"/>
+        <v>7321195</v>
       </c>
       <c r="I71">
-        <f t="shared" si="10"/>
-        <v>438051810773562.38</v>
+        <f t="shared" si="15"/>
+        <v>66119537.327274643</v>
       </c>
       <c r="J71">
-        <f t="shared" si="11"/>
-        <v>17522072430943</v>
+        <f t="shared" si="16"/>
+        <v>22878733</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4059,36 +4059,36 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A71</f>
-        <v>1357960613398043.3</v>
+        <f t="shared" si="17"/>
+        <v>486173068.58290172</v>
       </c>
       <c r="C72">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A71*brute_life_multiplier</f>
-        <v>2.0369409200970648E+16</v>
+        <f t="shared" si="18"/>
+        <v>7292596028.7435255</v>
       </c>
       <c r="E72">
-        <f t="shared" si="8"/>
-        <v>1357960613398043.3</v>
+        <f t="shared" si="13"/>
+        <v>165298843.31818658</v>
       </c>
       <c r="F72">
-        <f t="shared" si="9"/>
-        <v>13579606133981</v>
+        <f t="shared" si="14"/>
+        <v>14299208</v>
       </c>
       <c r="G72">
-        <f t="shared" si="12"/>
-        <v>8761036215472</v>
+        <f t="shared" si="19"/>
+        <v>11439367</v>
       </c>
       <c r="H72">
-        <f t="shared" si="13"/>
-        <v>5652281429337</v>
+        <f t="shared" si="20"/>
+        <v>9151494</v>
       </c>
       <c r="I72">
-        <f t="shared" si="10"/>
-        <v>678980306699021.63</v>
+        <f t="shared" si="15"/>
+        <v>82649421.659093291</v>
       </c>
       <c r="J72">
-        <f t="shared" si="11"/>
-        <v>27159212267961</v>
+        <f t="shared" si="16"/>
+        <v>28598416</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4096,36 +4096,36 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A72</f>
-        <v>2104838950766967.5</v>
+        <f t="shared" si="17"/>
+        <v>607716335.7286272</v>
       </c>
       <c r="C73">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A72*brute_life_multiplier</f>
-        <v>3.1572584261504512E+16</v>
+        <f t="shared" si="18"/>
+        <v>9115745035.929409</v>
       </c>
       <c r="E73">
-        <f t="shared" si="8"/>
-        <v>2104838950766967.5</v>
+        <f t="shared" si="13"/>
+        <v>206623554.14773327</v>
       </c>
       <c r="F73">
-        <f t="shared" si="9"/>
-        <v>21048389507670</v>
+        <f t="shared" si="14"/>
+        <v>17874010</v>
       </c>
       <c r="G73">
-        <f t="shared" si="12"/>
-        <v>13579606133981</v>
+        <f t="shared" si="19"/>
+        <v>14299208</v>
       </c>
       <c r="H73">
-        <f t="shared" si="13"/>
-        <v>8761036215472</v>
+        <f t="shared" si="20"/>
+        <v>11439367</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
-        <v>1052419475383483.8</v>
+        <f t="shared" si="15"/>
+        <v>103311777.07386664</v>
       </c>
       <c r="J73">
-        <f t="shared" si="11"/>
-        <v>42096779015340</v>
+        <f t="shared" si="16"/>
+        <v>35748020</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4133,36 +4133,36 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A73</f>
-        <v>3262500373688800</v>
+        <f t="shared" si="17"/>
+        <v>759645419.66078401</v>
       </c>
       <c r="C74">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A73*brute_life_multiplier</f>
-        <v>4.8937505605332E+16</v>
+        <f t="shared" si="18"/>
+        <v>11394681294.91176</v>
       </c>
       <c r="E74">
-        <f t="shared" si="8"/>
-        <v>3262500373688800</v>
+        <f t="shared" si="13"/>
+        <v>258279442.68466657</v>
       </c>
       <c r="F74">
-        <f t="shared" si="9"/>
-        <v>32625003736888</v>
+        <f t="shared" si="14"/>
+        <v>22342513</v>
       </c>
       <c r="G74">
-        <f t="shared" si="12"/>
-        <v>21048389507670</v>
+        <f t="shared" si="19"/>
+        <v>17874010</v>
       </c>
       <c r="H74">
-        <f t="shared" si="13"/>
-        <v>13579606133981</v>
+        <f t="shared" si="20"/>
+        <v>14299208</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
-        <v>1631250186844400</v>
+        <f t="shared" si="15"/>
+        <v>129139721.34233329</v>
       </c>
       <c r="J74">
-        <f t="shared" si="11"/>
-        <v>65250007473776</v>
+        <f t="shared" si="16"/>
+        <v>44685025</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4170,36 +4170,36 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A74</f>
-        <v>5056875579217641</v>
+        <f t="shared" si="17"/>
+        <v>949556774.57597995</v>
       </c>
       <c r="C75">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A74*brute_life_multiplier</f>
-        <v>7.5853133688264608E+16</v>
+        <f t="shared" si="18"/>
+        <v>14243351618.6397</v>
       </c>
       <c r="E75">
-        <f t="shared" si="8"/>
-        <v>5056875579217641</v>
+        <f t="shared" si="13"/>
+        <v>322849303.35583317</v>
       </c>
       <c r="F75">
-        <f t="shared" si="9"/>
-        <v>50568755792177</v>
+        <f t="shared" si="14"/>
+        <v>27928141</v>
       </c>
       <c r="G75">
-        <f t="shared" si="12"/>
-        <v>32625003736888</v>
+        <f t="shared" si="19"/>
+        <v>22342513</v>
       </c>
       <c r="H75">
-        <f t="shared" si="13"/>
-        <v>21048389507670</v>
+        <f t="shared" si="20"/>
+        <v>17874010</v>
       </c>
       <c r="I75">
-        <f t="shared" si="10"/>
-        <v>2528437789608820.5</v>
+        <f t="shared" si="15"/>
+        <v>161424651.67791659</v>
       </c>
       <c r="J75">
-        <f t="shared" si="11"/>
-        <v>101137511584353</v>
+        <f t="shared" si="16"/>
+        <v>55856281</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4207,36 +4207,36 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A75</f>
-        <v>7838157147787344</v>
+        <f t="shared" si="17"/>
+        <v>1186945968.219975</v>
       </c>
       <c r="C76">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A75*brute_life_multiplier</f>
-        <v>1.1757235721681016E+17</v>
+        <f t="shared" si="18"/>
+        <v>17804189523.299625</v>
       </c>
       <c r="E76">
-        <f t="shared" si="8"/>
-        <v>7838157147787344</v>
+        <f t="shared" si="13"/>
+        <v>403561629.1947915</v>
       </c>
       <c r="F76">
-        <f t="shared" si="9"/>
-        <v>78381571477874</v>
+        <f t="shared" si="14"/>
+        <v>34910176</v>
       </c>
       <c r="G76">
-        <f t="shared" si="12"/>
-        <v>50568755792177</v>
+        <f t="shared" si="19"/>
+        <v>27928141</v>
       </c>
       <c r="H76">
-        <f t="shared" si="13"/>
-        <v>32625003736888</v>
+        <f t="shared" si="20"/>
+        <v>22342513</v>
       </c>
       <c r="I76">
-        <f t="shared" si="10"/>
-        <v>3919078573893672</v>
+        <f t="shared" si="15"/>
+        <v>201780814.59739575</v>
       </c>
       <c r="J76">
-        <f t="shared" si="11"/>
-        <v>156763142955747</v>
+        <f t="shared" si="16"/>
+        <v>69820352</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4244,36 +4244,36 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A76</f>
-        <v>1.2149143579070382E+16</v>
+        <f t="shared" si="17"/>
+        <v>1483682460.2749689</v>
       </c>
       <c r="C77">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A76*brute_life_multiplier</f>
-        <v>1.8223715368605574E+17</v>
+        <f t="shared" si="18"/>
+        <v>22255236904.124535</v>
       </c>
       <c r="E77">
-        <f t="shared" si="8"/>
-        <v>1.2149143579070382E+16</v>
+        <f t="shared" si="13"/>
+        <v>504452036.49348938</v>
       </c>
       <c r="F77">
-        <f t="shared" si="9"/>
-        <v>121491435790704</v>
+        <f t="shared" si="14"/>
+        <v>43637720</v>
       </c>
       <c r="G77">
-        <f t="shared" si="12"/>
-        <v>78381571477874</v>
+        <f t="shared" si="19"/>
+        <v>34910176</v>
       </c>
       <c r="H77">
-        <f t="shared" si="13"/>
-        <v>50568755792177</v>
+        <f t="shared" si="20"/>
+        <v>27928141</v>
       </c>
       <c r="I77">
-        <f t="shared" si="10"/>
-        <v>6074571789535191</v>
+        <f t="shared" si="15"/>
+        <v>252226018.24674469</v>
       </c>
       <c r="J77">
-        <f t="shared" si="11"/>
-        <v>242982871581408</v>
+        <f t="shared" si="16"/>
+        <v>87275439</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4281,36 +4281,36 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A77</f>
-        <v>1.8831172547559092E+16</v>
+        <f t="shared" si="17"/>
+        <v>1854603075.3437109</v>
       </c>
       <c r="C78">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A77*brute_life_multiplier</f>
-        <v>2.8246758821338637E+17</v>
+        <f t="shared" si="18"/>
+        <v>27819046130.155663</v>
       </c>
       <c r="E78">
-        <f t="shared" si="8"/>
-        <v>1.8831172547559092E+16</v>
+        <f t="shared" si="13"/>
+        <v>630565045.6168617</v>
       </c>
       <c r="F78">
-        <f t="shared" si="9"/>
-        <v>188311725475591</v>
+        <f t="shared" si="14"/>
+        <v>54547150</v>
       </c>
       <c r="G78">
-        <f t="shared" si="12"/>
-        <v>121491435790704</v>
+        <f t="shared" si="19"/>
+        <v>43637720</v>
       </c>
       <c r="H78">
-        <f t="shared" si="13"/>
-        <v>78381571477874</v>
+        <f t="shared" si="20"/>
+        <v>34910176</v>
       </c>
       <c r="I78">
-        <f t="shared" si="10"/>
-        <v>9415586273779546</v>
+        <f t="shared" si="15"/>
+        <v>315282522.80843085</v>
       </c>
       <c r="J78">
-        <f t="shared" si="11"/>
-        <v>376623450951182</v>
+        <f t="shared" si="16"/>
+        <v>109094299</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4318,36 +4318,36 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A78</f>
-        <v>2.91883174487166E+16</v>
+        <f t="shared" si="17"/>
+        <v>2318253844.1796389</v>
       </c>
       <c r="C79">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A78*brute_life_multiplier</f>
-        <v>4.3782476173074899E+17</v>
+        <f t="shared" si="18"/>
+        <v>34773807662.69458</v>
       </c>
       <c r="E79">
-        <f t="shared" si="8"/>
-        <v>2.91883174487166E+16</v>
+        <f t="shared" si="13"/>
+        <v>788206307.02107716</v>
       </c>
       <c r="F79">
-        <f t="shared" si="9"/>
-        <v>291883174487166</v>
+        <f t="shared" si="14"/>
+        <v>68183937</v>
       </c>
       <c r="G79">
-        <f t="shared" si="12"/>
-        <v>188311725475591</v>
+        <f t="shared" si="19"/>
+        <v>54547150</v>
       </c>
       <c r="H79">
-        <f t="shared" si="13"/>
-        <v>121491435790704</v>
+        <f t="shared" si="20"/>
+        <v>43637720</v>
       </c>
       <c r="I79">
-        <f t="shared" si="10"/>
-        <v>1.45941587243583E+16</v>
+        <f t="shared" si="15"/>
+        <v>394103153.51053858</v>
       </c>
       <c r="J79">
-        <f t="shared" si="11"/>
-        <v>583766348974332</v>
+        <f t="shared" si="16"/>
+        <v>136367874</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4355,36 +4355,36 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A79</f>
-        <v>4.5241892045510728E+16</v>
+        <f t="shared" si="17"/>
+        <v>2897817305.2245483</v>
       </c>
       <c r="C80">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A79*brute_life_multiplier</f>
-        <v>6.7862838068266086E+17</v>
+        <f t="shared" si="18"/>
+        <v>43467259578.368225</v>
       </c>
       <c r="E80">
-        <f t="shared" si="8"/>
-        <v>4.5241892045510728E+16</v>
+        <f t="shared" si="13"/>
+        <v>985257883.77634645</v>
       </c>
       <c r="F80">
-        <f t="shared" si="9"/>
-        <v>452418920455107</v>
+        <f t="shared" si="14"/>
+        <v>85229921</v>
       </c>
       <c r="G80">
-        <f t="shared" si="12"/>
-        <v>291883174487166</v>
+        <f t="shared" si="19"/>
+        <v>68183937</v>
       </c>
       <c r="H80">
-        <f t="shared" si="13"/>
-        <v>188311725475591</v>
+        <f t="shared" si="20"/>
+        <v>54547150</v>
       </c>
       <c r="I80">
-        <f t="shared" si="10"/>
-        <v>2.2620946022755364E+16</v>
+        <f t="shared" si="15"/>
+        <v>492628941.88817322</v>
       </c>
       <c r="J80">
-        <f t="shared" si="11"/>
-        <v>904837840910215</v>
+        <f t="shared" si="16"/>
+        <v>170459842</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4392,36 +4392,36 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A80</f>
-        <v>7.012493267054164E+16</v>
+        <f t="shared" si="17"/>
+        <v>3622271631.5306859</v>
       </c>
       <c r="C81">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A80*brute_life_multiplier</f>
-        <v>1.0518739900581245E+18</v>
+        <f t="shared" si="18"/>
+        <v>54334074472.960289</v>
       </c>
       <c r="E81">
-        <f t="shared" si="8"/>
-        <v>7.012493267054164E+16</v>
+        <f t="shared" si="13"/>
+        <v>1231572354.7204332</v>
       </c>
       <c r="F81">
-        <f t="shared" si="9"/>
-        <v>701249326705416</v>
+        <f t="shared" si="14"/>
+        <v>106537401</v>
       </c>
       <c r="G81">
-        <f t="shared" si="12"/>
-        <v>452418920455107</v>
+        <f t="shared" si="19"/>
+        <v>85229921</v>
       </c>
       <c r="H81">
-        <f t="shared" si="13"/>
-        <v>291883174487166</v>
+        <f t="shared" si="20"/>
+        <v>68183937</v>
       </c>
       <c r="I81">
-        <f t="shared" si="10"/>
-        <v>3.506246633527082E+16</v>
+        <f t="shared" si="15"/>
+        <v>615786177.36021662</v>
       </c>
       <c r="J81">
-        <f t="shared" si="11"/>
-        <v>1402498653410830</v>
+        <f t="shared" si="16"/>
+        <v>213074802</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4429,36 +4429,36 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A81</f>
-        <v>1.0869364563933955E+17</v>
+        <f t="shared" si="17"/>
+        <v>4527839539.4133568</v>
       </c>
       <c r="C82">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A81*brute_life_multiplier</f>
-        <v>1.6304046845900933E+18</v>
+        <f t="shared" si="18"/>
+        <v>67917593091.200348</v>
       </c>
       <c r="E82">
-        <f t="shared" si="8"/>
-        <v>1.0869364563933955E+17</v>
+        <f t="shared" si="13"/>
+        <v>1539465443.4005413</v>
       </c>
       <c r="F82">
-        <f t="shared" si="9"/>
-        <v>1086936456393400</v>
+        <f t="shared" si="14"/>
+        <v>133171752</v>
       </c>
       <c r="G82">
-        <f t="shared" si="12"/>
-        <v>701249326705417</v>
+        <f t="shared" si="19"/>
+        <v>106537401</v>
       </c>
       <c r="H82">
-        <f t="shared" si="13"/>
-        <v>452418920455107</v>
+        <f t="shared" si="20"/>
+        <v>85229921</v>
       </c>
       <c r="I82">
-        <f t="shared" si="10"/>
-        <v>5.4346822819669776E+16</v>
+        <f t="shared" si="15"/>
+        <v>769732721.70027065</v>
       </c>
       <c r="J82">
-        <f t="shared" si="11"/>
-        <v>2173872912786790</v>
+        <f t="shared" si="16"/>
+        <v>266343503</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4466,36 +4466,36 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A82</f>
-        <v>1.6847515074097629E+17</v>
+        <f t="shared" si="17"/>
+        <v>5659799424.266696</v>
       </c>
       <c r="C83">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A82*brute_life_multiplier</f>
-        <v>2.5271272611146445E+18</v>
+        <f t="shared" si="18"/>
+        <v>84896991364.000443</v>
       </c>
       <c r="E83">
-        <f t="shared" si="8"/>
-        <v>1.6847515074097629E+17</v>
+        <f t="shared" si="13"/>
+        <v>1924331804.2506766</v>
       </c>
       <c r="F83">
-        <f t="shared" si="9"/>
-        <v>1684751507409760</v>
+        <f t="shared" si="14"/>
+        <v>166464689</v>
       </c>
       <c r="G83">
-        <f t="shared" si="12"/>
-        <v>1086936456393400</v>
+        <f t="shared" si="19"/>
+        <v>133171752</v>
       </c>
       <c r="H83">
-        <f t="shared" si="13"/>
-        <v>701249326705416</v>
+        <f t="shared" si="20"/>
+        <v>106537401</v>
       </c>
       <c r="I83">
-        <f t="shared" si="10"/>
-        <v>8.4237575370488144E+16</v>
+        <f t="shared" si="15"/>
+        <v>962165902.12533832</v>
       </c>
       <c r="J83">
-        <f t="shared" si="11"/>
-        <v>3369503014819530</v>
+        <f t="shared" si="16"/>
+        <v>332929378</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4503,36 +4503,36 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A83</f>
-        <v>2.6113648364851325E+17</v>
+        <f t="shared" si="17"/>
+        <v>7074749280.3333702</v>
       </c>
       <c r="C84">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A83*brute_life_multiplier</f>
-        <v>3.9170472547276989E+18</v>
+        <f t="shared" si="18"/>
+        <v>106121239205.00055</v>
       </c>
       <c r="E84">
-        <f t="shared" si="8"/>
-        <v>2.6113648364851325E+17</v>
+        <f t="shared" si="13"/>
+        <v>2405414755.3133459</v>
       </c>
       <c r="F84">
-        <f t="shared" si="9"/>
-        <v>2611364836485130</v>
+        <f t="shared" si="14"/>
+        <v>208080862</v>
       </c>
       <c r="G84">
-        <f t="shared" si="12"/>
-        <v>1684751507409760</v>
+        <f t="shared" si="19"/>
+        <v>166464689</v>
       </c>
       <c r="H84">
-        <f t="shared" si="13"/>
-        <v>1086936456393400</v>
+        <f t="shared" si="20"/>
+        <v>133171752</v>
       </c>
       <c r="I84">
-        <f t="shared" si="10"/>
-        <v>1.3056824182425662E+17</v>
+        <f t="shared" si="15"/>
+        <v>1202707377.656673</v>
       </c>
       <c r="J84">
-        <f t="shared" si="11"/>
-        <v>5222729672970270</v>
+        <f t="shared" si="16"/>
+        <v>416161723</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4540,36 +4540,36 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A84</f>
-        <v>4.0476154965519558E+17</v>
+        <f t="shared" si="17"/>
+        <v>8843436600.4167118</v>
       </c>
       <c r="C85">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A84*brute_life_multiplier</f>
-        <v>6.0714232448279337E+18</v>
+        <f t="shared" si="18"/>
+        <v>132651549006.25067</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85:E102" si="14" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
-        <v>4.0476154965519558E+17</v>
+        <f t="shared" ref="E85:E102" si="21" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
+        <v>3006768444.1416821</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85:F102" si="15">ROUNDUP(B85/base_damage, 0)</f>
-        <v>4047615496551960</v>
+        <f t="shared" ref="F85:F102" si="22">ROUNDUP(B85/base_damage, 0)</f>
+        <v>260101077</v>
       </c>
       <c r="G85">
-        <f t="shared" si="12"/>
-        <v>2611364836485130</v>
+        <f t="shared" si="19"/>
+        <v>208080862</v>
       </c>
       <c r="H85">
-        <f t="shared" si="13"/>
-        <v>1684751507409760</v>
+        <f t="shared" si="20"/>
+        <v>166464689</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85:I102" si="16">E85/2</f>
-        <v>2.0238077482759779E+17</v>
+        <f t="shared" ref="I85:I102" si="23">E85/2</f>
+        <v>1503384222.0708411</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85:J102" si="17">ROUNDUP(B85/explosion_shot_base, 0)</f>
-        <v>8095230993103910</v>
+        <f t="shared" ref="J85:J102" si="24">ROUNDUP(B85/explosion_shot_base, 0)</f>
+        <v>520202153</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4577,36 +4577,36 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A85</f>
-        <v>6.2738040196555315E+17</v>
+        <f t="shared" si="17"/>
+        <v>11054295750.520891</v>
       </c>
       <c r="C86">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A85*brute_life_multiplier</f>
-        <v>9.4107060294832968E+18</v>
+        <f t="shared" si="18"/>
+        <v>165814436257.81335</v>
       </c>
       <c r="E86">
-        <f t="shared" si="14"/>
-        <v>6.2738040196555315E+17</v>
+        <f t="shared" si="21"/>
+        <v>3758460555.177103</v>
       </c>
       <c r="F86">
-        <f t="shared" si="15"/>
-        <v>6273804019655530</v>
+        <f t="shared" si="22"/>
+        <v>325126346</v>
       </c>
       <c r="G86">
-        <f t="shared" si="12"/>
-        <v>4047615496551960</v>
+        <f t="shared" si="19"/>
+        <v>260101077</v>
       </c>
       <c r="H86">
-        <f t="shared" si="13"/>
-        <v>2611364836485130</v>
+        <f t="shared" si="20"/>
+        <v>208080862</v>
       </c>
       <c r="I86">
-        <f t="shared" si="16"/>
-        <v>3.1369020098277658E+17</v>
+        <f t="shared" si="23"/>
+        <v>1879230277.5885515</v>
       </c>
       <c r="J86">
-        <f t="shared" si="17"/>
-        <v>1.25476080393111E+16</v>
+        <f t="shared" si="24"/>
+        <v>650252692</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4614,36 +4614,36 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A86</f>
-        <v>9.7243962304660762E+17</v>
+        <f t="shared" si="17"/>
+        <v>13817869688.151115</v>
       </c>
       <c r="C87">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A86*brute_life_multiplier</f>
-        <v>1.4586594345699115E+19</v>
+        <f t="shared" si="18"/>
+        <v>207268045322.26672</v>
       </c>
       <c r="E87">
-        <f t="shared" si="14"/>
-        <v>9.7243962304660762E+17</v>
+        <f t="shared" si="21"/>
+        <v>4698075693.9713793</v>
       </c>
       <c r="F87">
-        <f t="shared" si="15"/>
-        <v>9724396230466080</v>
+        <f t="shared" si="22"/>
+        <v>406407933</v>
       </c>
       <c r="G87">
-        <f t="shared" si="12"/>
-        <v>6273804019655530</v>
+        <f t="shared" si="19"/>
+        <v>325126346</v>
       </c>
       <c r="H87">
-        <f t="shared" si="13"/>
-        <v>4047615496551960</v>
+        <f t="shared" si="20"/>
+        <v>260101077</v>
       </c>
       <c r="I87">
-        <f t="shared" si="16"/>
-        <v>4.8621981152330381E+17</v>
+        <f t="shared" si="23"/>
+        <v>2349037846.9856896</v>
       </c>
       <c r="J87">
-        <f t="shared" si="17"/>
-        <v>1.94487924609322E+16</v>
+        <f t="shared" si="24"/>
+        <v>812815865</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4651,36 +4651,36 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A87</f>
-        <v>1.5072814157222418E+18</v>
+        <f t="shared" si="17"/>
+        <v>17272337110.188892</v>
       </c>
       <c r="C88">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A87*brute_life_multiplier</f>
-        <v>2.2609221235833627E+19</v>
+        <f t="shared" si="18"/>
+        <v>259085056652.83337</v>
       </c>
       <c r="E88">
-        <f t="shared" si="14"/>
-        <v>1.5072814157222418E+18</v>
+        <f t="shared" si="21"/>
+        <v>5872594617.4642239</v>
       </c>
       <c r="F88">
-        <f t="shared" si="15"/>
-        <v>1.50728141572224E+16</v>
+        <f t="shared" si="22"/>
+        <v>508009916</v>
       </c>
       <c r="G88">
-        <f t="shared" si="12"/>
-        <v>9724396230466080</v>
+        <f t="shared" si="19"/>
+        <v>406407933</v>
       </c>
       <c r="H88">
-        <f t="shared" si="13"/>
-        <v>6273804019655530</v>
+        <f t="shared" si="20"/>
+        <v>325126346</v>
       </c>
       <c r="I88">
-        <f t="shared" si="16"/>
-        <v>7.536407078611209E+17</v>
+        <f t="shared" si="23"/>
+        <v>2936297308.7321119</v>
       </c>
       <c r="J88">
-        <f t="shared" si="17"/>
-        <v>3.01456283144448E+16</v>
+        <f t="shared" si="24"/>
+        <v>1016019831</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4688,36 +4688,36 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A88</f>
-        <v>2.3362861943694751E+18</v>
+        <f t="shared" si="17"/>
+        <v>21590421387.736115</v>
       </c>
       <c r="C89">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A88*brute_life_multiplier</f>
-        <v>3.5044292915542127E+19</v>
+        <f t="shared" si="18"/>
+        <v>323856320816.04175</v>
       </c>
       <c r="E89">
-        <f t="shared" si="14"/>
-        <v>2.3362861943694751E+18</v>
+        <f t="shared" si="21"/>
+        <v>7340743271.8302794</v>
       </c>
       <c r="F89">
-        <f t="shared" si="15"/>
-        <v>2.33628619436948E+16</v>
+        <f t="shared" si="22"/>
+        <v>635012394</v>
       </c>
       <c r="G89">
-        <f t="shared" si="12"/>
-        <v>1.50728141572224E+16</v>
+        <f t="shared" si="19"/>
+        <v>508009916</v>
       </c>
       <c r="H89">
-        <f t="shared" si="13"/>
-        <v>9724396230466080</v>
+        <f t="shared" si="20"/>
+        <v>406407933</v>
       </c>
       <c r="I89">
-        <f t="shared" si="16"/>
-        <v>1.1681430971847375E+18</v>
+        <f t="shared" si="23"/>
+        <v>3670371635.9151397</v>
       </c>
       <c r="J89">
-        <f t="shared" si="17"/>
-        <v>4.6725723887389504E+16</v>
+        <f t="shared" si="24"/>
+        <v>1270024788</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4725,36 +4725,36 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A89</f>
-        <v>3.6212436012726866E+18</v>
+        <f t="shared" si="17"/>
+        <v>26988026734.670143</v>
       </c>
       <c r="C90">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A89*brute_life_multiplier</f>
-        <v>5.4318654019090301E+19</v>
+        <f t="shared" si="18"/>
+        <v>404820401020.05212</v>
       </c>
       <c r="E90">
-        <f t="shared" si="14"/>
-        <v>3.6212436012726866E+18</v>
+        <f t="shared" si="21"/>
+        <v>9175929089.7878494</v>
       </c>
       <c r="F90">
-        <f t="shared" si="15"/>
-        <v>3.6212436012726896E+16</v>
+        <f t="shared" si="22"/>
+        <v>793765493</v>
       </c>
       <c r="G90">
-        <f t="shared" si="12"/>
-        <v>2.33628619436948E+16</v>
+        <f t="shared" si="19"/>
+        <v>635012394</v>
       </c>
       <c r="H90">
-        <f t="shared" si="13"/>
-        <v>1.50728141572224E+16</v>
+        <f t="shared" si="20"/>
+        <v>508009916</v>
       </c>
       <c r="I90">
-        <f t="shared" si="16"/>
-        <v>1.8106218006363433E+18</v>
+        <f t="shared" si="23"/>
+        <v>4587964544.8939247</v>
       </c>
       <c r="J90">
-        <f t="shared" si="17"/>
-        <v>7.2424872025453696E+16</v>
+        <f t="shared" si="24"/>
+        <v>1587530985</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4762,36 +4762,36 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A90</f>
-        <v>5.6129275819726643E+18</v>
+        <f t="shared" si="17"/>
+        <v>33735033418.337677</v>
       </c>
       <c r="C91">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A90*brute_life_multiplier</f>
-        <v>8.4193913729589969E+19</v>
+        <f t="shared" si="18"/>
+        <v>506025501275.06519</v>
       </c>
       <c r="E91">
-        <f t="shared" si="14"/>
-        <v>5.6129275819726643E+18</v>
+        <f t="shared" si="21"/>
+        <v>11469911362.23481</v>
       </c>
       <c r="F91">
-        <f t="shared" si="15"/>
-        <v>5.61292758197266E+16</v>
+        <f t="shared" si="22"/>
+        <v>992206866</v>
       </c>
       <c r="G91">
-        <f t="shared" si="12"/>
-        <v>3.6212436012726896E+16</v>
+        <f t="shared" si="19"/>
+        <v>793765493</v>
       </c>
       <c r="H91">
-        <f t="shared" si="13"/>
-        <v>2.33628619436947E+16</v>
+        <f t="shared" si="20"/>
+        <v>635012394</v>
       </c>
       <c r="I91">
-        <f t="shared" si="16"/>
-        <v>2.8064637909863322E+18</v>
+        <f t="shared" si="23"/>
+        <v>5734955681.1174049</v>
       </c>
       <c r="J91">
-        <f t="shared" si="17"/>
-        <v>1.1225855163945299E+17</v>
+        <f t="shared" si="24"/>
+        <v>1984413731</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4799,36 +4799,36 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A91</f>
-        <v>8.7000377520576317E+18</v>
+        <f t="shared" si="17"/>
+        <v>42168791772.922104</v>
       </c>
       <c r="C92">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A91*brute_life_multiplier</f>
-        <v>1.3050056628086448E+20</v>
+        <f t="shared" si="18"/>
+        <v>632531876593.83154</v>
       </c>
       <c r="E92">
-        <f t="shared" si="14"/>
-        <v>8.7000377520576317E+18</v>
+        <f t="shared" si="21"/>
+        <v>14337389202.793516</v>
       </c>
       <c r="F92">
-        <f t="shared" si="15"/>
-        <v>8.7000377520576304E+16</v>
+        <f t="shared" si="22"/>
+        <v>1240258582</v>
       </c>
       <c r="G92">
-        <f t="shared" si="12"/>
-        <v>5.6129275819726704E+16</v>
+        <f t="shared" si="19"/>
+        <v>992206866</v>
       </c>
       <c r="H92">
-        <f t="shared" si="13"/>
-        <v>3.6212436012726896E+16</v>
+        <f t="shared" si="20"/>
+        <v>793765493</v>
       </c>
       <c r="I92">
-        <f t="shared" si="16"/>
-        <v>4.3500188760288159E+18</v>
+        <f t="shared" si="23"/>
+        <v>7168694601.3967581</v>
       </c>
       <c r="J92">
-        <f t="shared" si="17"/>
-        <v>1.7400075504115299E+17</v>
+        <f t="shared" si="24"/>
+        <v>2480517164</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4836,36 +4836,36 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A92</f>
-        <v>1.3485058515689329E+19</v>
+        <f t="shared" si="17"/>
+        <v>52710989716.152626</v>
       </c>
       <c r="C93">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A92*brute_life_multiplier</f>
-        <v>2.0227587773533992E+20</v>
+        <f t="shared" si="18"/>
+        <v>790664845742.28943</v>
       </c>
       <c r="E93">
-        <f t="shared" si="14"/>
-        <v>1.3485058515689329E+19</v>
+        <f t="shared" si="21"/>
+        <v>17921736503.491894</v>
       </c>
       <c r="F93">
-        <f t="shared" si="15"/>
-        <v>1.3485058515689299E+17</v>
+        <f t="shared" si="22"/>
+        <v>1550323227</v>
       </c>
       <c r="G93">
         <f>ROUNDUP(B93/$E$4, 0)</f>
-        <v>8.7000377520576304E+16</v>
+        <v>1240258582</v>
       </c>
       <c r="H93">
-        <f t="shared" si="13"/>
-        <v>5.61292758197266E+16</v>
+        <f t="shared" si="20"/>
+        <v>992206866</v>
       </c>
       <c r="I93">
-        <f t="shared" si="16"/>
-        <v>6.7425292578446643E+18</v>
+        <f t="shared" si="23"/>
+        <v>8960868251.7459469</v>
       </c>
       <c r="J93">
-        <f t="shared" si="17"/>
-        <v>2.6970117031378701E+17</v>
+        <f t="shared" si="24"/>
+        <v>3100646454</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4873,36 +4873,36 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A93</f>
-        <v>2.0901840699318456E+19</v>
+        <f t="shared" si="17"/>
+        <v>65888737145.190788</v>
       </c>
       <c r="C94">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A93*brute_life_multiplier</f>
-        <v>3.1352761048977683E+20</v>
+        <f t="shared" si="18"/>
+        <v>988331057177.86182</v>
       </c>
       <c r="E94">
-        <f t="shared" si="14"/>
-        <v>2.0901840699318456E+19</v>
+        <f t="shared" si="21"/>
+        <v>22402170629.364868</v>
       </c>
       <c r="F94">
-        <f t="shared" si="15"/>
-        <v>2.0901840699318499E+17</v>
+        <f t="shared" si="22"/>
+        <v>1937904034</v>
       </c>
       <c r="G94">
-        <f t="shared" ref="G94:G102" si="18">ROUNDUP(B94/$E$4, 0)</f>
-        <v>1.3485058515689299E+17</v>
+        <f t="shared" ref="G94:G102" si="25">ROUNDUP(B94/$E$4, 0)</f>
+        <v>1550323227</v>
       </c>
       <c r="H94">
-        <f t="shared" si="13"/>
-        <v>8.7000377520576304E+16</v>
+        <f t="shared" si="20"/>
+        <v>1240258582</v>
       </c>
       <c r="I94">
-        <f t="shared" si="16"/>
-        <v>1.0450920349659228E+19</v>
+        <f t="shared" si="23"/>
+        <v>11201085314.682434</v>
       </c>
       <c r="J94">
-        <f t="shared" si="17"/>
-        <v>4.1803681398636902E+17</v>
+        <f t="shared" si="24"/>
+        <v>3875808068</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4910,36 +4910,36 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A94</f>
-        <v>3.2397853083943617E+19</v>
+        <f t="shared" si="17"/>
+        <v>82360921431.48848</v>
       </c>
       <c r="C95">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A94*brute_life_multiplier</f>
-        <v>4.8596779625915423E+20</v>
+        <f t="shared" si="18"/>
+        <v>1235413821472.3271</v>
       </c>
       <c r="E95">
-        <f t="shared" si="14"/>
-        <v>3.2397853083943617E+19</v>
+        <f t="shared" si="21"/>
+        <v>28002713286.706081</v>
       </c>
       <c r="F95">
-        <f t="shared" si="15"/>
-        <v>3.2397853083943603E+17</v>
+        <f t="shared" si="22"/>
+        <v>2422380043</v>
       </c>
       <c r="G95">
-        <f t="shared" si="18"/>
-        <v>2.0901840699318499E+17</v>
+        <f t="shared" si="25"/>
+        <v>1937904034</v>
       </c>
       <c r="H95">
-        <f t="shared" si="13"/>
-        <v>1.3485058515689299E+17</v>
+        <f t="shared" si="20"/>
+        <v>1550323227</v>
       </c>
       <c r="I95">
-        <f t="shared" si="16"/>
-        <v>1.6198926541971808E+19</v>
+        <f t="shared" si="23"/>
+        <v>14001356643.353041</v>
       </c>
       <c r="J95">
-        <f t="shared" si="17"/>
-        <v>6.4795706167887206E+17</v>
+        <f t="shared" si="24"/>
+        <v>4844760085</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4947,36 +4947,36 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A95</f>
-        <v>5.0216672280112611E+19</v>
+        <f t="shared" si="17"/>
+        <v>102951151789.36058</v>
       </c>
       <c r="C96">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A95*brute_life_multiplier</f>
-        <v>7.5325008420168912E+20</v>
+        <f t="shared" si="18"/>
+        <v>1544267276840.4087</v>
       </c>
       <c r="E96">
-        <f t="shared" si="14"/>
-        <v>5.0216672280112611E+19</v>
+        <f t="shared" si="21"/>
+        <v>35003391608.382599</v>
       </c>
       <c r="F96">
-        <f t="shared" si="15"/>
-        <v>5.0216672280112602E+17</v>
+        <f t="shared" si="22"/>
+        <v>3027975053</v>
       </c>
       <c r="G96">
-        <f t="shared" si="18"/>
-        <v>3.2397853083943603E+17</v>
+        <f t="shared" si="25"/>
+        <v>2422380043</v>
       </c>
       <c r="H96">
-        <f t="shared" si="13"/>
-        <v>2.0901840699318499E+17</v>
+        <f t="shared" si="20"/>
+        <v>1937904034</v>
       </c>
       <c r="I96">
-        <f t="shared" si="16"/>
-        <v>2.5108336140056306E+19</v>
+        <f t="shared" si="23"/>
+        <v>17501695804.191299</v>
       </c>
       <c r="J96">
-        <f t="shared" si="17"/>
-        <v>1.00433344560225E+18</v>
+        <f t="shared" si="24"/>
+        <v>6055950106</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4984,36 +4984,36 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A96</f>
-        <v>7.7835842034174558E+19</v>
+        <f t="shared" si="17"/>
+        <v>128688939736.70074</v>
       </c>
       <c r="C97">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A96*brute_life_multiplier</f>
-        <v>1.1675376305126184E+21</v>
+        <f t="shared" si="18"/>
+        <v>1930334096050.5112</v>
       </c>
       <c r="E97">
-        <f t="shared" si="14"/>
-        <v>7.7835842034174558E+19</v>
+        <f t="shared" si="21"/>
+        <v>43754239510.478256</v>
       </c>
       <c r="F97">
-        <f t="shared" si="15"/>
-        <v>7.7835842034174605E+17</v>
+        <f t="shared" si="22"/>
+        <v>3784968816</v>
       </c>
       <c r="G97">
-        <f t="shared" si="18"/>
-        <v>5.0216672280112602E+17</v>
+        <f t="shared" si="25"/>
+        <v>3027975053</v>
       </c>
       <c r="H97">
-        <f t="shared" si="13"/>
-        <v>3.2397853083943603E+17</v>
+        <f t="shared" si="20"/>
+        <v>2422380043</v>
       </c>
       <c r="I97">
-        <f t="shared" si="16"/>
-        <v>3.8917921017087279E+19</v>
+        <f t="shared" si="23"/>
+        <v>21877119755.239128</v>
       </c>
       <c r="J97">
-        <f t="shared" si="17"/>
-        <v>1.55671684068349E+18</v>
+        <f t="shared" si="24"/>
+        <v>7569937632</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -5021,36 +5021,36 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A97</f>
-        <v>1.2064555515297058E+20</v>
+        <f t="shared" si="17"/>
+        <v>160861174670.87592</v>
       </c>
       <c r="C98">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A97*brute_life_multiplier</f>
-        <v>1.8096833272945587E+21</v>
+        <f t="shared" si="18"/>
+        <v>2412917620063.1387</v>
       </c>
       <c r="E98">
-        <f t="shared" si="14"/>
-        <v>1.2064555515297058E+20</v>
+        <f t="shared" si="21"/>
+        <v>54692799388.097816</v>
       </c>
       <c r="F98">
-        <f t="shared" si="15"/>
-        <v>1.2064555515297101E+18</v>
+        <f t="shared" si="22"/>
+        <v>4731211020</v>
       </c>
       <c r="G98">
-        <f t="shared" si="18"/>
-        <v>7.7835842034174605E+17</v>
+        <f t="shared" si="25"/>
+        <v>3784968816</v>
       </c>
       <c r="H98">
-        <f t="shared" si="13"/>
-        <v>5.0216672280112602E+17</v>
+        <f t="shared" si="20"/>
+        <v>3027975053</v>
       </c>
       <c r="I98">
-        <f t="shared" si="16"/>
-        <v>6.032277757648529E+19</v>
+        <f t="shared" si="23"/>
+        <v>27346399694.048908</v>
       </c>
       <c r="J98">
-        <f t="shared" si="17"/>
-        <v>2.4129111030594099E+18</v>
+        <f t="shared" si="24"/>
+        <v>9462422040</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -5058,36 +5058,36 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A98</f>
-        <v>1.8700061048710437E+20</v>
+        <f t="shared" si="17"/>
+        <v>201076468338.59491</v>
       </c>
       <c r="C99">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A98*brute_life_multiplier</f>
-        <v>2.8050091573065658E+21</v>
+        <f t="shared" si="18"/>
+        <v>3016147025078.9238</v>
       </c>
       <c r="E99">
-        <f t="shared" si="14"/>
-        <v>1.8700061048710437E+20</v>
+        <f t="shared" si="21"/>
+        <v>68365999235.122269</v>
       </c>
       <c r="F99">
-        <f t="shared" si="15"/>
-        <v>1.87000610487104E+18</v>
+        <f t="shared" si="22"/>
+        <v>5914013775</v>
       </c>
       <c r="G99">
-        <f t="shared" si="18"/>
-        <v>1.2064555515297101E+18</v>
+        <f t="shared" si="25"/>
+        <v>4731211020</v>
       </c>
       <c r="H99">
-        <f t="shared" si="13"/>
-        <v>7.7835842034174605E+17</v>
+        <f t="shared" si="20"/>
+        <v>3784968816</v>
       </c>
       <c r="I99">
-        <f t="shared" si="16"/>
-        <v>9.3500305243552186E+19</v>
+        <f t="shared" si="23"/>
+        <v>34182999617.561134</v>
       </c>
       <c r="J99">
-        <f t="shared" si="17"/>
-        <v>3.7400122097420902E+18</v>
+        <f t="shared" si="24"/>
+        <v>11828027550</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -5095,36 +5095,36 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A99</f>
-        <v>2.8985094625501177E+20</v>
+        <f t="shared" si="17"/>
+        <v>251345585423.24365</v>
       </c>
       <c r="C100">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A99*brute_life_multiplier</f>
-        <v>4.3477641938251767E+21</v>
+        <f t="shared" si="18"/>
+        <v>3770183781348.6548</v>
       </c>
       <c r="E100">
-        <f t="shared" si="14"/>
-        <v>2.8985094625501177E+20</v>
+        <f t="shared" si="21"/>
+        <v>85457499043.902847</v>
       </c>
       <c r="F100">
-        <f t="shared" si="15"/>
-        <v>2.8985094625501199E+18</v>
+        <f t="shared" si="22"/>
+        <v>7392517219</v>
       </c>
       <c r="G100">
-        <f t="shared" si="18"/>
-        <v>1.87000610487104E+18</v>
+        <f t="shared" si="25"/>
+        <v>5914013775</v>
       </c>
       <c r="H100">
-        <f t="shared" si="13"/>
-        <v>1.2064555515297101E+18</v>
+        <f t="shared" si="20"/>
+        <v>4731211020</v>
       </c>
       <c r="I100">
-        <f t="shared" si="16"/>
-        <v>1.4492547312750589E+20</v>
+        <f t="shared" si="23"/>
+        <v>42728749521.951424</v>
       </c>
       <c r="J100">
-        <f t="shared" si="17"/>
-        <v>5.7970189251002399E+18</v>
+        <f t="shared" si="24"/>
+        <v>14785034437</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -5132,36 +5132,36 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A100</f>
-        <v>4.4926896669526832E+20</v>
+        <f t="shared" si="17"/>
+        <v>314181981779.05457</v>
       </c>
       <c r="C101">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A100*brute_life_multiplier</f>
-        <v>6.7390345004290251E+21</v>
+        <f t="shared" si="18"/>
+        <v>4712729726685.8184</v>
       </c>
       <c r="E101">
-        <f t="shared" si="14"/>
-        <v>4.4926896669526832E+20</v>
+        <f t="shared" si="21"/>
+        <v>106821873804.87856</v>
       </c>
       <c r="F101">
-        <f t="shared" si="15"/>
-        <v>4.4926896669526799E+18</v>
+        <f t="shared" si="22"/>
+        <v>9240646523</v>
       </c>
       <c r="G101">
-        <f t="shared" si="18"/>
-        <v>2.8985094625501199E+18</v>
+        <f t="shared" si="25"/>
+        <v>7392517219</v>
       </c>
       <c r="H101">
-        <f t="shared" si="13"/>
-        <v>1.87000610487104E+18</v>
+        <f t="shared" si="20"/>
+        <v>5914013775</v>
       </c>
       <c r="I101">
-        <f t="shared" si="16"/>
-        <v>2.2463448334763416E+20</v>
+        <f t="shared" si="23"/>
+        <v>53410936902.439278</v>
       </c>
       <c r="J101">
-        <f t="shared" si="17"/>
-        <v>8.9853793339053701E+18</v>
+        <f t="shared" si="24"/>
+        <v>18481293046</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -5169,36 +5169,36 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A101</f>
-        <v>6.9636689837766594E+20</v>
+        <f t="shared" si="17"/>
+        <v>392727477223.81818</v>
       </c>
       <c r="C102">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A101*brute_life_multiplier</f>
-        <v>1.0445503475664988E+22</v>
+        <f t="shared" si="18"/>
+        <v>5890912158357.2725</v>
       </c>
       <c r="E102">
-        <f t="shared" si="14"/>
-        <v>6.9636689837766594E+20</v>
+        <f t="shared" si="21"/>
+        <v>133527342256.09818</v>
       </c>
       <c r="F102">
-        <f t="shared" si="15"/>
-        <v>6.9636689837766605E+18</v>
+        <f t="shared" si="22"/>
+        <v>11550808154</v>
       </c>
       <c r="G102">
-        <f t="shared" si="18"/>
-        <v>4.4926896669526799E+18</v>
+        <f t="shared" si="25"/>
+        <v>9240646523</v>
       </c>
       <c r="H102">
-        <f t="shared" si="13"/>
-        <v>2.8985094625501199E+18</v>
+        <f t="shared" si="20"/>
+        <v>7392517219</v>
       </c>
       <c r="I102">
-        <f t="shared" si="16"/>
-        <v>3.4818344918883297E+20</v>
+        <f t="shared" si="23"/>
+        <v>66763671128.049088</v>
       </c>
       <c r="J102">
-        <f t="shared" si="17"/>
-        <v>1.39273379675533E+19</v>
+        <f t="shared" si="24"/>
+        <v>23101616308</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="base_damage">Hoja1!$E$3</definedName>
-    <definedName name="brute_life_multiplier">Hoja1!$O$2</definedName>
+    <definedName name="brute_life_multiplier">Hoja1!$Q$2</definedName>
     <definedName name="explosion_shot_base">Hoja1!$I$3</definedName>
-    <definedName name="hits_1_round_behind">Hoja1!$O$1</definedName>
+    <definedName name="hits_1_round_behind">Hoja1!$Q$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>round</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>hits level 3</t>
+  </si>
+  <si>
+    <t>healing shot</t>
   </si>
 </sst>
 </file>
@@ -1093,13 +1096,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1387,20 +1390,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,20 +1419,22 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1">
+      <c r="Q1">
         <v>1.25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1457,27 +1462,30 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" t="str">
+      <c r="T2" t="str">
         <f>E2</f>
         <v>average weapon</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1506,28 +1514,36 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f>base_damage/2</f>
-        <v>17</v>
+        <f>50</f>
+        <v>50</v>
       </c>
       <c r="J3">
         <f>ROUNDUP(B3/explosion_shot_base, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <f>ROUNDUP(B3/$K$3, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="str">
+      <c r="T3" t="str">
         <f>B2</f>
         <v>tesla trooper</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1561,20 +1577,28 @@
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J34" si="6">ROUNDUP(B4/explosion_shot_base, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A3</f>
+        <v>125</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="7">ROUNDUP(B4/$K$3, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="str">
+        <f ca="1">OFFSET(T2,1, 0)</f>
+        <v>tesla trooper</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="str">
-        <f ca="1">OFFSET(R2,1, 0)</f>
-        <v>tesla trooper</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1603,16 +1627,24 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I61" si="7">E5/2</f>
+        <f t="shared" ref="I5:I61" si="8">E5/2</f>
         <v>26.5625</v>
       </c>
       <c r="J5">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A4</f>
+        <v>156.25</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1641,15 +1673,23 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.203125</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A5</f>
+        <v>195.3125</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1678,15 +1718,23 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.50390625</v>
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A6</f>
+        <v>244.140625</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1715,15 +1763,23 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51.8798828125</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A7</f>
+        <v>305.17578125</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1752,15 +1808,23 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64.849853515625</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A8</f>
+        <v>381.4697265625</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1789,15 +1853,23 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>81.06231689453125</v>
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A9</f>
+        <v>476.837158203125</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1826,15 +1898,23 @@
         <v>12</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>101.32789611816406</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A10</f>
+        <v>596.04644775390625</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1863,15 +1943,23 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>126.65987014770508</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A11</f>
+        <v>745.05805969238281</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1900,15 +1988,23 @@
         <v>18</v>
       </c>
       <c r="I13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>158.32483768463135</v>
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A12</f>
+        <v>931.32257461547852</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1937,15 +2033,23 @@
         <v>22</v>
       </c>
       <c r="I14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>197.90604710578918</v>
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A13</f>
+        <v>1164.1532182693481</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1974,15 +2078,23 @@
         <v>28</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>247.38255888223648</v>
       </c>
       <c r="J15">
         <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A14</f>
+        <v>1455.1915228366852</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2011,15 +2123,23 @@
         <v>35</v>
       </c>
       <c r="I16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>309.2281986027956</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A15</f>
+        <v>1818.9894035458565</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2048,15 +2168,23 @@
         <v>43</v>
       </c>
       <c r="I17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>386.5352482534945</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A16</f>
+        <v>2273.7367544323206</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2085,15 +2213,23 @@
         <v>54</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>483.16906031686813</v>
       </c>
       <c r="J18">
         <f t="shared" si="6"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="K18">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A17</f>
+        <v>2842.1709430404007</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2122,15 +2258,23 @@
         <v>67</v>
       </c>
       <c r="I19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>603.96132539608516</v>
       </c>
       <c r="J19">
         <f t="shared" si="6"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K19">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A18</f>
+        <v>3552.7136788005009</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2159,15 +2303,23 @@
         <v>84</v>
       </c>
       <c r="I20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>754.95165674510645</v>
       </c>
       <c r="J20">
         <f t="shared" si="6"/>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="K20">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A19</f>
+        <v>4440.8920985006262</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2196,15 +2348,23 @@
         <v>105</v>
       </c>
       <c r="I21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>943.68957093138306</v>
       </c>
       <c r="J21">
         <f t="shared" si="6"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="K21">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A20</f>
+        <v>5551.1151231257827</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2233,15 +2393,23 @@
         <v>131</v>
       </c>
       <c r="I22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1179.6119636642288</v>
       </c>
       <c r="J22">
         <f t="shared" si="6"/>
-        <v>409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="K22">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A21</f>
+        <v>6938.8939039072284</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2270,15 +2438,23 @@
         <v>164</v>
       </c>
       <c r="I23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1474.514954580286</v>
       </c>
       <c r="J23">
         <f t="shared" si="6"/>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="K23">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A22</f>
+        <v>8673.6173798840355</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2307,15 +2483,23 @@
         <v>205</v>
       </c>
       <c r="I24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1843.1436932253575</v>
       </c>
       <c r="J24">
         <f t="shared" si="6"/>
-        <v>638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="K24">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A23</f>
+        <v>10842.021724855043</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2344,15 +2528,23 @@
         <v>256</v>
       </c>
       <c r="I25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2303.9296165316969</v>
       </c>
       <c r="J25">
         <f t="shared" si="6"/>
-        <v>798</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="K25">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A24</f>
+        <v>13552.527156068805</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2381,15 +2573,23 @@
         <v>319</v>
       </c>
       <c r="I26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2879.9120206646207</v>
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
-        <v>997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="K26">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A25</f>
+        <v>16940.658945086005</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2418,15 +2618,23 @@
         <v>399</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3599.8900258307763</v>
       </c>
       <c r="J27">
         <f t="shared" si="6"/>
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="K27">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A26</f>
+        <v>21175.823681357509</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2455,15 +2663,23 @@
         <v>499</v>
       </c>
       <c r="I28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4499.8625322884709</v>
       </c>
       <c r="J28">
         <f t="shared" si="6"/>
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="K28">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A27</f>
+        <v>26469.77960169689</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2492,15 +2708,23 @@
         <v>623</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5624.8281653605882</v>
       </c>
       <c r="J29">
         <f t="shared" si="6"/>
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="K29">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A28</f>
+        <v>33087.224502121106</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2529,15 +2753,23 @@
         <v>779</v>
       </c>
       <c r="I30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7031.0352067007352</v>
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+      <c r="K30">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A29</f>
+        <v>41359.030627651387</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2566,15 +2798,23 @@
         <v>974</v>
       </c>
       <c r="I31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8788.7940083759186</v>
       </c>
       <c r="J31">
         <f t="shared" si="6"/>
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+      <c r="K31">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A30</f>
+        <v>51698.788284564231</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2603,15 +2843,23 @@
         <v>1217</v>
       </c>
       <c r="I32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10985.992510469898</v>
       </c>
       <c r="J32">
         <f t="shared" si="6"/>
-        <v>3802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1293</v>
+      </c>
+      <c r="K32">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A31</f>
+        <v>64623.485355705285</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2640,15 +2888,23 @@
         <v>1521</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13732.490638087374</v>
       </c>
       <c r="J33">
         <f t="shared" si="6"/>
-        <v>4752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1616</v>
+      </c>
+      <c r="K33">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A32</f>
+        <v>80779.356694631613</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2677,15 +2933,23 @@
         <v>1901</v>
       </c>
       <c r="I34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17165.613297609216</v>
       </c>
       <c r="J34">
         <f t="shared" si="6"/>
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+      <c r="K34">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A33</f>
+        <v>100974.19586828951</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2702,7 +2966,7 @@
         <v>42914.033244023041</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F61" si="8">ROUNDUP(B35/base_damage, 0)</f>
+        <f t="shared" ref="F35:F61" si="9">ROUNDUP(B35/base_damage, 0)</f>
         <v>3713</v>
       </c>
       <c r="G35">
@@ -2714,32 +2978,40 @@
         <v>2376</v>
       </c>
       <c r="I35">
+        <f t="shared" si="8"/>
+        <v>21457.016622011521</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J61" si="10">ROUNDUP(B35/explosion_shot_base, 0)</f>
+        <v>2525</v>
+      </c>
+      <c r="K35">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A34</f>
+        <v>126217.7448353619</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="7"/>
-        <v>21457.016622011521</v>
-      </c>
-      <c r="J35">
-        <f t="shared" ref="J35:J61" si="9">ROUNDUP(B35/explosion_shot_base, 0)</f>
-        <v>7425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:B67" si="10" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A35</f>
+        <f t="shared" ref="B36:B67" si="11" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A35</f>
         <v>157772.18104420239</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C67" si="11" xml:space="preserve"> $B$3*hits_1_round_behind^A35*brute_life_multiplier</f>
+        <f t="shared" ref="C36:C67" si="12" xml:space="preserve"> $B$3*hits_1_round_behind^A35*brute_life_multiplier</f>
         <v>2366582.7156630359</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E61" si="12" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
+        <f t="shared" ref="E36:E61" si="13" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
         <v>53642.541555028809</v>
       </c>
       <c r="F36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4641</v>
       </c>
       <c r="G36">
@@ -2751,32 +3023,40 @@
         <v>2970</v>
       </c>
       <c r="I36">
+        <f t="shared" si="8"/>
+        <v>26821.270777514404</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="10"/>
+        <v>3156</v>
+      </c>
+      <c r="K36">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A35</f>
+        <v>157772.18104420239</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="7"/>
-        <v>26821.270777514404</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="9"/>
-        <v>9281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>197215.22630525296</v>
       </c>
       <c r="C37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2958228.3945787945</v>
       </c>
       <c r="E37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>67053.176943786006</v>
       </c>
       <c r="F37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5801</v>
       </c>
       <c r="G37">
@@ -2788,32 +3068,40 @@
         <v>3713</v>
       </c>
       <c r="I37">
+        <f t="shared" si="8"/>
+        <v>33526.588471893003</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="10"/>
+        <v>3945</v>
+      </c>
+      <c r="K37">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A36</f>
+        <v>197215.22630525296</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="7"/>
-        <v>33526.588471893003</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="9"/>
-        <v>11601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>246519.03288156618</v>
       </c>
       <c r="C38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3697785.4932234925</v>
       </c>
       <c r="E38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>83816.4711797325</v>
       </c>
       <c r="F38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7251</v>
       </c>
       <c r="G38">
@@ -2825,32 +3113,40 @@
         <v>4641</v>
       </c>
       <c r="I38">
+        <f t="shared" si="8"/>
+        <v>41908.23558986625</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="10"/>
+        <v>4931</v>
+      </c>
+      <c r="K38">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A37</f>
+        <v>246519.03288156618</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="7"/>
-        <v>41908.23558986625</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="9"/>
-        <v>14502</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>308148.79110195773</v>
       </c>
       <c r="C39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4622231.866529366</v>
       </c>
       <c r="E39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>104770.58897466563</v>
       </c>
       <c r="F39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9064</v>
       </c>
       <c r="G39">
@@ -2862,32 +3158,40 @@
         <v>5801</v>
       </c>
       <c r="I39">
+        <f t="shared" si="8"/>
+        <v>52385.294487332816</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="10"/>
+        <v>6163</v>
+      </c>
+      <c r="K39">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A38</f>
+        <v>308148.79110195773</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="7"/>
-        <v>52385.294487332816</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="9"/>
-        <v>18127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>385185.98887744721</v>
       </c>
       <c r="C40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5777789.833161708</v>
       </c>
       <c r="E40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>130963.23621833205</v>
       </c>
       <c r="F40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11329</v>
       </c>
       <c r="G40">
@@ -2899,32 +3203,40 @@
         <v>7251</v>
       </c>
       <c r="I40">
+        <f t="shared" si="8"/>
+        <v>65481.618109166026</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="10"/>
+        <v>7704</v>
+      </c>
+      <c r="K40">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A39</f>
+        <v>385185.98887744721</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="7"/>
-        <v>65481.618109166026</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="9"/>
-        <v>22658</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>481482.48609680898</v>
       </c>
       <c r="C41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7222237.291452135</v>
       </c>
       <c r="E41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>163704.04527291504</v>
       </c>
       <c r="F41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14162</v>
       </c>
       <c r="G41">
@@ -2936,32 +3248,40 @@
         <v>9064</v>
       </c>
       <c r="I41">
+        <f t="shared" si="8"/>
+        <v>81852.022636457521</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="10"/>
+        <v>9630</v>
+      </c>
+      <c r="K41">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A40</f>
+        <v>481482.48609680898</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="7"/>
-        <v>81852.022636457521</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="9"/>
-        <v>28323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>601853.10762101121</v>
       </c>
       <c r="C42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9027796.6143151689</v>
       </c>
       <c r="E42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>204630.05659114383</v>
       </c>
       <c r="F42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17702</v>
       </c>
       <c r="G42">
@@ -2973,32 +3293,40 @@
         <v>11329</v>
       </c>
       <c r="I42">
+        <f t="shared" si="8"/>
+        <v>102315.02829557192</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="10"/>
+        <v>12038</v>
+      </c>
+      <c r="K42">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A41</f>
+        <v>601853.10762101121</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="7"/>
-        <v>102315.02829557192</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="9"/>
-        <v>35404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>752316.38452626404</v>
       </c>
       <c r="C43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11284745.767893961</v>
       </c>
       <c r="E43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>255787.57073892976</v>
       </c>
       <c r="F43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22127</v>
       </c>
       <c r="G43">
@@ -3010,32 +3338,40 @@
         <v>14162</v>
       </c>
       <c r="I43">
+        <f t="shared" si="8"/>
+        <v>127893.78536946488</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="10"/>
+        <v>15047</v>
+      </c>
+      <c r="K43">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A42</f>
+        <v>752316.38452626404</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="7"/>
-        <v>127893.78536946488</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="9"/>
-        <v>44254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>940395.48065783002</v>
       </c>
       <c r="C44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14105932.209867449</v>
       </c>
       <c r="E44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>319734.46342366218</v>
       </c>
       <c r="F44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27659</v>
       </c>
       <c r="G44">
@@ -3047,32 +3383,40 @@
         <v>17702</v>
       </c>
       <c r="I44">
+        <f t="shared" si="8"/>
+        <v>159867.23171183109</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="10"/>
+        <v>18808</v>
+      </c>
+      <c r="K44">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A43</f>
+        <v>940395.48065783002</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="7"/>
-        <v>159867.23171183109</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="9"/>
-        <v>55318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1175494.3508222876</v>
       </c>
       <c r="C45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17632415.262334313</v>
       </c>
       <c r="E45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>399668.07927957777</v>
       </c>
       <c r="F45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34574</v>
       </c>
       <c r="G45">
@@ -3084,32 +3428,40 @@
         <v>22127</v>
       </c>
       <c r="I45">
+        <f t="shared" si="8"/>
+        <v>199834.03963978888</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="10"/>
+        <v>23510</v>
+      </c>
+      <c r="K45">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A44</f>
+        <v>1175494.3508222876</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="7"/>
-        <v>199834.03963978888</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="9"/>
-        <v>69147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11755</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1469367.9385278595</v>
       </c>
       <c r="C46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22040519.077917892</v>
       </c>
       <c r="E46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>499585.09909947222</v>
       </c>
       <c r="F46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43217</v>
       </c>
       <c r="G46">
@@ -3121,32 +3473,40 @@
         <v>27659</v>
       </c>
       <c r="I46">
+        <f t="shared" si="8"/>
+        <v>249792.54954973611</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="10"/>
+        <v>29388</v>
+      </c>
+      <c r="K46">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A45</f>
+        <v>1469367.9385278595</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="7"/>
-        <v>249792.54954973611</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="9"/>
-        <v>86434</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1836709.9231598245</v>
       </c>
       <c r="C47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27550648.847397368</v>
       </c>
       <c r="E47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>624481.37387434032</v>
       </c>
       <c r="F47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54021</v>
       </c>
       <c r="G47">
@@ -3158,32 +3518,40 @@
         <v>34574</v>
       </c>
       <c r="I47">
+        <f t="shared" si="8"/>
+        <v>312240.68693717016</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="10"/>
+        <v>36735</v>
+      </c>
+      <c r="K47">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A46</f>
+        <v>1836709.9231598245</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="7"/>
-        <v>312240.68693717016</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="9"/>
-        <v>108042</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2295887.4039497804</v>
       </c>
       <c r="C48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34438311.059246704</v>
       </c>
       <c r="E48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>780601.71734292537</v>
       </c>
       <c r="F48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67527</v>
       </c>
       <c r="G48">
@@ -3195,32 +3563,40 @@
         <v>43217</v>
       </c>
       <c r="I48">
+        <f t="shared" si="8"/>
+        <v>390300.85867146269</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="10"/>
+        <v>45918</v>
+      </c>
+      <c r="K48">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A47</f>
+        <v>2295887.4039497804</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="7"/>
-        <v>390300.85867146269</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="9"/>
-        <v>135053</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2869859.2549372255</v>
       </c>
       <c r="C49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43047888.824058384</v>
       </c>
       <c r="E49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>975752.14667865657</v>
       </c>
       <c r="F49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>84408</v>
       </c>
       <c r="G49">
@@ -3232,32 +3608,40 @@
         <v>54021</v>
       </c>
       <c r="I49">
+        <f t="shared" si="8"/>
+        <v>487876.07333932829</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="10"/>
+        <v>57398</v>
+      </c>
+      <c r="K49">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A48</f>
+        <v>2869859.2549372255</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="7"/>
-        <v>487876.07333932829</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="9"/>
-        <v>168816</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3587324.068671532</v>
       </c>
       <c r="C50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>53809861.03007298</v>
       </c>
       <c r="E50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1219690.1833483209</v>
       </c>
       <c r="F50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>105510</v>
       </c>
       <c r="G50">
@@ -3269,32 +3653,40 @@
         <v>67527</v>
       </c>
       <c r="I50">
+        <f t="shared" si="8"/>
+        <v>609845.09167416045</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="10"/>
+        <v>71747</v>
+      </c>
+      <c r="K50">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A49</f>
+        <v>3587324.068671532</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="7"/>
-        <v>609845.09167416045</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="9"/>
-        <v>211020</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4484155.085839415</v>
       </c>
       <c r="C51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>67262326.287591219</v>
       </c>
       <c r="E51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1524612.729185401</v>
       </c>
       <c r="F51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>131887</v>
       </c>
       <c r="G51">
@@ -3306,32 +3698,40 @@
         <v>84408</v>
       </c>
       <c r="I51">
+        <f t="shared" si="8"/>
+        <v>762306.3645927005</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="10"/>
+        <v>89684</v>
+      </c>
+      <c r="K51">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A50</f>
+        <v>4484155.085839415</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="7"/>
-        <v>762306.3645927005</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="9"/>
-        <v>263774</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5605193.8572992682</v>
       </c>
       <c r="C52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>84077907.859489024</v>
       </c>
       <c r="E52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1905765.9114817514</v>
       </c>
       <c r="F52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>164859</v>
       </c>
       <c r="G52">
@@ -3343,32 +3743,40 @@
         <v>105510</v>
       </c>
       <c r="I52">
+        <f t="shared" si="8"/>
+        <v>952882.95574087568</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="10"/>
+        <v>112104</v>
+      </c>
+      <c r="K52">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A51</f>
+        <v>5605193.8572992682</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="7"/>
-        <v>952882.95574087568</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="9"/>
-        <v>329718</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7006492.3216240862</v>
       </c>
       <c r="C53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>105097384.82436129</v>
       </c>
       <c r="E53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2382207.3893521894</v>
       </c>
       <c r="F53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>206074</v>
       </c>
       <c r="G53">
@@ -3380,32 +3788,40 @@
         <v>131887</v>
       </c>
       <c r="I53">
+        <f t="shared" si="8"/>
+        <v>1191103.6946760947</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="10"/>
+        <v>140130</v>
+      </c>
+      <c r="K53">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A52</f>
+        <v>7006492.3216240862</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="7"/>
-        <v>1191103.6946760947</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="9"/>
-        <v>412147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8758115.4020301066</v>
       </c>
       <c r="C54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>131371731.0304516</v>
       </c>
       <c r="E54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2977759.2366902363</v>
       </c>
       <c r="F54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>257592</v>
       </c>
       <c r="G54">
@@ -3417,32 +3833,40 @@
         <v>164859</v>
       </c>
       <c r="I54">
+        <f t="shared" si="8"/>
+        <v>1488879.6183451181</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="10"/>
+        <v>175163</v>
+      </c>
+      <c r="K54">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A53</f>
+        <v>8758115.4020301066</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="7"/>
-        <v>1488879.6183451181</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="9"/>
-        <v>515184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10947644.252537634</v>
       </c>
       <c r="C55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>164214663.78806451</v>
       </c>
       <c r="E55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3722199.0458627953</v>
       </c>
       <c r="F55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>321990</v>
       </c>
       <c r="G55">
@@ -3454,32 +3878,40 @@
         <v>206074</v>
       </c>
       <c r="I55">
+        <f t="shared" si="8"/>
+        <v>1861099.5229313977</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="10"/>
+        <v>218953</v>
+      </c>
+      <c r="K55">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A54</f>
+        <v>10947644.252537634</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="7"/>
-        <v>1861099.5229313977</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="9"/>
-        <v>643980</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13684555.315672042</v>
       </c>
       <c r="C56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>205268329.73508063</v>
       </c>
       <c r="E56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4652748.8073284943</v>
       </c>
       <c r="F56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>402487</v>
       </c>
       <c r="G56">
@@ -3491,32 +3923,40 @@
         <v>257592</v>
       </c>
       <c r="I56">
+        <f t="shared" si="8"/>
+        <v>2326374.4036642471</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="10"/>
+        <v>273692</v>
+      </c>
+      <c r="K56">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A55</f>
+        <v>13684555.315672042</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="7"/>
-        <v>2326374.4036642471</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="9"/>
-        <v>804974</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>136846</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17105694.144590054</v>
       </c>
       <c r="C57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>256585412.16885081</v>
       </c>
       <c r="E57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5815936.0091606183</v>
       </c>
       <c r="F57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>503109</v>
       </c>
       <c r="G57">
@@ -3528,32 +3968,40 @@
         <v>321990</v>
       </c>
       <c r="I57">
+        <f t="shared" si="8"/>
+        <v>2907968.0045803091</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="10"/>
+        <v>342114</v>
+      </c>
+      <c r="K57">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A56</f>
+        <v>17105694.144590054</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="7"/>
-        <v>2907968.0045803091</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="9"/>
-        <v>1006218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>171057</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21382117.680737566</v>
       </c>
       <c r="C58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>320731765.2110635</v>
       </c>
       <c r="E58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7269920.0114507722</v>
       </c>
       <c r="F58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>628886</v>
       </c>
       <c r="G58">
@@ -3565,32 +4013,40 @@
         <v>402487</v>
       </c>
       <c r="I58">
+        <f t="shared" si="8"/>
+        <v>3634960.0057253861</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="10"/>
+        <v>427643</v>
+      </c>
+      <c r="K58">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A57</f>
+        <v>21382117.680737566</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="7"/>
-        <v>3634960.0057253861</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="9"/>
-        <v>1257772</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>213822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26727647.100921959</v>
       </c>
       <c r="C59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>400914706.51382935</v>
       </c>
       <c r="E59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9087400.0143134668</v>
       </c>
       <c r="F59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>786108</v>
       </c>
       <c r="G59">
@@ -3602,32 +4058,40 @@
         <v>503109</v>
       </c>
       <c r="I59">
+        <f t="shared" si="8"/>
+        <v>4543700.0071567334</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="10"/>
+        <v>534553</v>
+      </c>
+      <c r="K59">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A58</f>
+        <v>26727647.100921959</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="7"/>
-        <v>4543700.0071567334</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="9"/>
-        <v>1572215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33409558.876152452</v>
       </c>
       <c r="C60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>501143383.14228678</v>
       </c>
       <c r="E60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11359250.017891834</v>
       </c>
       <c r="F60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>982635</v>
       </c>
       <c r="G60">
@@ -3639,32 +4103,40 @@
         <v>628886</v>
       </c>
       <c r="I60">
+        <f t="shared" si="8"/>
+        <v>5679625.0089459168</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="10"/>
+        <v>668192</v>
+      </c>
+      <c r="K60">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A59</f>
+        <v>33409558.876152452</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="7"/>
-        <v>5679625.0089459168</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="9"/>
-        <v>1965269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>334096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41761948.595190562</v>
       </c>
       <c r="C61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>626429228.92785847</v>
       </c>
       <c r="E61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14199062.522364791</v>
       </c>
       <c r="F61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1228293</v>
       </c>
       <c r="G61">
@@ -3676,32 +4148,40 @@
         <v>786108</v>
       </c>
       <c r="I61">
+        <f t="shared" si="8"/>
+        <v>7099531.2611823957</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="10"/>
+        <v>835239</v>
+      </c>
+      <c r="K61">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A60</f>
+        <v>41761948.595190562</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="7"/>
-        <v>7099531.2611823957</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="9"/>
-        <v>2456586</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>417620</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>52202435.743988201</v>
       </c>
       <c r="C62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>783036536.15982306</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62:E84" si="13" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
+        <f t="shared" ref="E62:E84" si="14" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
         <v>17748828.152955987</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62:F84" si="14">ROUNDUP(B62/base_damage, 0)</f>
+        <f t="shared" ref="F62:F84" si="15">ROUNDUP(B62/base_damage, 0)</f>
         <v>1535366</v>
       </c>
       <c r="G62">
@@ -3713,32 +4193,40 @@
         <v>982635</v>
       </c>
       <c r="I62">
-        <f t="shared" ref="I62:I84" si="15">E62/2</f>
+        <f t="shared" ref="I62:I84" si="16">E62/2</f>
         <v>8874414.0764779933</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:J84" si="16">ROUNDUP(B62/explosion_shot_base, 0)</f>
-        <v>3070732</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J62:J84" si="17">ROUNDUP(B62/explosion_shot_base, 0)</f>
+        <v>1044049</v>
+      </c>
+      <c r="K62">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A61</f>
+        <v>52202435.743988201</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="7"/>
+        <v>522025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>65253044.67998524</v>
       </c>
       <c r="C63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>978795670.19977856</v>
       </c>
       <c r="E63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22186035.191194981</v>
       </c>
       <c r="F63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1919208</v>
       </c>
       <c r="G63">
@@ -3750,32 +4238,40 @@
         <v>1228293</v>
       </c>
       <c r="I63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11093017.595597491</v>
       </c>
       <c r="J63">
-        <f t="shared" si="16"/>
-        <v>3838415</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>1305061</v>
+      </c>
+      <c r="K63">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A62</f>
+        <v>65253044.67998524</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="7"/>
+        <v>652531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>81566305.849981546</v>
       </c>
       <c r="C64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1223494587.7497232</v>
       </c>
       <c r="E64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27732543.988993727</v>
       </c>
       <c r="F64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2399009</v>
       </c>
       <c r="G64">
@@ -3787,32 +4283,40 @@
         <v>1535366</v>
       </c>
       <c r="I64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13866271.994496863</v>
       </c>
       <c r="J64">
-        <f t="shared" si="16"/>
-        <v>4798018</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>1631327</v>
+      </c>
+      <c r="K64">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A63</f>
+        <v>81566305.849981546</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="7"/>
+        <v>815664</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>101957882.31247695</v>
       </c>
       <c r="C65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1529368234.6871543</v>
       </c>
       <c r="E65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>34665679.98624216</v>
       </c>
       <c r="F65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2998762</v>
       </c>
       <c r="G65">
@@ -3824,32 +4328,40 @@
         <v>1919208</v>
       </c>
       <c r="I65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17332839.99312108</v>
       </c>
       <c r="J65">
-        <f t="shared" si="16"/>
-        <v>5997523</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>2039158</v>
+      </c>
+      <c r="K65">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A64</f>
+        <v>101957882.31247695</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="7"/>
+        <v>1019579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>127447352.8905962</v>
       </c>
       <c r="C66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1911710293.358943</v>
       </c>
       <c r="E66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43332099.982802704</v>
       </c>
       <c r="F66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3748452</v>
       </c>
       <c r="G66">
@@ -3861,32 +4373,40 @@
         <v>2399009</v>
       </c>
       <c r="I66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21666049.991401352</v>
       </c>
       <c r="J66">
-        <f t="shared" si="16"/>
-        <v>7496904</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>2548948</v>
+      </c>
+      <c r="K66">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A65</f>
+        <v>127447352.8905962</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="7"/>
+        <v>1274474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>159309191.11324525</v>
       </c>
       <c r="C67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2389637866.698679</v>
       </c>
       <c r="E67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>54165124.978503384</v>
       </c>
       <c r="F67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4685565</v>
       </c>
       <c r="G67">
@@ -3898,957 +4418,1165 @@
         <v>2998762</v>
       </c>
       <c r="I67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27082562.489251692</v>
       </c>
       <c r="J67">
-        <f t="shared" si="16"/>
-        <v>9371129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>3186184</v>
+      </c>
+      <c r="K67">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A66</f>
+        <v>159309191.11324525</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="7"/>
+        <v>1593092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B102" si="17" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A67</f>
+        <f t="shared" ref="B68:B102" si="18" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A67</f>
         <v>199136488.89155659</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C102" si="18" xml:space="preserve"> $B$3*hits_1_round_behind^A67*brute_life_multiplier</f>
+        <f t="shared" ref="C68:C102" si="19" xml:space="preserve"> $B$3*hits_1_round_behind^A67*brute_life_multiplier</f>
         <v>2987047333.3733487</v>
       </c>
       <c r="E68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>67706406.223129243</v>
       </c>
       <c r="F68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5856956</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G92" si="19">ROUNDUP(B68/$E$4, 0)</f>
+        <f t="shared" ref="G68:G92" si="20">ROUNDUP(B68/$E$4, 0)</f>
         <v>4685565</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H102" si="20">ROUNDUP(B68/$E$5, 0)</f>
+        <f t="shared" ref="H68:H102" si="21">ROUNDUP(B68/$E$5, 0)</f>
         <v>3748452</v>
       </c>
       <c r="I68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33853203.111564621</v>
       </c>
       <c r="J68">
-        <f t="shared" si="16"/>
-        <v>11713912</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>3982730</v>
+      </c>
+      <c r="K68">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A67</f>
+        <v>199136488.89155659</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L102" si="22">ROUNDUP(B68/$K$3, 0)</f>
+        <v>1991365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
+        <f t="shared" si="18"/>
+        <v>248920611.11444569</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="19"/>
+        <v>3733809166.7166853</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="14"/>
+        <v>84633007.778911531</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="15"/>
+        <v>7321195</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="20"/>
+        <v>5856956</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="21"/>
+        <v>4685565</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="16"/>
+        <v>42316503.889455765</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="17"/>
+        <v>4978413</v>
+      </c>
+      <c r="K69">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A68</f>
         <v>248920611.11444569</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="18"/>
-        <v>3733809166.7166853</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="13"/>
-        <v>84633007.778911531</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="14"/>
-        <v>7321195</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="19"/>
-        <v>5856956</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="20"/>
-        <v>4685565</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="15"/>
-        <v>42316503.889455765</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="16"/>
-        <v>14642389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <f t="shared" si="22"/>
+        <v>2489207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
+        <f t="shared" si="18"/>
+        <v>311150763.89305711</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="19"/>
+        <v>4667261458.3958569</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="14"/>
+        <v>105791259.72363943</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="15"/>
+        <v>9151494</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="20"/>
+        <v>7321195</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="21"/>
+        <v>5856956</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="16"/>
+        <v>52895629.861819714</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="17"/>
+        <v>6223016</v>
+      </c>
+      <c r="K70">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A69</f>
         <v>311150763.89305711</v>
       </c>
-      <c r="C70">
-        <f t="shared" si="18"/>
-        <v>4667261458.3958569</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="13"/>
-        <v>105791259.72363943</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="14"/>
-        <v>9151494</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="19"/>
-        <v>7321195</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="20"/>
-        <v>5856956</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="15"/>
-        <v>52895629.861819714</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="16"/>
-        <v>18302987</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <f t="shared" si="22"/>
+        <v>3111508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
+        <f t="shared" si="18"/>
+        <v>388938454.86632144</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="19"/>
+        <v>5834076822.9948215</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="14"/>
+        <v>132239074.65454929</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="15"/>
+        <v>11439367</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="20"/>
+        <v>9151494</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="21"/>
+        <v>7321195</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="16"/>
+        <v>66119537.327274643</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="17"/>
+        <v>7778770</v>
+      </c>
+      <c r="K71">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A70</f>
         <v>388938454.86632144</v>
       </c>
-      <c r="C71">
-        <f t="shared" si="18"/>
-        <v>5834076822.9948215</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="13"/>
-        <v>132239074.65454929</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="14"/>
-        <v>11439367</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="19"/>
-        <v>9151494</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="20"/>
-        <v>7321195</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="15"/>
-        <v>66119537.327274643</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="16"/>
-        <v>22878733</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <f t="shared" si="22"/>
+        <v>3889385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
+        <f t="shared" si="18"/>
+        <v>486173068.58290172</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="19"/>
+        <v>7292596028.7435255</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="14"/>
+        <v>165298843.31818658</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="15"/>
+        <v>14299208</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="20"/>
+        <v>11439367</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="21"/>
+        <v>9151494</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="16"/>
+        <v>82649421.659093291</v>
+      </c>
+      <c r="J72">
         <f t="shared" si="17"/>
+        <v>9723462</v>
+      </c>
+      <c r="K72">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A71</f>
         <v>486173068.58290172</v>
       </c>
-      <c r="C72">
-        <f t="shared" si="18"/>
-        <v>7292596028.7435255</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="13"/>
-        <v>165298843.31818658</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="14"/>
-        <v>14299208</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="19"/>
-        <v>11439367</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="20"/>
-        <v>9151494</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="15"/>
-        <v>82649421.659093291</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="16"/>
-        <v>28598416</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <f t="shared" si="22"/>
+        <v>4861731</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
+        <f t="shared" si="18"/>
+        <v>607716335.7286272</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="19"/>
+        <v>9115745035.929409</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="14"/>
+        <v>206623554.14773327</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="15"/>
+        <v>17874010</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="20"/>
+        <v>14299208</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="21"/>
+        <v>11439367</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="16"/>
+        <v>103311777.07386664</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="17"/>
+        <v>12154327</v>
+      </c>
+      <c r="K73">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A72</f>
         <v>607716335.7286272</v>
       </c>
-      <c r="C73">
-        <f t="shared" si="18"/>
-        <v>9115745035.929409</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="13"/>
-        <v>206623554.14773327</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="14"/>
-        <v>17874010</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="19"/>
-        <v>14299208</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="20"/>
-        <v>11439367</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="15"/>
-        <v>103311777.07386664</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="16"/>
-        <v>35748020</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <f t="shared" si="22"/>
+        <v>6077164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
+        <f t="shared" si="18"/>
+        <v>759645419.66078401</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="19"/>
+        <v>11394681294.91176</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="14"/>
+        <v>258279442.68466657</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="15"/>
+        <v>22342513</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="20"/>
+        <v>17874010</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="21"/>
+        <v>14299208</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="16"/>
+        <v>129139721.34233329</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="17"/>
+        <v>15192909</v>
+      </c>
+      <c r="K74">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A73</f>
         <v>759645419.66078401</v>
       </c>
-      <c r="C74">
-        <f t="shared" si="18"/>
-        <v>11394681294.91176</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="13"/>
-        <v>258279442.68466657</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="14"/>
-        <v>22342513</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="19"/>
-        <v>17874010</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="20"/>
-        <v>14299208</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="15"/>
-        <v>129139721.34233329</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="16"/>
-        <v>44685025</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f t="shared" si="22"/>
+        <v>7596455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
+        <f t="shared" si="18"/>
+        <v>949556774.57597995</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="19"/>
+        <v>14243351618.6397</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="14"/>
+        <v>322849303.35583317</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="15"/>
+        <v>27928141</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="20"/>
+        <v>22342513</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="21"/>
+        <v>17874010</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="16"/>
+        <v>161424651.67791659</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="17"/>
+        <v>18991136</v>
+      </c>
+      <c r="K75">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A74</f>
         <v>949556774.57597995</v>
       </c>
-      <c r="C75">
-        <f t="shared" si="18"/>
-        <v>14243351618.6397</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="13"/>
-        <v>322849303.35583317</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="14"/>
-        <v>27928141</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="19"/>
-        <v>22342513</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="20"/>
-        <v>17874010</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="15"/>
-        <v>161424651.67791659</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="16"/>
-        <v>55856281</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <f t="shared" si="22"/>
+        <v>9495568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
+        <f t="shared" si="18"/>
+        <v>1186945968.219975</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="19"/>
+        <v>17804189523.299625</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="14"/>
+        <v>403561629.1947915</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="15"/>
+        <v>34910176</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="20"/>
+        <v>27928141</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="21"/>
+        <v>22342513</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="16"/>
+        <v>201780814.59739575</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="17"/>
+        <v>23738920</v>
+      </c>
+      <c r="K76">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A75</f>
         <v>1186945968.219975</v>
       </c>
-      <c r="C76">
-        <f t="shared" si="18"/>
-        <v>17804189523.299625</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="13"/>
-        <v>403561629.1947915</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="14"/>
-        <v>34910176</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="19"/>
-        <v>27928141</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="20"/>
-        <v>22342513</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="15"/>
-        <v>201780814.59739575</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="16"/>
-        <v>69820352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <f t="shared" si="22"/>
+        <v>11869460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
+        <f t="shared" si="18"/>
+        <v>1483682460.2749689</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="19"/>
+        <v>22255236904.124535</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="14"/>
+        <v>504452036.49348938</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="15"/>
+        <v>43637720</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="20"/>
+        <v>34910176</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="21"/>
+        <v>27928141</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="16"/>
+        <v>252226018.24674469</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="17"/>
+        <v>29673650</v>
+      </c>
+      <c r="K77">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A76</f>
         <v>1483682460.2749689</v>
       </c>
-      <c r="C77">
-        <f t="shared" si="18"/>
-        <v>22255236904.124535</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="13"/>
-        <v>504452036.49348938</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="14"/>
-        <v>43637720</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="19"/>
-        <v>34910176</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="20"/>
-        <v>27928141</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="15"/>
-        <v>252226018.24674469</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="16"/>
-        <v>87275439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <f t="shared" si="22"/>
+        <v>14836825</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
+        <f t="shared" si="18"/>
+        <v>1854603075.3437109</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="19"/>
+        <v>27819046130.155663</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="14"/>
+        <v>630565045.6168617</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="15"/>
+        <v>54547150</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="20"/>
+        <v>43637720</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="21"/>
+        <v>34910176</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="16"/>
+        <v>315282522.80843085</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="17"/>
+        <v>37092062</v>
+      </c>
+      <c r="K78">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A77</f>
         <v>1854603075.3437109</v>
       </c>
-      <c r="C78">
-        <f t="shared" si="18"/>
-        <v>27819046130.155663</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="13"/>
-        <v>630565045.6168617</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="14"/>
-        <v>54547150</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="19"/>
-        <v>43637720</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="20"/>
-        <v>34910176</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="15"/>
-        <v>315282522.80843085</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="16"/>
-        <v>109094299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <f t="shared" si="22"/>
+        <v>18546031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
+        <f t="shared" si="18"/>
+        <v>2318253844.1796389</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="19"/>
+        <v>34773807662.69458</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="14"/>
+        <v>788206307.02107716</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="15"/>
+        <v>68183937</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="20"/>
+        <v>54547150</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="21"/>
+        <v>43637720</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="16"/>
+        <v>394103153.51053858</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="17"/>
+        <v>46365077</v>
+      </c>
+      <c r="K79">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A78</f>
         <v>2318253844.1796389</v>
       </c>
-      <c r="C79">
-        <f t="shared" si="18"/>
-        <v>34773807662.69458</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="13"/>
-        <v>788206307.02107716</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="14"/>
-        <v>68183937</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="19"/>
-        <v>54547150</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="20"/>
-        <v>43637720</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="15"/>
-        <v>394103153.51053858</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="16"/>
-        <v>136367874</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <f t="shared" si="22"/>
+        <v>23182539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
+        <f t="shared" si="18"/>
+        <v>2897817305.2245483</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="19"/>
+        <v>43467259578.368225</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="14"/>
+        <v>985257883.77634645</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="15"/>
+        <v>85229921</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="20"/>
+        <v>68183937</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="21"/>
+        <v>54547150</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="16"/>
+        <v>492628941.88817322</v>
+      </c>
+      <c r="J80">
         <f t="shared" si="17"/>
+        <v>57956347</v>
+      </c>
+      <c r="K80">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A79</f>
         <v>2897817305.2245483</v>
       </c>
-      <c r="C80">
-        <f t="shared" si="18"/>
-        <v>43467259578.368225</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="13"/>
-        <v>985257883.77634645</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="14"/>
-        <v>85229921</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="19"/>
-        <v>68183937</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="20"/>
-        <v>54547150</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="15"/>
-        <v>492628941.88817322</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="16"/>
-        <v>170459842</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <f t="shared" si="22"/>
+        <v>28978174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
+        <f t="shared" si="18"/>
+        <v>3622271631.5306859</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="19"/>
+        <v>54334074472.960289</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="14"/>
+        <v>1231572354.7204332</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="15"/>
+        <v>106537401</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="20"/>
+        <v>85229921</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="21"/>
+        <v>68183937</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="16"/>
+        <v>615786177.36021662</v>
+      </c>
+      <c r="J81">
         <f t="shared" si="17"/>
+        <v>72445433</v>
+      </c>
+      <c r="K81">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A80</f>
         <v>3622271631.5306859</v>
       </c>
-      <c r="C81">
-        <f t="shared" si="18"/>
-        <v>54334074472.960289</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="13"/>
-        <v>1231572354.7204332</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="14"/>
-        <v>106537401</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="19"/>
-        <v>85229921</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="20"/>
-        <v>68183937</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="15"/>
-        <v>615786177.36021662</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="16"/>
-        <v>213074802</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <f t="shared" si="22"/>
+        <v>36222717</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
+        <f t="shared" si="18"/>
+        <v>4527839539.4133568</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="19"/>
+        <v>67917593091.200348</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="14"/>
+        <v>1539465443.4005413</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="15"/>
+        <v>133171752</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="20"/>
+        <v>106537401</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="21"/>
+        <v>85229921</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="16"/>
+        <v>769732721.70027065</v>
+      </c>
+      <c r="J82">
         <f t="shared" si="17"/>
+        <v>90556791</v>
+      </c>
+      <c r="K82">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A81</f>
         <v>4527839539.4133568</v>
       </c>
-      <c r="C82">
-        <f t="shared" si="18"/>
-        <v>67917593091.200348</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="13"/>
-        <v>1539465443.4005413</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="14"/>
-        <v>133171752</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="19"/>
-        <v>106537401</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="20"/>
-        <v>85229921</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="15"/>
-        <v>769732721.70027065</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="16"/>
-        <v>266343503</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <f t="shared" si="22"/>
+        <v>45278396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
+        <f t="shared" si="18"/>
+        <v>5659799424.266696</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="19"/>
+        <v>84896991364.000443</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="14"/>
+        <v>1924331804.2506766</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="15"/>
+        <v>166464689</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="20"/>
+        <v>133171752</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="21"/>
+        <v>106537401</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="16"/>
+        <v>962165902.12533832</v>
+      </c>
+      <c r="J83">
         <f t="shared" si="17"/>
+        <v>113195989</v>
+      </c>
+      <c r="K83">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A82</f>
         <v>5659799424.266696</v>
       </c>
-      <c r="C83">
-        <f t="shared" si="18"/>
-        <v>84896991364.000443</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="13"/>
-        <v>1924331804.2506766</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="14"/>
-        <v>166464689</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="19"/>
-        <v>133171752</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="20"/>
-        <v>106537401</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="15"/>
-        <v>962165902.12533832</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="16"/>
-        <v>332929378</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <f t="shared" si="22"/>
+        <v>56597995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
+        <f t="shared" si="18"/>
+        <v>7074749280.3333702</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="19"/>
+        <v>106121239205.00055</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="14"/>
+        <v>2405414755.3133459</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="15"/>
+        <v>208080862</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="20"/>
+        <v>166464689</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="21"/>
+        <v>133171752</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="16"/>
+        <v>1202707377.656673</v>
+      </c>
+      <c r="J84">
         <f t="shared" si="17"/>
+        <v>141494986</v>
+      </c>
+      <c r="K84">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A83</f>
         <v>7074749280.3333702</v>
       </c>
-      <c r="C84">
-        <f t="shared" si="18"/>
-        <v>106121239205.00055</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="13"/>
-        <v>2405414755.3133459</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="14"/>
-        <v>208080862</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="19"/>
-        <v>166464689</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="20"/>
-        <v>133171752</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="15"/>
-        <v>1202707377.656673</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="16"/>
-        <v>416161723</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <f t="shared" si="22"/>
+        <v>70747493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8843436600.4167118</v>
       </c>
       <c r="C85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>132651549006.25067</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85:E102" si="21" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
+        <f t="shared" ref="E85:E102" si="23" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
         <v>3006768444.1416821</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85:F102" si="22">ROUNDUP(B85/base_damage, 0)</f>
+        <f t="shared" ref="F85:F102" si="24">ROUNDUP(B85/base_damage, 0)</f>
         <v>260101077</v>
       </c>
       <c r="G85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>208080862</v>
       </c>
       <c r="H85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>166464689</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85:I102" si="23">E85/2</f>
+        <f t="shared" ref="I85:I102" si="25">E85/2</f>
         <v>1503384222.0708411</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85:J102" si="24">ROUNDUP(B85/explosion_shot_base, 0)</f>
-        <v>520202153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J85:J102" si="26">ROUNDUP(B85/explosion_shot_base, 0)</f>
+        <v>176868733</v>
+      </c>
+      <c r="K85">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A84</f>
+        <v>8843436600.4167118</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="22"/>
+        <v>88434367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11054295750.520891</v>
       </c>
       <c r="C86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>165814436257.81335</v>
       </c>
       <c r="E86">
+        <f t="shared" si="23"/>
+        <v>3758460555.177103</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="24"/>
+        <v>325126346</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="20"/>
+        <v>260101077</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="21"/>
-        <v>3758460555.177103</v>
-      </c>
-      <c r="F86">
+        <v>208080862</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="25"/>
+        <v>1879230277.5885515</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="26"/>
+        <v>221085916</v>
+      </c>
+      <c r="K86">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A85</f>
+        <v>11054295750.520891</v>
+      </c>
+      <c r="L86">
         <f t="shared" si="22"/>
-        <v>325126346</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="19"/>
-        <v>260101077</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="20"/>
-        <v>208080862</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="23"/>
-        <v>1879230277.5885515</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="24"/>
-        <v>650252692</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>110542958</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13817869688.151115</v>
       </c>
       <c r="C87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>207268045322.26672</v>
       </c>
       <c r="E87">
+        <f t="shared" si="23"/>
+        <v>4698075693.9713793</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="24"/>
+        <v>406407933</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="20"/>
+        <v>325126346</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="21"/>
-        <v>4698075693.9713793</v>
-      </c>
-      <c r="F87">
+        <v>260101077</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="25"/>
+        <v>2349037846.9856896</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="26"/>
+        <v>276357394</v>
+      </c>
+      <c r="K87">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A86</f>
+        <v>13817869688.151115</v>
+      </c>
+      <c r="L87">
         <f t="shared" si="22"/>
-        <v>406407933</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="19"/>
-        <v>325126346</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="20"/>
-        <v>260101077</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="23"/>
-        <v>2349037846.9856896</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="24"/>
-        <v>812815865</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>138178697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17272337110.188892</v>
       </c>
       <c r="C88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>259085056652.83337</v>
       </c>
       <c r="E88">
+        <f t="shared" si="23"/>
+        <v>5872594617.4642239</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="24"/>
+        <v>508009916</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="20"/>
+        <v>406407933</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="21"/>
-        <v>5872594617.4642239</v>
-      </c>
-      <c r="F88">
+        <v>325126346</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="25"/>
+        <v>2936297308.7321119</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="26"/>
+        <v>345446743</v>
+      </c>
+      <c r="K88">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A87</f>
+        <v>17272337110.188892</v>
+      </c>
+      <c r="L88">
         <f t="shared" si="22"/>
-        <v>508009916</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="19"/>
-        <v>406407933</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="20"/>
-        <v>325126346</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="23"/>
-        <v>2936297308.7321119</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="24"/>
-        <v>1016019831</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>172723372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21590421387.736115</v>
       </c>
       <c r="C89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>323856320816.04175</v>
       </c>
       <c r="E89">
+        <f t="shared" si="23"/>
+        <v>7340743271.8302794</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="24"/>
+        <v>635012394</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="20"/>
+        <v>508009916</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="21"/>
-        <v>7340743271.8302794</v>
-      </c>
-      <c r="F89">
+        <v>406407933</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="25"/>
+        <v>3670371635.9151397</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="26"/>
+        <v>431808428</v>
+      </c>
+      <c r="K89">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A88</f>
+        <v>21590421387.736115</v>
+      </c>
+      <c r="L89">
         <f t="shared" si="22"/>
-        <v>635012394</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="19"/>
-        <v>508009916</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="20"/>
-        <v>406407933</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="23"/>
-        <v>3670371635.9151397</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="24"/>
-        <v>1270024788</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>215904214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26988026734.670143</v>
       </c>
       <c r="C90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>404820401020.05212</v>
       </c>
       <c r="E90">
+        <f t="shared" si="23"/>
+        <v>9175929089.7878494</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="24"/>
+        <v>793765493</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="20"/>
+        <v>635012394</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="21"/>
-        <v>9175929089.7878494</v>
-      </c>
-      <c r="F90">
+        <v>508009916</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="25"/>
+        <v>4587964544.8939247</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="26"/>
+        <v>539760535</v>
+      </c>
+      <c r="K90">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A89</f>
+        <v>26988026734.670143</v>
+      </c>
+      <c r="L90">
         <f t="shared" si="22"/>
-        <v>793765493</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="19"/>
-        <v>635012394</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="20"/>
-        <v>508009916</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="23"/>
-        <v>4587964544.8939247</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="24"/>
-        <v>1587530985</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269880268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33735033418.337677</v>
       </c>
       <c r="C91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>506025501275.06519</v>
       </c>
       <c r="E91">
+        <f t="shared" si="23"/>
+        <v>11469911362.23481</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="24"/>
+        <v>992206866</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="20"/>
+        <v>793765493</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="21"/>
-        <v>11469911362.23481</v>
-      </c>
-      <c r="F91">
+        <v>635012394</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="25"/>
+        <v>5734955681.1174049</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="26"/>
+        <v>674700669</v>
+      </c>
+      <c r="K91">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A90</f>
+        <v>33735033418.337677</v>
+      </c>
+      <c r="L91">
         <f t="shared" si="22"/>
-        <v>992206866</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="19"/>
-        <v>793765493</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="20"/>
-        <v>635012394</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="23"/>
-        <v>5734955681.1174049</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="24"/>
-        <v>1984413731</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>337350335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>42168791772.922104</v>
       </c>
       <c r="C92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>632531876593.83154</v>
       </c>
       <c r="E92">
+        <f t="shared" si="23"/>
+        <v>14337389202.793516</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="24"/>
+        <v>1240258582</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="20"/>
+        <v>992206866</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="21"/>
-        <v>14337389202.793516</v>
-      </c>
-      <c r="F92">
+        <v>793765493</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="25"/>
+        <v>7168694601.3967581</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="26"/>
+        <v>843375836</v>
+      </c>
+      <c r="K92">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A91</f>
+        <v>42168791772.922104</v>
+      </c>
+      <c r="L92">
         <f t="shared" si="22"/>
-        <v>1240258582</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="19"/>
-        <v>992206866</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="20"/>
-        <v>793765493</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="23"/>
-        <v>7168694601.3967581</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="24"/>
-        <v>2480517164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>421687918</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>52710989716.152626</v>
       </c>
       <c r="C93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>790664845742.28943</v>
       </c>
       <c r="E93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>17921736503.491894</v>
       </c>
       <c r="F93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1550323227</v>
       </c>
       <c r="G93">
@@ -4856,349 +5584,429 @@
         <v>1240258582</v>
       </c>
       <c r="H93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>992206866</v>
       </c>
       <c r="I93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8960868251.7459469</v>
       </c>
       <c r="J93">
-        <f t="shared" si="24"/>
-        <v>3100646454</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>1054219795</v>
+      </c>
+      <c r="K93">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A92</f>
+        <v>52710989716.152626</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="22"/>
+        <v>527109898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>65888737145.190788</v>
       </c>
       <c r="C94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>988331057177.86182</v>
       </c>
       <c r="E94">
+        <f t="shared" si="23"/>
+        <v>22402170629.364868</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="24"/>
+        <v>1937904034</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ref="G94:G102" si="27">ROUNDUP(B94/$E$4, 0)</f>
+        <v>1550323227</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="21"/>
-        <v>22402170629.364868</v>
-      </c>
-      <c r="F94">
+        <v>1240258582</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="25"/>
+        <v>11201085314.682434</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="26"/>
+        <v>1317774743</v>
+      </c>
+      <c r="K94">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A93</f>
+        <v>65888737145.190788</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="22"/>
-        <v>1937904034</v>
-      </c>
-      <c r="G94">
-        <f t="shared" ref="G94:G102" si="25">ROUNDUP(B94/$E$4, 0)</f>
-        <v>1550323227</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="20"/>
-        <v>1240258582</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="23"/>
-        <v>11201085314.682434</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="24"/>
-        <v>3875808068</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>658887372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>82360921431.48848</v>
       </c>
       <c r="C95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1235413821472.3271</v>
       </c>
       <c r="E95">
+        <f t="shared" si="23"/>
+        <v>28002713286.706081</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="24"/>
+        <v>2422380043</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="27"/>
+        <v>1937904034</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="21"/>
-        <v>28002713286.706081</v>
-      </c>
-      <c r="F95">
+        <v>1550323227</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="25"/>
+        <v>14001356643.353041</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="26"/>
+        <v>1647218429</v>
+      </c>
+      <c r="K95">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A94</f>
+        <v>82360921431.48848</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="22"/>
-        <v>2422380043</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="25"/>
-        <v>1937904034</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="20"/>
-        <v>1550323227</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="23"/>
-        <v>14001356643.353041</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="24"/>
-        <v>4844760085</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>823609215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>102951151789.36058</v>
       </c>
       <c r="C96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1544267276840.4087</v>
       </c>
       <c r="E96">
+        <f t="shared" si="23"/>
+        <v>35003391608.382599</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="24"/>
+        <v>3027975053</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="27"/>
+        <v>2422380043</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="21"/>
-        <v>35003391608.382599</v>
-      </c>
-      <c r="F96">
+        <v>1937904034</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="25"/>
+        <v>17501695804.191299</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="26"/>
+        <v>2059023036</v>
+      </c>
+      <c r="K96">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A95</f>
+        <v>102951151789.36058</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="22"/>
-        <v>3027975053</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="25"/>
-        <v>2422380043</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="20"/>
-        <v>1937904034</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="23"/>
-        <v>17501695804.191299</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="24"/>
-        <v>6055950106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1029511518</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>128688939736.70074</v>
       </c>
       <c r="C97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1930334096050.5112</v>
       </c>
       <c r="E97">
+        <f t="shared" si="23"/>
+        <v>43754239510.478256</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="24"/>
+        <v>3784968816</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="27"/>
+        <v>3027975053</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="21"/>
-        <v>43754239510.478256</v>
-      </c>
-      <c r="F97">
+        <v>2422380043</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="25"/>
+        <v>21877119755.239128</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="26"/>
+        <v>2573778795</v>
+      </c>
+      <c r="K97">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A96</f>
+        <v>128688939736.70074</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="22"/>
-        <v>3784968816</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="25"/>
-        <v>3027975053</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="20"/>
-        <v>2422380043</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="23"/>
-        <v>21877119755.239128</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="24"/>
-        <v>7569937632</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1286889398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>160861174670.87592</v>
       </c>
       <c r="C98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2412917620063.1387</v>
       </c>
       <c r="E98">
+        <f t="shared" si="23"/>
+        <v>54692799388.097816</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="24"/>
+        <v>4731211020</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="27"/>
+        <v>3784968816</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="21"/>
-        <v>54692799388.097816</v>
-      </c>
-      <c r="F98">
+        <v>3027975053</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="25"/>
+        <v>27346399694.048908</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="26"/>
+        <v>3217223494</v>
+      </c>
+      <c r="K98">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A97</f>
+        <v>160861174670.87592</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="22"/>
-        <v>4731211020</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="25"/>
-        <v>3784968816</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="20"/>
-        <v>3027975053</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="23"/>
-        <v>27346399694.048908</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="24"/>
-        <v>9462422040</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1608611747</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>201076468338.59491</v>
       </c>
       <c r="C99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3016147025078.9238</v>
       </c>
       <c r="E99">
+        <f t="shared" si="23"/>
+        <v>68365999235.122269</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="24"/>
+        <v>5914013775</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="27"/>
+        <v>4731211020</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="21"/>
-        <v>68365999235.122269</v>
-      </c>
-      <c r="F99">
+        <v>3784968816</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="25"/>
+        <v>34182999617.561134</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="26"/>
+        <v>4021529367</v>
+      </c>
+      <c r="K99">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A98</f>
+        <v>201076468338.59491</v>
+      </c>
+      <c r="L99">
         <f t="shared" si="22"/>
-        <v>5914013775</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="25"/>
-        <v>4731211020</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="20"/>
-        <v>3784968816</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="23"/>
-        <v>34182999617.561134</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="24"/>
-        <v>11828027550</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2010764684</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>251345585423.24365</v>
       </c>
       <c r="C100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3770183781348.6548</v>
       </c>
       <c r="E100">
+        <f t="shared" si="23"/>
+        <v>85457499043.902847</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="24"/>
+        <v>7392517219</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="27"/>
+        <v>5914013775</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="21"/>
-        <v>85457499043.902847</v>
-      </c>
-      <c r="F100">
+        <v>4731211020</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="25"/>
+        <v>42728749521.951424</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="26"/>
+        <v>5026911709</v>
+      </c>
+      <c r="K100">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A99</f>
+        <v>251345585423.24365</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="22"/>
-        <v>7392517219</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="25"/>
-        <v>5914013775</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="20"/>
-        <v>4731211020</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="23"/>
-        <v>42728749521.951424</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="24"/>
-        <v>14785034437</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2513455855</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>314181981779.05457</v>
       </c>
       <c r="C101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4712729726685.8184</v>
       </c>
       <c r="E101">
+        <f t="shared" si="23"/>
+        <v>106821873804.87856</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="24"/>
+        <v>9240646523</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="27"/>
+        <v>7392517219</v>
+      </c>
+      <c r="H101">
         <f t="shared" si="21"/>
-        <v>106821873804.87856</v>
-      </c>
-      <c r="F101">
+        <v>5914013775</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="25"/>
+        <v>53410936902.439278</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="26"/>
+        <v>6283639636</v>
+      </c>
+      <c r="K101">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A100</f>
+        <v>314181981779.05457</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="22"/>
-        <v>9240646523</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="25"/>
-        <v>7392517219</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="20"/>
-        <v>5914013775</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="23"/>
-        <v>53410936902.439278</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="24"/>
-        <v>18481293046</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3141819818</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>392727477223.81818</v>
       </c>
       <c r="C102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5890912158357.2725</v>
       </c>
       <c r="E102">
+        <f t="shared" si="23"/>
+        <v>133527342256.09818</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="24"/>
+        <v>11550808154</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="27"/>
+        <v>9240646523</v>
+      </c>
+      <c r="H102">
         <f t="shared" si="21"/>
-        <v>133527342256.09818</v>
-      </c>
-      <c r="F102">
+        <v>7392517219</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="25"/>
+        <v>66763671128.049088</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="26"/>
+        <v>7854549545</v>
+      </c>
+      <c r="K102">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A101</f>
+        <v>392727477223.81818</v>
+      </c>
+      <c r="L102">
         <f t="shared" si="22"/>
-        <v>11550808154</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="25"/>
-        <v>9240646523</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="20"/>
-        <v>7392517219</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="23"/>
-        <v>66763671128.049088</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="24"/>
-        <v>23101616308</v>
+        <v>3927274773</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="base_damage">Hoja1!$E$3</definedName>
-    <definedName name="brute_life_multiplier">Hoja1!$O$2</definedName>
+    <definedName name="brute_life_multiplier">Hoja1!$Q$2</definedName>
     <definedName name="explosion_shot_base">Hoja1!$I$3</definedName>
-    <definedName name="hits_1_round_behind">Hoja1!$O$1</definedName>
+    <definedName name="hits_1_round_behind">Hoja1!$Q$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>round</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>hits level 3</t>
+  </si>
+  <si>
+    <t>healing shot</t>
   </si>
 </sst>
 </file>
@@ -331,34 +334,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240.25000000000003</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>372.38750000000005</c:v>
+                  <c:v>66.40625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>577.20062500000017</c:v>
+                  <c:v>83.0078125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>894.66096875000028</c:v>
+                  <c:v>103.759765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1386.7245015625006</c:v>
+                  <c:v>129.69970703125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2149.4229774218761</c:v>
+                  <c:v>162.1246337890625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3331.605615003908</c:v>
+                  <c:v>202.65579223632813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5163.9887032560582</c:v>
+                  <c:v>253.31974029541016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,13 +1096,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1387,20 +1390,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,20 +1419,22 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1">
-        <v>1.55</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1">
+        <v>1.25</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1457,32 +1462,35 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" t="str">
+      <c r="T2" t="str">
         <f>E2</f>
         <v>average weapon</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f xml:space="preserve"> base_damage* hits_1_round_behind ^ A2</f>
+        <f xml:space="preserve"> 100* hits_1_round_behind ^ A2</f>
         <v>100</v>
       </c>
       <c r="C3">
@@ -1490,3715 +1498,4515 @@
         <v>1500</v>
       </c>
       <c r="E3">
-        <f xml:space="preserve"> 100</f>
-        <v>100</v>
+        <f xml:space="preserve"> 34</f>
+        <v>34</v>
       </c>
       <c r="F3">
         <f>ROUNDUP(B3/base_damage, 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <f>ROUNDUP(B3/$E$4, 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <f>ROUNDUP(B3/$E$5, 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <f>base_damage/2</f>
+        <f>50</f>
         <v>50</v>
       </c>
       <c r="J3">
         <f>ROUNDUP(B3/explosion_shot_base, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="K3">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <f>ROUNDUP(B3/$K$3, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R3" t="str">
+      <c r="T3" t="str">
         <f>B2</f>
         <v>tesla trooper</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A3</f>
-        <v>155</v>
+        <f t="shared" ref="B4:B35" si="0" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A3</f>
+        <v>125</v>
       </c>
       <c r="C4">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A3*brute_life_multiplier</f>
-        <v>2325</v>
+        <f t="shared" ref="C4:C35" si="1" xml:space="preserve"> $B$3*hits_1_round_behind^A3*brute_life_multiplier</f>
+        <v>1875</v>
       </c>
       <c r="E4">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
-        <v>155</v>
+        <f t="shared" ref="E4:E35" si="2" xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
+        <v>42.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F34" si="0">ROUNDUP(B4/base_damage, 0)</f>
-        <v>2</v>
+        <f t="shared" ref="F4:F34" si="3">ROUNDUP(B4/base_damage, 0)</f>
+        <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="1">ROUNDUP(B4/$E$4, 0)</f>
-        <v>1</v>
+        <f t="shared" ref="G4:G67" si="4">ROUNDUP(B4/$E$4, 0)</f>
+        <v>3</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="2">ROUNDUP(B4/$E$5, 0)</f>
-        <v>1</v>
+        <f t="shared" ref="H4:H67" si="5">ROUNDUP(B4/$E$5, 0)</f>
+        <v>3</v>
       </c>
       <c r="I4">
         <f>E4/2</f>
-        <v>77.5</v>
+        <v>21.25</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J34" si="3">ROUNDUP(B4/explosion_shot_base, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+        <f t="shared" ref="J4:J34" si="6">ROUNDUP(B4/explosion_shot_base, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A3</f>
+        <v>125</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="7">ROUNDUP(B4/$K$3, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R4" t="str">
-        <f ca="1">OFFSET(R2,1, 0)</f>
+      <c r="T4" t="str">
+        <f ca="1">OFFSET(T2,1, 0)</f>
         <v>tesla trooper</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A4</f>
-        <v>240.25000000000003</v>
+        <f t="shared" si="0"/>
+        <v>156.25</v>
       </c>
       <c r="C5">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A4*brute_life_multiplier</f>
-        <v>3603.7500000000005</v>
+        <f t="shared" si="1"/>
+        <v>2343.75</v>
       </c>
       <c r="E5">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A4</f>
-        <v>240.25000000000003</v>
+        <f t="shared" si="2"/>
+        <v>53.125</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I61" si="4">E5/2</f>
-        <v>120.12500000000001</v>
-      </c>
-      <c r="J5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I61" si="8">E5/2</f>
+        <v>26.5625</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A4</f>
+        <v>156.25</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A5</f>
-        <v>372.38750000000005</v>
+        <f t="shared" si="0"/>
+        <v>195.3125</v>
       </c>
       <c r="C6">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A5*brute_life_multiplier</f>
-        <v>5585.8125000000009</v>
+        <f t="shared" si="1"/>
+        <v>2929.6875</v>
       </c>
       <c r="E6">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A5</f>
-        <v>372.38750000000005</v>
+        <f t="shared" si="2"/>
+        <v>66.40625</v>
       </c>
       <c r="F6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="8"/>
+        <v>33.203125</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A5</f>
+        <v>195.3125</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G6">
+        <v>244.140625</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H6">
+        <v>3662.109375</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>186.19375000000002</v>
-      </c>
-      <c r="J6">
+        <v>83.0078125</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A6</f>
-        <v>577.20062500000017</v>
-      </c>
-      <c r="C7">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A6*brute_life_multiplier</f>
-        <v>8658.0093750000033</v>
-      </c>
-      <c r="E7">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A6</f>
-        <v>577.20062500000017</v>
-      </c>
-      <c r="F7">
+      <c r="I7">
+        <f t="shared" si="8"/>
+        <v>41.50390625</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A6</f>
+        <v>244.140625</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="0"/>
+        <v>305.17578125</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>4577.63671875</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>103.759765625</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="I8">
+        <f t="shared" si="8"/>
+        <v>51.8798828125</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A7</f>
+        <v>305.17578125</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>381.4697265625</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H7">
+        <v>5722.0458984375</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>288.60031250000009</v>
-      </c>
-      <c r="J7">
+        <v>129.69970703125</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A7</f>
-        <v>894.66096875000028</v>
-      </c>
-      <c r="C8">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A7*brute_life_multiplier</f>
-        <v>13419.914531250004</v>
-      </c>
-      <c r="E8">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A7</f>
-        <v>894.66096875000028</v>
-      </c>
-      <c r="F8">
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="8"/>
+        <v>64.849853515625</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A8</f>
+        <v>381.4697265625</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="0"/>
+        <v>476.837158203125</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>7152.557373046875</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>162.1246337890625</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>81.06231689453125</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A9</f>
+        <v>476.837158203125</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>596.04644775390625</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H8">
+        <v>8940.6967163085938</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>447.33048437500014</v>
-      </c>
-      <c r="J8">
+        <v>202.65579223632813</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A8</f>
-        <v>1386.7245015625006</v>
-      </c>
-      <c r="C9">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A8*brute_life_multiplier</f>
-        <v>20800.867523437508</v>
-      </c>
-      <c r="E9">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A8</f>
-        <v>1386.7245015625006</v>
-      </c>
-      <c r="F9">
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>101.32789611816406</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A10</f>
+        <v>596.04644775390625</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G9">
+        <v>745.05805969238281</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H9">
+        <v>11175.870895385742</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I9">
+        <v>253.31974029541016</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="4"/>
-        <v>693.36225078125028</v>
-      </c>
-      <c r="J9">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="8"/>
+        <v>126.65987014770508</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A11</f>
+        <v>745.05805969238281</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>931.32257461547852</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>13969.838619232178</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>316.6496753692627</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A9</f>
-        <v>2149.4229774218761</v>
-      </c>
-      <c r="C10">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A9*brute_life_multiplier</f>
-        <v>32241.344661328141</v>
-      </c>
-      <c r="E10">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A9</f>
-        <v>2149.4229774218761</v>
-      </c>
-      <c r="F10">
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>158.32483768463135</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A12</f>
+        <v>931.32257461547852</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="0"/>
+        <v>1164.1532182693481</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>17462.298274040222</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>395.81209421157837</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="G10">
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>197.90604710578918</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A13</f>
+        <v>1164.1532182693481</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1455.1915228366852</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H10">
+        <v>21827.872842550278</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>1074.7114887109381</v>
-      </c>
-      <c r="J10">
+        <v>494.76511776447296</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A10</f>
-        <v>3331.605615003908</v>
-      </c>
-      <c r="C11">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A10*brute_life_multiplier</f>
-        <v>49974.084225058621</v>
-      </c>
-      <c r="E11">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A10</f>
-        <v>3331.605615003908</v>
-      </c>
-      <c r="F11">
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>247.38255888223648</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A14</f>
+        <v>1455.1915228366852</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="G11">
+        <v>1818.9894035458565</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="H11">
+        <v>27284.841053187847</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="I11">
+        <v>618.4563972055912</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="4"/>
-        <v>1665.802807501954</v>
-      </c>
-      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>309.2281986027956</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A15</f>
+        <v>1818.9894035458565</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2273.7367544323206</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>34106.051316484809</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>773.070496506989</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A11</f>
-        <v>5163.9887032560582</v>
-      </c>
-      <c r="C12">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A11*brute_life_multiplier</f>
-        <v>77459.830548840866</v>
-      </c>
-      <c r="E12">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A11</f>
-        <v>5163.9887032560582</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I12">
+      <c r="G17">
         <f t="shared" si="4"/>
-        <v>2581.9943516280291</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A12</f>
-        <v>8004.1824900468891</v>
-      </c>
-      <c r="C13">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A12*brute_life_multiplier</f>
-        <v>120062.73735070333</v>
-      </c>
-      <c r="E13">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A12</f>
-        <v>8004.1824900468891</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>4002.0912450234446</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A13</f>
-        <v>12406.482859572679</v>
-      </c>
-      <c r="C14">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A13*brute_life_multiplier</f>
-        <v>186097.24289359018</v>
-      </c>
-      <c r="E14">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A13</f>
-        <v>12406.482859572679</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>6203.2414297863397</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A14</f>
-        <v>19230.048432337655</v>
-      </c>
-      <c r="C15">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A14*brute_life_multiplier</f>
-        <v>288450.72648506484</v>
-      </c>
-      <c r="E15">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A14</f>
-        <v>19230.048432337655</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
-        <v>9615.0242161688275</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A15</f>
-        <v>29806.57507012337</v>
-      </c>
-      <c r="C16">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A15*brute_life_multiplier</f>
-        <v>447098.62605185056</v>
-      </c>
-      <c r="E16">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A15</f>
-        <v>29806.57507012337</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>299</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>193</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
-        <v>14903.287535061685</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A16</f>
-        <v>46200.191358691227</v>
-      </c>
-      <c r="C17">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A16*brute_life_multiplier</f>
-        <v>693002.87038036843</v>
-      </c>
-      <c r="E17">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A16</f>
-        <v>46200.191358691227</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>463</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
-        <v>193</v>
+        <f t="shared" si="5"/>
+        <v>43</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
-        <v>23100.095679345613</v>
+        <f t="shared" si="8"/>
+        <v>386.5352482534945</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
-        <v>925</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A16</f>
+        <v>2273.7367544323206</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A17</f>
-        <v>71610.296605971409</v>
+        <f t="shared" si="0"/>
+        <v>2842.1709430404007</v>
       </c>
       <c r="C18">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A17*brute_life_multiplier</f>
-        <v>1074154.4490895711</v>
+        <f t="shared" si="1"/>
+        <v>42632.564145606011</v>
       </c>
       <c r="E18">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A17</f>
-        <v>71610.296605971409</v>
+        <f t="shared" si="2"/>
+        <v>966.33812063373625</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>717</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>463</v>
+        <f t="shared" si="4"/>
+        <v>67</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
-        <v>299</v>
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
-        <v>35805.148302985705</v>
+        <f t="shared" si="8"/>
+        <v>483.16906031686813</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="K18">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A17</f>
+        <v>2842.1709430404007</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A18</f>
-        <v>110995.95973925568</v>
+        <f t="shared" si="0"/>
+        <v>3552.7136788005009</v>
       </c>
       <c r="C19">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A18*brute_life_multiplier</f>
-        <v>1664939.3960888351</v>
+        <f t="shared" si="1"/>
+        <v>53290.705182007514</v>
       </c>
       <c r="E19">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A18</f>
-        <v>110995.95973925568</v>
+        <f t="shared" si="2"/>
+        <v>1207.9226507921703</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1110</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>717</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
-        <v>463</v>
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
-        <v>55497.979869627838</v>
+        <f t="shared" si="8"/>
+        <v>603.96132539608516</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="K19">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A18</f>
+        <v>3552.7136788005009</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A19</f>
-        <v>172043.73759584629</v>
+        <f t="shared" si="0"/>
+        <v>4440.8920985006262</v>
       </c>
       <c r="C20">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A19*brute_life_multiplier</f>
-        <v>2580656.0639376943</v>
+        <f t="shared" si="1"/>
+        <v>66613.381477509392</v>
       </c>
       <c r="E20">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A19</f>
-        <v>172043.73759584629</v>
+        <f t="shared" si="2"/>
+        <v>1509.9033134902129</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1721</v>
+        <f t="shared" si="3"/>
+        <v>131</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>1110</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>717</v>
+        <f t="shared" si="5"/>
+        <v>84</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
-        <v>86021.868797923147</v>
+        <f t="shared" si="8"/>
+        <v>754.95165674510645</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
-        <v>3441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="K20">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A19</f>
+        <v>4440.8920985006262</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A20</f>
-        <v>266667.79327356181</v>
+        <f t="shared" si="0"/>
+        <v>5551.1151231257827</v>
       </c>
       <c r="C21">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A20*brute_life_multiplier</f>
-        <v>4000016.8991034273</v>
+        <f t="shared" si="1"/>
+        <v>83266.726846886741</v>
       </c>
       <c r="E21">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A20</f>
-        <v>266667.79327356181</v>
+        <f t="shared" si="2"/>
+        <v>1887.3791418627661</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>2667</v>
+        <f t="shared" si="3"/>
+        <v>164</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>1721</v>
+        <f t="shared" si="4"/>
+        <v>131</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
-        <v>1110</v>
+        <f t="shared" si="5"/>
+        <v>105</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
-        <v>133333.8966367809</v>
+        <f t="shared" si="8"/>
+        <v>943.68957093138306</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
-        <v>5334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="K21">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A20</f>
+        <v>5551.1151231257827</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A21</f>
-        <v>413335.07957402081</v>
+        <f t="shared" si="0"/>
+        <v>6938.8939039072284</v>
       </c>
       <c r="C22">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A21*brute_life_multiplier</f>
-        <v>6200026.1936103124</v>
+        <f t="shared" si="1"/>
+        <v>104083.40855860843</v>
       </c>
       <c r="E22">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A21</f>
-        <v>413335.07957402081</v>
+        <f t="shared" si="2"/>
+        <v>2359.2239273284576</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>4134</v>
+        <f t="shared" si="3"/>
+        <v>205</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>2667</v>
+        <f t="shared" si="4"/>
+        <v>164</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>1721</v>
+        <f t="shared" si="5"/>
+        <v>131</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
-        <v>206667.53978701041</v>
+        <f t="shared" si="8"/>
+        <v>1179.6119636642288</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
-        <v>8267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="K22">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A21</f>
+        <v>6938.8939039072284</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A22</f>
-        <v>640669.37333973229</v>
+        <f t="shared" si="0"/>
+        <v>8673.6173798840355</v>
       </c>
       <c r="C23">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A22*brute_life_multiplier</f>
-        <v>9610040.6000959836</v>
+        <f t="shared" si="1"/>
+        <v>130104.26069826054</v>
       </c>
       <c r="E23">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A22</f>
-        <v>640669.37333973229</v>
+        <f t="shared" si="2"/>
+        <v>2949.0299091605721</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>6407</v>
+        <f t="shared" si="3"/>
+        <v>256</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>4134</v>
+        <f t="shared" si="4"/>
+        <v>205</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
-        <v>2667</v>
+        <f t="shared" si="5"/>
+        <v>164</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
-        <v>320334.68666986615</v>
+        <f t="shared" si="8"/>
+        <v>1474.514954580286</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
-        <v>12814</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="K23">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A22</f>
+        <v>8673.6173798840355</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A23</f>
-        <v>993037.52867658518</v>
+        <f t="shared" si="0"/>
+        <v>10842.021724855043</v>
       </c>
       <c r="C24">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A23*brute_life_multiplier</f>
-        <v>14895562.930148778</v>
+        <f t="shared" si="1"/>
+        <v>162630.32587282566</v>
       </c>
       <c r="E24">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A23</f>
-        <v>993037.52867658518</v>
+        <f t="shared" si="2"/>
+        <v>3686.2873864507151</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>9931</v>
+        <f t="shared" si="3"/>
+        <v>319</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>6407</v>
+        <f t="shared" si="4"/>
+        <v>256</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>4134</v>
+        <f t="shared" si="5"/>
+        <v>205</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
-        <v>496518.76433829259</v>
+        <f t="shared" si="8"/>
+        <v>1843.1436932253575</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
-        <v>19861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>217</v>
+      </c>
+      <c r="K24">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A23</f>
+        <v>10842.021724855043</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A24</f>
-        <v>1539208.169448707</v>
+        <f t="shared" si="0"/>
+        <v>13552.527156068805</v>
       </c>
       <c r="C25">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A24*brute_life_multiplier</f>
-        <v>23088122.541730605</v>
+        <f t="shared" si="1"/>
+        <v>203287.90734103209</v>
       </c>
       <c r="E25">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A24</f>
-        <v>1539208.169448707</v>
+        <f t="shared" si="2"/>
+        <v>4607.8592330633937</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>15393</v>
+        <f t="shared" si="3"/>
+        <v>399</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>9931</v>
+        <f t="shared" si="4"/>
+        <v>319</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>6407</v>
+        <f t="shared" si="5"/>
+        <v>256</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
-        <v>769604.08472435351</v>
+        <f t="shared" si="8"/>
+        <v>2303.9296165316969</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
-        <v>30785</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>272</v>
+      </c>
+      <c r="K25">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A24</f>
+        <v>13552.527156068805</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A25</f>
-        <v>2385772.662645496</v>
+        <f t="shared" si="0"/>
+        <v>16940.658945086005</v>
       </c>
       <c r="C26">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A25*brute_life_multiplier</f>
-        <v>35786589.939682439</v>
+        <f t="shared" si="1"/>
+        <v>254109.88417629007</v>
       </c>
       <c r="E26">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A25</f>
-        <v>2385772.662645496</v>
+        <f t="shared" si="2"/>
+        <v>5759.8240413292415</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>23858</v>
+        <f t="shared" si="3"/>
+        <v>499</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>15393</v>
+        <f t="shared" si="4"/>
+        <v>399</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>9931</v>
+        <f t="shared" si="5"/>
+        <v>319</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
-        <v>1192886.331322748</v>
+        <f t="shared" si="8"/>
+        <v>2879.9120206646207</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
-        <v>47716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>339</v>
+      </c>
+      <c r="K26">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A25</f>
+        <v>16940.658945086005</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A26</f>
-        <v>3697947.6271005194</v>
+        <f t="shared" si="0"/>
+        <v>21175.823681357509</v>
       </c>
       <c r="C27">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A26*brute_life_multiplier</f>
-        <v>55469214.40650779</v>
+        <f t="shared" si="1"/>
+        <v>317637.35522036266</v>
       </c>
       <c r="E27">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A26</f>
-        <v>3697947.6271005194</v>
+        <f t="shared" si="2"/>
+        <v>7199.7800516615525</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>36980</v>
+        <f t="shared" si="3"/>
+        <v>623</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>23858</v>
+        <f t="shared" si="4"/>
+        <v>499</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
-        <v>15393</v>
+        <f t="shared" si="5"/>
+        <v>399</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
-        <v>1848973.8135502597</v>
+        <f t="shared" si="8"/>
+        <v>3599.8900258307763</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
-        <v>73959</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>424</v>
+      </c>
+      <c r="K27">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A26</f>
+        <v>21175.823681357509</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A27</f>
-        <v>5731818.8220058056</v>
+        <f t="shared" si="0"/>
+        <v>26469.77960169689</v>
       </c>
       <c r="C28">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A27*brute_life_multiplier</f>
-        <v>85977282.330087081</v>
+        <f t="shared" si="1"/>
+        <v>397046.69402545335</v>
       </c>
       <c r="E28">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A27</f>
-        <v>5731818.8220058056</v>
+        <f t="shared" si="2"/>
+        <v>8999.7250645769418</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>57319</v>
+        <f t="shared" si="3"/>
+        <v>779</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>36980</v>
+        <f t="shared" si="4"/>
+        <v>623</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>23858</v>
+        <f t="shared" si="5"/>
+        <v>499</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
-        <v>2865909.4110029028</v>
+        <f t="shared" si="8"/>
+        <v>4499.8625322884709</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
-        <v>114637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>530</v>
+      </c>
+      <c r="K28">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A27</f>
+        <v>26469.77960169689</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A28</f>
-        <v>8884319.1741089988</v>
+        <f t="shared" si="0"/>
+        <v>33087.224502121106</v>
       </c>
       <c r="C29">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A28*brute_life_multiplier</f>
-        <v>133264787.61163498</v>
+        <f t="shared" si="1"/>
+        <v>496308.36753181659</v>
       </c>
       <c r="E29">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A28</f>
-        <v>8884319.1741089988</v>
+        <f t="shared" si="2"/>
+        <v>11249.656330721176</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>88844</v>
+        <f t="shared" si="3"/>
+        <v>974</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>57319</v>
+        <f t="shared" si="4"/>
+        <v>779</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
-        <v>36980</v>
+        <f t="shared" si="5"/>
+        <v>623</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
-        <v>4442159.5870544994</v>
+        <f t="shared" si="8"/>
+        <v>5624.8281653605882</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
-        <v>177687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>662</v>
+      </c>
+      <c r="K29">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A28</f>
+        <v>33087.224502121106</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A29</f>
-        <v>13770694.719868949</v>
+        <f t="shared" si="0"/>
+        <v>41359.030627651387</v>
       </c>
       <c r="C30">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A29*brute_life_multiplier</f>
-        <v>206560420.79803422</v>
+        <f t="shared" si="1"/>
+        <v>620385.45941477083</v>
       </c>
       <c r="E30">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A29</f>
-        <v>13770694.719868949</v>
+        <f t="shared" si="2"/>
+        <v>14062.07041340147</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>137707</v>
+        <f t="shared" si="3"/>
+        <v>1217</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>88844</v>
+        <f t="shared" si="4"/>
+        <v>974</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
-        <v>57319</v>
+        <f t="shared" si="5"/>
+        <v>779</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
-        <v>6885347.3599344743</v>
+        <f t="shared" si="8"/>
+        <v>7031.0352067007352</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
-        <v>275414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>828</v>
+      </c>
+      <c r="K30">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A29</f>
+        <v>41359.030627651387</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A30</f>
-        <v>21344576.815796874</v>
+        <f t="shared" si="0"/>
+        <v>51698.788284564231</v>
       </c>
       <c r="C31">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A30*brute_life_multiplier</f>
-        <v>320168652.23695314</v>
+        <f t="shared" si="1"/>
+        <v>775481.82426846342</v>
       </c>
       <c r="E31">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A30</f>
-        <v>21344576.815796874</v>
+        <f t="shared" si="2"/>
+        <v>17577.588016751837</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>213446</v>
+        <f t="shared" si="3"/>
+        <v>1521</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>137707</v>
+        <f t="shared" si="4"/>
+        <v>1217</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
-        <v>88844</v>
+        <f t="shared" si="5"/>
+        <v>974</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
-        <v>10672288.407898437</v>
+        <f t="shared" si="8"/>
+        <v>8788.7940083759186</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
-        <v>426892</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1034</v>
+      </c>
+      <c r="K31">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A30</f>
+        <v>51698.788284564231</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A31</f>
-        <v>33084094.064485155</v>
+        <f t="shared" si="0"/>
+        <v>64623.485355705285</v>
       </c>
       <c r="C32">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A31*brute_life_multiplier</f>
-        <v>496261410.96727735</v>
+        <f t="shared" si="1"/>
+        <v>969352.2803355793</v>
       </c>
       <c r="E32">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A31</f>
-        <v>33084094.064485155</v>
+        <f t="shared" si="2"/>
+        <v>21971.985020939796</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>330841</v>
+        <f t="shared" si="3"/>
+        <v>1901</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>213446</v>
+        <f t="shared" si="4"/>
+        <v>1521</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>137707</v>
+        <f t="shared" si="5"/>
+        <v>1217</v>
       </c>
       <c r="I32">
-        <f t="shared" si="4"/>
-        <v>16542047.032242578</v>
+        <f t="shared" si="8"/>
+        <v>10985.992510469898</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
-        <v>661682</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1293</v>
+      </c>
+      <c r="K32">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A31</f>
+        <v>64623.485355705285</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A32</f>
-        <v>51280345.799952</v>
+        <f t="shared" si="0"/>
+        <v>80779.356694631613</v>
       </c>
       <c r="C33">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A32*brute_life_multiplier</f>
-        <v>769205186.99927998</v>
+        <f t="shared" si="1"/>
+        <v>1211690.3504194743</v>
       </c>
       <c r="E33">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A32</f>
-        <v>51280345.799952</v>
+        <f t="shared" si="2"/>
+        <v>27464.981276174749</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>512804</v>
+        <f t="shared" si="3"/>
+        <v>2376</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>330841</v>
+        <f t="shared" si="4"/>
+        <v>1901</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
-        <v>213446</v>
+        <f t="shared" si="5"/>
+        <v>1521</v>
       </c>
       <c r="I33">
-        <f t="shared" si="4"/>
-        <v>25640172.899976</v>
+        <f t="shared" si="8"/>
+        <v>13732.490638087374</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
-        <v>1025607</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1616</v>
+      </c>
+      <c r="K33">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A32</f>
+        <v>80779.356694631613</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A33</f>
-        <v>79484535.989925608</v>
+        <f t="shared" si="0"/>
+        <v>100974.19586828951</v>
       </c>
       <c r="C34">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A33*brute_life_multiplier</f>
-        <v>1192268039.8488841</v>
+        <f t="shared" si="1"/>
+        <v>1514612.9380243425</v>
       </c>
       <c r="E34">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A33</f>
-        <v>79484535.989925608</v>
+        <f t="shared" si="2"/>
+        <v>34331.226595218432</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>794846</v>
+        <f t="shared" si="3"/>
+        <v>2970</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>512804</v>
+        <f t="shared" si="4"/>
+        <v>2376</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
-        <v>330841</v>
+        <f t="shared" si="5"/>
+        <v>1901</v>
       </c>
       <c r="I34">
-        <f t="shared" si="4"/>
-        <v>39742267.994962804</v>
+        <f t="shared" si="8"/>
+        <v>17165.613297609216</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
-        <v>1589691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>2020</v>
+      </c>
+      <c r="K34">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A33</f>
+        <v>100974.19586828951</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A34</f>
-        <v>123201030.78438467</v>
+        <f t="shared" si="0"/>
+        <v>126217.7448353619</v>
       </c>
       <c r="C35">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A34*brute_life_multiplier</f>
-        <v>1848015461.76577</v>
+        <f t="shared" si="1"/>
+        <v>1893266.1725304285</v>
       </c>
       <c r="E35">
-        <f xml:space="preserve"> base_damage * hits_1_round_behind ^ A34</f>
-        <v>123201030.78438467</v>
+        <f t="shared" si="2"/>
+        <v>42914.033244023041</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F61" si="5">ROUNDUP(B35/base_damage, 0)</f>
-        <v>1232011</v>
+        <f t="shared" ref="F35:F61" si="9">ROUNDUP(B35/base_damage, 0)</f>
+        <v>3713</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>794846</v>
+        <f t="shared" si="4"/>
+        <v>2970</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
-        <v>512804</v>
+        <f t="shared" si="5"/>
+        <v>2376</v>
       </c>
       <c r="I35">
-        <f t="shared" si="4"/>
-        <v>61600515.392192334</v>
+        <f t="shared" si="8"/>
+        <v>21457.016622011521</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J61" si="6">ROUNDUP(B35/explosion_shot_base, 0)</f>
-        <v>2464021</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J35:J61" si="10">ROUNDUP(B35/explosion_shot_base, 0)</f>
+        <v>2525</v>
+      </c>
+      <c r="K35">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A34</f>
+        <v>126217.7448353619</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="7"/>
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A35</f>
-        <v>190961597.71579626</v>
+        <f t="shared" ref="B36:B67" si="11" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A35</f>
+        <v>157772.18104420239</v>
       </c>
       <c r="C36">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A35*brute_life_multiplier</f>
-        <v>2864423965.7369437</v>
+        <f t="shared" ref="C36:C67" si="12" xml:space="preserve"> $B$3*hits_1_round_behind^A35*brute_life_multiplier</f>
+        <v>2366582.7156630359</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E61" si="7" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
-        <v>190961597.71579626</v>
+        <f t="shared" ref="E36:E61" si="13" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
+        <v>53642.541555028809</v>
       </c>
       <c r="F36">
+        <f t="shared" si="9"/>
+        <v>4641</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>3713</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="5"/>
-        <v>1909616</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>1232011</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
-        <v>794846</v>
+        <v>2970</v>
       </c>
       <c r="I36">
-        <f t="shared" si="4"/>
-        <v>95480798.857898131</v>
+        <f t="shared" si="8"/>
+        <v>26821.270777514404</v>
       </c>
       <c r="J36">
-        <f t="shared" si="6"/>
-        <v>3819232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>3156</v>
+      </c>
+      <c r="K36">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A35</f>
+        <v>157772.18104420239</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="7"/>
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A36</f>
-        <v>295990476.45948422</v>
+        <f t="shared" si="11"/>
+        <v>197215.22630525296</v>
       </c>
       <c r="C37">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A36*brute_life_multiplier</f>
-        <v>4439857146.8922634</v>
+        <f t="shared" si="12"/>
+        <v>2958228.3945787945</v>
       </c>
       <c r="E37">
+        <f t="shared" si="13"/>
+        <v>67053.176943786006</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="9"/>
+        <v>5801</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>4641</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>3713</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="8"/>
+        <v>33526.588471893003</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="10"/>
+        <v>3945</v>
+      </c>
+      <c r="K37">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A36</f>
+        <v>197215.22630525296</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="7"/>
-        <v>295990476.45948422</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="5"/>
-        <v>2959905</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>1909616</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
-        <v>1232011</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="4"/>
-        <v>147995238.22974211</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="6"/>
-        <v>5919810</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A37</f>
-        <v>458785238.51220059</v>
+        <f t="shared" si="11"/>
+        <v>246519.03288156618</v>
       </c>
       <c r="C38">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A37*brute_life_multiplier</f>
-        <v>6881778577.6830091</v>
+        <f t="shared" si="12"/>
+        <v>3697785.4932234925</v>
       </c>
       <c r="E38">
+        <f t="shared" si="13"/>
+        <v>83816.4711797325</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="9"/>
+        <v>7251</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>5801</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>4641</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="8"/>
+        <v>41908.23558986625</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="10"/>
+        <v>4931</v>
+      </c>
+      <c r="K38">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A37</f>
+        <v>246519.03288156618</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="7"/>
-        <v>458785238.51220059</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="5"/>
-        <v>4587853</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>2959905</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="2"/>
-        <v>1909616</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="4"/>
-        <v>229392619.2561003</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="6"/>
-        <v>9175705</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A38</f>
-        <v>711117119.69391084</v>
+        <f t="shared" si="11"/>
+        <v>308148.79110195773</v>
       </c>
       <c r="C39">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A38*brute_life_multiplier</f>
-        <v>10666756795.408663</v>
+        <f t="shared" si="12"/>
+        <v>4622231.866529366</v>
       </c>
       <c r="E39">
+        <f t="shared" si="13"/>
+        <v>104770.58897466563</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="9"/>
+        <v>9064</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>7251</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>5801</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="8"/>
+        <v>52385.294487332816</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="10"/>
+        <v>6163</v>
+      </c>
+      <c r="K39">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A38</f>
+        <v>308148.79110195773</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="7"/>
-        <v>711117119.69391084</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="5"/>
-        <v>7111172</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>4587853</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="2"/>
-        <v>2959905</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
-        <v>355558559.84695542</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="6"/>
-        <v>14222343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A39</f>
-        <v>1102231535.5255618</v>
+        <f t="shared" si="11"/>
+        <v>385185.98887744721</v>
       </c>
       <c r="C40">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A39*brute_life_multiplier</f>
-        <v>16533473032.883427</v>
+        <f t="shared" si="12"/>
+        <v>5777789.833161708</v>
       </c>
       <c r="E40">
+        <f t="shared" si="13"/>
+        <v>130963.23621833205</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="9"/>
+        <v>11329</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>7251</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="8"/>
+        <v>65481.618109166026</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="10"/>
+        <v>7704</v>
+      </c>
+      <c r="K40">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A39</f>
+        <v>385185.98887744721</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="7"/>
-        <v>1102231535.5255618</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="5"/>
-        <v>11022316</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>7111172</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="2"/>
-        <v>4587853</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="4"/>
-        <v>551115767.7627809</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="6"/>
-        <v>22044631</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A40</f>
-        <v>1708458880.0646212</v>
+        <f t="shared" si="11"/>
+        <v>481482.48609680898</v>
       </c>
       <c r="C41">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A40*brute_life_multiplier</f>
-        <v>25626883200.969318</v>
+        <f t="shared" si="12"/>
+        <v>7222237.291452135</v>
       </c>
       <c r="E41">
+        <f t="shared" si="13"/>
+        <v>163704.04527291504</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="9"/>
+        <v>14162</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>11329</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>9064</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="8"/>
+        <v>81852.022636457521</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="10"/>
+        <v>9630</v>
+      </c>
+      <c r="K41">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A40</f>
+        <v>481482.48609680898</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="7"/>
-        <v>1708458880.0646212</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="5"/>
-        <v>17084589</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>11022316</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="2"/>
-        <v>7111172</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="4"/>
-        <v>854229440.03231061</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="6"/>
-        <v>34169178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A41</f>
-        <v>2648111264.100163</v>
+        <f t="shared" si="11"/>
+        <v>601853.10762101121</v>
       </c>
       <c r="C42">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A41*brute_life_multiplier</f>
-        <v>39721668961.502441</v>
+        <f t="shared" si="12"/>
+        <v>9027796.6143151689</v>
       </c>
       <c r="E42">
+        <f t="shared" si="13"/>
+        <v>204630.05659114383</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="9"/>
+        <v>17702</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>14162</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>11329</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="8"/>
+        <v>102315.02829557192</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="10"/>
+        <v>12038</v>
+      </c>
+      <c r="K42">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A41</f>
+        <v>601853.10762101121</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="7"/>
-        <v>2648111264.100163</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="5"/>
-        <v>26481113</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>17084589</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="2"/>
-        <v>11022316</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="4"/>
-        <v>1324055632.0500815</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="6"/>
-        <v>52962226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A42</f>
-        <v>4104572459.3552532</v>
+        <f t="shared" si="11"/>
+        <v>752316.38452626404</v>
       </c>
       <c r="C43">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A42*brute_life_multiplier</f>
-        <v>61568586890.328796</v>
+        <f t="shared" si="12"/>
+        <v>11284745.767893961</v>
       </c>
       <c r="E43">
+        <f t="shared" si="13"/>
+        <v>255787.57073892976</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="9"/>
+        <v>22127</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>17702</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>14162</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="8"/>
+        <v>127893.78536946488</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="10"/>
+        <v>15047</v>
+      </c>
+      <c r="K43">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A42</f>
+        <v>752316.38452626404</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="7"/>
-        <v>4104572459.3552532</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="5"/>
-        <v>41045725</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>26481113</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="2"/>
-        <v>17084589</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="4"/>
-        <v>2052286229.6776266</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="6"/>
-        <v>82091450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A43</f>
-        <v>6362087312.0006428</v>
+        <f t="shared" si="11"/>
+        <v>940395.48065783002</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A43*brute_life_multiplier</f>
-        <v>95431309680.009644</v>
+        <f t="shared" si="12"/>
+        <v>14105932.209867449</v>
       </c>
       <c r="E44">
+        <f t="shared" si="13"/>
+        <v>319734.46342366218</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="9"/>
+        <v>27659</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>22127</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>17702</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="8"/>
+        <v>159867.23171183109</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="10"/>
+        <v>18808</v>
+      </c>
+      <c r="K44">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A43</f>
+        <v>940395.48065783002</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="7"/>
-        <v>6362087312.0006428</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="5"/>
-        <v>63620874</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>41045725</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="2"/>
-        <v>26481113</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="4"/>
-        <v>3181043656.0003214</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="6"/>
-        <v>127241747</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A44</f>
-        <v>9861235333.600996</v>
+        <f t="shared" si="11"/>
+        <v>1175494.3508222876</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A44*brute_life_multiplier</f>
-        <v>147918530004.01495</v>
+        <f t="shared" si="12"/>
+        <v>17632415.262334313</v>
       </c>
       <c r="E45">
+        <f t="shared" si="13"/>
+        <v>399668.07927957777</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="9"/>
+        <v>34574</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>27659</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>22127</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="8"/>
+        <v>199834.03963978888</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="10"/>
+        <v>23510</v>
+      </c>
+      <c r="K45">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A44</f>
+        <v>1175494.3508222876</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="7"/>
-        <v>9861235333.600996</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="5"/>
-        <v>98612354</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>63620874</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="2"/>
-        <v>41045725</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="4"/>
-        <v>4930617666.800498</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="6"/>
-        <v>197224707</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11755</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A45</f>
-        <v>15284914767.081543</v>
+        <f t="shared" si="11"/>
+        <v>1469367.9385278595</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A45*brute_life_multiplier</f>
-        <v>229273721506.22314</v>
+        <f t="shared" si="12"/>
+        <v>22040519.077917892</v>
       </c>
       <c r="E46">
+        <f t="shared" si="13"/>
+        <v>499585.09909947222</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="9"/>
+        <v>43217</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>34574</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>27659</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="8"/>
+        <v>249792.54954973611</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="10"/>
+        <v>29388</v>
+      </c>
+      <c r="K46">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A45</f>
+        <v>1469367.9385278595</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="7"/>
-        <v>15284914767.081543</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="5"/>
-        <v>152849148</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>98612354</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="2"/>
-        <v>63620874</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="4"/>
-        <v>7642457383.5407715</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="6"/>
-        <v>305698296</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A46</f>
-        <v>23691617888.976398</v>
+        <f t="shared" si="11"/>
+        <v>1836709.9231598245</v>
       </c>
       <c r="C47">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A46*brute_life_multiplier</f>
-        <v>355374268334.646</v>
+        <f t="shared" si="12"/>
+        <v>27550648.847397368</v>
       </c>
       <c r="E47">
+        <f t="shared" si="13"/>
+        <v>624481.37387434032</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="9"/>
+        <v>54021</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>43217</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>34574</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="8"/>
+        <v>312240.68693717016</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="10"/>
+        <v>36735</v>
+      </c>
+      <c r="K47">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A46</f>
+        <v>1836709.9231598245</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="7"/>
-        <v>23691617888.976398</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="5"/>
-        <v>236916179</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>152849148</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="2"/>
-        <v>98612354</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="4"/>
-        <v>11845808944.488199</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="6"/>
-        <v>473832358</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A47</f>
-        <v>36722007727.913422</v>
+        <f t="shared" si="11"/>
+        <v>2295887.4039497804</v>
       </c>
       <c r="C48">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A47*brute_life_multiplier</f>
-        <v>550830115918.70129</v>
+        <f t="shared" si="12"/>
+        <v>34438311.059246704</v>
       </c>
       <c r="E48">
+        <f t="shared" si="13"/>
+        <v>780601.71734292537</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="9"/>
+        <v>67527</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>54021</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>43217</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="8"/>
+        <v>390300.85867146269</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="10"/>
+        <v>45918</v>
+      </c>
+      <c r="K48">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A47</f>
+        <v>2295887.4039497804</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="7"/>
-        <v>36722007727.913422</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="5"/>
-        <v>367220078</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>236916179</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="2"/>
-        <v>152849148</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="4"/>
-        <v>18361003863.956711</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="6"/>
-        <v>734440155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A48</f>
-        <v>56919111978.265808</v>
+        <f t="shared" si="11"/>
+        <v>2869859.2549372255</v>
       </c>
       <c r="C49">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A48*brute_life_multiplier</f>
-        <v>853786679673.98706</v>
+        <f t="shared" si="12"/>
+        <v>43047888.824058384</v>
       </c>
       <c r="E49">
+        <f t="shared" si="13"/>
+        <v>975752.14667865657</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="9"/>
+        <v>84408</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>67527</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>54021</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="8"/>
+        <v>487876.07333932829</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="10"/>
+        <v>57398</v>
+      </c>
+      <c r="K49">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A48</f>
+        <v>2869859.2549372255</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="7"/>
-        <v>56919111978.265808</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="5"/>
-        <v>569191120</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>367220078</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="2"/>
-        <v>236916179</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="4"/>
-        <v>28459555989.132904</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="6"/>
-        <v>1138382240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A49</f>
-        <v>88224623566.311996</v>
+        <f t="shared" si="11"/>
+        <v>3587324.068671532</v>
       </c>
       <c r="C50">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A49*brute_life_multiplier</f>
-        <v>1323369353494.6799</v>
+        <f t="shared" si="12"/>
+        <v>53809861.03007298</v>
       </c>
       <c r="E50">
+        <f t="shared" si="13"/>
+        <v>1219690.1833483209</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="9"/>
+        <v>105510</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>84408</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>67527</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="8"/>
+        <v>609845.09167416045</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="10"/>
+        <v>71747</v>
+      </c>
+      <c r="K50">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A49</f>
+        <v>3587324.068671532</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="7"/>
-        <v>88224623566.311996</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="5"/>
-        <v>882246236</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>569191120</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="2"/>
-        <v>367220078</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="4"/>
-        <v>44112311783.155998</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="6"/>
-        <v>1764492472</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A50</f>
-        <v>136748166527.78362</v>
+        <f t="shared" si="11"/>
+        <v>4484155.085839415</v>
       </c>
       <c r="C51">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A50*brute_life_multiplier</f>
-        <v>2051222497916.7542</v>
+        <f t="shared" si="12"/>
+        <v>67262326.287591219</v>
       </c>
       <c r="E51">
+        <f t="shared" si="13"/>
+        <v>1524612.729185401</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="9"/>
+        <v>131887</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>105510</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>84408</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="8"/>
+        <v>762306.3645927005</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="10"/>
+        <v>89684</v>
+      </c>
+      <c r="K51">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A50</f>
+        <v>4484155.085839415</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="7"/>
-        <v>136748166527.78362</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="5"/>
-        <v>1367481666</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>882246236</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="2"/>
-        <v>569191120</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="4"/>
-        <v>68374083263.891808</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="6"/>
-        <v>2734963331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A51</f>
-        <v>211959658118.06461</v>
+        <f t="shared" si="11"/>
+        <v>5605193.8572992682</v>
       </c>
       <c r="C52">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A51*brute_life_multiplier</f>
-        <v>3179394871770.9692</v>
+        <f t="shared" si="12"/>
+        <v>84077907.859489024</v>
       </c>
       <c r="E52">
+        <f t="shared" si="13"/>
+        <v>1905765.9114817514</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="9"/>
+        <v>164859</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>131887</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>105510</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="8"/>
+        <v>952882.95574087568</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="10"/>
+        <v>112104</v>
+      </c>
+      <c r="K52">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A51</f>
+        <v>5605193.8572992682</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="7"/>
-        <v>211959658118.06461</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="5"/>
-        <v>2119596582</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>1367481666</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="2"/>
-        <v>882246236</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="4"/>
-        <v>105979829059.0323</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="6"/>
-        <v>4239193163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A52</f>
-        <v>328537470083.00012</v>
+        <f t="shared" si="11"/>
+        <v>7006492.3216240862</v>
       </c>
       <c r="C53">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A52*brute_life_multiplier</f>
-        <v>4928062051245.002</v>
+        <f t="shared" si="12"/>
+        <v>105097384.82436129</v>
       </c>
       <c r="E53">
+        <f t="shared" si="13"/>
+        <v>2382207.3893521894</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="9"/>
+        <v>206074</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>164859</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>131887</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="8"/>
+        <v>1191103.6946760947</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="10"/>
+        <v>140130</v>
+      </c>
+      <c r="K53">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A52</f>
+        <v>7006492.3216240862</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="7"/>
-        <v>328537470083.00012</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="5"/>
-        <v>3285374701</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>2119596582</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="2"/>
-        <v>1367481666</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="4"/>
-        <v>164268735041.50006</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="6"/>
-        <v>6570749402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A53</f>
-        <v>509233078628.65027</v>
+        <f t="shared" si="11"/>
+        <v>8758115.4020301066</v>
       </c>
       <c r="C54">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A53*brute_life_multiplier</f>
-        <v>7638496179429.7539</v>
+        <f t="shared" si="12"/>
+        <v>131371731.0304516</v>
       </c>
       <c r="E54">
+        <f t="shared" si="13"/>
+        <v>2977759.2366902363</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="9"/>
+        <v>257592</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>206074</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>164859</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="8"/>
+        <v>1488879.6183451181</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="10"/>
+        <v>175163</v>
+      </c>
+      <c r="K54">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A53</f>
+        <v>8758115.4020301066</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="7"/>
-        <v>509233078628.65027</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="5"/>
-        <v>5092330787</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>3285374701</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="2"/>
-        <v>2119596582</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="4"/>
-        <v>254616539314.32513</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="6"/>
-        <v>10184661573</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A54</f>
-        <v>789311271874.40796</v>
+        <f t="shared" si="11"/>
+        <v>10947644.252537634</v>
       </c>
       <c r="C55">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A54*brute_life_multiplier</f>
-        <v>11839669078116.119</v>
+        <f t="shared" si="12"/>
+        <v>164214663.78806451</v>
       </c>
       <c r="E55">
+        <f t="shared" si="13"/>
+        <v>3722199.0458627953</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="9"/>
+        <v>321990</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>257592</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>206074</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="8"/>
+        <v>1861099.5229313977</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="10"/>
+        <v>218953</v>
+      </c>
+      <c r="K55">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A54</f>
+        <v>10947644.252537634</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="7"/>
-        <v>789311271874.40796</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="5"/>
-        <v>7893112719</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>5092330787</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="2"/>
-        <v>3285374701</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="4"/>
-        <v>394655635937.20398</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="6"/>
-        <v>15786225438</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A55</f>
-        <v>1223432471405.3323</v>
+        <f t="shared" si="11"/>
+        <v>13684555.315672042</v>
       </c>
       <c r="C56">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A55*brute_life_multiplier</f>
-        <v>18351487071079.984</v>
+        <f t="shared" si="12"/>
+        <v>205268329.73508063</v>
       </c>
       <c r="E56">
+        <f t="shared" si="13"/>
+        <v>4652748.8073284943</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="9"/>
+        <v>402487</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>321990</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>257592</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="8"/>
+        <v>2326374.4036642471</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="10"/>
+        <v>273692</v>
+      </c>
+      <c r="K56">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A55</f>
+        <v>13684555.315672042</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="7"/>
-        <v>1223432471405.3323</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="5"/>
-        <v>12234324715</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>7893112719</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="2"/>
-        <v>5092330787</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="4"/>
-        <v>611716235702.66614</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="6"/>
-        <v>24468649429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>136846</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A56</f>
-        <v>1896320330678.2654</v>
+        <f t="shared" si="11"/>
+        <v>17105694.144590054</v>
       </c>
       <c r="C57">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A56*brute_life_multiplier</f>
-        <v>28444804960173.98</v>
+        <f t="shared" si="12"/>
+        <v>256585412.16885081</v>
       </c>
       <c r="E57">
+        <f t="shared" si="13"/>
+        <v>5815936.0091606183</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="9"/>
+        <v>503109</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>402487</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>321990</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="8"/>
+        <v>2907968.0045803091</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="10"/>
+        <v>342114</v>
+      </c>
+      <c r="K57">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A56</f>
+        <v>17105694.144590054</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="7"/>
-        <v>1896320330678.2654</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="5"/>
-        <v>18963203307</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>12234324715</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="2"/>
-        <v>7893112719</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="4"/>
-        <v>948160165339.13269</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="6"/>
-        <v>37926406614</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>171057</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A57</f>
-        <v>2939296512551.3115</v>
+        <f t="shared" si="11"/>
+        <v>21382117.680737566</v>
       </c>
       <c r="C58">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A57*brute_life_multiplier</f>
-        <v>44089447688269.672</v>
+        <f t="shared" si="12"/>
+        <v>320731765.2110635</v>
       </c>
       <c r="E58">
+        <f t="shared" si="13"/>
+        <v>7269920.0114507722</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="9"/>
+        <v>628886</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>503109</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>402487</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="8"/>
+        <v>3634960.0057253861</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="10"/>
+        <v>427643</v>
+      </c>
+      <c r="K58">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A57</f>
+        <v>21382117.680737566</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="7"/>
-        <v>2939296512551.3115</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="5"/>
-        <v>29392965126</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>18963203307</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="2"/>
-        <v>12234324715</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="4"/>
-        <v>1469648256275.6558</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="6"/>
-        <v>58785930252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>213822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A58</f>
-        <v>4555909594454.5332</v>
+        <f t="shared" si="11"/>
+        <v>26727647.100921959</v>
       </c>
       <c r="C59">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A58*brute_life_multiplier</f>
-        <v>68338643916818</v>
+        <f t="shared" si="12"/>
+        <v>400914706.51382935</v>
       </c>
       <c r="E59">
+        <f t="shared" si="13"/>
+        <v>9087400.0143134668</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="9"/>
+        <v>786108</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>628886</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>503109</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="8"/>
+        <v>4543700.0071567334</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="10"/>
+        <v>534553</v>
+      </c>
+      <c r="K59">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A58</f>
+        <v>26727647.100921959</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="7"/>
-        <v>4555909594454.5332</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="5"/>
-        <v>45559095945</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>29392965126</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="2"/>
-        <v>18963203307</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="4"/>
-        <v>2277954797227.2666</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="6"/>
-        <v>91118191890</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A59</f>
-        <v>7061659871404.5273</v>
+        <f t="shared" si="11"/>
+        <v>33409558.876152452</v>
       </c>
       <c r="C60">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A59*brute_life_multiplier</f>
-        <v>105924898071067.91</v>
+        <f t="shared" si="12"/>
+        <v>501143383.14228678</v>
       </c>
       <c r="E60">
+        <f t="shared" si="13"/>
+        <v>11359250.017891834</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="9"/>
+        <v>982635</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>786108</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="5"/>
+        <v>628886</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="8"/>
+        <v>5679625.0089459168</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="10"/>
+        <v>668192</v>
+      </c>
+      <c r="K60">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A59</f>
+        <v>33409558.876152452</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="7"/>
-        <v>7061659871404.5273</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="5"/>
-        <v>70616598715</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>45559095945</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="2"/>
-        <v>29392965126</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="4"/>
-        <v>3530829935702.2637</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="6"/>
-        <v>141233197429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>334096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A60</f>
-        <v>10945572800677.02</v>
+        <f t="shared" si="11"/>
+        <v>41761948.595190562</v>
       </c>
       <c r="C61">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A60*brute_life_multiplier</f>
-        <v>164183592010155.28</v>
+        <f t="shared" si="12"/>
+        <v>626429228.92785847</v>
       </c>
       <c r="E61">
+        <f t="shared" si="13"/>
+        <v>14199062.522364791</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="9"/>
+        <v>1228293</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>982635</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="5"/>
+        <v>786108</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="8"/>
+        <v>7099531.2611823957</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="10"/>
+        <v>835239</v>
+      </c>
+      <c r="K61">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A60</f>
+        <v>41761948.595190562</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="7"/>
-        <v>10945572800677.02</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="5"/>
-        <v>109455728007</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>70616598715</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="2"/>
-        <v>45559095945</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="4"/>
-        <v>5472786400338.5098</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="6"/>
-        <v>218911456014</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>417620</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A61</f>
-        <v>16965637841049.377</v>
+        <f t="shared" si="11"/>
+        <v>52202435.743988201</v>
       </c>
       <c r="C62">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A61*brute_life_multiplier</f>
-        <v>254484567615740.66</v>
+        <f t="shared" si="12"/>
+        <v>783036536.15982306</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62:E84" si="8" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
-        <v>16965637841049.377</v>
+        <f t="shared" ref="E62:E84" si="14" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
+        <v>17748828.152955987</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62:F84" si="9">ROUNDUP(B62/base_damage, 0)</f>
-        <v>169656378411</v>
+        <f t="shared" ref="F62:F84" si="15">ROUNDUP(B62/base_damage, 0)</f>
+        <v>1535366</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>109455728007</v>
+        <f t="shared" si="4"/>
+        <v>1228293</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
-        <v>70616598715</v>
+        <f t="shared" si="5"/>
+        <v>982635</v>
       </c>
       <c r="I62">
-        <f t="shared" ref="I62:I84" si="10">E62/2</f>
-        <v>8482818920524.6885</v>
+        <f t="shared" ref="I62:I84" si="16">E62/2</f>
+        <v>8874414.0764779933</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:J84" si="11">ROUNDUP(B62/explosion_shot_base, 0)</f>
-        <v>339312756821</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J62:J84" si="17">ROUNDUP(B62/explosion_shot_base, 0)</f>
+        <v>1044049</v>
+      </c>
+      <c r="K62">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A61</f>
+        <v>52202435.743988201</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="7"/>
+        <v>522025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A62</f>
-        <v>26296738653626.543</v>
+        <f t="shared" si="11"/>
+        <v>65253044.67998524</v>
       </c>
       <c r="C63">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A62*brute_life_multiplier</f>
-        <v>394451079804398.13</v>
+        <f t="shared" si="12"/>
+        <v>978795670.19977856</v>
       </c>
       <c r="E63">
-        <f t="shared" si="8"/>
-        <v>26296738653626.543</v>
+        <f t="shared" si="14"/>
+        <v>22186035.191194981</v>
       </c>
       <c r="F63">
-        <f t="shared" si="9"/>
-        <v>262967386537</v>
+        <f t="shared" si="15"/>
+        <v>1919208</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>169656378411</v>
+        <f t="shared" si="4"/>
+        <v>1535366</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
-        <v>109455728007</v>
+        <f t="shared" si="5"/>
+        <v>1228293</v>
       </c>
       <c r="I63">
-        <f t="shared" si="10"/>
-        <v>13148369326813.271</v>
+        <f t="shared" si="16"/>
+        <v>11093017.595597491</v>
       </c>
       <c r="J63">
-        <f t="shared" si="11"/>
-        <v>525934773073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>1305061</v>
+      </c>
+      <c r="K63">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A62</f>
+        <v>65253044.67998524</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="7"/>
+        <v>652531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A63</f>
-        <v>40759944913121.133</v>
+        <f t="shared" si="11"/>
+        <v>81566305.849981546</v>
       </c>
       <c r="C64">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A63*brute_life_multiplier</f>
-        <v>611399173696817</v>
+        <f t="shared" si="12"/>
+        <v>1223494587.7497232</v>
       </c>
       <c r="E64">
-        <f t="shared" si="8"/>
-        <v>40759944913121.133</v>
+        <f t="shared" si="14"/>
+        <v>27732543.988993727</v>
       </c>
       <c r="F64">
-        <f t="shared" si="9"/>
-        <v>407599449132</v>
+        <f t="shared" si="15"/>
+        <v>2399009</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>262967386537</v>
+        <f t="shared" si="4"/>
+        <v>1919208</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
-        <v>169656378411</v>
+        <f t="shared" si="5"/>
+        <v>1535366</v>
       </c>
       <c r="I64">
-        <f t="shared" si="10"/>
-        <v>20379972456560.566</v>
+        <f t="shared" si="16"/>
+        <v>13866271.994496863</v>
       </c>
       <c r="J64">
-        <f t="shared" si="11"/>
-        <v>815198898263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>1631327</v>
+      </c>
+      <c r="K64">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A63</f>
+        <v>81566305.849981546</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="7"/>
+        <v>815664</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A64</f>
-        <v>63177914615337.781</v>
+        <f t="shared" si="11"/>
+        <v>101957882.31247695</v>
       </c>
       <c r="C65">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A64*brute_life_multiplier</f>
-        <v>947668719230066.75</v>
+        <f t="shared" si="12"/>
+        <v>1529368234.6871543</v>
       </c>
       <c r="E65">
-        <f t="shared" si="8"/>
-        <v>63177914615337.781</v>
+        <f t="shared" si="14"/>
+        <v>34665679.98624216</v>
       </c>
       <c r="F65">
-        <f t="shared" si="9"/>
-        <v>631779146154</v>
+        <f t="shared" si="15"/>
+        <v>2998762</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>407599449132</v>
+        <f t="shared" si="4"/>
+        <v>2399009</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
-        <v>262967386537</v>
+        <f t="shared" si="5"/>
+        <v>1919208</v>
       </c>
       <c r="I65">
-        <f t="shared" si="10"/>
-        <v>31588957307668.891</v>
+        <f t="shared" si="16"/>
+        <v>17332839.99312108</v>
       </c>
       <c r="J65">
-        <f t="shared" si="11"/>
-        <v>1263558292307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>2039158</v>
+      </c>
+      <c r="K65">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A64</f>
+        <v>101957882.31247695</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="7"/>
+        <v>1019579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A65</f>
-        <v>97925767653773.563</v>
+        <f t="shared" si="11"/>
+        <v>127447352.8905962</v>
       </c>
       <c r="C66">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A65*brute_life_multiplier</f>
-        <v>1468886514806603.5</v>
+        <f t="shared" si="12"/>
+        <v>1911710293.358943</v>
       </c>
       <c r="E66">
-        <f t="shared" si="8"/>
-        <v>97925767653773.563</v>
+        <f t="shared" si="14"/>
+        <v>43332099.982802704</v>
       </c>
       <c r="F66">
-        <f t="shared" si="9"/>
-        <v>979257676538</v>
+        <f t="shared" si="15"/>
+        <v>3748452</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>631779146154</v>
+        <f t="shared" si="4"/>
+        <v>2998762</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
-        <v>407599449132</v>
+        <f t="shared" si="5"/>
+        <v>2399009</v>
       </c>
       <c r="I66">
-        <f t="shared" si="10"/>
-        <v>48962883826886.781</v>
+        <f t="shared" si="16"/>
+        <v>21666049.991401352</v>
       </c>
       <c r="J66">
-        <f t="shared" si="11"/>
-        <v>1958515353076</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>2548948</v>
+      </c>
+      <c r="K66">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A65</f>
+        <v>127447352.8905962</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="7"/>
+        <v>1274474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A66</f>
-        <v>151784939863349</v>
+        <f t="shared" si="11"/>
+        <v>159309191.11324525</v>
       </c>
       <c r="C67">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A66*brute_life_multiplier</f>
-        <v>2276774097950235</v>
+        <f t="shared" si="12"/>
+        <v>2389637866.698679</v>
       </c>
       <c r="E67">
-        <f t="shared" si="8"/>
-        <v>151784939863349</v>
+        <f t="shared" si="14"/>
+        <v>54165124.978503384</v>
       </c>
       <c r="F67">
-        <f t="shared" si="9"/>
-        <v>1517849398634</v>
+        <f t="shared" si="15"/>
+        <v>4685565</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
-        <v>979257676538</v>
+        <f t="shared" si="4"/>
+        <v>3748452</v>
       </c>
       <c r="H67">
-        <f t="shared" si="2"/>
-        <v>631779146154</v>
+        <f t="shared" si="5"/>
+        <v>2998762</v>
       </c>
       <c r="I67">
-        <f t="shared" si="10"/>
-        <v>75892469931674.5</v>
+        <f t="shared" si="16"/>
+        <v>27082562.489251692</v>
       </c>
       <c r="J67">
-        <f t="shared" si="11"/>
-        <v>3035698797267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>3186184</v>
+      </c>
+      <c r="K67">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A66</f>
+        <v>159309191.11324525</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="7"/>
+        <v>1593092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A67</f>
-        <v>235266656788190.97</v>
+        <f t="shared" ref="B68:B102" si="18" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A67</f>
+        <v>199136488.89155659</v>
       </c>
       <c r="C68">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A67*brute_life_multiplier</f>
-        <v>3528999851822864.5</v>
+        <f t="shared" ref="C68:C102" si="19" xml:space="preserve"> $B$3*hits_1_round_behind^A67*brute_life_multiplier</f>
+        <v>2987047333.3733487</v>
       </c>
       <c r="E68">
-        <f t="shared" si="8"/>
-        <v>235266656788190.97</v>
+        <f t="shared" si="14"/>
+        <v>67706406.223129243</v>
       </c>
       <c r="F68">
-        <f t="shared" si="9"/>
-        <v>2352666567882</v>
+        <f t="shared" si="15"/>
+        <v>5856956</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G92" si="12">ROUNDUP(B68/$E$4, 0)</f>
-        <v>1517849398634</v>
+        <f t="shared" ref="G68:G92" si="20">ROUNDUP(B68/$E$4, 0)</f>
+        <v>4685565</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H102" si="13">ROUNDUP(B68/$E$5, 0)</f>
-        <v>979257676538</v>
+        <f t="shared" ref="H68:H102" si="21">ROUNDUP(B68/$E$5, 0)</f>
+        <v>3748452</v>
       </c>
       <c r="I68">
-        <f t="shared" si="10"/>
-        <v>117633328394095.48</v>
+        <f t="shared" si="16"/>
+        <v>33853203.111564621</v>
       </c>
       <c r="J68">
-        <f t="shared" si="11"/>
-        <v>4705333135764</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>3982730</v>
+      </c>
+      <c r="K68">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A67</f>
+        <v>199136488.89155659</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L102" si="22">ROUNDUP(B68/$K$3, 0)</f>
+        <v>1991365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A68</f>
-        <v>364663318021696</v>
+        <f t="shared" si="18"/>
+        <v>248920611.11444569</v>
       </c>
       <c r="C69">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A68*brute_life_multiplier</f>
-        <v>5469949770325440</v>
+        <f t="shared" si="19"/>
+        <v>3733809166.7166853</v>
       </c>
       <c r="E69">
-        <f t="shared" si="8"/>
-        <v>364663318021696</v>
+        <f t="shared" si="14"/>
+        <v>84633007.778911531</v>
       </c>
       <c r="F69">
-        <f t="shared" si="9"/>
-        <v>3646633180217</v>
+        <f t="shared" si="15"/>
+        <v>7321195</v>
       </c>
       <c r="G69">
-        <f t="shared" si="12"/>
-        <v>2352666567882</v>
+        <f t="shared" si="20"/>
+        <v>5856956</v>
       </c>
       <c r="H69">
-        <f t="shared" si="13"/>
-        <v>1517849398634</v>
+        <f t="shared" si="21"/>
+        <v>4685565</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
-        <v>182331659010848</v>
+        <f t="shared" si="16"/>
+        <v>42316503.889455765</v>
       </c>
       <c r="J69">
-        <f t="shared" si="11"/>
-        <v>7293266360434</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>4978413</v>
+      </c>
+      <c r="K69">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A68</f>
+        <v>248920611.11444569</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="22"/>
+        <v>2489207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A69</f>
-        <v>565228142933628.75</v>
+        <f t="shared" si="18"/>
+        <v>311150763.89305711</v>
       </c>
       <c r="C70">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A69*brute_life_multiplier</f>
-        <v>8478422144004431</v>
+        <f t="shared" si="19"/>
+        <v>4667261458.3958569</v>
       </c>
       <c r="E70">
-        <f t="shared" si="8"/>
-        <v>565228142933628.75</v>
+        <f t="shared" si="14"/>
+        <v>105791259.72363943</v>
       </c>
       <c r="F70">
-        <f t="shared" si="9"/>
-        <v>5652281429337</v>
+        <f t="shared" si="15"/>
+        <v>9151494</v>
       </c>
       <c r="G70">
-        <f t="shared" si="12"/>
-        <v>3646633180217</v>
+        <f t="shared" si="20"/>
+        <v>7321195</v>
       </c>
       <c r="H70">
-        <f t="shared" si="13"/>
-        <v>2352666567882</v>
+        <f t="shared" si="21"/>
+        <v>5856956</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
-        <v>282614071466814.38</v>
+        <f t="shared" si="16"/>
+        <v>52895629.861819714</v>
       </c>
       <c r="J70">
-        <f t="shared" si="11"/>
-        <v>11304562858673</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>6223016</v>
+      </c>
+      <c r="K70">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A69</f>
+        <v>311150763.89305711</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="22"/>
+        <v>3111508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A70</f>
-        <v>876103621547124.75</v>
+        <f t="shared" si="18"/>
+        <v>388938454.86632144</v>
       </c>
       <c r="C71">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A70*brute_life_multiplier</f>
-        <v>1.3141554323206872E+16</v>
+        <f t="shared" si="19"/>
+        <v>5834076822.9948215</v>
       </c>
       <c r="E71">
-        <f t="shared" si="8"/>
-        <v>876103621547124.75</v>
+        <f t="shared" si="14"/>
+        <v>132239074.65454929</v>
       </c>
       <c r="F71">
-        <f t="shared" si="9"/>
-        <v>8761036215472</v>
+        <f t="shared" si="15"/>
+        <v>11439367</v>
       </c>
       <c r="G71">
-        <f t="shared" si="12"/>
-        <v>5652281429337</v>
+        <f t="shared" si="20"/>
+        <v>9151494</v>
       </c>
       <c r="H71">
-        <f t="shared" si="13"/>
-        <v>3646633180217</v>
+        <f t="shared" si="21"/>
+        <v>7321195</v>
       </c>
       <c r="I71">
-        <f t="shared" si="10"/>
-        <v>438051810773562.38</v>
+        <f t="shared" si="16"/>
+        <v>66119537.327274643</v>
       </c>
       <c r="J71">
-        <f t="shared" si="11"/>
-        <v>17522072430943</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>7778770</v>
+      </c>
+      <c r="K71">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A70</f>
+        <v>388938454.86632144</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="22"/>
+        <v>3889385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A71</f>
-        <v>1357960613398043.3</v>
+        <f t="shared" si="18"/>
+        <v>486173068.58290172</v>
       </c>
       <c r="C72">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A71*brute_life_multiplier</f>
-        <v>2.0369409200970648E+16</v>
+        <f t="shared" si="19"/>
+        <v>7292596028.7435255</v>
       </c>
       <c r="E72">
-        <f t="shared" si="8"/>
-        <v>1357960613398043.3</v>
+        <f t="shared" si="14"/>
+        <v>165298843.31818658</v>
       </c>
       <c r="F72">
-        <f t="shared" si="9"/>
-        <v>13579606133981</v>
+        <f t="shared" si="15"/>
+        <v>14299208</v>
       </c>
       <c r="G72">
-        <f t="shared" si="12"/>
-        <v>8761036215472</v>
+        <f t="shared" si="20"/>
+        <v>11439367</v>
       </c>
       <c r="H72">
-        <f t="shared" si="13"/>
-        <v>5652281429337</v>
+        <f t="shared" si="21"/>
+        <v>9151494</v>
       </c>
       <c r="I72">
-        <f t="shared" si="10"/>
-        <v>678980306699021.63</v>
+        <f t="shared" si="16"/>
+        <v>82649421.659093291</v>
       </c>
       <c r="J72">
-        <f t="shared" si="11"/>
-        <v>27159212267961</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>9723462</v>
+      </c>
+      <c r="K72">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A71</f>
+        <v>486173068.58290172</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="22"/>
+        <v>4861731</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A72</f>
-        <v>2104838950766967.5</v>
+        <f t="shared" si="18"/>
+        <v>607716335.7286272</v>
       </c>
       <c r="C73">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A72*brute_life_multiplier</f>
-        <v>3.1572584261504512E+16</v>
+        <f t="shared" si="19"/>
+        <v>9115745035.929409</v>
       </c>
       <c r="E73">
-        <f t="shared" si="8"/>
-        <v>2104838950766967.5</v>
+        <f t="shared" si="14"/>
+        <v>206623554.14773327</v>
       </c>
       <c r="F73">
-        <f t="shared" si="9"/>
-        <v>21048389507670</v>
+        <f t="shared" si="15"/>
+        <v>17874010</v>
       </c>
       <c r="G73">
-        <f t="shared" si="12"/>
-        <v>13579606133981</v>
+        <f t="shared" si="20"/>
+        <v>14299208</v>
       </c>
       <c r="H73">
-        <f t="shared" si="13"/>
-        <v>8761036215472</v>
+        <f t="shared" si="21"/>
+        <v>11439367</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
-        <v>1052419475383483.8</v>
+        <f t="shared" si="16"/>
+        <v>103311777.07386664</v>
       </c>
       <c r="J73">
-        <f t="shared" si="11"/>
-        <v>42096779015340</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>12154327</v>
+      </c>
+      <c r="K73">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A72</f>
+        <v>607716335.7286272</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="22"/>
+        <v>6077164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A73</f>
-        <v>3262500373688800</v>
+        <f t="shared" si="18"/>
+        <v>759645419.66078401</v>
       </c>
       <c r="C74">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A73*brute_life_multiplier</f>
-        <v>4.8937505605332E+16</v>
+        <f t="shared" si="19"/>
+        <v>11394681294.91176</v>
       </c>
       <c r="E74">
-        <f t="shared" si="8"/>
-        <v>3262500373688800</v>
+        <f t="shared" si="14"/>
+        <v>258279442.68466657</v>
       </c>
       <c r="F74">
-        <f t="shared" si="9"/>
-        <v>32625003736888</v>
+        <f t="shared" si="15"/>
+        <v>22342513</v>
       </c>
       <c r="G74">
-        <f t="shared" si="12"/>
-        <v>21048389507670</v>
+        <f t="shared" si="20"/>
+        <v>17874010</v>
       </c>
       <c r="H74">
-        <f t="shared" si="13"/>
-        <v>13579606133981</v>
+        <f t="shared" si="21"/>
+        <v>14299208</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
-        <v>1631250186844400</v>
+        <f t="shared" si="16"/>
+        <v>129139721.34233329</v>
       </c>
       <c r="J74">
-        <f t="shared" si="11"/>
-        <v>65250007473776</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>15192909</v>
+      </c>
+      <c r="K74">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A73</f>
+        <v>759645419.66078401</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="22"/>
+        <v>7596455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A74</f>
-        <v>5056875579217641</v>
+        <f t="shared" si="18"/>
+        <v>949556774.57597995</v>
       </c>
       <c r="C75">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A74*brute_life_multiplier</f>
-        <v>7.5853133688264608E+16</v>
+        <f t="shared" si="19"/>
+        <v>14243351618.6397</v>
       </c>
       <c r="E75">
-        <f t="shared" si="8"/>
-        <v>5056875579217641</v>
+        <f t="shared" si="14"/>
+        <v>322849303.35583317</v>
       </c>
       <c r="F75">
-        <f t="shared" si="9"/>
-        <v>50568755792177</v>
+        <f t="shared" si="15"/>
+        <v>27928141</v>
       </c>
       <c r="G75">
-        <f t="shared" si="12"/>
-        <v>32625003736888</v>
+        <f t="shared" si="20"/>
+        <v>22342513</v>
       </c>
       <c r="H75">
-        <f t="shared" si="13"/>
-        <v>21048389507670</v>
+        <f t="shared" si="21"/>
+        <v>17874010</v>
       </c>
       <c r="I75">
-        <f t="shared" si="10"/>
-        <v>2528437789608820.5</v>
+        <f t="shared" si="16"/>
+        <v>161424651.67791659</v>
       </c>
       <c r="J75">
-        <f t="shared" si="11"/>
-        <v>101137511584353</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>18991136</v>
+      </c>
+      <c r="K75">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A74</f>
+        <v>949556774.57597995</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="22"/>
+        <v>9495568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A75</f>
-        <v>7838157147787344</v>
+        <f t="shared" si="18"/>
+        <v>1186945968.219975</v>
       </c>
       <c r="C76">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A75*brute_life_multiplier</f>
-        <v>1.1757235721681016E+17</v>
+        <f t="shared" si="19"/>
+        <v>17804189523.299625</v>
       </c>
       <c r="E76">
-        <f t="shared" si="8"/>
-        <v>7838157147787344</v>
+        <f t="shared" si="14"/>
+        <v>403561629.1947915</v>
       </c>
       <c r="F76">
-        <f t="shared" si="9"/>
-        <v>78381571477874</v>
+        <f t="shared" si="15"/>
+        <v>34910176</v>
       </c>
       <c r="G76">
-        <f t="shared" si="12"/>
-        <v>50568755792177</v>
+        <f t="shared" si="20"/>
+        <v>27928141</v>
       </c>
       <c r="H76">
-        <f t="shared" si="13"/>
-        <v>32625003736888</v>
+        <f t="shared" si="21"/>
+        <v>22342513</v>
       </c>
       <c r="I76">
-        <f t="shared" si="10"/>
-        <v>3919078573893672</v>
+        <f t="shared" si="16"/>
+        <v>201780814.59739575</v>
       </c>
       <c r="J76">
-        <f t="shared" si="11"/>
-        <v>156763142955747</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>23738920</v>
+      </c>
+      <c r="K76">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A75</f>
+        <v>1186945968.219975</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="22"/>
+        <v>11869460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A76</f>
-        <v>1.2149143579070382E+16</v>
+        <f t="shared" si="18"/>
+        <v>1483682460.2749689</v>
       </c>
       <c r="C77">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A76*brute_life_multiplier</f>
-        <v>1.8223715368605574E+17</v>
+        <f t="shared" si="19"/>
+        <v>22255236904.124535</v>
       </c>
       <c r="E77">
-        <f t="shared" si="8"/>
-        <v>1.2149143579070382E+16</v>
+        <f t="shared" si="14"/>
+        <v>504452036.49348938</v>
       </c>
       <c r="F77">
-        <f t="shared" si="9"/>
-        <v>121491435790704</v>
+        <f t="shared" si="15"/>
+        <v>43637720</v>
       </c>
       <c r="G77">
-        <f t="shared" si="12"/>
-        <v>78381571477874</v>
+        <f t="shared" si="20"/>
+        <v>34910176</v>
       </c>
       <c r="H77">
-        <f t="shared" si="13"/>
-        <v>50568755792177</v>
+        <f t="shared" si="21"/>
+        <v>27928141</v>
       </c>
       <c r="I77">
-        <f t="shared" si="10"/>
-        <v>6074571789535191</v>
+        <f t="shared" si="16"/>
+        <v>252226018.24674469</v>
       </c>
       <c r="J77">
-        <f t="shared" si="11"/>
-        <v>242982871581408</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>29673650</v>
+      </c>
+      <c r="K77">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A76</f>
+        <v>1483682460.2749689</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="22"/>
+        <v>14836825</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A77</f>
-        <v>1.8831172547559092E+16</v>
+        <f t="shared" si="18"/>
+        <v>1854603075.3437109</v>
       </c>
       <c r="C78">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A77*brute_life_multiplier</f>
-        <v>2.8246758821338637E+17</v>
+        <f t="shared" si="19"/>
+        <v>27819046130.155663</v>
       </c>
       <c r="E78">
-        <f t="shared" si="8"/>
-        <v>1.8831172547559092E+16</v>
+        <f t="shared" si="14"/>
+        <v>630565045.6168617</v>
       </c>
       <c r="F78">
-        <f t="shared" si="9"/>
-        <v>188311725475591</v>
+        <f t="shared" si="15"/>
+        <v>54547150</v>
       </c>
       <c r="G78">
-        <f t="shared" si="12"/>
-        <v>121491435790704</v>
+        <f t="shared" si="20"/>
+        <v>43637720</v>
       </c>
       <c r="H78">
-        <f t="shared" si="13"/>
-        <v>78381571477874</v>
+        <f t="shared" si="21"/>
+        <v>34910176</v>
       </c>
       <c r="I78">
-        <f t="shared" si="10"/>
-        <v>9415586273779546</v>
+        <f t="shared" si="16"/>
+        <v>315282522.80843085</v>
       </c>
       <c r="J78">
-        <f t="shared" si="11"/>
-        <v>376623450951182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>37092062</v>
+      </c>
+      <c r="K78">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A77</f>
+        <v>1854603075.3437109</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="22"/>
+        <v>18546031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A78</f>
-        <v>2.91883174487166E+16</v>
+        <f t="shared" si="18"/>
+        <v>2318253844.1796389</v>
       </c>
       <c r="C79">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A78*brute_life_multiplier</f>
-        <v>4.3782476173074899E+17</v>
+        <f t="shared" si="19"/>
+        <v>34773807662.69458</v>
       </c>
       <c r="E79">
-        <f t="shared" si="8"/>
-        <v>2.91883174487166E+16</v>
+        <f t="shared" si="14"/>
+        <v>788206307.02107716</v>
       </c>
       <c r="F79">
-        <f t="shared" si="9"/>
-        <v>291883174487166</v>
+        <f t="shared" si="15"/>
+        <v>68183937</v>
       </c>
       <c r="G79">
-        <f t="shared" si="12"/>
-        <v>188311725475591</v>
+        <f t="shared" si="20"/>
+        <v>54547150</v>
       </c>
       <c r="H79">
-        <f t="shared" si="13"/>
-        <v>121491435790704</v>
+        <f t="shared" si="21"/>
+        <v>43637720</v>
       </c>
       <c r="I79">
-        <f t="shared" si="10"/>
-        <v>1.45941587243583E+16</v>
+        <f t="shared" si="16"/>
+        <v>394103153.51053858</v>
       </c>
       <c r="J79">
-        <f t="shared" si="11"/>
-        <v>583766348974332</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>46365077</v>
+      </c>
+      <c r="K79">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A78</f>
+        <v>2318253844.1796389</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="22"/>
+        <v>23182539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A79</f>
-        <v>4.5241892045510728E+16</v>
+        <f t="shared" si="18"/>
+        <v>2897817305.2245483</v>
       </c>
       <c r="C80">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A79*brute_life_multiplier</f>
-        <v>6.7862838068266086E+17</v>
+        <f t="shared" si="19"/>
+        <v>43467259578.368225</v>
       </c>
       <c r="E80">
-        <f t="shared" si="8"/>
-        <v>4.5241892045510728E+16</v>
+        <f t="shared" si="14"/>
+        <v>985257883.77634645</v>
       </c>
       <c r="F80">
-        <f t="shared" si="9"/>
-        <v>452418920455107</v>
+        <f t="shared" si="15"/>
+        <v>85229921</v>
       </c>
       <c r="G80">
-        <f t="shared" si="12"/>
-        <v>291883174487166</v>
+        <f t="shared" si="20"/>
+        <v>68183937</v>
       </c>
       <c r="H80">
-        <f t="shared" si="13"/>
-        <v>188311725475591</v>
+        <f t="shared" si="21"/>
+        <v>54547150</v>
       </c>
       <c r="I80">
-        <f t="shared" si="10"/>
-        <v>2.2620946022755364E+16</v>
+        <f t="shared" si="16"/>
+        <v>492628941.88817322</v>
       </c>
       <c r="J80">
-        <f t="shared" si="11"/>
-        <v>904837840910215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>57956347</v>
+      </c>
+      <c r="K80">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A79</f>
+        <v>2897817305.2245483</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="22"/>
+        <v>28978174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A80</f>
-        <v>7.012493267054164E+16</v>
+        <f t="shared" si="18"/>
+        <v>3622271631.5306859</v>
       </c>
       <c r="C81">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A80*brute_life_multiplier</f>
-        <v>1.0518739900581245E+18</v>
+        <f t="shared" si="19"/>
+        <v>54334074472.960289</v>
       </c>
       <c r="E81">
-        <f t="shared" si="8"/>
-        <v>7.012493267054164E+16</v>
+        <f t="shared" si="14"/>
+        <v>1231572354.7204332</v>
       </c>
       <c r="F81">
-        <f t="shared" si="9"/>
-        <v>701249326705416</v>
+        <f t="shared" si="15"/>
+        <v>106537401</v>
       </c>
       <c r="G81">
-        <f t="shared" si="12"/>
-        <v>452418920455107</v>
+        <f t="shared" si="20"/>
+        <v>85229921</v>
       </c>
       <c r="H81">
-        <f t="shared" si="13"/>
-        <v>291883174487166</v>
+        <f t="shared" si="21"/>
+        <v>68183937</v>
       </c>
       <c r="I81">
-        <f t="shared" si="10"/>
-        <v>3.506246633527082E+16</v>
+        <f t="shared" si="16"/>
+        <v>615786177.36021662</v>
       </c>
       <c r="J81">
-        <f t="shared" si="11"/>
-        <v>1402498653410830</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>72445433</v>
+      </c>
+      <c r="K81">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A80</f>
+        <v>3622271631.5306859</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="22"/>
+        <v>36222717</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A81</f>
-        <v>1.0869364563933955E+17</v>
+        <f t="shared" si="18"/>
+        <v>4527839539.4133568</v>
       </c>
       <c r="C82">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A81*brute_life_multiplier</f>
-        <v>1.6304046845900933E+18</v>
+        <f t="shared" si="19"/>
+        <v>67917593091.200348</v>
       </c>
       <c r="E82">
-        <f t="shared" si="8"/>
-        <v>1.0869364563933955E+17</v>
+        <f t="shared" si="14"/>
+        <v>1539465443.4005413</v>
       </c>
       <c r="F82">
-        <f t="shared" si="9"/>
-        <v>1086936456393400</v>
+        <f t="shared" si="15"/>
+        <v>133171752</v>
       </c>
       <c r="G82">
-        <f t="shared" si="12"/>
-        <v>701249326705417</v>
+        <f t="shared" si="20"/>
+        <v>106537401</v>
       </c>
       <c r="H82">
-        <f t="shared" si="13"/>
-        <v>452418920455107</v>
+        <f t="shared" si="21"/>
+        <v>85229921</v>
       </c>
       <c r="I82">
-        <f t="shared" si="10"/>
-        <v>5.4346822819669776E+16</v>
+        <f t="shared" si="16"/>
+        <v>769732721.70027065</v>
       </c>
       <c r="J82">
-        <f t="shared" si="11"/>
-        <v>2173872912786790</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>90556791</v>
+      </c>
+      <c r="K82">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A81</f>
+        <v>4527839539.4133568</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="22"/>
+        <v>45278396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A82</f>
-        <v>1.6847515074097629E+17</v>
+        <f t="shared" si="18"/>
+        <v>5659799424.266696</v>
       </c>
       <c r="C83">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A82*brute_life_multiplier</f>
-        <v>2.5271272611146445E+18</v>
+        <f t="shared" si="19"/>
+        <v>84896991364.000443</v>
       </c>
       <c r="E83">
-        <f t="shared" si="8"/>
-        <v>1.6847515074097629E+17</v>
+        <f t="shared" si="14"/>
+        <v>1924331804.2506766</v>
       </c>
       <c r="F83">
-        <f t="shared" si="9"/>
-        <v>1684751507409760</v>
+        <f t="shared" si="15"/>
+        <v>166464689</v>
       </c>
       <c r="G83">
-        <f t="shared" si="12"/>
-        <v>1086936456393400</v>
+        <f t="shared" si="20"/>
+        <v>133171752</v>
       </c>
       <c r="H83">
-        <f t="shared" si="13"/>
-        <v>701249326705416</v>
+        <f t="shared" si="21"/>
+        <v>106537401</v>
       </c>
       <c r="I83">
-        <f t="shared" si="10"/>
-        <v>8.4237575370488144E+16</v>
+        <f t="shared" si="16"/>
+        <v>962165902.12533832</v>
       </c>
       <c r="J83">
-        <f t="shared" si="11"/>
-        <v>3369503014819530</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>113195989</v>
+      </c>
+      <c r="K83">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A82</f>
+        <v>5659799424.266696</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="22"/>
+        <v>56597995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A83</f>
-        <v>2.6113648364851325E+17</v>
+        <f t="shared" si="18"/>
+        <v>7074749280.3333702</v>
       </c>
       <c r="C84">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A83*brute_life_multiplier</f>
-        <v>3.9170472547276989E+18</v>
+        <f t="shared" si="19"/>
+        <v>106121239205.00055</v>
       </c>
       <c r="E84">
-        <f t="shared" si="8"/>
-        <v>2.6113648364851325E+17</v>
+        <f t="shared" si="14"/>
+        <v>2405414755.3133459</v>
       </c>
       <c r="F84">
-        <f t="shared" si="9"/>
-        <v>2611364836485130</v>
+        <f t="shared" si="15"/>
+        <v>208080862</v>
       </c>
       <c r="G84">
-        <f t="shared" si="12"/>
-        <v>1684751507409760</v>
+        <f t="shared" si="20"/>
+        <v>166464689</v>
       </c>
       <c r="H84">
-        <f t="shared" si="13"/>
-        <v>1086936456393400</v>
+        <f t="shared" si="21"/>
+        <v>133171752</v>
       </c>
       <c r="I84">
-        <f t="shared" si="10"/>
-        <v>1.3056824182425662E+17</v>
+        <f t="shared" si="16"/>
+        <v>1202707377.656673</v>
       </c>
       <c r="J84">
-        <f t="shared" si="11"/>
-        <v>5222729672970270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>141494986</v>
+      </c>
+      <c r="K84">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A83</f>
+        <v>7074749280.3333702</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="22"/>
+        <v>70747493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A84</f>
-        <v>4.0476154965519558E+17</v>
+        <f t="shared" si="18"/>
+        <v>8843436600.4167118</v>
       </c>
       <c r="C85">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A84*brute_life_multiplier</f>
-        <v>6.0714232448279337E+18</v>
+        <f t="shared" si="19"/>
+        <v>132651549006.25067</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85:E102" si="14" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
-        <v>4.0476154965519558E+17</v>
+        <f t="shared" ref="E85:E102" si="23" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
+        <v>3006768444.1416821</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85:F102" si="15">ROUNDUP(B85/base_damage, 0)</f>
-        <v>4047615496551960</v>
+        <f t="shared" ref="F85:F102" si="24">ROUNDUP(B85/base_damage, 0)</f>
+        <v>260101077</v>
       </c>
       <c r="G85">
-        <f t="shared" si="12"/>
-        <v>2611364836485130</v>
+        <f t="shared" si="20"/>
+        <v>208080862</v>
       </c>
       <c r="H85">
-        <f t="shared" si="13"/>
-        <v>1684751507409760</v>
+        <f t="shared" si="21"/>
+        <v>166464689</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85:I102" si="16">E85/2</f>
-        <v>2.0238077482759779E+17</v>
+        <f t="shared" ref="I85:I102" si="25">E85/2</f>
+        <v>1503384222.0708411</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85:J102" si="17">ROUNDUP(B85/explosion_shot_base, 0)</f>
-        <v>8095230993103910</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J85:J102" si="26">ROUNDUP(B85/explosion_shot_base, 0)</f>
+        <v>176868733</v>
+      </c>
+      <c r="K85">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A84</f>
+        <v>8843436600.4167118</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="22"/>
+        <v>88434367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A85</f>
-        <v>6.2738040196555315E+17</v>
+        <f t="shared" si="18"/>
+        <v>11054295750.520891</v>
       </c>
       <c r="C86">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A85*brute_life_multiplier</f>
-        <v>9.4107060294832968E+18</v>
+        <f t="shared" si="19"/>
+        <v>165814436257.81335</v>
       </c>
       <c r="E86">
-        <f t="shared" si="14"/>
-        <v>6.2738040196555315E+17</v>
+        <f t="shared" si="23"/>
+        <v>3758460555.177103</v>
       </c>
       <c r="F86">
-        <f t="shared" si="15"/>
-        <v>6273804019655530</v>
+        <f t="shared" si="24"/>
+        <v>325126346</v>
       </c>
       <c r="G86">
-        <f t="shared" si="12"/>
-        <v>4047615496551960</v>
+        <f t="shared" si="20"/>
+        <v>260101077</v>
       </c>
       <c r="H86">
-        <f t="shared" si="13"/>
-        <v>2611364836485130</v>
+        <f t="shared" si="21"/>
+        <v>208080862</v>
       </c>
       <c r="I86">
-        <f t="shared" si="16"/>
-        <v>3.1369020098277658E+17</v>
+        <f t="shared" si="25"/>
+        <v>1879230277.5885515</v>
       </c>
       <c r="J86">
-        <f t="shared" si="17"/>
-        <v>1.25476080393111E+16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>221085916</v>
+      </c>
+      <c r="K86">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A85</f>
+        <v>11054295750.520891</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="22"/>
+        <v>110542958</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A86</f>
-        <v>9.7243962304660762E+17</v>
+        <f t="shared" si="18"/>
+        <v>13817869688.151115</v>
       </c>
       <c r="C87">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A86*brute_life_multiplier</f>
-        <v>1.4586594345699115E+19</v>
+        <f t="shared" si="19"/>
+        <v>207268045322.26672</v>
       </c>
       <c r="E87">
-        <f t="shared" si="14"/>
-        <v>9.7243962304660762E+17</v>
+        <f t="shared" si="23"/>
+        <v>4698075693.9713793</v>
       </c>
       <c r="F87">
-        <f t="shared" si="15"/>
-        <v>9724396230466080</v>
+        <f t="shared" si="24"/>
+        <v>406407933</v>
       </c>
       <c r="G87">
-        <f t="shared" si="12"/>
-        <v>6273804019655530</v>
+        <f t="shared" si="20"/>
+        <v>325126346</v>
       </c>
       <c r="H87">
-        <f t="shared" si="13"/>
-        <v>4047615496551960</v>
+        <f t="shared" si="21"/>
+        <v>260101077</v>
       </c>
       <c r="I87">
-        <f t="shared" si="16"/>
-        <v>4.8621981152330381E+17</v>
+        <f t="shared" si="25"/>
+        <v>2349037846.9856896</v>
       </c>
       <c r="J87">
-        <f t="shared" si="17"/>
-        <v>1.94487924609322E+16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>276357394</v>
+      </c>
+      <c r="K87">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A86</f>
+        <v>13817869688.151115</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="22"/>
+        <v>138178697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A87</f>
-        <v>1.5072814157222418E+18</v>
+        <f t="shared" si="18"/>
+        <v>17272337110.188892</v>
       </c>
       <c r="C88">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A87*brute_life_multiplier</f>
-        <v>2.2609221235833627E+19</v>
+        <f t="shared" si="19"/>
+        <v>259085056652.83337</v>
       </c>
       <c r="E88">
-        <f t="shared" si="14"/>
-        <v>1.5072814157222418E+18</v>
+        <f t="shared" si="23"/>
+        <v>5872594617.4642239</v>
       </c>
       <c r="F88">
-        <f t="shared" si="15"/>
-        <v>1.50728141572224E+16</v>
+        <f t="shared" si="24"/>
+        <v>508009916</v>
       </c>
       <c r="G88">
-        <f t="shared" si="12"/>
-        <v>9724396230466080</v>
+        <f t="shared" si="20"/>
+        <v>406407933</v>
       </c>
       <c r="H88">
-        <f t="shared" si="13"/>
-        <v>6273804019655530</v>
+        <f t="shared" si="21"/>
+        <v>325126346</v>
       </c>
       <c r="I88">
-        <f t="shared" si="16"/>
-        <v>7.536407078611209E+17</v>
+        <f t="shared" si="25"/>
+        <v>2936297308.7321119</v>
       </c>
       <c r="J88">
-        <f t="shared" si="17"/>
-        <v>3.01456283144448E+16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>345446743</v>
+      </c>
+      <c r="K88">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A87</f>
+        <v>17272337110.188892</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="22"/>
+        <v>172723372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A88</f>
-        <v>2.3362861943694751E+18</v>
+        <f t="shared" si="18"/>
+        <v>21590421387.736115</v>
       </c>
       <c r="C89">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A88*brute_life_multiplier</f>
-        <v>3.5044292915542127E+19</v>
+        <f t="shared" si="19"/>
+        <v>323856320816.04175</v>
       </c>
       <c r="E89">
-        <f t="shared" si="14"/>
-        <v>2.3362861943694751E+18</v>
+        <f t="shared" si="23"/>
+        <v>7340743271.8302794</v>
       </c>
       <c r="F89">
-        <f t="shared" si="15"/>
-        <v>2.33628619436948E+16</v>
+        <f t="shared" si="24"/>
+        <v>635012394</v>
       </c>
       <c r="G89">
-        <f t="shared" si="12"/>
-        <v>1.50728141572224E+16</v>
+        <f t="shared" si="20"/>
+        <v>508009916</v>
       </c>
       <c r="H89">
-        <f t="shared" si="13"/>
-        <v>9724396230466080</v>
+        <f t="shared" si="21"/>
+        <v>406407933</v>
       </c>
       <c r="I89">
-        <f t="shared" si="16"/>
-        <v>1.1681430971847375E+18</v>
+        <f t="shared" si="25"/>
+        <v>3670371635.9151397</v>
       </c>
       <c r="J89">
-        <f t="shared" si="17"/>
-        <v>4.6725723887389504E+16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>431808428</v>
+      </c>
+      <c r="K89">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A88</f>
+        <v>21590421387.736115</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="22"/>
+        <v>215904214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A89</f>
-        <v>3.6212436012726866E+18</v>
+        <f t="shared" si="18"/>
+        <v>26988026734.670143</v>
       </c>
       <c r="C90">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A89*brute_life_multiplier</f>
-        <v>5.4318654019090301E+19</v>
+        <f t="shared" si="19"/>
+        <v>404820401020.05212</v>
       </c>
       <c r="E90">
-        <f t="shared" si="14"/>
-        <v>3.6212436012726866E+18</v>
+        <f t="shared" si="23"/>
+        <v>9175929089.7878494</v>
       </c>
       <c r="F90">
-        <f t="shared" si="15"/>
-        <v>3.6212436012726896E+16</v>
+        <f t="shared" si="24"/>
+        <v>793765493</v>
       </c>
       <c r="G90">
-        <f t="shared" si="12"/>
-        <v>2.33628619436948E+16</v>
+        <f t="shared" si="20"/>
+        <v>635012394</v>
       </c>
       <c r="H90">
-        <f t="shared" si="13"/>
-        <v>1.50728141572224E+16</v>
+        <f t="shared" si="21"/>
+        <v>508009916</v>
       </c>
       <c r="I90">
-        <f t="shared" si="16"/>
-        <v>1.8106218006363433E+18</v>
+        <f t="shared" si="25"/>
+        <v>4587964544.8939247</v>
       </c>
       <c r="J90">
-        <f t="shared" si="17"/>
-        <v>7.2424872025453696E+16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>539760535</v>
+      </c>
+      <c r="K90">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A89</f>
+        <v>26988026734.670143</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="22"/>
+        <v>269880268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A90</f>
-        <v>5.6129275819726643E+18</v>
+        <f t="shared" si="18"/>
+        <v>33735033418.337677</v>
       </c>
       <c r="C91">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A90*brute_life_multiplier</f>
-        <v>8.4193913729589969E+19</v>
+        <f t="shared" si="19"/>
+        <v>506025501275.06519</v>
       </c>
       <c r="E91">
-        <f t="shared" si="14"/>
-        <v>5.6129275819726643E+18</v>
+        <f t="shared" si="23"/>
+        <v>11469911362.23481</v>
       </c>
       <c r="F91">
-        <f t="shared" si="15"/>
-        <v>5.61292758197266E+16</v>
+        <f t="shared" si="24"/>
+        <v>992206866</v>
       </c>
       <c r="G91">
-        <f t="shared" si="12"/>
-        <v>3.6212436012726896E+16</v>
+        <f t="shared" si="20"/>
+        <v>793765493</v>
       </c>
       <c r="H91">
-        <f t="shared" si="13"/>
-        <v>2.33628619436947E+16</v>
+        <f t="shared" si="21"/>
+        <v>635012394</v>
       </c>
       <c r="I91">
-        <f t="shared" si="16"/>
-        <v>2.8064637909863322E+18</v>
+        <f t="shared" si="25"/>
+        <v>5734955681.1174049</v>
       </c>
       <c r="J91">
-        <f t="shared" si="17"/>
-        <v>1.1225855163945299E+17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>674700669</v>
+      </c>
+      <c r="K91">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A90</f>
+        <v>33735033418.337677</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="22"/>
+        <v>337350335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A91</f>
-        <v>8.7000377520576317E+18</v>
+        <f t="shared" si="18"/>
+        <v>42168791772.922104</v>
       </c>
       <c r="C92">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A91*brute_life_multiplier</f>
-        <v>1.3050056628086448E+20</v>
+        <f t="shared" si="19"/>
+        <v>632531876593.83154</v>
       </c>
       <c r="E92">
-        <f t="shared" si="14"/>
-        <v>8.7000377520576317E+18</v>
+        <f t="shared" si="23"/>
+        <v>14337389202.793516</v>
       </c>
       <c r="F92">
-        <f t="shared" si="15"/>
-        <v>8.7000377520576304E+16</v>
+        <f t="shared" si="24"/>
+        <v>1240258582</v>
       </c>
       <c r="G92">
-        <f t="shared" si="12"/>
-        <v>5.6129275819726704E+16</v>
+        <f t="shared" si="20"/>
+        <v>992206866</v>
       </c>
       <c r="H92">
-        <f t="shared" si="13"/>
-        <v>3.6212436012726896E+16</v>
+        <f t="shared" si="21"/>
+        <v>793765493</v>
       </c>
       <c r="I92">
-        <f t="shared" si="16"/>
-        <v>4.3500188760288159E+18</v>
+        <f t="shared" si="25"/>
+        <v>7168694601.3967581</v>
       </c>
       <c r="J92">
-        <f t="shared" si="17"/>
-        <v>1.7400075504115299E+17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>843375836</v>
+      </c>
+      <c r="K92">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A91</f>
+        <v>42168791772.922104</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="22"/>
+        <v>421687918</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A92</f>
-        <v>1.3485058515689329E+19</v>
+        <f t="shared" si="18"/>
+        <v>52710989716.152626</v>
       </c>
       <c r="C93">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A92*brute_life_multiplier</f>
-        <v>2.0227587773533992E+20</v>
+        <f t="shared" si="19"/>
+        <v>790664845742.28943</v>
       </c>
       <c r="E93">
-        <f t="shared" si="14"/>
-        <v>1.3485058515689329E+19</v>
+        <f t="shared" si="23"/>
+        <v>17921736503.491894</v>
       </c>
       <c r="F93">
-        <f t="shared" si="15"/>
-        <v>1.3485058515689299E+17</v>
+        <f t="shared" si="24"/>
+        <v>1550323227</v>
       </c>
       <c r="G93">
         <f>ROUNDUP(B93/$E$4, 0)</f>
-        <v>8.7000377520576304E+16</v>
+        <v>1240258582</v>
       </c>
       <c r="H93">
-        <f t="shared" si="13"/>
-        <v>5.61292758197266E+16</v>
+        <f t="shared" si="21"/>
+        <v>992206866</v>
       </c>
       <c r="I93">
-        <f t="shared" si="16"/>
-        <v>6.7425292578446643E+18</v>
+        <f t="shared" si="25"/>
+        <v>8960868251.7459469</v>
       </c>
       <c r="J93">
-        <f t="shared" si="17"/>
-        <v>2.6970117031378701E+17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>1054219795</v>
+      </c>
+      <c r="K93">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A92</f>
+        <v>52710989716.152626</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="22"/>
+        <v>527109898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A93</f>
-        <v>2.0901840699318456E+19</v>
+        <f t="shared" si="18"/>
+        <v>65888737145.190788</v>
       </c>
       <c r="C94">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A93*brute_life_multiplier</f>
-        <v>3.1352761048977683E+20</v>
+        <f t="shared" si="19"/>
+        <v>988331057177.86182</v>
       </c>
       <c r="E94">
-        <f t="shared" si="14"/>
-        <v>2.0901840699318456E+19</v>
+        <f t="shared" si="23"/>
+        <v>22402170629.364868</v>
       </c>
       <c r="F94">
-        <f t="shared" si="15"/>
-        <v>2.0901840699318499E+17</v>
+        <f t="shared" si="24"/>
+        <v>1937904034</v>
       </c>
       <c r="G94">
-        <f t="shared" ref="G94:G102" si="18">ROUNDUP(B94/$E$4, 0)</f>
-        <v>1.3485058515689299E+17</v>
+        <f t="shared" ref="G94:G102" si="27">ROUNDUP(B94/$E$4, 0)</f>
+        <v>1550323227</v>
       </c>
       <c r="H94">
-        <f t="shared" si="13"/>
-        <v>8.7000377520576304E+16</v>
+        <f t="shared" si="21"/>
+        <v>1240258582</v>
       </c>
       <c r="I94">
-        <f t="shared" si="16"/>
-        <v>1.0450920349659228E+19</v>
+        <f t="shared" si="25"/>
+        <v>11201085314.682434</v>
       </c>
       <c r="J94">
-        <f t="shared" si="17"/>
-        <v>4.1803681398636902E+17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>1317774743</v>
+      </c>
+      <c r="K94">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A93</f>
+        <v>65888737145.190788</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="22"/>
+        <v>658887372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A94</f>
-        <v>3.2397853083943617E+19</v>
+        <f t="shared" si="18"/>
+        <v>82360921431.48848</v>
       </c>
       <c r="C95">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A94*brute_life_multiplier</f>
-        <v>4.8596779625915423E+20</v>
+        <f t="shared" si="19"/>
+        <v>1235413821472.3271</v>
       </c>
       <c r="E95">
-        <f t="shared" si="14"/>
-        <v>3.2397853083943617E+19</v>
+        <f t="shared" si="23"/>
+        <v>28002713286.706081</v>
       </c>
       <c r="F95">
-        <f t="shared" si="15"/>
-        <v>3.2397853083943603E+17</v>
+        <f t="shared" si="24"/>
+        <v>2422380043</v>
       </c>
       <c r="G95">
-        <f t="shared" si="18"/>
-        <v>2.0901840699318499E+17</v>
+        <f t="shared" si="27"/>
+        <v>1937904034</v>
       </c>
       <c r="H95">
-        <f t="shared" si="13"/>
-        <v>1.3485058515689299E+17</v>
+        <f t="shared" si="21"/>
+        <v>1550323227</v>
       </c>
       <c r="I95">
-        <f t="shared" si="16"/>
-        <v>1.6198926541971808E+19</v>
+        <f t="shared" si="25"/>
+        <v>14001356643.353041</v>
       </c>
       <c r="J95">
-        <f t="shared" si="17"/>
-        <v>6.4795706167887206E+17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>1647218429</v>
+      </c>
+      <c r="K95">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A94</f>
+        <v>82360921431.48848</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="22"/>
+        <v>823609215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A95</f>
-        <v>5.0216672280112611E+19</v>
+        <f t="shared" si="18"/>
+        <v>102951151789.36058</v>
       </c>
       <c r="C96">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A95*brute_life_multiplier</f>
-        <v>7.5325008420168912E+20</v>
+        <f t="shared" si="19"/>
+        <v>1544267276840.4087</v>
       </c>
       <c r="E96">
-        <f t="shared" si="14"/>
-        <v>5.0216672280112611E+19</v>
+        <f t="shared" si="23"/>
+        <v>35003391608.382599</v>
       </c>
       <c r="F96">
-        <f t="shared" si="15"/>
-        <v>5.0216672280112602E+17</v>
+        <f t="shared" si="24"/>
+        <v>3027975053</v>
       </c>
       <c r="G96">
-        <f t="shared" si="18"/>
-        <v>3.2397853083943603E+17</v>
+        <f t="shared" si="27"/>
+        <v>2422380043</v>
       </c>
       <c r="H96">
-        <f t="shared" si="13"/>
-        <v>2.0901840699318499E+17</v>
+        <f t="shared" si="21"/>
+        <v>1937904034</v>
       </c>
       <c r="I96">
-        <f t="shared" si="16"/>
-        <v>2.5108336140056306E+19</v>
+        <f t="shared" si="25"/>
+        <v>17501695804.191299</v>
       </c>
       <c r="J96">
-        <f t="shared" si="17"/>
-        <v>1.00433344560225E+18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>2059023036</v>
+      </c>
+      <c r="K96">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A95</f>
+        <v>102951151789.36058</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="22"/>
+        <v>1029511518</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A96</f>
-        <v>7.7835842034174558E+19</v>
+        <f t="shared" si="18"/>
+        <v>128688939736.70074</v>
       </c>
       <c r="C97">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A96*brute_life_multiplier</f>
-        <v>1.1675376305126184E+21</v>
+        <f t="shared" si="19"/>
+        <v>1930334096050.5112</v>
       </c>
       <c r="E97">
-        <f t="shared" si="14"/>
-        <v>7.7835842034174558E+19</v>
+        <f t="shared" si="23"/>
+        <v>43754239510.478256</v>
       </c>
       <c r="F97">
-        <f t="shared" si="15"/>
-        <v>7.7835842034174605E+17</v>
+        <f t="shared" si="24"/>
+        <v>3784968816</v>
       </c>
       <c r="G97">
-        <f t="shared" si="18"/>
-        <v>5.0216672280112602E+17</v>
+        <f t="shared" si="27"/>
+        <v>3027975053</v>
       </c>
       <c r="H97">
-        <f t="shared" si="13"/>
-        <v>3.2397853083943603E+17</v>
+        <f t="shared" si="21"/>
+        <v>2422380043</v>
       </c>
       <c r="I97">
-        <f t="shared" si="16"/>
-        <v>3.8917921017087279E+19</v>
+        <f t="shared" si="25"/>
+        <v>21877119755.239128</v>
       </c>
       <c r="J97">
-        <f t="shared" si="17"/>
-        <v>1.55671684068349E+18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>2573778795</v>
+      </c>
+      <c r="K97">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A96</f>
+        <v>128688939736.70074</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="22"/>
+        <v>1286889398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A97</f>
-        <v>1.2064555515297058E+20</v>
+        <f t="shared" si="18"/>
+        <v>160861174670.87592</v>
       </c>
       <c r="C98">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A97*brute_life_multiplier</f>
-        <v>1.8096833272945587E+21</v>
+        <f t="shared" si="19"/>
+        <v>2412917620063.1387</v>
       </c>
       <c r="E98">
-        <f t="shared" si="14"/>
-        <v>1.2064555515297058E+20</v>
+        <f t="shared" si="23"/>
+        <v>54692799388.097816</v>
       </c>
       <c r="F98">
-        <f t="shared" si="15"/>
-        <v>1.2064555515297101E+18</v>
+        <f t="shared" si="24"/>
+        <v>4731211020</v>
       </c>
       <c r="G98">
-        <f t="shared" si="18"/>
-        <v>7.7835842034174605E+17</v>
+        <f t="shared" si="27"/>
+        <v>3784968816</v>
       </c>
       <c r="H98">
-        <f t="shared" si="13"/>
-        <v>5.0216672280112602E+17</v>
+        <f t="shared" si="21"/>
+        <v>3027975053</v>
       </c>
       <c r="I98">
-        <f t="shared" si="16"/>
-        <v>6.032277757648529E+19</v>
+        <f t="shared" si="25"/>
+        <v>27346399694.048908</v>
       </c>
       <c r="J98">
-        <f t="shared" si="17"/>
-        <v>2.4129111030594099E+18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>3217223494</v>
+      </c>
+      <c r="K98">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A97</f>
+        <v>160861174670.87592</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="22"/>
+        <v>1608611747</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A98</f>
-        <v>1.8700061048710437E+20</v>
+        <f t="shared" si="18"/>
+        <v>201076468338.59491</v>
       </c>
       <c r="C99">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A98*brute_life_multiplier</f>
-        <v>2.8050091573065658E+21</v>
+        <f t="shared" si="19"/>
+        <v>3016147025078.9238</v>
       </c>
       <c r="E99">
-        <f t="shared" si="14"/>
-        <v>1.8700061048710437E+20</v>
+        <f t="shared" si="23"/>
+        <v>68365999235.122269</v>
       </c>
       <c r="F99">
-        <f t="shared" si="15"/>
-        <v>1.87000610487104E+18</v>
+        <f t="shared" si="24"/>
+        <v>5914013775</v>
       </c>
       <c r="G99">
-        <f t="shared" si="18"/>
-        <v>1.2064555515297101E+18</v>
+        <f t="shared" si="27"/>
+        <v>4731211020</v>
       </c>
       <c r="H99">
-        <f t="shared" si="13"/>
-        <v>7.7835842034174605E+17</v>
+        <f t="shared" si="21"/>
+        <v>3784968816</v>
       </c>
       <c r="I99">
-        <f t="shared" si="16"/>
-        <v>9.3500305243552186E+19</v>
+        <f t="shared" si="25"/>
+        <v>34182999617.561134</v>
       </c>
       <c r="J99">
-        <f t="shared" si="17"/>
-        <v>3.7400122097420902E+18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>4021529367</v>
+      </c>
+      <c r="K99">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A98</f>
+        <v>201076468338.59491</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="22"/>
+        <v>2010764684</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A99</f>
-        <v>2.8985094625501177E+20</v>
+        <f t="shared" si="18"/>
+        <v>251345585423.24365</v>
       </c>
       <c r="C100">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A99*brute_life_multiplier</f>
-        <v>4.3477641938251767E+21</v>
+        <f t="shared" si="19"/>
+        <v>3770183781348.6548</v>
       </c>
       <c r="E100">
-        <f t="shared" si="14"/>
-        <v>2.8985094625501177E+20</v>
+        <f t="shared" si="23"/>
+        <v>85457499043.902847</v>
       </c>
       <c r="F100">
-        <f t="shared" si="15"/>
-        <v>2.8985094625501199E+18</v>
+        <f t="shared" si="24"/>
+        <v>7392517219</v>
       </c>
       <c r="G100">
-        <f t="shared" si="18"/>
-        <v>1.87000610487104E+18</v>
+        <f t="shared" si="27"/>
+        <v>5914013775</v>
       </c>
       <c r="H100">
-        <f t="shared" si="13"/>
-        <v>1.2064555515297101E+18</v>
+        <f t="shared" si="21"/>
+        <v>4731211020</v>
       </c>
       <c r="I100">
-        <f t="shared" si="16"/>
-        <v>1.4492547312750589E+20</v>
+        <f t="shared" si="25"/>
+        <v>42728749521.951424</v>
       </c>
       <c r="J100">
-        <f t="shared" si="17"/>
-        <v>5.7970189251002399E+18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>5026911709</v>
+      </c>
+      <c r="K100">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A99</f>
+        <v>251345585423.24365</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="22"/>
+        <v>2513455855</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A100</f>
-        <v>4.4926896669526832E+20</v>
+        <f t="shared" si="18"/>
+        <v>314181981779.05457</v>
       </c>
       <c r="C101">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A100*brute_life_multiplier</f>
-        <v>6.7390345004290251E+21</v>
+        <f t="shared" si="19"/>
+        <v>4712729726685.8184</v>
       </c>
       <c r="E101">
-        <f t="shared" si="14"/>
-        <v>4.4926896669526832E+20</v>
+        <f t="shared" si="23"/>
+        <v>106821873804.87856</v>
       </c>
       <c r="F101">
-        <f t="shared" si="15"/>
-        <v>4.4926896669526799E+18</v>
+        <f t="shared" si="24"/>
+        <v>9240646523</v>
       </c>
       <c r="G101">
-        <f t="shared" si="18"/>
-        <v>2.8985094625501199E+18</v>
+        <f t="shared" si="27"/>
+        <v>7392517219</v>
       </c>
       <c r="H101">
-        <f t="shared" si="13"/>
-        <v>1.87000610487104E+18</v>
+        <f t="shared" si="21"/>
+        <v>5914013775</v>
       </c>
       <c r="I101">
-        <f t="shared" si="16"/>
-        <v>2.2463448334763416E+20</v>
+        <f t="shared" si="25"/>
+        <v>53410936902.439278</v>
       </c>
       <c r="J101">
-        <f t="shared" si="17"/>
-        <v>8.9853793339053701E+18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>6283639636</v>
+      </c>
+      <c r="K101">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A100</f>
+        <v>314181981779.05457</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="22"/>
+        <v>3141819818</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
-        <f xml:space="preserve"> $B$3 * hits_1_round_behind ^ A101</f>
-        <v>6.9636689837766594E+20</v>
+        <f t="shared" si="18"/>
+        <v>392727477223.81818</v>
       </c>
       <c r="C102">
-        <f xml:space="preserve"> $B$3*hits_1_round_behind^A101*brute_life_multiplier</f>
-        <v>1.0445503475664988E+22</v>
+        <f t="shared" si="19"/>
+        <v>5890912158357.2725</v>
       </c>
       <c r="E102">
-        <f t="shared" si="14"/>
-        <v>6.9636689837766594E+20</v>
+        <f t="shared" si="23"/>
+        <v>133527342256.09818</v>
       </c>
       <c r="F102">
-        <f t="shared" si="15"/>
-        <v>6.9636689837766605E+18</v>
+        <f t="shared" si="24"/>
+        <v>11550808154</v>
       </c>
       <c r="G102">
-        <f t="shared" si="18"/>
-        <v>4.4926896669526799E+18</v>
+        <f t="shared" si="27"/>
+        <v>9240646523</v>
       </c>
       <c r="H102">
-        <f t="shared" si="13"/>
-        <v>2.8985094625501199E+18</v>
+        <f t="shared" si="21"/>
+        <v>7392517219</v>
       </c>
       <c r="I102">
-        <f t="shared" si="16"/>
-        <v>3.4818344918883297E+20</v>
+        <f t="shared" si="25"/>
+        <v>66763671128.049088</v>
       </c>
       <c r="J102">
-        <f t="shared" si="17"/>
-        <v>1.39273379675533E+19</v>
+        <f t="shared" si="26"/>
+        <v>7854549545</v>
+      </c>
+      <c r="K102">
+        <f xml:space="preserve"> $K$3 * hits_1_round_behind ^ A101</f>
+        <v>392727477223.81818</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="22"/>
+        <v>3927274773</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Custom\Desktop\Uni repositories\Tankerfield\docs\Balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaume\Desktop\Uni repos\Tankerfield\docs\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D6952-2F49-4750-B178-74C0F3C6AF49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,11 @@
   </sheets>
   <definedNames>
     <definedName name="base_damage">Hoja1!$E$3</definedName>
-    <definedName name="brute_life_multiplier">Hoja1!$O$2</definedName>
-    <definedName name="explosion_shot_base">Hoja1!$I$3</definedName>
-    <definedName name="hits_1_round_behind">Hoja1!$O$1</definedName>
+    <definedName name="brute_life_multiplier">Hoja1!$R$2</definedName>
+    <definedName name="explosion_shot_base">Hoja1!$L$3</definedName>
+    <definedName name="hits_1_round_behind">Hoja1!$R$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>round</t>
   </si>
@@ -133,9 +134,6 @@
     <t>tesla trooper</t>
   </si>
   <si>
-    <t>average weapon</t>
-  </si>
-  <si>
     <t>brute</t>
   </si>
   <si>
@@ -147,11 +145,17 @@
   <si>
     <t>hits level 3</t>
   </si>
+  <si>
+    <t>100 weapon damage</t>
+  </si>
+  <si>
+    <t>50 weapon damage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,7 +221,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -236,7 +240,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -273,7 +277,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -331,34 +334,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.125</c:v>
+                  <c:v>105.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.40625</c:v>
+                  <c:v>152.43125000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.0078125</c:v>
+                  <c:v>221.02531249999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103.759765625</c:v>
+                  <c:v>320.48670312499996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129.69970703125</c:v>
+                  <c:v>464.70571953125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>162.1246337890625</c:v>
+                  <c:v>673.82329332031247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>202.65579223632813</c:v>
+                  <c:v>977.04377531445311</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>253.31974029541016</c:v>
+                  <c:v>1416.713474205957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,20 +1096,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1386,21 +1395,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,20 +1425,23 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1">
-        <v>1.25</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1">
+        <v>1.45</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1437,47 +1449,56 @@
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" t="str">
+      <c r="U2" t="str">
         <f>E2</f>
-        <v>average weapon</v>
-      </c>
-      <c r="S2" s="1" t="s">
+        <v>50 weapon damage</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1490,105 +1511,129 @@
         <v>1500</v>
       </c>
       <c r="E3">
-        <f xml:space="preserve"> 34</f>
-        <v>34</v>
+        <f xml:space="preserve"> 50</f>
+        <v>50</v>
       </c>
       <c r="F3">
         <f>ROUNDUP(B3/base_damage, 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>ROUNDUP(B3/$E$4, 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <f>ROUNDUP(B3/$E$5, 0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <f xml:space="preserve"> 100</f>
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <f>ROUNDUP(B3/$I$3, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>ROUNDUP(B3/$I$4, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
         <f>base_damage/2</f>
-        <v>17</v>
-      </c>
-      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="M3">
         <f>ROUNDUP(B3/explosion_shot_base, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="str">
+      <c r="U3" t="str">
         <f>B2</f>
         <v>tesla trooper</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B35" si="0" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A3</f>
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C35" si="1" xml:space="preserve"> $B$3*hits_1_round_behind^A3*brute_life_multiplier</f>
-        <v>1875</v>
+        <v>2175</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E35" si="2" xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
-        <v>42.5</v>
+        <v>72.5</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F34" si="3">ROUNDUP(B4/base_damage, 0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="4">ROUNDUP(B4/$E$4, 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H67" si="5">ROUNDUP(B4/$E$5, 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
+        <f xml:space="preserve"> I3 * hits_1_round_behind ^ A3</f>
+        <v>145</v>
+      </c>
+      <c r="J4">
+        <f>ROUNDUP(B4/$I$3, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>ROUNDUP(B4/$I$4, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
         <f>E4/2</f>
-        <v>21.25</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J34" si="6">ROUNDUP(B4/explosion_shot_base, 0)</f>
+        <v>36.25</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M34" si="6">ROUNDUP(B4/explosion_shot_base, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" t="str">
+        <f ca="1">OFFSET(U2,1, 0)</f>
+        <v>tesla trooper</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="str">
-        <f ca="1">OFFSET(R2,1, 0)</f>
-        <v>tesla trooper</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>156.25</v>
+        <v>210.25</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>2343.75</v>
+        <v>3153.75</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>53.125</v>
+        <v>105.125</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
@@ -1596,41 +1641,53 @@
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f xml:space="preserve"> I4 * hits_1_round_behind ^ A4</f>
+        <v>304.86250000000001</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J68" si="7">ROUNDUP(B5/$I$3, 0)</f>
         <v>3</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I61" si="7">E5/2</f>
-        <v>26.5625</v>
-      </c>
-      <c r="J5">
+      <c r="K5">
+        <f t="shared" ref="K5:K68" si="8">ROUNDUP(B5/$I$4, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L61" si="9">E5/2</f>
+        <v>52.5625</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>195.3125</v>
+        <v>304.86250000000001</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>2929.6875</v>
+        <v>4572.9375</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>66.40625</v>
+        <v>152.43125000000001</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
@@ -1638,3567 +1695,4731 @@
       </c>
       <c r="H6">
         <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f xml:space="preserve"> I5 * hits_1_round_behind ^ A5</f>
+        <v>929.41143906249999</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="7"/>
-        <v>33.203125</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="9"/>
+        <v>76.215625000000003</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>244.140625</v>
+        <v>442.05062499999997</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>3662.109375</v>
+        <v>6630.7593749999996</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>83.0078125</v>
+        <v>221.02531249999998</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I7">
+        <f xml:space="preserve"> I6 * hits_1_round_behind ^ A6</f>
+        <v>4108.4690751972748</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="7"/>
-        <v>41.50390625</v>
-      </c>
-      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="9"/>
+        <v>110.51265624999999</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>305.17578125</v>
+        <v>640.97340624999993</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>4577.63671875</v>
+        <v>9614.6010937499996</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>103.759765625</v>
+        <v>320.48670312499996</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8">
+        <f xml:space="preserve"> I7 * hits_1_round_behind ^ A7</f>
+        <v>26334.194176019842</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="7"/>
-        <v>51.8798828125</v>
-      </c>
-      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>160.24335156249998</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>381.4697265625</v>
+        <v>929.41143906249999</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>5722.0458984375</v>
+        <v>13941.1715859375</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>129.69970703125</v>
+        <v>464.70571953125</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9">
+        <f xml:space="preserve"> I8 * hits_1_round_behind ^ A8</f>
+        <v>244753.01305685905</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="7"/>
-        <v>64.849853515625</v>
-      </c>
-      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>232.352859765625</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>476.837158203125</v>
+        <v>1347.6465866406249</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>7152.557373046875</v>
+        <v>20214.698799609374</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>162.1246337890625</v>
+        <v>673.82329332031247</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I10">
+        <f xml:space="preserve"> I9 * hits_1_round_behind ^ A9</f>
+        <v>3298405.6261608442</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="7"/>
-        <v>81.06231689453125</v>
-      </c>
-      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>336.91164666015624</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>596.04644775390625</v>
+        <v>1954.0875506289062</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>8940.6967163085938</v>
+        <v>29311.313259433595</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>202.65579223632813</v>
+        <v>977.04377531445311</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I11">
+        <f xml:space="preserve"> I10 * hits_1_round_behind ^ A10</f>
+        <v>64453733.710052475</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="7"/>
-        <v>101.32789611816406</v>
-      </c>
-      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>488.52188765722656</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>745.05805969238281</v>
+        <v>2833.4269484119141</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>11175.870895385742</v>
+        <v>42501.404226178711</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>253.31974029541016</v>
+        <v>1416.713474205957</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I12">
+        <f xml:space="preserve"> I11 * hits_1_round_behind ^ A11</f>
+        <v>1826249460.198281</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="7"/>
-        <v>126.65987014770508</v>
-      </c>
-      <c r="J12">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>708.35673710297851</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>931.32257461547852</v>
+        <v>4108.4690751972748</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>13969.838619232178</v>
+        <v>61627.036127959123</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>316.6496753692627</v>
+        <v>2054.2345375986374</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I13">
+        <f xml:space="preserve"> I12 * hits_1_round_behind ^ A12</f>
+        <v>75030894308.203552</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="7"/>
-        <v>158.32483768463135</v>
-      </c>
-      <c r="J13">
+        <v>42</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>1027.1172687993187</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1164.1532182693481</v>
+        <v>5957.2801590360496</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>17462.298274040222</v>
+        <v>89359.202385540746</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>395.81209421157837</v>
+        <v>2978.6400795180248</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I14">
+        <f xml:space="preserve"> I13 * hits_1_round_behind ^ A13</f>
+        <v>4469800579769.9189</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="7"/>
-        <v>197.90604710578918</v>
-      </c>
-      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>1489.3200397590124</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1455.1915228366852</v>
+        <v>8638.0562306022712</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>21827.872842550278</v>
+        <v>129570.84345903406</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>494.76511776447296</v>
+        <v>4319.0281153011356</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I15">
+        <f xml:space="preserve"> I14 * hits_1_round_behind ^ A14</f>
+        <v>386103887476311.94</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="7"/>
-        <v>247.38255888223648</v>
-      </c>
-      <c r="J15">
+        <v>87</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>2159.5140576505678</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1818.9894035458565</v>
+        <v>12525.181534373292</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>27284.841053187847</v>
+        <v>187877.72301559939</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>618.4563972055912</v>
+        <v>6262.5907671866462</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="I16">
+        <f xml:space="preserve"> I15 * hits_1_round_behind ^ A15</f>
+        <v>4.8360212817680456E+16</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="7"/>
-        <v>309.2281986027956</v>
-      </c>
-      <c r="J16">
+        <v>126</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>3131.2953835933231</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="6"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>2273.7367544323206</v>
+        <v>18161.513224841274</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>34106.051316484809</v>
+        <v>272422.69837261911</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>773.070496506989</v>
+        <v>9080.7566124206369</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>364</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="I17">
+        <f xml:space="preserve"> I16 * hits_1_round_behind ^ A16</f>
+        <v>8.7829464464444211E+18</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="7"/>
-        <v>386.5352482534945</v>
-      </c>
-      <c r="J17">
+        <v>182</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>4540.3783062103184</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="6"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>2842.1709430404007</v>
+        <v>26334.19417601985</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>42632.564145606011</v>
+        <v>395012.91264029773</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>966.33812063373625</v>
+        <v>13167.097088009925</v>
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>527</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>364</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="I18">
+        <f xml:space="preserve"> I17 * hits_1_round_behind ^ A17</f>
+        <v>2.3129181715825091E+21</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="7"/>
-        <v>483.16906031686813</v>
-      </c>
-      <c r="J18">
+        <v>264</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>182</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>6583.5485440049624</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="6"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>3552.7136788005009</v>
+        <v>38184.581555228782</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>53290.705182007514</v>
+        <v>572768.72332843172</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>1207.9226507921703</v>
+        <v>19092.290777614391</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>764</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>527</v>
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
-        <v>67</v>
+        <v>364</v>
       </c>
       <c r="I19">
+        <f xml:space="preserve"> I18 * hits_1_round_behind ^ A18</f>
+        <v>8.8317812553362965E+23</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="7"/>
-        <v>603.96132539608516</v>
-      </c>
-      <c r="J19">
+        <v>382</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>9546.1453888071956</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="6"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>4440.8920985006262</v>
+        <v>55367.643255081734</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>66613.381477509392</v>
+        <v>830514.64882622601</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>1509.9033134902129</v>
+        <v>27683.821627540867</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>1108</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>764</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>527</v>
       </c>
       <c r="I20">
+        <f xml:space="preserve"> I19 * hits_1_round_behind ^ A19</f>
+        <v>4.8899491385237798E+26</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="7"/>
-        <v>754.95165674510645</v>
-      </c>
-      <c r="J20">
+        <v>554</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>382</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>13841.910813770433</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="6"/>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>5551.1151231257827</v>
+        <v>80283.082719868515</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>83266.726846886741</v>
+        <v>1204246.2407980277</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>1887.3791418627661</v>
+        <v>40141.541359934257</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>164</v>
+        <v>1606</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>131</v>
+        <v>1108</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>764</v>
       </c>
       <c r="I21">
+        <f xml:space="preserve"> I20 * hits_1_round_behind ^ A20</f>
+        <v>3.9258019118405443E+29</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="7"/>
-        <v>943.68957093138306</v>
-      </c>
-      <c r="J21">
+        <v>803</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>554</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>20070.770679967129</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="6"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>6938.8939039072284</v>
+        <v>116410.46994380934</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>104083.40855860843</v>
+        <v>1746157.0491571401</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>2359.2239273284576</v>
+        <v>58205.234971904669</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>2329</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>1606</v>
       </c>
       <c r="H22">
         <f t="shared" si="5"/>
-        <v>131</v>
+        <v>1108</v>
       </c>
       <c r="I22">
+        <f xml:space="preserve"> I21 * hits_1_round_behind ^ A21</f>
+        <v>4.5700444546366291E+32</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="7"/>
-        <v>1179.6119636642288</v>
-      </c>
-      <c r="J22">
+        <v>1165</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>803</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>29102.617485952334</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="6"/>
-        <v>409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>8673.6173798840355</v>
+        <v>168795.18141852354</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>130104.26069826054</v>
+        <v>2531927.721277853</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>2949.0299091605721</v>
+        <v>84397.590709261771</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>3376</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>205</v>
+        <v>2329</v>
       </c>
       <c r="H23">
         <f t="shared" si="5"/>
-        <v>164</v>
+        <v>1606</v>
       </c>
       <c r="I23">
+        <f xml:space="preserve"> I22 * hits_1_round_behind ^ A22</f>
+        <v>7.7140148281110734E+35</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="7"/>
-        <v>1474.514954580286</v>
-      </c>
-      <c r="J23">
+        <v>1688</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>1165</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>42198.795354630885</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="6"/>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>10842.021724855043</v>
+        <v>244753.01305685911</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>162630.32587282566</v>
+        <v>3671295.1958528869</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>3686.2873864507151</v>
+        <v>122376.50652842956</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>319</v>
+        <v>4896</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>256</v>
+        <v>3376</v>
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
-        <v>205</v>
+        <v>2329</v>
       </c>
       <c r="I24">
+        <f xml:space="preserve"> I23 * hits_1_round_behind ^ A23</f>
+        <v>1.8880283719454743E+39</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="7"/>
-        <v>1843.1436932253575</v>
-      </c>
-      <c r="J24">
+        <v>2448</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>1688</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>61188.253264214778</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="6"/>
-        <v>638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>13552.527156068805</v>
+        <v>354891.86893244577</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>203287.90734103209</v>
+        <v>5323378.0339866867</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>4607.8592330633937</v>
+        <v>177445.93446622288</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>399</v>
+        <v>7098</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>4896</v>
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
-        <v>256</v>
+        <v>3376</v>
       </c>
       <c r="I25">
+        <f xml:space="preserve"> I24 * hits_1_round_behind ^ A24</f>
+        <v>6.7004591751721227E+42</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="7"/>
-        <v>2303.9296165316969</v>
-      </c>
-      <c r="J25">
+        <v>3549</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>2448</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>88722.967233111442</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="6"/>
-        <v>798</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>16940.658945086005</v>
+        <v>514593.20995204634</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>254109.88417629007</v>
+        <v>7718898.1492806952</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>5759.8240413292415</v>
+        <v>257296.60497602317</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>499</v>
+        <v>10292</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>399</v>
+        <v>7098</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>319</v>
+        <v>4896</v>
       </c>
       <c r="I26">
+        <f xml:space="preserve"> I25 * hits_1_round_behind ^ A25</f>
+        <v>3.4480107951044633E+46</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="7"/>
-        <v>2879.9120206646207</v>
-      </c>
-      <c r="J26">
+        <v>5146</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>3549</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>128648.30248801158</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="6"/>
-        <v>997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>21175.823681357509</v>
+        <v>746160.15443046729</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>317637.35522036266</v>
+        <v>11192402.316457009</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>7199.7800516615525</v>
+        <v>373080.07721523364</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>623</v>
+        <v>14924</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>499</v>
+        <v>10292</v>
       </c>
       <c r="H27">
         <f t="shared" si="5"/>
-        <v>399</v>
+        <v>7098</v>
       </c>
       <c r="I27">
+        <f xml:space="preserve"> I26 * hits_1_round_behind ^ A26</f>
+        <v>2.5727682673530646E+50</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="7"/>
-        <v>3599.8900258307763</v>
-      </c>
-      <c r="J27">
+        <v>7462</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="8"/>
+        <v>5146</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>186540.03860761682</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="6"/>
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>26469.77960169689</v>
+        <v>1081932.2239241775</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>397046.69402545335</v>
+        <v>16228983.358862663</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>8999.7250645769418</v>
+        <v>540966.11196208873</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>779</v>
+        <v>21639</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>623</v>
+        <v>14924</v>
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
-        <v>499</v>
+        <v>10292</v>
       </c>
       <c r="I28">
+        <f xml:space="preserve"> I27 * hits_1_round_behind ^ A27</f>
+        <v>2.7835608931388543E+54</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="7"/>
-        <v>4499.8625322884709</v>
-      </c>
-      <c r="J28">
+        <v>10820</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>7462</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>270483.05598104437</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="6"/>
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>33087.224502121106</v>
+        <v>1568801.7246900571</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>496308.36753181659</v>
+        <v>23532025.870350856</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>11249.656330721176</v>
+        <v>784400.86234502855</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>974</v>
+        <v>31377</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>779</v>
+        <v>21639</v>
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>623</v>
+        <v>14924</v>
       </c>
       <c r="I29">
+        <f xml:space="preserve"> I28 * hits_1_round_behind ^ A28</f>
+        <v>4.3668551299360307E+58</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="7"/>
-        <v>5624.8281653605882</v>
-      </c>
-      <c r="J29">
+        <v>15689</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>10820</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>392200.43117251428</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="6"/>
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>41359.030627651387</v>
+        <v>2274762.500800583</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>620385.45941477083</v>
+        <v>34121437.512008749</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>14062.07041340147</v>
+        <v>1137381.2504002915</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>1217</v>
+        <v>45496</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>974</v>
+        <v>31377</v>
       </c>
       <c r="H30">
         <f t="shared" si="5"/>
-        <v>779</v>
+        <v>21639</v>
       </c>
       <c r="I30">
+        <f xml:space="preserve"> I29 * hits_1_round_behind ^ A29</f>
+        <v>9.9335582960071406E+62</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="7"/>
-        <v>7031.0352067007352</v>
-      </c>
-      <c r="J30">
+        <v>22748</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>15689</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>568690.62520014576</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="6"/>
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>51698.788284564231</v>
+        <v>3298405.6261608456</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>775481.82426846342</v>
+        <v>49476084.392412685</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>17577.588016751837</v>
+        <v>1649202.8130804228</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>1521</v>
+        <v>65969</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>1217</v>
+        <v>45496</v>
       </c>
       <c r="H31">
         <f t="shared" si="5"/>
-        <v>974</v>
+        <v>31377</v>
       </c>
       <c r="I31">
+        <f xml:space="preserve"> I30 * hits_1_round_behind ^ A30</f>
+        <v>3.2764904571346695E+67</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="7"/>
-        <v>8788.7940083759186</v>
-      </c>
-      <c r="J31">
+        <v>32985</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>22748</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>824601.40654021141</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="6"/>
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>64623.485355705285</v>
+        <v>4782688.1579332249</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>969352.2803355793</v>
+        <v>71740322.368998379</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>21971.985020939796</v>
+        <v>2391344.0789666125</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>1901</v>
+        <v>95654</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>1521</v>
+        <v>65969</v>
       </c>
       <c r="H32">
         <f t="shared" si="5"/>
-        <v>1217</v>
+        <v>45496</v>
       </c>
       <c r="I32">
+        <f xml:space="preserve"> I31 * hits_1_round_behind ^ A31</f>
+        <v>1.5670432108919203E+72</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="7"/>
-        <v>10985.992510469898</v>
-      </c>
-      <c r="J32">
+        <v>47827</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="8"/>
+        <v>32985</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>1195672.0394833062</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="6"/>
-        <v>3802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>191308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>80779.356694631613</v>
+        <v>6934897.8290031776</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>1211690.3504194743</v>
+        <v>104023467.43504766</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>27464.981276174749</v>
+        <v>3467448.9145015888</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>2376</v>
+        <v>138698</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1901</v>
+        <v>95654</v>
       </c>
       <c r="H33">
         <f t="shared" si="5"/>
-        <v>1521</v>
+        <v>65969</v>
       </c>
       <c r="I33">
+        <f xml:space="preserve"> I32 * hits_1_round_behind ^ A32</f>
+        <v>1.0867284561168547E+77</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="7"/>
-        <v>13732.490638087374</v>
-      </c>
-      <c r="J33">
+        <v>69349</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="8"/>
+        <v>47827</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="9"/>
+        <v>1733724.4572507944</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="6"/>
-        <v>4752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>277396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>100974.19586828951</v>
+        <v>10055601.852054607</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>1514612.9380243425</v>
+        <v>150834027.78081912</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>34331.226595218432</v>
+        <v>5027800.9260273036</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>2970</v>
+        <v>201113</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
-        <v>2376</v>
+        <v>138698</v>
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
-        <v>1901</v>
+        <v>95654</v>
       </c>
       <c r="I34">
+        <f xml:space="preserve"> I33 * hits_1_round_behind ^ A33</f>
+        <v>1.0927708676009089E+82</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="7"/>
-        <v>17165.613297609216</v>
-      </c>
-      <c r="J34">
+        <v>100557</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="8"/>
+        <v>69349</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="9"/>
+        <v>2513900.4630136518</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="6"/>
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>402225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>126217.7448353619</v>
+        <v>14580622.685479181</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>1893266.1725304285</v>
+        <v>218709340.2821877</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>42914.033244023041</v>
+        <v>7290311.3427395904</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F61" si="8">ROUNDUP(B35/base_damage, 0)</f>
-        <v>3713</v>
+        <f t="shared" ref="F35:F61" si="10">ROUNDUP(B35/base_damage, 0)</f>
+        <v>291613</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
-        <v>2970</v>
+        <v>201113</v>
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
-        <v>2376</v>
+        <v>138698</v>
       </c>
       <c r="I35">
+        <f xml:space="preserve"> I34 * hits_1_round_behind ^ A34</f>
+        <v>1.593327970217258E+87</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="7"/>
-        <v>21457.016622011521</v>
-      </c>
-      <c r="J35">
-        <f t="shared" ref="J35:J61" si="9">ROUNDUP(B35/explosion_shot_base, 0)</f>
-        <v>7425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145807</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="8"/>
+        <v>100557</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>3645155.6713697952</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M61" si="11">ROUNDUP(B35/explosion_shot_base, 0)</f>
+        <v>583225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:B67" si="10" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A35</f>
-        <v>157772.18104420239</v>
+        <f t="shared" ref="B36:B67" si="12" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A35</f>
+        <v>21141902.893944811</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C67" si="11" xml:space="preserve"> $B$3*hits_1_round_behind^A35*brute_life_multiplier</f>
-        <v>2366582.7156630359</v>
+        <f t="shared" ref="C36:C67" si="13" xml:space="preserve"> $B$3*hits_1_round_behind^A35*brute_life_multiplier</f>
+        <v>317128543.40917218</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E61" si="12" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
-        <v>53642.541555028809</v>
+        <f t="shared" ref="E36:E61" si="14" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
+        <v>10570951.446972406</v>
       </c>
       <c r="F36">
-        <f t="shared" si="8"/>
-        <v>4641</v>
+        <f t="shared" si="10"/>
+        <v>422839</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>3713</v>
+        <v>291613</v>
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>2970</v>
+        <v>201113</v>
       </c>
       <c r="I36">
+        <f xml:space="preserve"> I35 * hits_1_round_behind ^ A35</f>
+        <v>3.3685985224539459E+92</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="7"/>
-        <v>26821.270777514404</v>
-      </c>
-      <c r="J36">
+        <v>211420</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>145807</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="9"/>
-        <v>9281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5285475.7234862028</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="11"/>
+        <v>845677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
+        <f t="shared" si="12"/>
+        <v>30655759.196219977</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="13"/>
+        <v>459836387.94329965</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>15327879.598109988</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="10"/>
-        <v>197215.22630525296</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="11"/>
-        <v>2958228.3945787945</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="12"/>
-        <v>67053.176943786006</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="8"/>
-        <v>5801</v>
+        <v>613116</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
-        <v>4641</v>
+        <v>422839</v>
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
-        <v>3713</v>
+        <v>291613</v>
       </c>
       <c r="I37">
+        <f xml:space="preserve"> I36 * hits_1_round_behind ^ A36</f>
+        <v>1.0326694513309059E+98</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="7"/>
-        <v>33526.588471893003</v>
-      </c>
-      <c r="J37">
+        <v>306558</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="8"/>
+        <v>211420</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="9"/>
-        <v>11601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7663939.7990549942</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="11"/>
+        <v>1226231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
+        <f t="shared" si="12"/>
+        <v>44450850.834518969</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="13"/>
+        <v>666762762.5177846</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="14"/>
+        <v>22225425.417259485</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="10"/>
-        <v>246519.03288156618</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="11"/>
-        <v>3697785.4932234925</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="12"/>
-        <v>83816.4711797325</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="8"/>
-        <v>7251</v>
+        <v>889018</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
-        <v>5801</v>
+        <v>613116</v>
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>4641</v>
+        <v>422839</v>
       </c>
       <c r="I38">
+        <f xml:space="preserve"> I37 * hits_1_round_behind ^ A37</f>
+        <v>4.5903035742474641E+103</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="7"/>
-        <v>41908.23558986625</v>
-      </c>
-      <c r="J38">
+        <v>444509</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>306558</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="9"/>
-        <v>14502</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11112712.708629742</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="11"/>
+        <v>1778035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
+        <f t="shared" si="12"/>
+        <v>64453733.710052505</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="13"/>
+        <v>966806005.65078759</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="14"/>
+        <v>32226866.855026253</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="10"/>
-        <v>308148.79110195773</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="11"/>
-        <v>4622231.866529366</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="12"/>
-        <v>104770.58897466563</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="8"/>
-        <v>9064</v>
+        <v>1289075</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
-        <v>7251</v>
+        <v>889018</v>
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>5801</v>
+        <v>613116</v>
       </c>
       <c r="I39">
+        <f xml:space="preserve"> I38 * hits_1_round_behind ^ A38</f>
+        <v>2.9586220422284828E+109</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="7"/>
-        <v>52385.294487332816</v>
-      </c>
-      <c r="J39">
+        <v>644538</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>444509</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="9"/>
-        <v>18127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16113433.427513126</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="11"/>
+        <v>2578150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
+        <f t="shared" si="12"/>
+        <v>93457913.879576117</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="13"/>
+        <v>1401868708.1936417</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="14"/>
+        <v>46728956.939788058</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="10"/>
-        <v>385185.98887744721</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="11"/>
-        <v>5777789.833161708</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="12"/>
-        <v>130963.23621833205</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="8"/>
-        <v>11329</v>
+        <v>1869159</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
-        <v>9064</v>
+        <v>1289075</v>
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>7251</v>
+        <v>889018</v>
       </c>
       <c r="I40">
+        <f xml:space="preserve"> I39 * hits_1_round_behind ^ A39</f>
+        <v>2.7650664402480516E+115</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="7"/>
-        <v>65481.618109166026</v>
-      </c>
-      <c r="J40">
+        <v>934580</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="8"/>
+        <v>644538</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="9"/>
-        <v>22658</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23364478.469894029</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="11"/>
+        <v>3738317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
+        <f t="shared" si="12"/>
+        <v>135513975.12538537</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="13"/>
+        <v>2032709626.8807807</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="14"/>
+        <v>67756987.562692687</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="10"/>
-        <v>481482.48609680898</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="11"/>
-        <v>7222237.291452135</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="12"/>
-        <v>163704.04527291504</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="8"/>
-        <v>14162</v>
+        <v>2710280</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>11329</v>
+        <v>1869159</v>
       </c>
       <c r="H41">
         <f t="shared" si="5"/>
-        <v>9064</v>
+        <v>1289075</v>
       </c>
       <c r="I41">
+        <f xml:space="preserve"> I40 * hits_1_round_behind ^ A40</f>
+        <v>3.7470514480381237E+121</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="7"/>
-        <v>81852.022636457521</v>
-      </c>
-      <c r="J41">
+        <v>1355140</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="8"/>
+        <v>934580</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="9"/>
-        <v>28323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33878493.781346343</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="11"/>
+        <v>5420560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
+        <f t="shared" si="12"/>
+        <v>196495263.9318088</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="13"/>
+        <v>2947428958.9771318</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="14"/>
+        <v>98247631.9659044</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="10"/>
-        <v>601853.10762101121</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="11"/>
-        <v>9027796.6143151689</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="12"/>
-        <v>204630.05659114383</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="8"/>
-        <v>17702</v>
+        <v>3929906</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>14162</v>
+        <v>2710280</v>
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
-        <v>11329</v>
+        <v>1869159</v>
       </c>
       <c r="I42">
+        <f xml:space="preserve"> I41 * hits_1_round_behind ^ A41</f>
+        <v>7.3627786324831746E+127</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="7"/>
-        <v>102315.02829557192</v>
-      </c>
-      <c r="J42">
+        <v>1964953</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>1355140</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="9"/>
-        <v>35404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49123815.9829522</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="11"/>
+        <v>7859811</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
+        <f t="shared" si="12"/>
+        <v>284918132.70112276</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="13"/>
+        <v>4273771990.5168414</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="14"/>
+        <v>142459066.35056138</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="10"/>
-        <v>752316.38452626404</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="11"/>
-        <v>11284745.767893961</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="12"/>
-        <v>255787.57073892976</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="8"/>
-        <v>22127</v>
+        <v>5698363</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
-        <v>17702</v>
+        <v>3929906</v>
       </c>
       <c r="H43">
         <f t="shared" si="5"/>
-        <v>14162</v>
+        <v>2710280</v>
       </c>
       <c r="I43">
+        <f xml:space="preserve"> I42 * hits_1_round_behind ^ A42</f>
+        <v>2.0977891394588323E+134</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="7"/>
-        <v>127893.78536946488</v>
-      </c>
-      <c r="J43">
+        <v>2849182</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>1964953</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="9"/>
-        <v>44254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71229533.17528069</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="11"/>
+        <v>11396726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
+        <f t="shared" si="12"/>
+        <v>413131292.416628</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="13"/>
+        <v>6196969386.2494202</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="14"/>
+        <v>206565646.208314</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="10"/>
-        <v>940395.48065783002</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="11"/>
-        <v>14105932.209867449</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="12"/>
-        <v>319734.46342366218</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="8"/>
-        <v>27659</v>
+        <v>8262626</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
-        <v>22127</v>
+        <v>5698363</v>
       </c>
       <c r="H44">
         <f t="shared" si="5"/>
-        <v>17702</v>
+        <v>3929906</v>
       </c>
       <c r="I44">
+        <f xml:space="preserve"> I43 * hits_1_round_behind ^ A43</f>
+        <v>8.6666233840219326E+140</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="7"/>
-        <v>159867.23171183109</v>
-      </c>
-      <c r="J44">
+        <v>4131313</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>2849182</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="9"/>
-        <v>55318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103282823.104157</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="11"/>
+        <v>16525252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
+        <f t="shared" si="12"/>
+        <v>599040374.00411057</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="13"/>
+        <v>8985605610.0616589</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="14"/>
+        <v>299520187.00205529</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="10"/>
-        <v>1175494.3508222876</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="11"/>
-        <v>17632415.262334313</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="12"/>
-        <v>399668.07927957777</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="8"/>
-        <v>34574</v>
+        <v>11980808</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
-        <v>27659</v>
+        <v>8262626</v>
       </c>
       <c r="H45">
         <f t="shared" si="5"/>
-        <v>22127</v>
+        <v>5698363</v>
       </c>
       <c r="I45">
+        <f xml:space="preserve"> I44 * hits_1_round_behind ^ A44</f>
+        <v>5.1916573133172689E+147</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="7"/>
-        <v>199834.03963978888</v>
-      </c>
-      <c r="J45">
+        <v>5990404</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>4131313</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="9"/>
-        <v>69147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149760093.50102764</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="11"/>
+        <v>23961615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
+        <f t="shared" si="12"/>
+        <v>868608542.3059603</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="13"/>
+        <v>13029128134.589405</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="14"/>
+        <v>434304271.15298015</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="10"/>
-        <v>1469367.9385278595</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="11"/>
-        <v>22040519.077917892</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="12"/>
-        <v>499585.09909947222</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="8"/>
-        <v>43217</v>
+        <v>17372171</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
-        <v>34574</v>
+        <v>11980808</v>
       </c>
       <c r="H46">
         <f t="shared" si="5"/>
-        <v>27659</v>
+        <v>8262626</v>
       </c>
       <c r="I46">
+        <f xml:space="preserve"> I45 * hits_1_round_behind ^ A45</f>
+        <v>4.5095178910725915E+154</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="7"/>
-        <v>249792.54954973611</v>
-      </c>
-      <c r="J46">
+        <v>8686086</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>5990404</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="9"/>
-        <v>86434</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>217152135.57649007</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="11"/>
+        <v>34744342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
+        <f t="shared" si="12"/>
+        <v>1259482386.3436425</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="13"/>
+        <v>18892235795.154636</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="14"/>
+        <v>629741193.17182124</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="10"/>
-        <v>1836709.9231598245</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="11"/>
-        <v>27550648.847397368</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="12"/>
-        <v>624481.37387434032</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="8"/>
-        <v>54021</v>
+        <v>25189648</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
-        <v>43217</v>
+        <v>17372171</v>
       </c>
       <c r="H47">
         <f t="shared" si="5"/>
-        <v>34574</v>
+        <v>11980808</v>
       </c>
       <c r="I47">
+        <f xml:space="preserve"> I46 * hits_1_round_behind ^ A46</f>
+        <v>5.679658354707458E+161</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="7"/>
-        <v>312240.68693717016</v>
-      </c>
-      <c r="J47">
+        <v>12594824</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>8686086</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="9"/>
-        <v>108042</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>314870596.58591062</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="11"/>
+        <v>50379296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
+        <f t="shared" si="12"/>
+        <v>1826249460.1982813</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="13"/>
+        <v>27393741902.97422</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="14"/>
+        <v>913124730.09914064</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="10"/>
-        <v>2295887.4039497804</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="11"/>
-        <v>34438311.059246704</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="12"/>
-        <v>780601.71734292537</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="8"/>
-        <v>67527</v>
+        <v>36524990</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
-        <v>54021</v>
+        <v>25189648</v>
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
-        <v>43217</v>
+        <v>17372171</v>
       </c>
       <c r="I48">
+        <f xml:space="preserve"> I47 * hits_1_round_behind ^ A47</f>
+        <v>1.0372473004395155E+169</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="7"/>
-        <v>390300.85867146269</v>
-      </c>
-      <c r="J48">
+        <v>18262495</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>12594824</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="9"/>
-        <v>135053</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>456562365.04957032</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="11"/>
+        <v>73049979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
+        <f t="shared" si="12"/>
+        <v>2648061717.2875085</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="13"/>
+        <v>39720925759.31263</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="14"/>
+        <v>1324030858.6437542</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="10"/>
-        <v>2869859.2549372255</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="11"/>
-        <v>43047888.824058384</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="12"/>
-        <v>975752.14667865657</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="8"/>
-        <v>84408</v>
+        <v>52961235</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
-        <v>67527</v>
+        <v>36524990</v>
       </c>
       <c r="H49">
         <f t="shared" si="5"/>
-        <v>54021</v>
+        <v>25189648</v>
       </c>
       <c r="I49">
+        <f xml:space="preserve"> I48 * hits_1_round_behind ^ A48</f>
+        <v>2.7466948676536956E+176</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="7"/>
-        <v>487876.07333932829</v>
-      </c>
-      <c r="J49">
+        <v>26480618</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>18262495</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="9"/>
-        <v>168816</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>662015429.32187712</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="11"/>
+        <v>105922469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
+        <f t="shared" si="12"/>
+        <v>3839689490.0668874</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="13"/>
+        <v>57595342351.003311</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="14"/>
+        <v>1919844745.0334437</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="10"/>
-        <v>3587324.068671532</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="11"/>
-        <v>53809861.03007298</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="12"/>
-        <v>1219690.1833483209</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="8"/>
-        <v>105510</v>
+        <v>76793790</v>
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
-        <v>84408</v>
+        <v>52961235</v>
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
-        <v>67527</v>
+        <v>36524990</v>
       </c>
       <c r="I50">
+        <f xml:space="preserve"> I49 * hits_1_round_behind ^ A49</f>
+        <v>1.0546455415750556E+184</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="7"/>
-        <v>609845.09167416045</v>
-      </c>
-      <c r="J50">
+        <v>38396895</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="8"/>
+        <v>26480618</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="9"/>
-        <v>211020</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>959922372.51672184</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="11"/>
+        <v>153587580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
+        <f t="shared" si="12"/>
+        <v>5567549760.5969868</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="13"/>
+        <v>83513246408.954803</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="14"/>
+        <v>2783774880.2984934</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="10"/>
-        <v>4484155.085839415</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="11"/>
-        <v>67262326.287591219</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="12"/>
-        <v>1524612.729185401</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="8"/>
-        <v>131887</v>
+        <v>111350996</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
-        <v>105510</v>
+        <v>76793790</v>
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
-        <v>84408</v>
+        <v>52961235</v>
       </c>
       <c r="I51">
+        <f xml:space="preserve"> I50 * hits_1_round_behind ^ A50</f>
+        <v>5.8717915325108805E+191</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="7"/>
-        <v>762306.3645927005</v>
-      </c>
-      <c r="J51">
+        <v>55675498</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="8"/>
+        <v>38396895</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="9"/>
-        <v>263774</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1391887440.1492467</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="11"/>
+        <v>222701991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
+        <f t="shared" si="12"/>
+        <v>8072947152.8656321</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="13"/>
+        <v>121094207292.98448</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="14"/>
+        <v>4036473576.432816</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="10"/>
-        <v>5605193.8572992682</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="11"/>
-        <v>84077907.859489024</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="12"/>
-        <v>1905765.9114817514</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="8"/>
-        <v>164859</v>
+        <v>161458944</v>
       </c>
       <c r="G52">
         <f t="shared" si="4"/>
-        <v>131887</v>
+        <v>111350996</v>
       </c>
       <c r="H52">
         <f t="shared" si="5"/>
-        <v>105510</v>
+        <v>76793790</v>
       </c>
       <c r="I52">
+        <f xml:space="preserve"> I51 * hits_1_round_behind ^ A51</f>
+        <v>4.7402662734604239E+199</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="7"/>
-        <v>952882.95574087568</v>
-      </c>
-      <c r="J52">
+        <v>80729472</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="8"/>
+        <v>55675498</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="9"/>
-        <v>329718</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2018236788.216408</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="11"/>
+        <v>322917887</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
+        <f t="shared" si="12"/>
+        <v>11705773371.655165</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="13"/>
+        <v>175586600574.82748</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="14"/>
+        <v>5852886685.8275824</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="10"/>
-        <v>7006492.3216240862</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="11"/>
-        <v>105097384.82436129</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="12"/>
-        <v>2382207.3893521894</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="8"/>
-        <v>206074</v>
+        <v>234115468</v>
       </c>
       <c r="G53">
         <f t="shared" si="4"/>
-        <v>164859</v>
+        <v>161458944</v>
       </c>
       <c r="H53">
         <f t="shared" si="5"/>
-        <v>131887</v>
+        <v>111350996</v>
       </c>
       <c r="I53">
+        <f xml:space="preserve"> I52 * hits_1_round_behind ^ A52</f>
+        <v>5.5488482718428093E+207</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="7"/>
-        <v>1191103.6946760947</v>
-      </c>
-      <c r="J53">
+        <v>117057734</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="8"/>
+        <v>80729472</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="9"/>
-        <v>412147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2926443342.9137912</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="11"/>
+        <v>468230935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
+        <f t="shared" si="12"/>
+        <v>16973371388.899988</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="13"/>
+        <v>254600570833.49982</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="14"/>
+        <v>8486685694.4499941</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="10"/>
-        <v>8758115.4020301066</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="11"/>
-        <v>131371731.0304516</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="12"/>
-        <v>2977759.2366902363</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="8"/>
-        <v>257592</v>
+        <v>339467428</v>
       </c>
       <c r="G54">
         <f t="shared" si="4"/>
-        <v>206074</v>
+        <v>234115468</v>
       </c>
       <c r="H54">
         <f t="shared" si="5"/>
-        <v>164859</v>
+        <v>161458944</v>
       </c>
       <c r="I54">
+        <f xml:space="preserve"> I53 * hits_1_round_behind ^ A53</f>
+        <v>9.4182662498643882E+215</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="7"/>
-        <v>1488879.6183451181</v>
-      </c>
-      <c r="J54">
+        <v>169733714</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="8"/>
+        <v>117057734</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="9"/>
-        <v>515184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4243342847.224997</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="11"/>
+        <v>678934856</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
+        <f t="shared" si="12"/>
+        <v>24611388513.904984</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="13"/>
+        <v>369170827708.57477</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="14"/>
+        <v>12305694256.952492</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="10"/>
-        <v>10947644.252537634</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="11"/>
-        <v>164214663.78806451</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="12"/>
-        <v>3722199.0458627953</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="8"/>
-        <v>321990</v>
+        <v>492227771</v>
       </c>
       <c r="G55">
         <f t="shared" si="4"/>
-        <v>257592</v>
+        <v>339467428</v>
       </c>
       <c r="H55">
         <f t="shared" si="5"/>
-        <v>206074</v>
+        <v>234115468</v>
       </c>
       <c r="I55">
+        <f xml:space="preserve"> I54 * hits_1_round_behind ^ A54</f>
+        <v>2.3179660980281134E+224</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="7"/>
-        <v>1861099.5229313977</v>
-      </c>
-      <c r="J55">
+        <v>246113886</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="8"/>
+        <v>169733714</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="9"/>
-        <v>643980</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6152847128.4762459</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="11"/>
+        <v>984455541</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
+        <f t="shared" si="12"/>
+        <v>35686513345.162216</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="13"/>
+        <v>535297700177.43323</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="14"/>
+        <v>17843256672.581108</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="10"/>
-        <v>13684555.315672042</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="11"/>
-        <v>205268329.73508063</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="12"/>
-        <v>4652748.8073284943</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="8"/>
-        <v>402487</v>
+        <v>713730267</v>
       </c>
       <c r="G56">
         <f t="shared" si="4"/>
-        <v>321990</v>
+        <v>492227771</v>
       </c>
       <c r="H56">
         <f t="shared" si="5"/>
-        <v>257592</v>
+        <v>339467428</v>
       </c>
       <c r="I56">
+        <f xml:space="preserve"> I55 * hits_1_round_behind ^ A55</f>
+        <v>8.2720128090913863E+232</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="7"/>
-        <v>2326374.4036642471</v>
-      </c>
-      <c r="J56">
+        <v>356865134</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="8"/>
+        <v>246113886</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="9"/>
-        <v>804974</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8921628336.290554</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="11"/>
+        <v>1427460534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
+        <f t="shared" si="12"/>
+        <v>51745444350.485229</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="13"/>
+        <v>776181665257.27844</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="14"/>
+        <v>25872722175.242615</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="10"/>
-        <v>17105694.144590054</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="11"/>
-        <v>256585412.16885081</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="12"/>
-        <v>5815936.0091606183</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="8"/>
-        <v>503109</v>
+        <v>1034908888</v>
       </c>
       <c r="G57">
         <f t="shared" si="4"/>
-        <v>402487</v>
+        <v>713730267</v>
       </c>
       <c r="H57">
         <f t="shared" si="5"/>
-        <v>321990</v>
+        <v>492227771</v>
       </c>
       <c r="I57">
+        <f xml:space="preserve"> I56 * hits_1_round_behind ^ A56</f>
+        <v>4.280389784793393E+241</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="7"/>
-        <v>2907968.0045803091</v>
-      </c>
-      <c r="J57">
+        <v>517454444</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="8"/>
+        <v>356865134</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="9"/>
-        <v>1006218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12936361087.621307</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="11"/>
+        <v>2069817775</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
+        <f t="shared" si="12"/>
+        <v>75030894308.203583</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="13"/>
+        <v>1125463414623.0537</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="14"/>
+        <v>37515447154.101791</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="10"/>
-        <v>21382117.680737566</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="11"/>
-        <v>320731765.2110635</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="12"/>
-        <v>7269920.0114507722</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="8"/>
-        <v>628886</v>
+        <v>1500617887</v>
       </c>
       <c r="G58">
         <f t="shared" si="4"/>
-        <v>503109</v>
+        <v>1034908888</v>
       </c>
       <c r="H58">
         <f t="shared" si="5"/>
-        <v>402487</v>
+        <v>713730267</v>
       </c>
       <c r="I58">
+        <f xml:space="preserve"> I57 * hits_1_round_behind ^ A57</f>
+        <v>3.2116147354074732E+250</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="7"/>
-        <v>3634960.0057253861</v>
-      </c>
-      <c r="J58">
+        <v>750308944</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="8"/>
+        <v>517454444</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="9"/>
-        <v>1257772</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18757723577.050896</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="11"/>
+        <v>3001235773</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
+        <f t="shared" si="12"/>
+        <v>108794796746.89519</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="13"/>
+        <v>1631921951203.4277</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="14"/>
+        <v>54397398373.447594</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="10"/>
-        <v>26727647.100921959</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="11"/>
-        <v>400914706.51382935</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="12"/>
-        <v>9087400.0143134668</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="8"/>
-        <v>786108</v>
+        <v>2175895935</v>
       </c>
       <c r="G59">
         <f t="shared" si="4"/>
-        <v>628886</v>
+        <v>1500617887</v>
       </c>
       <c r="H59">
         <f t="shared" si="5"/>
-        <v>503109</v>
+        <v>1034908888</v>
       </c>
       <c r="I59">
+        <f xml:space="preserve"> I58 * hits_1_round_behind ^ A58</f>
+        <v>3.4940697236798963E+259</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="7"/>
-        <v>4543700.0071567334</v>
-      </c>
-      <c r="J59">
+        <v>1087947968</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="8"/>
+        <v>750308944</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="9"/>
-        <v>1572215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27198699186.723797</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="11"/>
+        <v>4351791870</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
+        <f t="shared" si="12"/>
+        <v>157752455282.99805</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="13"/>
+        <v>2366286829244.9707</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="14"/>
+        <v>78876227641.499023</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="10"/>
-        <v>33409558.876152452</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="11"/>
-        <v>501143383.14228678</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="12"/>
-        <v>11359250.017891834</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="8"/>
-        <v>982635</v>
+        <v>3155049106</v>
       </c>
       <c r="G60">
         <f t="shared" si="4"/>
-        <v>786108</v>
+        <v>2175895935</v>
       </c>
       <c r="H60">
         <f t="shared" si="5"/>
-        <v>628886</v>
+        <v>1500617887</v>
       </c>
       <c r="I60">
+        <f xml:space="preserve"> I59 * hits_1_round_behind ^ A59</f>
+        <v>5.5119807784049018E+268</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="7"/>
-        <v>5679625.0089459168</v>
-      </c>
-      <c r="J60">
+        <v>1577524553</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="8"/>
+        <v>1087947968</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="9"/>
-        <v>1965269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39438113820.749512</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="11"/>
+        <v>6310098212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
+        <f t="shared" si="12"/>
+        <v>228741060160.34714</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="13"/>
+        <v>3431115902405.207</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="14"/>
+        <v>114370530080.17357</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="10"/>
-        <v>41761948.595190562</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="11"/>
-        <v>626429228.92785847</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="12"/>
-        <v>14199062.522364791</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="8"/>
-        <v>1228293</v>
+        <v>4574821204</v>
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
-        <v>982635</v>
+        <v>3155049106</v>
       </c>
       <c r="H61">
         <f t="shared" si="5"/>
-        <v>786108</v>
+        <v>2175895935</v>
       </c>
       <c r="I61">
+        <f xml:space="preserve"> I60 * hits_1_round_behind ^ A60</f>
+        <v>1.2608163268357926E+278</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="7"/>
-        <v>7099531.2611823957</v>
-      </c>
-      <c r="J61">
+        <v>2287410602</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
+        <v>1577524553</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="9"/>
-        <v>2456586</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57185265040.086784</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="11"/>
+        <v>9149642407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <f t="shared" si="10"/>
-        <v>52202435.743988201</v>
+        <f t="shared" si="12"/>
+        <v>331674537232.50336</v>
       </c>
       <c r="C62">
-        <f t="shared" si="11"/>
-        <v>783036536.15982306</v>
+        <f t="shared" si="13"/>
+        <v>4975118058487.5508</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62:E84" si="13" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
-        <v>17748828.152955987</v>
+        <f t="shared" ref="E62:E84" si="15" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
+        <v>165837268616.25168</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62:F84" si="14">ROUNDUP(B62/base_damage, 0)</f>
-        <v>1535366</v>
+        <f t="shared" ref="F62:F84" si="16">ROUNDUP(B62/base_damage, 0)</f>
+        <v>6633490745</v>
       </c>
       <c r="G62">
         <f t="shared" si="4"/>
-        <v>1228293</v>
+        <v>4574821204</v>
       </c>
       <c r="H62">
         <f t="shared" si="5"/>
-        <v>982635</v>
+        <v>3155049106</v>
       </c>
       <c r="I62">
-        <f t="shared" ref="I62:I84" si="15">E62/2</f>
-        <v>8874414.0764779933</v>
+        <f xml:space="preserve"> I61 * hits_1_round_behind ^ A61</f>
+        <v>4.1818067173844624E+287</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:J84" si="16">ROUNDUP(B62/explosion_shot_base, 0)</f>
-        <v>3070732</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3316745373</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="8"/>
+        <v>2287410602</v>
+      </c>
+      <c r="L62">
+        <f t="shared" ref="L62:L84" si="17">E62/2</f>
+        <v>82918634308.125839</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ref="M62:M84" si="18">ROUNDUP(B62/explosion_shot_base, 0)</f>
+        <v>13266981490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <f t="shared" si="10"/>
-        <v>65253044.67998524</v>
+        <f t="shared" si="12"/>
+        <v>480928078987.12988</v>
       </c>
       <c r="C63">
-        <f t="shared" si="11"/>
-        <v>978795670.19977856</v>
+        <f t="shared" si="13"/>
+        <v>7213921184806.9482</v>
       </c>
       <c r="E63">
-        <f t="shared" si="13"/>
-        <v>22186035.191194981</v>
+        <f t="shared" si="15"/>
+        <v>240464039493.56494</v>
       </c>
       <c r="F63">
-        <f t="shared" si="14"/>
-        <v>1919208</v>
+        <f t="shared" si="16"/>
+        <v>9618561580</v>
       </c>
       <c r="G63">
         <f t="shared" si="4"/>
-        <v>1535366</v>
+        <v>6633490745</v>
       </c>
       <c r="H63">
         <f t="shared" si="5"/>
-        <v>1228293</v>
+        <v>4574821204</v>
       </c>
       <c r="I63">
-        <f t="shared" si="15"/>
-        <v>11093017.595597491</v>
+        <f xml:space="preserve"> I62 * hits_1_round_behind ^ A62</f>
+        <v>2.0111482712871849E+297</v>
       </c>
       <c r="J63">
-        <f t="shared" si="16"/>
-        <v>3838415</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>4809280790</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="8"/>
+        <v>3316745373</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="17"/>
+        <v>120232019746.78247</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="18"/>
+        <v>19237123160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <f t="shared" si="10"/>
-        <v>81566305.849981546</v>
+        <f t="shared" si="12"/>
+        <v>697345714531.33813</v>
       </c>
       <c r="C64">
-        <f t="shared" si="11"/>
-        <v>1223494587.7497232</v>
+        <f t="shared" si="13"/>
+        <v>10460185717970.072</v>
       </c>
       <c r="E64">
-        <f t="shared" si="13"/>
-        <v>27732543.988993727</v>
+        <f t="shared" si="15"/>
+        <v>348672857265.66907</v>
       </c>
       <c r="F64">
-        <f t="shared" si="14"/>
-        <v>2399009</v>
+        <f t="shared" si="16"/>
+        <v>13946914291</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
-        <v>1919208</v>
+        <v>9618561580</v>
       </c>
       <c r="H64">
         <f t="shared" si="5"/>
-        <v>1535366</v>
+        <v>6633490745</v>
       </c>
       <c r="I64">
-        <f t="shared" si="15"/>
-        <v>13866271.994496863</v>
+        <f xml:space="preserve"> I63 * hits_1_round_behind ^ A63</f>
+        <v>1.4024656282692273E+307</v>
       </c>
       <c r="J64">
-        <f t="shared" si="16"/>
-        <v>4798018</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>6973457146</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="8"/>
+        <v>4809280790</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="17"/>
+        <v>174336428632.83453</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="18"/>
+        <v>27893828582</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <f t="shared" si="10"/>
-        <v>101957882.31247695</v>
+        <f t="shared" si="12"/>
+        <v>1011151286070.4404</v>
       </c>
       <c r="C65">
-        <f t="shared" si="11"/>
-        <v>1529368234.6871543</v>
+        <f t="shared" si="13"/>
+        <v>15167269291056.605</v>
       </c>
       <c r="E65">
-        <f t="shared" si="13"/>
-        <v>34665679.98624216</v>
+        <f t="shared" si="15"/>
+        <v>505575643035.22021</v>
       </c>
       <c r="F65">
-        <f t="shared" si="14"/>
-        <v>2998762</v>
+        <f t="shared" si="16"/>
+        <v>20223025722</v>
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
-        <v>2399009</v>
+        <v>13946914291</v>
       </c>
       <c r="H65">
         <f t="shared" si="5"/>
-        <v>1919208</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="15"/>
-        <v>17332839.99312108</v>
+        <v>9618561580</v>
+      </c>
+      <c r="I65" t="e">
+        <f xml:space="preserve"> I64 * hits_1_round_behind ^ A64</f>
+        <v>#NUM!</v>
       </c>
       <c r="J65">
-        <f t="shared" si="16"/>
-        <v>5997523</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>10111512861</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="8"/>
+        <v>6973457146</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="17"/>
+        <v>252787821517.61011</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="18"/>
+        <v>40446051443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <f t="shared" si="10"/>
-        <v>127447352.8905962</v>
+        <f t="shared" si="12"/>
+        <v>1466169364802.1387</v>
       </c>
       <c r="C66">
-        <f t="shared" si="11"/>
-        <v>1911710293.358943</v>
+        <f t="shared" si="13"/>
+        <v>21992540472032.078</v>
       </c>
       <c r="E66">
-        <f t="shared" si="13"/>
-        <v>43332099.982802704</v>
+        <f t="shared" si="15"/>
+        <v>733084682401.06934</v>
       </c>
       <c r="F66">
-        <f t="shared" si="14"/>
-        <v>3748452</v>
+        <f t="shared" si="16"/>
+        <v>29323387297</v>
       </c>
       <c r="G66">
         <f t="shared" si="4"/>
-        <v>2998762</v>
+        <v>20223025722</v>
       </c>
       <c r="H66">
         <f t="shared" si="5"/>
-        <v>2399009</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="15"/>
-        <v>21666049.991401352</v>
+        <v>13946914291</v>
+      </c>
+      <c r="I66" t="e">
+        <f xml:space="preserve"> I65 * hits_1_round_behind ^ A65</f>
+        <v>#NUM!</v>
       </c>
       <c r="J66">
-        <f t="shared" si="16"/>
-        <v>7496904</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>14661693649</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="8"/>
+        <v>10111512861</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="17"/>
+        <v>366542341200.53467</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="18"/>
+        <v>58646774593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" si="10"/>
-        <v>159309191.11324525</v>
+        <f t="shared" si="12"/>
+        <v>2125945578963.1011</v>
       </c>
       <c r="C67">
-        <f t="shared" si="11"/>
-        <v>2389637866.698679</v>
+        <f t="shared" si="13"/>
+        <v>31889183684446.516</v>
       </c>
       <c r="E67">
-        <f t="shared" si="13"/>
-        <v>54165124.978503384</v>
+        <f t="shared" si="15"/>
+        <v>1062972789481.5505</v>
       </c>
       <c r="F67">
-        <f t="shared" si="14"/>
-        <v>4685565</v>
+        <f t="shared" si="16"/>
+        <v>42518911580</v>
       </c>
       <c r="G67">
         <f t="shared" si="4"/>
-        <v>3748452</v>
+        <v>29323387297</v>
       </c>
       <c r="H67">
         <f t="shared" si="5"/>
-        <v>2998762</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="15"/>
-        <v>27082562.489251692</v>
+        <v>20223025722</v>
+      </c>
+      <c r="I67" t="e">
+        <f xml:space="preserve"> I66 * hits_1_round_behind ^ A66</f>
+        <v>#NUM!</v>
       </c>
       <c r="J67">
-        <f t="shared" si="16"/>
-        <v>9371129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>21259455790</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="8"/>
+        <v>14661693649</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="17"/>
+        <v>531486394740.77527</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="18"/>
+        <v>85037823159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B102" si="17" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A67</f>
-        <v>199136488.89155659</v>
+        <f t="shared" ref="B68:B102" si="19" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A67</f>
+        <v>3082621089496.4966</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C102" si="18" xml:space="preserve"> $B$3*hits_1_round_behind^A67*brute_life_multiplier</f>
-        <v>2987047333.3733487</v>
+        <f t="shared" ref="C68:C102" si="20" xml:space="preserve"> $B$3*hits_1_round_behind^A67*brute_life_multiplier</f>
+        <v>46239316342447.445</v>
       </c>
       <c r="E68">
-        <f t="shared" si="13"/>
-        <v>67706406.223129243</v>
+        <f t="shared" si="15"/>
+        <v>1541310544748.2483</v>
       </c>
       <c r="F68">
-        <f t="shared" si="14"/>
-        <v>5856956</v>
+        <f t="shared" si="16"/>
+        <v>61652421790</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G92" si="19">ROUNDUP(B68/$E$4, 0)</f>
-        <v>4685565</v>
+        <f t="shared" ref="G68:G92" si="21">ROUNDUP(B68/$E$4, 0)</f>
+        <v>42518911580</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H102" si="20">ROUNDUP(B68/$E$5, 0)</f>
-        <v>3748452</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="15"/>
-        <v>33853203.111564621</v>
+        <f t="shared" ref="H68:H102" si="22">ROUNDUP(B68/$E$5, 0)</f>
+        <v>29323387297</v>
+      </c>
+      <c r="I68" t="e">
+        <f xml:space="preserve"> I67 * hits_1_round_behind ^ A67</f>
+        <v>#NUM!</v>
       </c>
       <c r="J68">
-        <f t="shared" si="16"/>
-        <v>11713912</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>30826210895</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="8"/>
+        <v>21259455790</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="17"/>
+        <v>770655272374.12415</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="18"/>
+        <v>123304843580</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
+        <f t="shared" si="19"/>
+        <v>4469800579769.9199</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="20"/>
+        <v>67047008696548.797</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="15"/>
+        <v>2234900289884.96</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="16"/>
+        <v>89396011596</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="21"/>
+        <v>61652421790</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="22"/>
+        <v>42518911580</v>
+      </c>
+      <c r="I69" t="e">
+        <f xml:space="preserve"> I68 * hits_1_round_behind ^ A68</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J102" si="23">ROUNDUP(B69/$I$3, 0)</f>
+        <v>44698005798</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ref="K69:K102" si="24">ROUNDUP(B69/$I$4, 0)</f>
+        <v>30826210895</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="17"/>
-        <v>248920611.11444569</v>
-      </c>
-      <c r="C69">
+        <v>1117450144942.48</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="18"/>
-        <v>3733809166.7166853</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="13"/>
-        <v>84633007.778911531</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="14"/>
-        <v>7321195</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="19"/>
-        <v>5856956</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="20"/>
-        <v>4685565</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="15"/>
-        <v>42316503.889455765</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="16"/>
-        <v>14642389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>178792023191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
+        <f t="shared" si="19"/>
+        <v>6481210840666.3838</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="20"/>
+        <v>97218162609995.75</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="15"/>
+        <v>3240605420333.1919</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="16"/>
+        <v>129624216814</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="21"/>
+        <v>89396011596</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="22"/>
+        <v>61652421790</v>
+      </c>
+      <c r="I70" t="e">
+        <f xml:space="preserve"> I69 * hits_1_round_behind ^ A69</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="23"/>
+        <v>64812108407</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="24"/>
+        <v>44698005798</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="17"/>
-        <v>311150763.89305711</v>
-      </c>
-      <c r="C70">
+        <v>1620302710166.5959</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="18"/>
-        <v>4667261458.3958569</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="13"/>
-        <v>105791259.72363943</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="14"/>
-        <v>9151494</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="19"/>
-        <v>7321195</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="20"/>
-        <v>5856956</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="15"/>
-        <v>52895629.861819714</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="16"/>
-        <v>18302987</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>259248433627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
+        <f t="shared" si="19"/>
+        <v>9397755718966.2559</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="20"/>
+        <v>140966335784493.84</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="15"/>
+        <v>4698877859483.1279</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="16"/>
+        <v>187955114380</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="21"/>
+        <v>129624216814</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="22"/>
+        <v>89396011596</v>
+      </c>
+      <c r="I71" t="e">
+        <f xml:space="preserve"> I70 * hits_1_round_behind ^ A70</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="23"/>
+        <v>93977557190</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="24"/>
+        <v>64812108407</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="17"/>
-        <v>388938454.86632144</v>
-      </c>
-      <c r="C71">
+        <v>2349438929741.564</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="18"/>
-        <v>5834076822.9948215</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="13"/>
-        <v>132239074.65454929</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="14"/>
-        <v>11439367</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="19"/>
-        <v>9151494</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="20"/>
-        <v>7321195</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="15"/>
-        <v>66119537.327274643</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="16"/>
-        <v>22878733</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>375910228759</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
+        <f t="shared" si="19"/>
+        <v>13626745792501.07</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="20"/>
+        <v>204401186887516.06</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="15"/>
+        <v>6813372896250.5352</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="16"/>
+        <v>272534915851</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="21"/>
+        <v>187955114380</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="22"/>
+        <v>129624216814</v>
+      </c>
+      <c r="I72" t="e">
+        <f xml:space="preserve"> I71 * hits_1_round_behind ^ A71</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="23"/>
+        <v>136267457926</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="24"/>
+        <v>93977557190</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="17"/>
-        <v>486173068.58290172</v>
-      </c>
-      <c r="C72">
+        <v>3406686448125.2676</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="18"/>
-        <v>7292596028.7435255</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="13"/>
-        <v>165298843.31818658</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="14"/>
-        <v>14299208</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="19"/>
-        <v>11439367</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="20"/>
-        <v>9151494</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="15"/>
-        <v>82649421.659093291</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="16"/>
-        <v>28598416</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>545069831701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
+        <f t="shared" si="19"/>
+        <v>19758781399126.555</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="20"/>
+        <v>296381720986898.31</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="15"/>
+        <v>9879390699563.2773</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="16"/>
+        <v>395175627983</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="21"/>
+        <v>272534915851</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="22"/>
+        <v>187955114380</v>
+      </c>
+      <c r="I73" t="e">
+        <f xml:space="preserve"> I72 * hits_1_round_behind ^ A72</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="23"/>
+        <v>197587813992</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="24"/>
+        <v>136267457926</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="17"/>
-        <v>607716335.7286272</v>
-      </c>
-      <c r="C73">
+        <v>4939695349781.6387</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="18"/>
-        <v>9115745035.929409</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="13"/>
-        <v>206623554.14773327</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="14"/>
-        <v>17874010</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="19"/>
-        <v>14299208</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="20"/>
-        <v>11439367</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="15"/>
-        <v>103311777.07386664</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="16"/>
-        <v>35748020</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>790351255966</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
+        <f t="shared" si="19"/>
+        <v>28650233028733.504</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="20"/>
+        <v>429753495431002.56</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="15"/>
+        <v>14325116514366.752</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="16"/>
+        <v>573004660575</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="21"/>
+        <v>395175627983</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="22"/>
+        <v>272534915851</v>
+      </c>
+      <c r="I74" t="e">
+        <f xml:space="preserve"> I73 * hits_1_round_behind ^ A73</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="23"/>
+        <v>286502330288</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="24"/>
+        <v>197587813992</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="17"/>
-        <v>759645419.66078401</v>
-      </c>
-      <c r="C74">
+        <v>7162558257183.376</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="18"/>
-        <v>11394681294.91176</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="13"/>
-        <v>258279442.68466657</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="14"/>
-        <v>22342513</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="19"/>
-        <v>17874010</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="20"/>
-        <v>14299208</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="15"/>
-        <v>129139721.34233329</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="16"/>
-        <v>44685025</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1146009321150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
+        <f t="shared" si="19"/>
+        <v>41542837891663.578</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="20"/>
+        <v>623142568374953.63</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="15"/>
+        <v>20771418945831.789</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="16"/>
+        <v>830856757834</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="21"/>
+        <v>573004660575</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="22"/>
+        <v>395175627983</v>
+      </c>
+      <c r="I75" t="e">
+        <f xml:space="preserve"> I74 * hits_1_round_behind ^ A74</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="23"/>
+        <v>415428378917</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="24"/>
+        <v>286502330288</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="17"/>
-        <v>949556774.57597995</v>
-      </c>
-      <c r="C75">
+        <v>10385709472915.895</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="18"/>
-        <v>14243351618.6397</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="13"/>
-        <v>322849303.35583317</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="14"/>
-        <v>27928141</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="19"/>
-        <v>22342513</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="20"/>
-        <v>17874010</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="15"/>
-        <v>161424651.67791659</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="16"/>
-        <v>55856281</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1661713515667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
+        <f t="shared" si="19"/>
+        <v>60237114942912.195</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="20"/>
+        <v>903556724143682.88</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="15"/>
+        <v>30118557471456.098</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="16"/>
+        <v>1204742298859</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="21"/>
+        <v>830856757834</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="22"/>
+        <v>573004660575</v>
+      </c>
+      <c r="I76" t="e">
+        <f xml:space="preserve"> I75 * hits_1_round_behind ^ A75</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="23"/>
+        <v>602371149430</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="24"/>
+        <v>415428378917</v>
+      </c>
+      <c r="L76">
         <f t="shared" si="17"/>
-        <v>1186945968.219975</v>
-      </c>
-      <c r="C76">
+        <v>15059278735728.049</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="18"/>
-        <v>17804189523.299625</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="13"/>
-        <v>403561629.1947915</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="14"/>
-        <v>34910176</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="19"/>
-        <v>27928141</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="20"/>
-        <v>22342513</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="15"/>
-        <v>201780814.59739575</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="16"/>
-        <v>69820352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2409484597717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
+        <f t="shared" si="19"/>
+        <v>87343816667222.688</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="20"/>
+        <v>1310157250008340.3</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="15"/>
+        <v>43671908333611.344</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="16"/>
+        <v>1746876333345</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="21"/>
+        <v>1204742298859</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="22"/>
+        <v>830856757834</v>
+      </c>
+      <c r="I77" t="e">
+        <f xml:space="preserve"> I76 * hits_1_round_behind ^ A76</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="23"/>
+        <v>873438166673</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="24"/>
+        <v>602371149430</v>
+      </c>
+      <c r="L77">
         <f t="shared" si="17"/>
-        <v>1483682460.2749689</v>
-      </c>
-      <c r="C77">
+        <v>21835954166805.672</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="18"/>
-        <v>22255236904.124535</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="13"/>
-        <v>504452036.49348938</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="14"/>
-        <v>43637720</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="19"/>
-        <v>34910176</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="20"/>
-        <v>27928141</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="15"/>
-        <v>252226018.24674469</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="16"/>
-        <v>87275439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3493752666689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
+        <f t="shared" si="19"/>
+        <v>126648534167472.91</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="20"/>
+        <v>1899728012512093.5</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="15"/>
+        <v>63324267083736.453</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="16"/>
+        <v>2532970683350</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="21"/>
+        <v>1746876333345</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="22"/>
+        <v>1204742298859</v>
+      </c>
+      <c r="I78" t="e">
+        <f xml:space="preserve"> I77 * hits_1_round_behind ^ A77</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="23"/>
+        <v>1266485341675</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="24"/>
+        <v>873438166673</v>
+      </c>
+      <c r="L78">
         <f t="shared" si="17"/>
-        <v>1854603075.3437109</v>
-      </c>
-      <c r="C78">
+        <v>31662133541868.227</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="18"/>
-        <v>27819046130.155663</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="13"/>
-        <v>630565045.6168617</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="14"/>
-        <v>54547150</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="19"/>
-        <v>43637720</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="20"/>
-        <v>34910176</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="15"/>
-        <v>315282522.80843085</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="16"/>
-        <v>109094299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5065941366699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
+        <f t="shared" si="19"/>
+        <v>183640374542835.69</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="20"/>
+        <v>2754605618142535.5</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="15"/>
+        <v>91820187271417.844</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="16"/>
+        <v>3672807490857</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="21"/>
+        <v>2532970683350</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="22"/>
+        <v>1746876333345</v>
+      </c>
+      <c r="I79" t="e">
+        <f xml:space="preserve"> I78 * hits_1_round_behind ^ A78</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="23"/>
+        <v>1836403745429</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="24"/>
+        <v>1266485341675</v>
+      </c>
+      <c r="L79">
         <f t="shared" si="17"/>
-        <v>2318253844.1796389</v>
-      </c>
-      <c r="C79">
+        <v>45910093635708.922</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="18"/>
-        <v>34773807662.69458</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="13"/>
-        <v>788206307.02107716</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="14"/>
-        <v>68183937</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="19"/>
-        <v>54547150</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="20"/>
-        <v>43637720</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="15"/>
-        <v>394103153.51053858</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="16"/>
-        <v>136367874</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7345614981714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
+        <f t="shared" si="19"/>
+        <v>266278543087111.72</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="20"/>
+        <v>3994178146306676</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="15"/>
+        <v>133139271543555.86</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="16"/>
+        <v>5325570861743</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="21"/>
+        <v>3672807490857</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="22"/>
+        <v>2532970683350</v>
+      </c>
+      <c r="I80" t="e">
+        <f xml:space="preserve"> I79 * hits_1_round_behind ^ A79</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="23"/>
+        <v>2662785430872</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="24"/>
+        <v>1836403745429</v>
+      </c>
+      <c r="L80">
         <f t="shared" si="17"/>
-        <v>2897817305.2245483</v>
-      </c>
-      <c r="C80">
+        <v>66569635771777.93</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="18"/>
-        <v>43467259578.368225</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="13"/>
-        <v>985257883.77634645</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="14"/>
-        <v>85229921</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="19"/>
-        <v>68183937</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="20"/>
-        <v>54547150</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="15"/>
-        <v>492628941.88817322</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="16"/>
-        <v>170459842</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10651141723485</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
+        <f t="shared" si="19"/>
+        <v>386103887476312</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="20"/>
+        <v>5791558312144680</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="15"/>
+        <v>193051943738156</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="16"/>
+        <v>7722077749527</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="21"/>
+        <v>5325570861743</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="22"/>
+        <v>3672807490857</v>
+      </c>
+      <c r="I81" t="e">
+        <f xml:space="preserve"> I80 * hits_1_round_behind ^ A80</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="23"/>
+        <v>3861038874764</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="24"/>
+        <v>2662785430872</v>
+      </c>
+      <c r="L81">
         <f t="shared" si="17"/>
-        <v>3622271631.5306859</v>
-      </c>
-      <c r="C81">
+        <v>96525971869078</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="18"/>
-        <v>54334074472.960289</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="13"/>
-        <v>1231572354.7204332</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="14"/>
-        <v>106537401</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="19"/>
-        <v>85229921</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="20"/>
-        <v>68183937</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="15"/>
-        <v>615786177.36021662</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="16"/>
-        <v>213074802</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15444155499053</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
+        <f t="shared" si="19"/>
+        <v>559850636840652.44</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="20"/>
+        <v>8397759552609787</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="15"/>
+        <v>279925318420326.22</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="16"/>
+        <v>11197012736813</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="21"/>
+        <v>7722077749527</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="22"/>
+        <v>5325570861743</v>
+      </c>
+      <c r="I82" t="e">
+        <f xml:space="preserve"> I81 * hits_1_round_behind ^ A81</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="23"/>
+        <v>5598506368407</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="24"/>
+        <v>3861038874764</v>
+      </c>
+      <c r="L82">
         <f t="shared" si="17"/>
-        <v>4527839539.4133568</v>
-      </c>
-      <c r="C82">
+        <v>139962659210163.11</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="18"/>
-        <v>67917593091.200348</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="13"/>
-        <v>1539465443.4005413</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="14"/>
-        <v>133171752</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="19"/>
-        <v>106537401</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="20"/>
-        <v>85229921</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="15"/>
-        <v>769732721.70027065</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="16"/>
-        <v>266343503</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22394025473627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
+        <f t="shared" si="19"/>
+        <v>811783423418946.13</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="20"/>
+        <v>1.2176751351284192E+16</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="15"/>
+        <v>405891711709473.06</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="16"/>
+        <v>16235668468379</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="21"/>
+        <v>11197012736814</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="22"/>
+        <v>7722077749527</v>
+      </c>
+      <c r="I83" t="e">
+        <f xml:space="preserve"> I82 * hits_1_round_behind ^ A82</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="23"/>
+        <v>8117834234190</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="24"/>
+        <v>5598506368407</v>
+      </c>
+      <c r="L83">
         <f t="shared" si="17"/>
-        <v>5659799424.266696</v>
-      </c>
-      <c r="C83">
+        <v>202945855854736.53</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="18"/>
-        <v>84896991364.000443</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="13"/>
-        <v>1924331804.2506766</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="14"/>
-        <v>166464689</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="19"/>
-        <v>133171752</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="20"/>
-        <v>106537401</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="15"/>
-        <v>962165902.12533832</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="16"/>
-        <v>332929378</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32471336936758</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
+        <f t="shared" si="19"/>
+        <v>1177085963957472</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="20"/>
+        <v>1.765628945936208E+16</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="15"/>
+        <v>588542981978736</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="16"/>
+        <v>23541719279150</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="21"/>
+        <v>16235668468379</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="22"/>
+        <v>11197012736814</v>
+      </c>
+      <c r="I84" t="e">
+        <f xml:space="preserve"> I83 * hits_1_round_behind ^ A83</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="23"/>
+        <v>11770859639575</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="24"/>
+        <v>8117834234190</v>
+      </c>
+      <c r="L84">
         <f t="shared" si="17"/>
-        <v>7074749280.3333702</v>
-      </c>
-      <c r="C84">
+        <v>294271490989368</v>
+      </c>
+      <c r="M84">
         <f t="shared" si="18"/>
-        <v>106121239205.00055</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="13"/>
-        <v>2405414755.3133459</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="14"/>
-        <v>208080862</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="19"/>
-        <v>166464689</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="20"/>
-        <v>133171752</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="15"/>
-        <v>1202707377.656673</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="16"/>
-        <v>416161723</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47083438558299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <f t="shared" si="17"/>
-        <v>8843436600.4167118</v>
+        <f t="shared" si="19"/>
+        <v>1706774647738334.3</v>
       </c>
       <c r="C85">
-        <f t="shared" si="18"/>
-        <v>132651549006.25067</v>
+        <f t="shared" si="20"/>
+        <v>2.5601619716075012E+16</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85:E102" si="21" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
-        <v>3006768444.1416821</v>
+        <f t="shared" ref="E85:E102" si="25" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
+        <v>853387323869167.13</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85:F102" si="22">ROUNDUP(B85/base_damage, 0)</f>
-        <v>260101077</v>
+        <f t="shared" ref="F85:F102" si="26">ROUNDUP(B85/base_damage, 0)</f>
+        <v>34135492954767</v>
       </c>
       <c r="G85">
-        <f t="shared" si="19"/>
-        <v>208080862</v>
+        <f t="shared" si="21"/>
+        <v>23541719279150</v>
       </c>
       <c r="H85">
-        <f t="shared" si="20"/>
-        <v>166464689</v>
-      </c>
-      <c r="I85">
-        <f t="shared" ref="I85:I102" si="23">E85/2</f>
-        <v>1503384222.0708411</v>
+        <f t="shared" si="22"/>
+        <v>16235668468379</v>
+      </c>
+      <c r="I85" t="e">
+        <f xml:space="preserve"> I84 * hits_1_round_behind ^ A84</f>
+        <v>#NUM!</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85:J102" si="24">ROUNDUP(B85/explosion_shot_base, 0)</f>
-        <v>520202153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>17067746477384</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="24"/>
+        <v>11770859639575</v>
+      </c>
+      <c r="L85">
+        <f t="shared" ref="L85:L102" si="27">E85/2</f>
+        <v>426693661934583.56</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ref="M85:M102" si="28">ROUNDUP(B85/explosion_shot_base, 0)</f>
+        <v>68270985909534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <f t="shared" si="17"/>
-        <v>11054295750.520891</v>
+        <f t="shared" si="19"/>
+        <v>2474823239220584.5</v>
       </c>
       <c r="C86">
-        <f t="shared" si="18"/>
-        <v>165814436257.81335</v>
+        <f t="shared" si="20"/>
+        <v>3.7122348588308768E+16</v>
       </c>
       <c r="E86">
+        <f t="shared" si="25"/>
+        <v>1237411619610292.3</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="26"/>
+        <v>49496464784412</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="21"/>
-        <v>3758460555.177103</v>
-      </c>
-      <c r="F86">
+        <v>34135492954767</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="22"/>
-        <v>325126346</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="19"/>
-        <v>260101077</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="20"/>
-        <v>208080862</v>
-      </c>
-      <c r="I86">
+        <v>23541719279150</v>
+      </c>
+      <c r="I86" t="e">
+        <f xml:space="preserve"> I85 * hits_1_round_behind ^ A85</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="23"/>
-        <v>1879230277.5885515</v>
-      </c>
-      <c r="J86">
+        <v>24748232392206</v>
+      </c>
+      <c r="K86">
         <f t="shared" si="24"/>
-        <v>650252692</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17067746477384</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="27"/>
+        <v>618705809805146.13</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="28"/>
+        <v>98992929568824</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <f t="shared" si="17"/>
-        <v>13817869688.151115</v>
+        <f t="shared" si="19"/>
+        <v>3588493696869847.5</v>
       </c>
       <c r="C87">
-        <f t="shared" si="18"/>
-        <v>207268045322.26672</v>
+        <f t="shared" si="20"/>
+        <v>5.3827405453047712E+16</v>
       </c>
       <c r="E87">
+        <f t="shared" si="25"/>
+        <v>1794246848434923.8</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="26"/>
+        <v>71769873937397</v>
+      </c>
+      <c r="G87">
         <f t="shared" si="21"/>
-        <v>4698075693.9713793</v>
-      </c>
-      <c r="F87">
+        <v>49496464784412</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="22"/>
-        <v>406407933</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="19"/>
-        <v>325126346</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="20"/>
-        <v>260101077</v>
-      </c>
-      <c r="I87">
+        <v>34135492954767</v>
+      </c>
+      <c r="I87" t="e">
+        <f xml:space="preserve"> I86 * hits_1_round_behind ^ A86</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J87">
         <f t="shared" si="23"/>
-        <v>2349037846.9856896</v>
-      </c>
-      <c r="J87">
+        <v>35884936968699</v>
+      </c>
+      <c r="K87">
         <f t="shared" si="24"/>
-        <v>812815865</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24748232392206</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="27"/>
+        <v>897123424217461.88</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="28"/>
+        <v>143539747874794</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <f t="shared" si="17"/>
-        <v>17272337110.188892</v>
+        <f t="shared" si="19"/>
+        <v>5203315860461278</v>
       </c>
       <c r="C88">
-        <f t="shared" si="18"/>
-        <v>259085056652.83337</v>
+        <f t="shared" si="20"/>
+        <v>7.8049737906919168E+16</v>
       </c>
       <c r="E88">
+        <f t="shared" si="25"/>
+        <v>2601657930230639</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="26"/>
+        <v>104066317209226</v>
+      </c>
+      <c r="G88">
         <f t="shared" si="21"/>
-        <v>5872594617.4642239</v>
-      </c>
-      <c r="F88">
+        <v>71769873937397</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="22"/>
-        <v>508009916</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="19"/>
-        <v>406407933</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="20"/>
-        <v>325126346</v>
-      </c>
-      <c r="I88">
+        <v>49496464784412</v>
+      </c>
+      <c r="I88" t="e">
+        <f xml:space="preserve"> I87 * hits_1_round_behind ^ A87</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J88">
         <f t="shared" si="23"/>
-        <v>2936297308.7321119</v>
-      </c>
-      <c r="J88">
+        <v>52033158604613</v>
+      </c>
+      <c r="K88">
         <f t="shared" si="24"/>
-        <v>1016019831</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35884936968699</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="27"/>
+        <v>1300828965115319.5</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="28"/>
+        <v>208132634418451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <f t="shared" si="17"/>
-        <v>21590421387.736115</v>
+        <f t="shared" si="19"/>
+        <v>7544807997668855</v>
       </c>
       <c r="C89">
-        <f t="shared" si="18"/>
-        <v>323856320816.04175</v>
+        <f t="shared" si="20"/>
+        <v>1.1317211996503283E+17</v>
       </c>
       <c r="E89">
+        <f t="shared" si="25"/>
+        <v>3772403998834427.5</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="26"/>
+        <v>150896159953377</v>
+      </c>
+      <c r="G89">
         <f t="shared" si="21"/>
-        <v>7340743271.8302794</v>
-      </c>
-      <c r="F89">
+        <v>104066317209226</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="22"/>
-        <v>635012394</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="19"/>
-        <v>508009916</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="20"/>
-        <v>406407933</v>
-      </c>
-      <c r="I89">
+        <v>71769873937397</v>
+      </c>
+      <c r="I89" t="e">
+        <f xml:space="preserve"> I88 * hits_1_round_behind ^ A88</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J89">
         <f t="shared" si="23"/>
-        <v>3670371635.9151397</v>
-      </c>
-      <c r="J89">
+        <v>75448079976689</v>
+      </c>
+      <c r="K89">
         <f t="shared" si="24"/>
-        <v>1270024788</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52033158604613</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="27"/>
+        <v>1886201999417213.8</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="28"/>
+        <v>301792319906754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <f t="shared" si="17"/>
-        <v>26988026734.670143</v>
+        <f t="shared" si="19"/>
+        <v>1.093997159661984E+16</v>
       </c>
       <c r="C90">
-        <f t="shared" si="18"/>
-        <v>404820401020.05212</v>
+        <f t="shared" si="20"/>
+        <v>1.640995739492976E+17</v>
       </c>
       <c r="E90">
+        <f t="shared" si="25"/>
+        <v>5469985798309920</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="26"/>
+        <v>218799431932397</v>
+      </c>
+      <c r="G90">
         <f t="shared" si="21"/>
-        <v>9175929089.7878494</v>
-      </c>
-      <c r="F90">
+        <v>150896159953377</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="22"/>
-        <v>793765493</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="19"/>
-        <v>635012394</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="20"/>
-        <v>508009916</v>
-      </c>
-      <c r="I90">
+        <v>104066317209226</v>
+      </c>
+      <c r="I90" t="e">
+        <f xml:space="preserve"> I89 * hits_1_round_behind ^ A89</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J90">
         <f t="shared" si="23"/>
-        <v>4587964544.8939247</v>
-      </c>
-      <c r="J90">
+        <v>109399715966198</v>
+      </c>
+      <c r="K90">
         <f t="shared" si="24"/>
-        <v>1587530985</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75448079976689</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="27"/>
+        <v>2734992899154960</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="28"/>
+        <v>437598863864794</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <f t="shared" si="17"/>
-        <v>33735033418.337677</v>
+        <f t="shared" si="19"/>
+        <v>1.5862958815098768E+16</v>
       </c>
       <c r="C91">
-        <f t="shared" si="18"/>
-        <v>506025501275.06519</v>
+        <f t="shared" si="20"/>
+        <v>2.3794438222648154E+17</v>
       </c>
       <c r="E91">
+        <f t="shared" si="25"/>
+        <v>7931479407549384</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="26"/>
+        <v>317259176301975</v>
+      </c>
+      <c r="G91">
         <f t="shared" si="21"/>
-        <v>11469911362.23481</v>
-      </c>
-      <c r="F91">
+        <v>218799431932397</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="22"/>
-        <v>992206866</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="19"/>
-        <v>793765493</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="20"/>
-        <v>635012394</v>
-      </c>
-      <c r="I91">
+        <v>150896159953377</v>
+      </c>
+      <c r="I91" t="e">
+        <f xml:space="preserve"> I90 * hits_1_round_behind ^ A90</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J91">
         <f t="shared" si="23"/>
-        <v>5734955681.1174049</v>
-      </c>
-      <c r="J91">
+        <v>158629588150988</v>
+      </c>
+      <c r="K91">
         <f t="shared" si="24"/>
-        <v>1984413731</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109399715966198</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="27"/>
+        <v>3965739703774692</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="28"/>
+        <v>634518352603951</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <f t="shared" si="17"/>
-        <v>42168791772.922104</v>
+        <f t="shared" si="19"/>
+        <v>2.3001290281893212E+16</v>
       </c>
       <c r="C92">
-        <f t="shared" si="18"/>
-        <v>632531876593.83154</v>
+        <f t="shared" si="20"/>
+        <v>3.4501935422839821E+17</v>
       </c>
       <c r="E92">
+        <f t="shared" si="25"/>
+        <v>1.1500645140946606E+16</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="26"/>
+        <v>460025805637864</v>
+      </c>
+      <c r="G92">
         <f t="shared" si="21"/>
-        <v>14337389202.793516</v>
-      </c>
-      <c r="F92">
+        <v>317259176301975</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="22"/>
-        <v>1240258582</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="19"/>
-        <v>992206866</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="20"/>
-        <v>793765493</v>
-      </c>
-      <c r="I92">
+        <v>218799431932397</v>
+      </c>
+      <c r="I92" t="e">
+        <f xml:space="preserve"> I91 * hits_1_round_behind ^ A91</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J92">
         <f t="shared" si="23"/>
-        <v>7168694601.3967581</v>
-      </c>
-      <c r="J92">
+        <v>230012902818932</v>
+      </c>
+      <c r="K92">
         <f t="shared" si="24"/>
-        <v>2480517164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>158629588150988</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="27"/>
+        <v>5750322570473303</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="28"/>
+        <v>920051611275729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <f t="shared" si="17"/>
-        <v>52710989716.152626</v>
+        <f t="shared" si="19"/>
+        <v>3.3351870908745156E+16</v>
       </c>
       <c r="C93">
-        <f t="shared" si="18"/>
-        <v>790664845742.28943</v>
+        <f t="shared" si="20"/>
+        <v>5.0027806363117734E+17</v>
       </c>
       <c r="E93">
-        <f t="shared" si="21"/>
-        <v>17921736503.491894</v>
+        <f t="shared" si="25"/>
+        <v>1.6675935454372578E+16</v>
       </c>
       <c r="F93">
-        <f t="shared" si="22"/>
-        <v>1550323227</v>
+        <f t="shared" si="26"/>
+        <v>667037418174903</v>
       </c>
       <c r="G93">
         <f>ROUNDUP(B93/$E$4, 0)</f>
-        <v>1240258582</v>
+        <v>460025805637864</v>
       </c>
       <c r="H93">
-        <f t="shared" si="20"/>
-        <v>992206866</v>
-      </c>
-      <c r="I93">
+        <f t="shared" si="22"/>
+        <v>317259176301975</v>
+      </c>
+      <c r="I93" t="e">
+        <f xml:space="preserve"> I92 * hits_1_round_behind ^ A92</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J93">
         <f t="shared" si="23"/>
-        <v>8960868251.7459469</v>
-      </c>
-      <c r="J93">
+        <v>333518709087452</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="24"/>
-        <v>3100646454</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>230012902818932</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="27"/>
+        <v>8337967727186289</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="28"/>
+        <v>1334074836349810</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <f t="shared" si="17"/>
-        <v>65888737145.190788</v>
+        <f t="shared" si="19"/>
+        <v>4.8360212817680472E+16</v>
       </c>
       <c r="C94">
-        <f t="shared" si="18"/>
-        <v>988331057177.86182</v>
+        <f t="shared" si="20"/>
+        <v>7.2540319226520704E+17</v>
       </c>
       <c r="E94">
-        <f t="shared" si="21"/>
-        <v>22402170629.364868</v>
+        <f t="shared" si="25"/>
+        <v>2.4180106408840236E+16</v>
       </c>
       <c r="F94">
+        <f t="shared" si="26"/>
+        <v>967204256353610</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ref="G94:G102" si="29">ROUNDUP(B94/$E$4, 0)</f>
+        <v>667037418174903</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="22"/>
-        <v>1937904034</v>
-      </c>
-      <c r="G94">
-        <f t="shared" ref="G94:G102" si="25">ROUNDUP(B94/$E$4, 0)</f>
-        <v>1550323227</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="20"/>
-        <v>1240258582</v>
-      </c>
-      <c r="I94">
+        <v>460025805637864</v>
+      </c>
+      <c r="I94" t="e">
+        <f xml:space="preserve"> I93 * hits_1_round_behind ^ A93</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="23"/>
-        <v>11201085314.682434</v>
-      </c>
-      <c r="J94">
+        <v>483602128176805</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="24"/>
-        <v>3875808068</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>333518709087452</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="27"/>
+        <v>1.2090053204420118E+16</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="28"/>
+        <v>1934408512707220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <f t="shared" si="17"/>
-        <v>82360921431.48848</v>
+        <f t="shared" si="19"/>
+        <v>7.0122308585636704E+16</v>
       </c>
       <c r="C95">
-        <f t="shared" si="18"/>
-        <v>1235413821472.3271</v>
+        <f t="shared" si="20"/>
+        <v>1.0518346287845505E+18</v>
       </c>
       <c r="E95">
-        <f t="shared" si="21"/>
-        <v>28002713286.706081</v>
+        <f t="shared" si="25"/>
+        <v>3.5061154292818352E+16</v>
       </c>
       <c r="F95">
+        <f t="shared" si="26"/>
+        <v>1402446171712730</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="29"/>
+        <v>967204256353610</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="22"/>
-        <v>2422380043</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="25"/>
-        <v>1937904034</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="20"/>
-        <v>1550323227</v>
-      </c>
-      <c r="I95">
+        <v>667037418174903</v>
+      </c>
+      <c r="I95" t="e">
+        <f xml:space="preserve"> I94 * hits_1_round_behind ^ A94</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="23"/>
-        <v>14001356643.353041</v>
-      </c>
-      <c r="J95">
+        <v>701223085856367</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="24"/>
-        <v>4844760085</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>483602128176805</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="27"/>
+        <v>1.7530577146409176E+16</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="28"/>
+        <v>2804892343425470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <f t="shared" si="17"/>
-        <v>102951151789.36058</v>
+        <f t="shared" si="19"/>
+        <v>1.0167734744917317E+17</v>
       </c>
       <c r="C96">
-        <f t="shared" si="18"/>
-        <v>1544267276840.4087</v>
+        <f t="shared" si="20"/>
+        <v>1.5251602117375974E+18</v>
       </c>
       <c r="E96">
-        <f t="shared" si="21"/>
-        <v>35003391608.382599</v>
+        <f t="shared" si="25"/>
+        <v>5.0838673724586584E+16</v>
       </c>
       <c r="F96">
+        <f t="shared" si="26"/>
+        <v>2033546948983460</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="29"/>
+        <v>1402446171712730</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="22"/>
-        <v>3027975053</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="25"/>
-        <v>2422380043</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="20"/>
-        <v>1937904034</v>
-      </c>
-      <c r="I96">
+        <v>967204256353609</v>
+      </c>
+      <c r="I96" t="e">
+        <f xml:space="preserve"> I95 * hits_1_round_behind ^ A95</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="23"/>
-        <v>17501695804.191299</v>
-      </c>
-      <c r="J96">
+        <v>1016773474491730</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="24"/>
-        <v>6055950106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>701223085856367</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="27"/>
+        <v>2.5419336862293292E+16</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="28"/>
+        <v>4067093897966930</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <f t="shared" si="17"/>
-        <v>128688939736.70074</v>
+        <f t="shared" si="19"/>
+        <v>1.4743215380130115E+17</v>
       </c>
       <c r="C97">
-        <f t="shared" si="18"/>
-        <v>1930334096050.5112</v>
+        <f t="shared" si="20"/>
+        <v>2.2114823070195172E+18</v>
       </c>
       <c r="E97">
-        <f t="shared" si="21"/>
-        <v>43754239510.478256</v>
+        <f t="shared" si="25"/>
+        <v>7.3716076900650576E+16</v>
       </c>
       <c r="F97">
+        <f t="shared" si="26"/>
+        <v>2948643076026020</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="29"/>
+        <v>2033546948983460</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="22"/>
-        <v>3784968816</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="25"/>
-        <v>3027975053</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="20"/>
-        <v>2422380043</v>
-      </c>
-      <c r="I97">
+        <v>1402446171712730</v>
+      </c>
+      <c r="I97" t="e">
+        <f xml:space="preserve"> I96 * hits_1_round_behind ^ A96</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="23"/>
-        <v>21877119755.239128</v>
-      </c>
-      <c r="J97">
+        <v>1474321538013010</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="24"/>
-        <v>7569937632</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1016773474491730</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="27"/>
+        <v>3.6858038450325288E+16</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="28"/>
+        <v>5897286152052050</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <f t="shared" si="17"/>
-        <v>160861174670.87592</v>
+        <f t="shared" si="19"/>
+        <v>2.1377662301188666E+17</v>
       </c>
       <c r="C98">
-        <f t="shared" si="18"/>
-        <v>2412917620063.1387</v>
+        <f t="shared" si="20"/>
+        <v>3.2066493451782999E+18</v>
       </c>
       <c r="E98">
-        <f t="shared" si="21"/>
-        <v>54692799388.097816</v>
+        <f t="shared" si="25"/>
+        <v>1.0688831150594333E+17</v>
       </c>
       <c r="F98">
+        <f t="shared" si="26"/>
+        <v>4275532460237730</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="29"/>
+        <v>2948643076026020</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="22"/>
-        <v>4731211020</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="25"/>
-        <v>3784968816</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="20"/>
-        <v>3027975053</v>
-      </c>
-      <c r="I98">
+        <v>2033546948983460</v>
+      </c>
+      <c r="I98" t="e">
+        <f xml:space="preserve"> I97 * hits_1_round_behind ^ A97</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="23"/>
-        <v>27346399694.048908</v>
-      </c>
-      <c r="J98">
+        <v>2137766230118870</v>
+      </c>
+      <c r="K98">
         <f t="shared" si="24"/>
-        <v>9462422040</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1474321538013010</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="27"/>
+        <v>5.3444155752971664E+16</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="28"/>
+        <v>8551064920475470</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <f t="shared" si="17"/>
-        <v>201076468338.59491</v>
+        <f t="shared" si="19"/>
+        <v>3.0997610336723565E+17</v>
       </c>
       <c r="C99">
-        <f t="shared" si="18"/>
-        <v>3016147025078.9238</v>
+        <f t="shared" si="20"/>
+        <v>4.6496415505085348E+18</v>
       </c>
       <c r="E99">
-        <f t="shared" si="21"/>
-        <v>68365999235.122269</v>
+        <f t="shared" si="25"/>
+        <v>1.5498805168361782E+17</v>
       </c>
       <c r="F99">
+        <f t="shared" si="26"/>
+        <v>6199522067344710</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="29"/>
+        <v>4275532460237730</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="22"/>
-        <v>5914013775</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="25"/>
-        <v>4731211020</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="20"/>
-        <v>3784968816</v>
-      </c>
-      <c r="I99">
+        <v>2948643076026020</v>
+      </c>
+      <c r="I99" t="e">
+        <f xml:space="preserve"> I98 * hits_1_round_behind ^ A98</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="23"/>
-        <v>34182999617.561134</v>
-      </c>
-      <c r="J99">
+        <v>3099761033672360</v>
+      </c>
+      <c r="K99">
         <f t="shared" si="24"/>
-        <v>11828027550</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2137766230118870</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="27"/>
+        <v>7.7494025841808912E+16</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="28"/>
+        <v>1.23990441346894E+16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <f t="shared" si="17"/>
-        <v>251345585423.24365</v>
+        <f t="shared" si="19"/>
+        <v>4.4946534988249171E+17</v>
       </c>
       <c r="C100">
-        <f t="shared" si="18"/>
-        <v>3770183781348.6548</v>
+        <f t="shared" si="20"/>
+        <v>6.7419802482373755E+18</v>
       </c>
       <c r="E100">
-        <f t="shared" si="21"/>
-        <v>85457499043.902847</v>
+        <f t="shared" si="25"/>
+        <v>2.2473267494124586E+17</v>
       </c>
       <c r="F100">
+        <f t="shared" si="26"/>
+        <v>8989306997649830</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="29"/>
+        <v>6199522067344710</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="22"/>
-        <v>7392517219</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="25"/>
-        <v>5914013775</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="20"/>
-        <v>4731211020</v>
-      </c>
-      <c r="I100">
+        <v>4275532460237730</v>
+      </c>
+      <c r="I100" t="e">
+        <f xml:space="preserve"> I99 * hits_1_round_behind ^ A99</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="23"/>
-        <v>42728749521.951424</v>
-      </c>
-      <c r="J100">
+        <v>4494653498824920</v>
+      </c>
+      <c r="K100">
         <f t="shared" si="24"/>
-        <v>14785034437</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3099761033672360</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="27"/>
+        <v>1.1236633747062293E+17</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="28"/>
+        <v>1.79786139952997E+16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <f t="shared" si="17"/>
-        <v>314181981779.05457</v>
+        <f t="shared" si="19"/>
+        <v>6.5172475732961293E+17</v>
       </c>
       <c r="C101">
-        <f t="shared" si="18"/>
-        <v>4712729726685.8184</v>
+        <f t="shared" si="20"/>
+        <v>9.775871359944194E+18</v>
       </c>
       <c r="E101">
-        <f t="shared" si="21"/>
-        <v>106821873804.87856</v>
+        <f t="shared" si="25"/>
+        <v>3.2586237866480646E+17</v>
       </c>
       <c r="F101">
+        <f t="shared" si="26"/>
+        <v>1.30344951465923E+16</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="29"/>
+        <v>8989306997649830</v>
+      </c>
+      <c r="H101">
         <f t="shared" si="22"/>
-        <v>9240646523</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="25"/>
-        <v>7392517219</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="20"/>
-        <v>5914013775</v>
-      </c>
-      <c r="I101">
+        <v>6199522067344710</v>
+      </c>
+      <c r="I101" t="e">
+        <f xml:space="preserve"> I100 * hits_1_round_behind ^ A100</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="23"/>
-        <v>53410936902.439278</v>
-      </c>
-      <c r="J101">
+        <v>6517247573296130</v>
+      </c>
+      <c r="K101">
         <f t="shared" si="24"/>
-        <v>18481293046</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4494653498824920</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="27"/>
+        <v>1.6293118933240323E+17</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="28"/>
+        <v>2.60689902931845E+16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
-        <f t="shared" si="17"/>
-        <v>392727477223.81818</v>
+        <f t="shared" si="19"/>
+        <v>9.4500089812793882E+17</v>
       </c>
       <c r="C102">
-        <f t="shared" si="18"/>
-        <v>5890912158357.2725</v>
+        <f t="shared" si="20"/>
+        <v>1.4175013471919081E+19</v>
       </c>
       <c r="E102">
-        <f t="shared" si="21"/>
-        <v>133527342256.09818</v>
+        <f t="shared" si="25"/>
+        <v>4.7250044906396941E+17</v>
       </c>
       <c r="F102">
+        <f t="shared" si="26"/>
+        <v>1.89000179625588E+16</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="29"/>
+        <v>1.30344951465923E+16</v>
+      </c>
+      <c r="H102">
         <f t="shared" si="22"/>
-        <v>11550808154</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="25"/>
-        <v>9240646523</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="20"/>
-        <v>7392517219</v>
-      </c>
-      <c r="I102">
+        <v>8989306997649830</v>
+      </c>
+      <c r="I102" t="e">
+        <f xml:space="preserve"> I101 * hits_1_round_behind ^ A101</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="23"/>
-        <v>66763671128.049088</v>
-      </c>
-      <c r="J102">
+        <v>9450008981279390</v>
+      </c>
+      <c r="K102">
         <f t="shared" si="24"/>
-        <v>23101616308</v>
+        <v>6517247573296130</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="27"/>
+        <v>2.362502245319847E+17</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="28"/>
+        <v>3.78000359251176E+16</v>
       </c>
     </row>
   </sheetData>
@@ -5209,14 +6430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6030,14 +7251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6404,14 +7625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaume\Desktop\Uni repos\Tankerfield\docs\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D6952-2F49-4750-B178-74C0F3C6AF49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC706507-0FE2-4FF6-B5AF-569734E0658E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,34 +334,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.125</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152.43125000000001</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221.02531249999998</c:v>
+                  <c:v>303.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320.48670312499996</c:v>
+                  <c:v>455.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>464.70571953125</c:v>
+                  <c:v>683.4375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>673.82329332031247</c:v>
+                  <c:v>1025.15625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>977.04377531445311</c:v>
+                  <c:v>1537.734375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1416.713474205957</c:v>
+                  <c:v>2306.6015625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="R1">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>27</v>
@@ -1511,8 +1511,8 @@
         <v>1500</v>
       </c>
       <c r="E3">
-        <f xml:space="preserve"> 50</f>
-        <v>50</v>
+        <f xml:space="preserve"> 60</f>
+        <v>60</v>
       </c>
       <c r="F3">
         <f>ROUNDUP(B3/base_damage, 0)</f>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="L3">
         <f>base_damage/2</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M3">
         <f>ROUNDUP(B3/explosion_shot_base, 0)</f>
@@ -1566,15 +1566,15 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B35" si="0" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A3</f>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C35" si="1" xml:space="preserve"> $B$3*hits_1_round_behind^A3*brute_life_multiplier</f>
-        <v>2175</v>
+        <v>2250</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E35" si="2" xml:space="preserve"> base_damage * hits_1_round_behind ^ A3</f>
-        <v>72.5</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F34" si="3">ROUNDUP(B4/base_damage, 0)</f>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I4">
         <f xml:space="preserve"> I3 * hits_1_round_behind ^ A3</f>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J4">
         <f>ROUNDUP(B4/$I$3, 0)</f>
@@ -1602,11 +1602,11 @@
       </c>
       <c r="L4">
         <f>E4/2</f>
-        <v>36.25</v>
+        <v>45</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M34" si="6">ROUNDUP(B4/explosion_shot_base, 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>7</v>
@@ -1625,19 +1625,19 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>210.25</v>
+        <v>225</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>3153.75</v>
+        <v>3375</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>105.125</v>
+        <v>135</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I5">
         <f xml:space="preserve"> I4 * hits_1_round_behind ^ A4</f>
-        <v>304.86250000000001</v>
+        <v>337.5</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J68" si="7">ROUNDUP(B5/$I$3, 0)</f>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L61" si="9">E5/2</f>
-        <v>52.5625</v>
+        <v>67.5</v>
       </c>
       <c r="M5">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U5" s="3"/>
     </row>
@@ -1675,23 +1675,23 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>304.86250000000001</v>
+        <v>337.5</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>4572.9375</v>
+        <v>5062.5</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>152.43125000000001</v>
+        <v>202.5</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <f t="shared" si="5"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I6">
         <f xml:space="preserve"> I5 * hits_1_round_behind ^ A5</f>
-        <v>929.41143906249999</v>
+        <v>1139.0625</v>
       </c>
       <c r="J6">
         <f t="shared" si="7"/>
@@ -1711,11 +1711,11 @@
       </c>
       <c r="L6">
         <f t="shared" si="9"/>
-        <v>76.215625000000003</v>
+        <v>101.25</v>
       </c>
       <c r="M6">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1724,15 +1724,15 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>442.05062499999997</v>
+        <v>506.25</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>6630.7593749999996</v>
+        <v>7593.75</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>221.02531249999998</v>
+        <v>303.75</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
@@ -1740,19 +1740,19 @@
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <f xml:space="preserve"> I6 * hits_1_round_behind ^ A6</f>
-        <v>4108.4690751972748</v>
+        <v>5766.50390625</v>
       </c>
       <c r="J7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <f t="shared" si="8"/>
@@ -1760,11 +1760,11 @@
       </c>
       <c r="L7">
         <f t="shared" si="9"/>
-        <v>110.51265624999999</v>
+        <v>151.875</v>
       </c>
       <c r="M7">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1773,15 +1773,15 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>640.97340624999993</v>
+        <v>759.375</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>9614.6010937499996</v>
+        <v>11390.625</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>320.48670312499996</v>
+        <v>455.625</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
@@ -1793,23 +1793,23 @@
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <f xml:space="preserve"> I7 * hits_1_round_behind ^ A7</f>
-        <v>26334.194176019842</v>
+        <v>43789.389038085938</v>
       </c>
       <c r="J8">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <f t="shared" si="9"/>
-        <v>160.24335156249998</v>
+        <v>227.8125</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -1822,15 +1822,15 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>929.41143906249999</v>
+        <v>1139.0625</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>13941.1715859375</v>
+        <v>17085.9375</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>464.70571953125</v>
+        <v>683.4375</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
@@ -1846,19 +1846,19 @@
       </c>
       <c r="I9">
         <f xml:space="preserve"> I8 * hits_1_round_behind ^ A8</f>
-        <v>244753.01305685905</v>
+        <v>498788.50951194763</v>
       </c>
       <c r="J9">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K9">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <f t="shared" si="9"/>
-        <v>232.352859765625</v>
+        <v>341.71875</v>
       </c>
       <c r="M9">
         <f t="shared" si="6"/>
@@ -1871,19 +1871,19 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1347.6465866406249</v>
+        <v>1708.59375</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>20214.698799609374</v>
+        <v>25628.90625</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>673.82329332031247</v>
+        <v>1025.15625</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
@@ -1895,23 +1895,23 @@
       </c>
       <c r="I10">
         <f xml:space="preserve"> I9 * hits_1_round_behind ^ A9</f>
-        <v>3298405.6261608442</v>
+        <v>8522269.2992392927</v>
       </c>
       <c r="J10">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L10">
         <f t="shared" si="9"/>
-        <v>336.91164666015624</v>
+        <v>512.578125</v>
       </c>
       <c r="M10">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1920,23 +1920,23 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1954.0875506289062</v>
+        <v>2562.890625</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>29311.313259433595</v>
+        <v>38443.359375</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>977.04377531445311</v>
+        <v>1537.734375</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="5"/>
@@ -1944,23 +1944,23 @@
       </c>
       <c r="I11">
         <f xml:space="preserve"> I10 * hits_1_round_behind ^ A10</f>
-        <v>64453733.710052475</v>
+        <v>218416440.90745702</v>
       </c>
       <c r="J11">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K11">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L11">
         <f t="shared" si="9"/>
-        <v>488.52188765722656</v>
+        <v>768.8671875</v>
       </c>
       <c r="M11">
         <f t="shared" si="6"/>
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1969,47 +1969,47 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>2833.4269484119141</v>
+        <v>3844.3359375</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>42501.404226178711</v>
+        <v>57665.0390625</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>1416.713474205957</v>
+        <v>2306.6015625</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I12">
         <f xml:space="preserve"> I11 * hits_1_round_behind ^ A11</f>
-        <v>1826249460.198281</v>
+        <v>8396661731.2138214</v>
       </c>
       <c r="J12">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L12">
         <f t="shared" si="9"/>
-        <v>708.35673710297851</v>
+        <v>1153.30078125</v>
       </c>
       <c r="M12">
         <f t="shared" si="6"/>
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -2018,47 +2018,47 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>4108.4690751972748</v>
+        <v>5766.50390625</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>61627.036127959123</v>
+        <v>86497.55859375</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>2054.2345375986374</v>
+        <v>3459.90234375</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I13">
         <f xml:space="preserve"> I12 * hits_1_round_behind ^ A12</f>
-        <v>75030894308.203552</v>
+        <v>484193826725.04388</v>
       </c>
       <c r="J13">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K13">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L13">
         <f t="shared" si="9"/>
-        <v>1027.1172687993187</v>
+        <v>1729.951171875</v>
       </c>
       <c r="M13">
         <f t="shared" si="6"/>
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -2067,47 +2067,47 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>5957.2801590360496</v>
+        <v>8649.755859375</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>89359.202385540746</v>
+        <v>129746.337890625</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>2978.6400795180248</v>
+        <v>5189.853515625</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I14">
         <f xml:space="preserve"> I13 * hits_1_round_behind ^ A13</f>
-        <v>4469800579769.9189</v>
+        <v>41881583897881.516</v>
       </c>
       <c r="J14">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K14">
         <f t="shared" si="8"/>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="L14">
         <f t="shared" si="9"/>
-        <v>1489.3200397590124</v>
+        <v>2594.9267578125</v>
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
-        <v>239</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2116,47 +2116,47 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>8638.0562306022712</v>
+        <v>12974.6337890625</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>129570.84345903406</v>
+        <v>194619.5068359375</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>4319.0281153011356</v>
+        <v>7784.7802734375</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <f xml:space="preserve"> I14 * hits_1_round_behind ^ A14</f>
-        <v>386103887476311.94</v>
+        <v>5433982135809094</v>
       </c>
       <c r="J15">
         <f t="shared" si="7"/>
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K15">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="L15">
         <f t="shared" si="9"/>
-        <v>2159.5140576505678</v>
+        <v>3892.39013671875</v>
       </c>
       <c r="M15">
         <f t="shared" si="6"/>
-        <v>346</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -2165,47 +2165,47 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>12525.181534373292</v>
+        <v>19461.95068359375</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>187877.72301559939</v>
+        <v>291929.26025390625</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>6262.5907671866462</v>
+        <v>11677.17041015625</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="I16">
         <f xml:space="preserve"> I15 * hits_1_round_behind ^ A15</f>
-        <v>4.8360212817680456E+16</v>
+        <v>1.0575589234264603E+18</v>
       </c>
       <c r="J16">
         <f t="shared" si="7"/>
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="K16">
         <f t="shared" si="8"/>
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="L16">
         <f t="shared" si="9"/>
-        <v>3131.2953835933231</v>
+        <v>5838.585205078125</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>502</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2214,47 +2214,47 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>18161.513224841274</v>
+        <v>29192.926025390625</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>272422.69837261911</v>
+        <v>437893.89038085938</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>9080.7566124206369</v>
+        <v>17515.755615234375</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>487</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="I17">
         <f xml:space="preserve"> I16 * hits_1_round_behind ^ A16</f>
-        <v>8.7829464464444211E+18</v>
+        <v>3.0873239419080403E+20</v>
       </c>
       <c r="J17">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="K17">
         <f t="shared" si="8"/>
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="L17">
         <f t="shared" si="9"/>
-        <v>4540.3783062103184</v>
+        <v>8757.8778076171875</v>
       </c>
       <c r="M17">
         <f t="shared" si="6"/>
-        <v>727</v>
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2263,47 +2263,47 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>26334.19417601985</v>
+        <v>43789.389038085938</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>395012.91264029773</v>
+        <v>656840.83557128906</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>13167.097088009925</v>
+        <v>26273.633422851563</v>
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>527</v>
+        <v>730</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
-        <v>364</v>
+        <v>487</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="I18">
         <f xml:space="preserve"> I17 * hits_1_round_behind ^ A17</f>
-        <v>2.3129181715825091E+21</v>
+        <v>1.351920291788082E+23</v>
       </c>
       <c r="J18">
         <f t="shared" si="7"/>
-        <v>264</v>
+        <v>438</v>
       </c>
       <c r="K18">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="L18">
         <f t="shared" si="9"/>
-        <v>6583.5485440049624</v>
+        <v>13136.816711425781</v>
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
-        <v>1054</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2312,47 +2312,47 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>38184.581555228782</v>
+        <v>65684.083557128906</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>572768.72332843172</v>
+        <v>985261.25335693359</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>19092.290777614391</v>
+        <v>39410.450134277344</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>764</v>
+        <v>1095</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>527</v>
+        <v>730</v>
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
-        <v>364</v>
+        <v>487</v>
       </c>
       <c r="I19">
         <f xml:space="preserve"> I18 * hits_1_round_behind ^ A18</f>
-        <v>8.8317812553362965E+23</v>
+        <v>8.8799645408386476E+25</v>
       </c>
       <c r="J19">
         <f t="shared" si="7"/>
-        <v>382</v>
+        <v>657</v>
       </c>
       <c r="K19">
         <f t="shared" si="8"/>
-        <v>264</v>
+        <v>438</v>
       </c>
       <c r="L19">
         <f t="shared" si="9"/>
-        <v>9546.1453888071956</v>
+        <v>19705.225067138672</v>
       </c>
       <c r="M19">
         <f t="shared" si="6"/>
-        <v>1528</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2361,47 +2361,47 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>55367.643255081734</v>
+        <v>98526.125335693359</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>830514.64882622601</v>
+        <v>1477891.8800354004</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>27683.821627540867</v>
+        <v>59115.675201416016</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>1108</v>
+        <v>1643</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
-        <v>764</v>
+        <v>1095</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>527</v>
+        <v>730</v>
       </c>
       <c r="I20">
         <f xml:space="preserve"> I19 * hits_1_round_behind ^ A19</f>
-        <v>4.8899491385237798E+26</v>
+        <v>8.7490849932718141E+28</v>
       </c>
       <c r="J20">
         <f t="shared" si="7"/>
-        <v>554</v>
+        <v>986</v>
       </c>
       <c r="K20">
         <f t="shared" si="8"/>
-        <v>382</v>
+        <v>657</v>
       </c>
       <c r="L20">
         <f t="shared" si="9"/>
-        <v>13841.910813770433</v>
+        <v>29557.837600708008</v>
       </c>
       <c r="M20">
         <f t="shared" si="6"/>
-        <v>2215</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2410,47 +2410,47 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>80283.082719868515</v>
+        <v>147789.18800354004</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>1204246.2407980277</v>
+        <v>2216837.8200531006</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>40141.541359934257</v>
+        <v>88673.512802124023</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>1606</v>
+        <v>2464</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>1108</v>
+        <v>1643</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
-        <v>764</v>
+        <v>1095</v>
       </c>
       <c r="I21">
         <f xml:space="preserve"> I20 * hits_1_round_behind ^ A20</f>
-        <v>3.9258019118405443E+29</v>
+        <v>1.293020166929599E+32</v>
       </c>
       <c r="J21">
         <f t="shared" si="7"/>
-        <v>803</v>
+        <v>1478</v>
       </c>
       <c r="K21">
         <f t="shared" si="8"/>
-        <v>554</v>
+        <v>986</v>
       </c>
       <c r="L21">
         <f t="shared" si="9"/>
-        <v>20070.770679967129</v>
+        <v>44336.756401062012</v>
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
-        <v>3212</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2459,47 +2459,47 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>116410.46994380934</v>
+        <v>221683.78200531006</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>1746157.0491571401</v>
+        <v>3325256.7300796509</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>58205.234971904669</v>
+        <v>133010.26920318604</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>2329</v>
+        <v>3695</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
-        <v>1606</v>
+        <v>2464</v>
       </c>
       <c r="H22">
         <f t="shared" si="5"/>
-        <v>1108</v>
+        <v>1643</v>
       </c>
       <c r="I22">
         <f xml:space="preserve"> I21 * hits_1_round_behind ^ A21</f>
-        <v>4.5700444546366291E+32</v>
+        <v>2.8664160081409085E+35</v>
       </c>
       <c r="J22">
         <f t="shared" si="7"/>
-        <v>1165</v>
+        <v>2217</v>
       </c>
       <c r="K22">
         <f t="shared" si="8"/>
-        <v>803</v>
+        <v>1478</v>
       </c>
       <c r="L22">
         <f t="shared" si="9"/>
-        <v>29102.617485952334</v>
+        <v>66505.134601593018</v>
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
-        <v>4657</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2508,47 +2508,47 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>168795.18141852354</v>
+        <v>332525.67300796509</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>2531927.721277853</v>
+        <v>4987885.0951194763</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>84397.590709261771</v>
+        <v>199515.40380477905</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>3376</v>
+        <v>5543</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>2329</v>
+        <v>3695</v>
       </c>
       <c r="H23">
         <f t="shared" si="5"/>
-        <v>1606</v>
+        <v>2464</v>
       </c>
       <c r="I23">
         <f xml:space="preserve"> I22 * hits_1_round_behind ^ A22</f>
-        <v>7.7140148281110734E+35</v>
+        <v>9.531569122278604E+38</v>
       </c>
       <c r="J23">
         <f t="shared" si="7"/>
-        <v>1688</v>
+        <v>3326</v>
       </c>
       <c r="K23">
         <f t="shared" si="8"/>
-        <v>1165</v>
+        <v>2217</v>
       </c>
       <c r="L23">
         <f t="shared" si="9"/>
-        <v>42198.795354630885</v>
+        <v>99757.701902389526</v>
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
-        <v>6752</v>
+        <v>11085</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2557,47 +2557,47 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>244753.01305685911</v>
+        <v>498788.50951194763</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>3671295.1958528869</v>
+        <v>7481827.6426792145</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>122376.50652842956</v>
+        <v>299273.10570716858</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>4896</v>
+        <v>8314</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>3376</v>
+        <v>5543</v>
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
-        <v>2329</v>
+        <v>3695</v>
       </c>
       <c r="I24">
         <f xml:space="preserve"> I23 * hits_1_round_behind ^ A23</f>
-        <v>1.8880283719454743E+39</v>
+        <v>4.7542371558114476E+42</v>
       </c>
       <c r="J24">
         <f t="shared" si="7"/>
-        <v>2448</v>
+        <v>4988</v>
       </c>
       <c r="K24">
         <f t="shared" si="8"/>
-        <v>1688</v>
+        <v>3326</v>
       </c>
       <c r="L24">
         <f t="shared" si="9"/>
-        <v>61188.253264214778</v>
+        <v>149636.55285358429</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
-        <v>9791</v>
+        <v>16627</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2606,47 +2606,47 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>354891.86893244577</v>
+        <v>748182.76426792145</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>5323378.0339866867</v>
+        <v>11222741.464018822</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>177445.93446622288</v>
+        <v>448909.65856075287</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>7098</v>
+        <v>12470</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>4896</v>
+        <v>8314</v>
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
-        <v>3376</v>
+        <v>5543</v>
       </c>
       <c r="I25">
         <f xml:space="preserve"> I24 * hits_1_round_behind ^ A24</f>
-        <v>6.7004591751721227E+42</v>
+        <v>3.5570382972202697E+46</v>
       </c>
       <c r="J25">
         <f t="shared" si="7"/>
-        <v>3549</v>
+        <v>7482</v>
       </c>
       <c r="K25">
         <f t="shared" si="8"/>
-        <v>2448</v>
+        <v>4988</v>
       </c>
       <c r="L25">
         <f t="shared" si="9"/>
-        <v>88722.967233111442</v>
+        <v>224454.82928037643</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
-        <v>14196</v>
+        <v>24940</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2655,47 +2655,47 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>514593.20995204634</v>
+        <v>1122274.1464018822</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>7718898.1492806952</v>
+        <v>16834112.196028233</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>257296.60497602317</v>
+        <v>673364.4878411293</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>10292</v>
+        <v>18705</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>7098</v>
+        <v>12470</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>4896</v>
+        <v>8314</v>
       </c>
       <c r="I26">
         <f xml:space="preserve"> I25 * hits_1_round_behind ^ A25</f>
-        <v>3.4480107951044633E+46</v>
+        <v>3.9919721187316826E+50</v>
       </c>
       <c r="J26">
         <f t="shared" si="7"/>
-        <v>5146</v>
+        <v>11223</v>
       </c>
       <c r="K26">
         <f t="shared" si="8"/>
-        <v>3549</v>
+        <v>7482</v>
       </c>
       <c r="L26">
         <f t="shared" si="9"/>
-        <v>128648.30248801158</v>
+        <v>336682.24392056465</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
-        <v>20584</v>
+        <v>37410</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2704,47 +2704,47 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>746160.15443046729</v>
+        <v>1683411.2196028233</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>11192402.316457009</v>
+        <v>25251168.294042349</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>373080.07721523364</v>
+        <v>1010046.731761694</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>14924</v>
+        <v>28057</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>10292</v>
+        <v>18705</v>
       </c>
       <c r="H27">
         <f t="shared" si="5"/>
-        <v>7098</v>
+        <v>12470</v>
       </c>
       <c r="I27">
         <f xml:space="preserve"> I26 * hits_1_round_behind ^ A26</f>
-        <v>2.5727682673530646E+50</v>
+        <v>6.7201306530145685E+54</v>
       </c>
       <c r="J27">
         <f t="shared" si="7"/>
-        <v>7462</v>
+        <v>16835</v>
       </c>
       <c r="K27">
         <f t="shared" si="8"/>
-        <v>5146</v>
+        <v>11223</v>
       </c>
       <c r="L27">
         <f t="shared" si="9"/>
-        <v>186540.03860761682</v>
+        <v>505023.36588084698</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
-        <v>29847</v>
+        <v>56114</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2753,47 +2753,47 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1081932.2239241775</v>
+        <v>2525116.8294042349</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>16228983.358862663</v>
+        <v>37876752.441063523</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>540966.11196208873</v>
+        <v>1515070.0976425409</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>21639</v>
+        <v>42086</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>14924</v>
+        <v>28057</v>
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
-        <v>10292</v>
+        <v>18705</v>
       </c>
       <c r="I28">
         <f xml:space="preserve"> I27 * hits_1_round_behind ^ A27</f>
-        <v>2.7835608931388543E+54</v>
+        <v>1.6969115007722358E+59</v>
       </c>
       <c r="J28">
         <f t="shared" si="7"/>
-        <v>10820</v>
+        <v>25252</v>
       </c>
       <c r="K28">
         <f t="shared" si="8"/>
-        <v>7462</v>
+        <v>16835</v>
       </c>
       <c r="L28">
         <f t="shared" si="9"/>
-        <v>270483.05598104437</v>
+        <v>757535.04882127047</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
-        <v>43278</v>
+        <v>84171</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2802,47 +2802,47 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1568801.7246900571</v>
+        <v>3787675.2441063523</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>23532025.870350856</v>
+        <v>56815128.661595285</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>784400.86234502855</v>
+        <v>2272605.1464638114</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>31377</v>
+        <v>63128</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>21639</v>
+        <v>42086</v>
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>14924</v>
+        <v>28057</v>
       </c>
       <c r="I29">
         <f xml:space="preserve"> I28 * hits_1_round_behind ^ A28</f>
-        <v>4.3668551299360307E+58</v>
+        <v>6.4273496829143551E+63</v>
       </c>
       <c r="J29">
         <f t="shared" si="7"/>
-        <v>15689</v>
+        <v>37877</v>
       </c>
       <c r="K29">
         <f t="shared" si="8"/>
-        <v>10820</v>
+        <v>25252</v>
       </c>
       <c r="L29">
         <f t="shared" si="9"/>
-        <v>392200.43117251428</v>
+        <v>1136302.5732319057</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
-        <v>62753</v>
+        <v>126256</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2851,47 +2851,47 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>2274762.500800583</v>
+        <v>5681512.8661595285</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>34121437.512008749</v>
+        <v>85222692.992392927</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>1137381.2504002915</v>
+        <v>3408907.7196957171</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>45496</v>
+        <v>94692</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>31377</v>
+        <v>63128</v>
       </c>
       <c r="H30">
         <f t="shared" si="5"/>
-        <v>21639</v>
+        <v>42086</v>
       </c>
       <c r="I30">
         <f xml:space="preserve"> I29 * hits_1_round_behind ^ A29</f>
-        <v>9.9335582960071406E+62</v>
+        <v>3.6517069918784273E+68</v>
       </c>
       <c r="J30">
         <f t="shared" si="7"/>
-        <v>22748</v>
+        <v>56816</v>
       </c>
       <c r="K30">
         <f t="shared" si="8"/>
-        <v>15689</v>
+        <v>37877</v>
       </c>
       <c r="L30">
         <f t="shared" si="9"/>
-        <v>568690.62520014576</v>
+        <v>1704453.8598478585</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>90991</v>
+        <v>189384</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2900,47 +2900,47 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>3298405.6261608456</v>
+        <v>8522269.2992392927</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>49476084.392412685</v>
+        <v>127834039.48858939</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>1649202.8130804228</v>
+        <v>5113361.5795435756</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>65969</v>
+        <v>142038</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>45496</v>
+        <v>94692</v>
       </c>
       <c r="H31">
         <f t="shared" si="5"/>
-        <v>31377</v>
+        <v>63128</v>
       </c>
       <c r="I31">
         <f xml:space="preserve"> I30 * hits_1_round_behind ^ A30</f>
-        <v>3.2764904571346695E+67</v>
+        <v>3.112083038670299E+73</v>
       </c>
       <c r="J31">
         <f t="shared" si="7"/>
-        <v>32985</v>
+        <v>85223</v>
       </c>
       <c r="K31">
         <f t="shared" si="8"/>
-        <v>22748</v>
+        <v>56816</v>
       </c>
       <c r="L31">
         <f t="shared" si="9"/>
-        <v>824601.40654021141</v>
+        <v>2556680.7897717878</v>
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
-        <v>131937</v>
+        <v>284076</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2949,47 +2949,47 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>4782688.1579332249</v>
+        <v>12783403.948858939</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>71740322.368998379</v>
+        <v>191751059.23288408</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>2391344.0789666125</v>
+        <v>7670042.3693153635</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>95654</v>
+        <v>213057</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>65969</v>
+        <v>142038</v>
       </c>
       <c r="H32">
         <f t="shared" si="5"/>
-        <v>45496</v>
+        <v>94692</v>
       </c>
       <c r="I32">
         <f xml:space="preserve"> I31 * hits_1_round_behind ^ A31</f>
-        <v>1.5670432108919203E+72</v>
+        <v>3.978301460571483E+78</v>
       </c>
       <c r="J32">
         <f t="shared" si="7"/>
-        <v>47827</v>
+        <v>127835</v>
       </c>
       <c r="K32">
         <f t="shared" si="8"/>
-        <v>32985</v>
+        <v>85223</v>
       </c>
       <c r="L32">
         <f t="shared" si="9"/>
-        <v>1195672.0394833062</v>
+        <v>3835021.1846576817</v>
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
-        <v>191308</v>
+        <v>426114</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2998,47 +2998,47 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>6934897.8290031776</v>
+        <v>19175105.923288409</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>104023467.43504766</v>
+        <v>287626588.84932613</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>3467448.9145015888</v>
+        <v>11505063.553973045</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>138698</v>
+        <v>319586</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>95654</v>
+        <v>213057</v>
       </c>
       <c r="H33">
         <f t="shared" si="5"/>
-        <v>65969</v>
+        <v>142038</v>
       </c>
       <c r="I33">
         <f xml:space="preserve"> I32 * hits_1_round_behind ^ A32</f>
-        <v>1.0867284561168547E+77</v>
+        <v>7.6284351901231175E+83</v>
       </c>
       <c r="J33">
         <f t="shared" si="7"/>
-        <v>69349</v>
+        <v>191752</v>
       </c>
       <c r="K33">
         <f t="shared" si="8"/>
-        <v>47827</v>
+        <v>127835</v>
       </c>
       <c r="L33">
         <f t="shared" si="9"/>
-        <v>1733724.4572507944</v>
+        <v>5752531.7769865226</v>
       </c>
       <c r="M33">
         <f t="shared" si="6"/>
-        <v>277396</v>
+        <v>639171</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3047,47 +3047,47 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>10055601.852054607</v>
+        <v>28762658.884932615</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>150834027.78081912</v>
+        <v>431439883.2739892</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>5027800.9260273036</v>
+        <v>17257595.330959566</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>201113</v>
+        <v>479378</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
-        <v>138698</v>
+        <v>319586</v>
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
-        <v>95654</v>
+        <v>213057</v>
       </c>
       <c r="I34">
         <f xml:space="preserve"> I33 * hits_1_round_behind ^ A33</f>
-        <v>1.0927708676009089E+82</v>
+        <v>2.1941407919932729E+89</v>
       </c>
       <c r="J34">
         <f t="shared" si="7"/>
-        <v>100557</v>
+        <v>287627</v>
       </c>
       <c r="K34">
         <f t="shared" si="8"/>
-        <v>69349</v>
+        <v>191752</v>
       </c>
       <c r="L34">
         <f t="shared" si="9"/>
-        <v>2513900.4630136518</v>
+        <v>8628797.665479783</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
-        <v>402225</v>
+        <v>958756</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -3096,47 +3096,47 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>14580622.685479181</v>
+        <v>43143988.327398919</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>218709340.2821877</v>
+        <v>647159824.9109838</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>7290311.3427395904</v>
+        <v>25886392.996439353</v>
       </c>
       <c r="F35">
         <f t="shared" ref="F35:F61" si="10">ROUNDUP(B35/base_damage, 0)</f>
-        <v>291613</v>
+        <v>719067</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
-        <v>201113</v>
+        <v>479378</v>
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
-        <v>138698</v>
+        <v>319586</v>
       </c>
       <c r="I35">
         <f xml:space="preserve"> I34 * hits_1_round_behind ^ A34</f>
-        <v>1.593327970217258E+87</v>
+        <v>9.4663984718427585E+94</v>
       </c>
       <c r="J35">
         <f t="shared" si="7"/>
-        <v>145807</v>
+        <v>431440</v>
       </c>
       <c r="K35">
         <f t="shared" si="8"/>
-        <v>100557</v>
+        <v>287627</v>
       </c>
       <c r="L35">
         <f t="shared" si="9"/>
-        <v>3645155.6713697952</v>
+        <v>12943196.498219676</v>
       </c>
       <c r="M35">
         <f t="shared" ref="M35:M61" si="11">ROUNDUP(B35/explosion_shot_base, 0)</f>
-        <v>583225</v>
+        <v>1438133</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3145,47 +3145,47 @@
       </c>
       <c r="B36">
         <f t="shared" ref="B36:B67" si="12" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A35</f>
-        <v>21141902.893944811</v>
+        <v>64715982.491098382</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:C67" si="13" xml:space="preserve"> $B$3*hits_1_round_behind^A35*brute_life_multiplier</f>
-        <v>317128543.40917218</v>
+        <v>970739737.3664757</v>
       </c>
       <c r="E36">
         <f t="shared" ref="E36:E61" si="14" xml:space="preserve"> base_damage * hits_1_round_behind ^ A35</f>
-        <v>10570951.446972406</v>
+        <v>38829589.494659029</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>422839</v>
+        <v>1078600</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>291613</v>
+        <v>719067</v>
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>201113</v>
+        <v>479378</v>
       </c>
       <c r="I36">
         <f xml:space="preserve"> I35 * hits_1_round_behind ^ A35</f>
-        <v>3.3685985224539459E+92</v>
+        <v>6.1262727775753642E+100</v>
       </c>
       <c r="J36">
         <f t="shared" si="7"/>
-        <v>211420</v>
+        <v>647160</v>
       </c>
       <c r="K36">
         <f t="shared" si="8"/>
-        <v>145807</v>
+        <v>431440</v>
       </c>
       <c r="L36">
         <f t="shared" si="9"/>
-        <v>5285475.7234862028</v>
+        <v>19414794.747329514</v>
       </c>
       <c r="M36">
         <f t="shared" si="11"/>
-        <v>845677</v>
+        <v>2157200</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3194,47 +3194,47 @@
       </c>
       <c r="B37">
         <f t="shared" si="12"/>
-        <v>30655759.196219977</v>
+        <v>97073973.736647561</v>
       </c>
       <c r="C37">
         <f t="shared" si="13"/>
-        <v>459836387.94329965</v>
+        <v>1456109606.0497134</v>
       </c>
       <c r="E37">
         <f t="shared" si="14"/>
-        <v>15327879.598109988</v>
+        <v>58244384.24198854</v>
       </c>
       <c r="F37">
         <f t="shared" si="10"/>
-        <v>613116</v>
+        <v>1617900</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
-        <v>422839</v>
+        <v>1078600</v>
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
-        <v>291613</v>
+        <v>719067</v>
       </c>
       <c r="I37">
         <f xml:space="preserve"> I36 * hits_1_round_behind ^ A36</f>
-        <v>1.0326694513309059E+98</v>
+        <v>5.9470164271388985E+106</v>
       </c>
       <c r="J37">
         <f t="shared" si="7"/>
-        <v>306558</v>
+        <v>970740</v>
       </c>
       <c r="K37">
         <f t="shared" si="8"/>
-        <v>211420</v>
+        <v>647160</v>
       </c>
       <c r="L37">
         <f t="shared" si="9"/>
-        <v>7663939.7990549942</v>
+        <v>29122192.12099427</v>
       </c>
       <c r="M37">
         <f t="shared" si="11"/>
-        <v>1226231</v>
+        <v>3235800</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3243,47 +3243,47 @@
       </c>
       <c r="B38">
         <f t="shared" si="12"/>
-        <v>44450850.834518969</v>
+        <v>145610960.60497135</v>
       </c>
       <c r="C38">
         <f t="shared" si="13"/>
-        <v>666762762.5177846</v>
+        <v>2184164409.0745702</v>
       </c>
       <c r="E38">
         <f t="shared" si="14"/>
-        <v>22225425.417259485</v>
+        <v>87366576.36298281</v>
       </c>
       <c r="F38">
         <f t="shared" si="10"/>
-        <v>889018</v>
+        <v>2426850</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
-        <v>613116</v>
+        <v>1617900</v>
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>422839</v>
+        <v>1078600</v>
       </c>
       <c r="I38">
         <f xml:space="preserve"> I37 * hits_1_round_behind ^ A37</f>
-        <v>4.5903035742474641E+103</v>
+        <v>8.6595077468923951E+112</v>
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
-        <v>444509</v>
+        <v>1456110</v>
       </c>
       <c r="K38">
         <f t="shared" si="8"/>
-        <v>306558</v>
+        <v>970740</v>
       </c>
       <c r="L38">
         <f t="shared" si="9"/>
-        <v>11112712.708629742</v>
+        <v>43683288.181491405</v>
       </c>
       <c r="M38">
         <f t="shared" si="11"/>
-        <v>1778035</v>
+        <v>4853699</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -3292,47 +3292,47 @@
       </c>
       <c r="B39">
         <f t="shared" si="12"/>
-        <v>64453733.710052505</v>
+        <v>218416440.90745705</v>
       </c>
       <c r="C39">
         <f t="shared" si="13"/>
-        <v>966806005.65078759</v>
+        <v>3276246613.611856</v>
       </c>
       <c r="E39">
         <f t="shared" si="14"/>
-        <v>32226866.855026253</v>
+        <v>131049864.54447423</v>
       </c>
       <c r="F39">
         <f t="shared" si="10"/>
-        <v>1289075</v>
+        <v>3640275</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
-        <v>889018</v>
+        <v>2426850</v>
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>613116</v>
+        <v>1617900</v>
       </c>
       <c r="I39">
         <f xml:space="preserve"> I38 * hits_1_round_behind ^ A38</f>
-        <v>2.9586220422284828E+109</v>
+        <v>1.8913788620867894E+119</v>
       </c>
       <c r="J39">
         <f t="shared" si="7"/>
-        <v>644538</v>
+        <v>2184165</v>
       </c>
       <c r="K39">
         <f t="shared" si="8"/>
-        <v>444509</v>
+        <v>1456110</v>
       </c>
       <c r="L39">
         <f t="shared" si="9"/>
-        <v>16113433.427513126</v>
+        <v>65524932.272237115</v>
       </c>
       <c r="M39">
         <f t="shared" si="11"/>
-        <v>2578150</v>
+        <v>7280549</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -3341,47 +3341,47 @@
       </c>
       <c r="B40">
         <f t="shared" si="12"/>
-        <v>93457913.879576117</v>
+        <v>327624661.36118555</v>
       </c>
       <c r="C40">
         <f t="shared" si="13"/>
-        <v>1401868708.1936417</v>
+        <v>4914369920.4177837</v>
       </c>
       <c r="E40">
         <f t="shared" si="14"/>
-        <v>46728956.939788058</v>
+        <v>196574796.81671134</v>
       </c>
       <c r="F40">
         <f t="shared" si="10"/>
-        <v>1869159</v>
+        <v>5460412</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
-        <v>1289075</v>
+        <v>3640275</v>
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>889018</v>
+        <v>2426850</v>
       </c>
       <c r="I40">
         <f xml:space="preserve"> I39 * hits_1_round_behind ^ A39</f>
-        <v>2.7650664402480516E+115</v>
+        <v>6.1966235919688881E+125</v>
       </c>
       <c r="J40">
         <f t="shared" si="7"/>
-        <v>934580</v>
+        <v>3276247</v>
       </c>
       <c r="K40">
         <f t="shared" si="8"/>
-        <v>644538</v>
+        <v>2184165</v>
       </c>
       <c r="L40">
         <f t="shared" si="9"/>
-        <v>23364478.469894029</v>
+        <v>98287398.408355668</v>
       </c>
       <c r="M40">
         <f t="shared" si="11"/>
-        <v>3738317</v>
+        <v>10920823</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3390,47 +3390,47 @@
       </c>
       <c r="B41">
         <f t="shared" si="12"/>
-        <v>135513975.12538537</v>
+        <v>491436992.04177827</v>
       </c>
       <c r="C41">
         <f t="shared" si="13"/>
-        <v>2032709626.8807807</v>
+        <v>7371554880.6266737</v>
       </c>
       <c r="E41">
         <f t="shared" si="14"/>
-        <v>67756987.562692687</v>
+        <v>294862195.22506696</v>
       </c>
       <c r="F41">
         <f t="shared" si="10"/>
-        <v>2710280</v>
+        <v>8190617</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>1869159</v>
+        <v>5460412</v>
       </c>
       <c r="H41">
         <f t="shared" si="5"/>
-        <v>1289075</v>
+        <v>3640275</v>
       </c>
       <c r="I41">
         <f xml:space="preserve"> I40 * hits_1_round_behind ^ A40</f>
-        <v>3.7470514480381237E+121</v>
+        <v>3.0452500588523101E+132</v>
       </c>
       <c r="J41">
         <f t="shared" si="7"/>
-        <v>1355140</v>
+        <v>4914370</v>
       </c>
       <c r="K41">
         <f t="shared" si="8"/>
-        <v>934580</v>
+        <v>3276247</v>
       </c>
       <c r="L41">
         <f t="shared" si="9"/>
-        <v>33878493.781346343</v>
+        <v>147431097.61253348</v>
       </c>
       <c r="M41">
         <f t="shared" si="11"/>
-        <v>5420560</v>
+        <v>16381234</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -3439,47 +3439,47 @@
       </c>
       <c r="B42">
         <f t="shared" si="12"/>
-        <v>196495263.9318088</v>
+        <v>737155488.06266749</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>2947428958.9771318</v>
+        <v>11057332320.940012</v>
       </c>
       <c r="E42">
         <f t="shared" si="14"/>
-        <v>98247631.9659044</v>
+        <v>442293292.83760047</v>
       </c>
       <c r="F42">
         <f t="shared" si="10"/>
-        <v>3929906</v>
+        <v>12285925</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>2710280</v>
+        <v>8190617</v>
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
-        <v>1869159</v>
+        <v>5460412</v>
       </c>
       <c r="I42">
         <f xml:space="preserve"> I41 * hits_1_round_behind ^ A41</f>
-        <v>7.3627786324831746E+127</v>
+        <v>2.2448227934061415E+139</v>
       </c>
       <c r="J42">
         <f t="shared" si="7"/>
-        <v>1964953</v>
+        <v>7371555</v>
       </c>
       <c r="K42">
         <f t="shared" si="8"/>
-        <v>1355140</v>
+        <v>4914370</v>
       </c>
       <c r="L42">
         <f t="shared" si="9"/>
-        <v>49123815.9829522</v>
+        <v>221146646.41880023</v>
       </c>
       <c r="M42">
         <f t="shared" si="11"/>
-        <v>7859811</v>
+        <v>24571850</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3488,47 +3488,47 @@
       </c>
       <c r="B43">
         <f t="shared" si="12"/>
-        <v>284918132.70112276</v>
+        <v>1105733232.0940013</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>4273771990.5168414</v>
+        <v>16585998481.410019</v>
       </c>
       <c r="E43">
         <f t="shared" si="14"/>
-        <v>142459066.35056138</v>
+        <v>663439939.2564007</v>
       </c>
       <c r="F43">
         <f t="shared" si="10"/>
-        <v>5698363</v>
+        <v>18428888</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
-        <v>3929906</v>
+        <v>12285925</v>
       </c>
       <c r="H43">
         <f t="shared" si="5"/>
-        <v>2710280</v>
+        <v>8190617</v>
       </c>
       <c r="I43">
         <f xml:space="preserve"> I42 * hits_1_round_behind ^ A42</f>
-        <v>2.0977891394588323E+134</v>
+        <v>2.4821751628312574E+146</v>
       </c>
       <c r="J43">
         <f t="shared" si="7"/>
-        <v>2849182</v>
+        <v>11057333</v>
       </c>
       <c r="K43">
         <f t="shared" si="8"/>
-        <v>1964953</v>
+        <v>7371555</v>
       </c>
       <c r="L43">
         <f t="shared" si="9"/>
-        <v>71229533.17528069</v>
+        <v>331719969.62820035</v>
       </c>
       <c r="M43">
         <f t="shared" si="11"/>
-        <v>11396726</v>
+        <v>36857775</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3537,47 +3537,47 @@
       </c>
       <c r="B44">
         <f t="shared" si="12"/>
-        <v>413131292.416628</v>
+        <v>1658599848.1410019</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>6196969386.2494202</v>
+        <v>24878997722.115028</v>
       </c>
       <c r="E44">
         <f t="shared" si="14"/>
-        <v>206565646.208314</v>
+        <v>995159908.88460112</v>
       </c>
       <c r="F44">
         <f t="shared" si="10"/>
-        <v>8262626</v>
+        <v>27643331</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
-        <v>5698363</v>
+        <v>18428888</v>
       </c>
       <c r="H44">
         <f t="shared" si="5"/>
-        <v>3929906</v>
+        <v>12285925</v>
       </c>
       <c r="I44">
         <f xml:space="preserve"> I43 * hits_1_round_behind ^ A43</f>
-        <v>8.6666233840219326E+140</v>
+        <v>4.1169353481312903E+153</v>
       </c>
       <c r="J44">
         <f t="shared" si="7"/>
-        <v>4131313</v>
+        <v>16585999</v>
       </c>
       <c r="K44">
         <f t="shared" si="8"/>
-        <v>2849182</v>
+        <v>11057333</v>
       </c>
       <c r="L44">
         <f t="shared" si="9"/>
-        <v>103282823.104157</v>
+        <v>497579954.44230056</v>
       </c>
       <c r="M44">
         <f t="shared" si="11"/>
-        <v>16525252</v>
+        <v>55286662</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3586,47 +3586,47 @@
       </c>
       <c r="B45">
         <f t="shared" si="12"/>
-        <v>599040374.00411057</v>
+        <v>2487899772.211503</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>8985605610.0616589</v>
+        <v>37318496583.172546</v>
       </c>
       <c r="E45">
         <f t="shared" si="14"/>
-        <v>299520187.00205529</v>
+        <v>1492739863.3269017</v>
       </c>
       <c r="F45">
         <f t="shared" si="10"/>
-        <v>11980808</v>
+        <v>41464997</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
-        <v>8262626</v>
+        <v>27643331</v>
       </c>
       <c r="H45">
         <f t="shared" si="5"/>
-        <v>5698363</v>
+        <v>18428888</v>
       </c>
       <c r="I45">
         <f xml:space="preserve"> I44 * hits_1_round_behind ^ A44</f>
-        <v>5.1916573133172689E+147</v>
+        <v>1.0242522514825321E+161</v>
       </c>
       <c r="J45">
         <f t="shared" si="7"/>
-        <v>5990404</v>
+        <v>24878998</v>
       </c>
       <c r="K45">
         <f t="shared" si="8"/>
-        <v>4131313</v>
+        <v>16585999</v>
       </c>
       <c r="L45">
         <f t="shared" si="9"/>
-        <v>149760093.50102764</v>
+        <v>746369931.66345084</v>
       </c>
       <c r="M45">
         <f t="shared" si="11"/>
-        <v>23961615</v>
+        <v>82929993</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3635,47 +3635,47 @@
       </c>
       <c r="B46">
         <f t="shared" si="12"/>
-        <v>868608542.3059603</v>
+        <v>3731849658.3172536</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13029128134.589405</v>
+        <v>55977744874.758804</v>
       </c>
       <c r="E46">
         <f t="shared" si="14"/>
-        <v>434304271.15298015</v>
+        <v>2239109794.9903522</v>
       </c>
       <c r="F46">
         <f t="shared" si="10"/>
-        <v>17372171</v>
+        <v>62197495</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
-        <v>11980808</v>
+        <v>41464997</v>
       </c>
       <c r="H46">
         <f t="shared" si="5"/>
-        <v>8262626</v>
+        <v>27643331</v>
       </c>
       <c r="I46">
         <f xml:space="preserve"> I45 * hits_1_round_behind ^ A45</f>
-        <v>4.5095178910725915E+154</v>
+        <v>3.8223554147257649E+168</v>
       </c>
       <c r="J46">
         <f t="shared" si="7"/>
-        <v>8686086</v>
+        <v>37318497</v>
       </c>
       <c r="K46">
         <f t="shared" si="8"/>
-        <v>5990404</v>
+        <v>24878998</v>
       </c>
       <c r="L46">
         <f t="shared" si="9"/>
-        <v>217152135.57649007</v>
+        <v>1119554897.4951761</v>
       </c>
       <c r="M46">
         <f t="shared" si="11"/>
-        <v>34744342</v>
+        <v>124394989</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3684,47 +3684,47 @@
       </c>
       <c r="B47">
         <f t="shared" si="12"/>
-        <v>1259482386.3436425</v>
+        <v>5597774487.4758806</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>18892235795.154636</v>
+        <v>83966617312.138214</v>
       </c>
       <c r="E47">
         <f t="shared" si="14"/>
-        <v>629741193.17182124</v>
+        <v>3358664692.4855285</v>
       </c>
       <c r="F47">
         <f t="shared" si="10"/>
-        <v>25189648</v>
+        <v>93296242</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
-        <v>17372171</v>
+        <v>62197495</v>
       </c>
       <c r="H47">
         <f t="shared" si="5"/>
-        <v>11980808</v>
+        <v>41464997</v>
       </c>
       <c r="I47">
         <f xml:space="preserve"> I46 * hits_1_round_behind ^ A46</f>
-        <v>5.679658354707458E+161</v>
+        <v>2.1396683622617177E+176</v>
       </c>
       <c r="J47">
         <f t="shared" si="7"/>
-        <v>12594824</v>
+        <v>55977745</v>
       </c>
       <c r="K47">
         <f t="shared" si="8"/>
-        <v>8686086</v>
+        <v>37318497</v>
       </c>
       <c r="L47">
         <f t="shared" si="9"/>
-        <v>314870596.58591062</v>
+        <v>1679332346.2427642</v>
       </c>
       <c r="M47">
         <f t="shared" si="11"/>
-        <v>50379296</v>
+        <v>186592483</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3733,47 +3733,47 @@
       </c>
       <c r="B48">
         <f t="shared" si="12"/>
-        <v>1826249460.1982813</v>
+        <v>8396661731.2138214</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>27393741902.97422</v>
+        <v>125949925968.20732</v>
       </c>
       <c r="E48">
         <f t="shared" si="14"/>
-        <v>913124730.09914064</v>
+        <v>5037997038.7282925</v>
       </c>
       <c r="F48">
         <f t="shared" si="10"/>
-        <v>36524990</v>
+        <v>139944363</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
-        <v>25189648</v>
+        <v>93296242</v>
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
-        <v>17372171</v>
+        <v>62197495</v>
       </c>
       <c r="I48">
         <f xml:space="preserve"> I47 * hits_1_round_behind ^ A47</f>
-        <v>1.0372473004395155E+169</v>
+        <v>1.7966071454891917E+184</v>
       </c>
       <c r="J48">
         <f t="shared" si="7"/>
-        <v>18262495</v>
+        <v>83966618</v>
       </c>
       <c r="K48">
         <f t="shared" si="8"/>
-        <v>12594824</v>
+        <v>55977745</v>
       </c>
       <c r="L48">
         <f t="shared" si="9"/>
-        <v>456562365.04957032</v>
+        <v>2518998519.3641462</v>
       </c>
       <c r="M48">
         <f t="shared" si="11"/>
-        <v>73049979</v>
+        <v>279888725</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3782,47 +3782,47 @@
       </c>
       <c r="B49">
         <f t="shared" si="12"/>
-        <v>2648061717.2875085</v>
+        <v>12594992596.820732</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>39720925759.31263</v>
+        <v>188924888952.31097</v>
       </c>
       <c r="E49">
         <f t="shared" si="14"/>
-        <v>1324030858.6437542</v>
+        <v>7556995558.0924397</v>
       </c>
       <c r="F49">
         <f t="shared" si="10"/>
-        <v>52961235</v>
+        <v>209916544</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
-        <v>36524990</v>
+        <v>139944363</v>
       </c>
       <c r="H49">
         <f t="shared" si="5"/>
-        <v>25189648</v>
+        <v>93296242</v>
       </c>
       <c r="I49">
         <f xml:space="preserve"> I48 * hits_1_round_behind ^ A48</f>
-        <v>2.7466948676536956E+176</v>
+        <v>2.2628253696831599E+192</v>
       </c>
       <c r="J49">
         <f t="shared" si="7"/>
-        <v>26480618</v>
+        <v>125949926</v>
       </c>
       <c r="K49">
         <f t="shared" si="8"/>
-        <v>18262495</v>
+        <v>83966618</v>
       </c>
       <c r="L49">
         <f t="shared" si="9"/>
-        <v>662015429.32187712</v>
+        <v>3778497779.0462198</v>
       </c>
       <c r="M49">
         <f t="shared" si="11"/>
-        <v>105922469</v>
+        <v>419833087</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3831,47 +3831,47 @@
       </c>
       <c r="B50">
         <f t="shared" si="12"/>
-        <v>3839689490.0668874</v>
+        <v>18892488895.231098</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>57595342351.003311</v>
+        <v>283387333428.46649</v>
       </c>
       <c r="E50">
         <f t="shared" si="14"/>
-        <v>1919844745.0334437</v>
+        <v>11335493337.138659</v>
       </c>
       <c r="F50">
         <f t="shared" si="10"/>
-        <v>76793790</v>
+        <v>314874815</v>
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
-        <v>52961235</v>
+        <v>209916544</v>
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
-        <v>36524990</v>
+        <v>139944363</v>
       </c>
       <c r="I50">
         <f xml:space="preserve"> I49 * hits_1_round_behind ^ A49</f>
-        <v>1.0546455415750556E+184</v>
+        <v>4.2750403168586304E+200</v>
       </c>
       <c r="J50">
         <f t="shared" si="7"/>
-        <v>38396895</v>
+        <v>188924889</v>
       </c>
       <c r="K50">
         <f t="shared" si="8"/>
-        <v>26480618</v>
+        <v>125949926</v>
       </c>
       <c r="L50">
         <f t="shared" si="9"/>
-        <v>959922372.51672184</v>
+        <v>5667746668.5693293</v>
       </c>
       <c r="M50">
         <f t="shared" si="11"/>
-        <v>153587580</v>
+        <v>629749630</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3880,47 +3880,47 @@
       </c>
       <c r="B51">
         <f t="shared" si="12"/>
-        <v>5567549760.5969868</v>
+        <v>28338733342.846649</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>83513246408.954803</v>
+        <v>425081000142.69971</v>
       </c>
       <c r="E51">
         <f t="shared" si="14"/>
-        <v>2783774880.2984934</v>
+        <v>17003240005.707991</v>
       </c>
       <c r="F51">
         <f t="shared" si="10"/>
-        <v>111350996</v>
+        <v>472312223</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
-        <v>76793790</v>
+        <v>314874815</v>
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
-        <v>52961235</v>
+        <v>209916544</v>
       </c>
       <c r="I51">
         <f xml:space="preserve"> I50 * hits_1_round_behind ^ A50</f>
-        <v>5.8717915325108805E+191</v>
+        <v>1.2114922756937538E+209</v>
       </c>
       <c r="J51">
         <f t="shared" si="7"/>
-        <v>55675498</v>
+        <v>283387334</v>
       </c>
       <c r="K51">
         <f t="shared" si="8"/>
-        <v>38396895</v>
+        <v>188924889</v>
       </c>
       <c r="L51">
         <f t="shared" si="9"/>
-        <v>1391887440.1492467</v>
+        <v>8501620002.8539953</v>
       </c>
       <c r="M51">
         <f t="shared" si="11"/>
-        <v>222701991</v>
+        <v>944624445</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3929,47 +3929,47 @@
       </c>
       <c r="B52">
         <f t="shared" si="12"/>
-        <v>8072947152.8656321</v>
+        <v>42508100014.269974</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>121094207292.98448</v>
+        <v>637621500214.04956</v>
       </c>
       <c r="E52">
         <f t="shared" si="14"/>
-        <v>4036473576.432816</v>
+        <v>25504860008.561981</v>
       </c>
       <c r="F52">
         <f t="shared" si="10"/>
-        <v>161458944</v>
+        <v>708468334</v>
       </c>
       <c r="G52">
         <f t="shared" si="4"/>
-        <v>111350996</v>
+        <v>472312223</v>
       </c>
       <c r="H52">
         <f t="shared" si="5"/>
-        <v>76793790</v>
+        <v>314874815</v>
       </c>
       <c r="I52">
         <f xml:space="preserve"> I51 * hits_1_round_behind ^ A51</f>
-        <v>4.7402662734604239E+199</v>
+        <v>5.1498234821705612E+217</v>
       </c>
       <c r="J52">
         <f t="shared" si="7"/>
-        <v>80729472</v>
+        <v>425081001</v>
       </c>
       <c r="K52">
         <f t="shared" si="8"/>
-        <v>55675498</v>
+        <v>283387334</v>
       </c>
       <c r="L52">
         <f t="shared" si="9"/>
-        <v>2018236788.216408</v>
+        <v>12752430004.280991</v>
       </c>
       <c r="M52">
         <f t="shared" si="11"/>
-        <v>322917887</v>
+        <v>1416936668</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3978,47 +3978,47 @@
       </c>
       <c r="B53">
         <f t="shared" si="12"/>
-        <v>11705773371.655165</v>
+        <v>63762150021.404961</v>
       </c>
       <c r="C53">
         <f t="shared" si="13"/>
-        <v>175586600574.82748</v>
+        <v>956432250321.07446</v>
       </c>
       <c r="E53">
         <f t="shared" si="14"/>
-        <v>5852886685.8275824</v>
+        <v>38257290012.842972</v>
       </c>
       <c r="F53">
         <f t="shared" si="10"/>
-        <v>234115468</v>
+        <v>1062702501</v>
       </c>
       <c r="G53">
         <f t="shared" si="4"/>
-        <v>161458944</v>
+        <v>708468334</v>
       </c>
       <c r="H53">
         <f t="shared" si="5"/>
-        <v>111350996</v>
+        <v>472312223</v>
       </c>
       <c r="I53">
         <f xml:space="preserve"> I52 * hits_1_round_behind ^ A52</f>
-        <v>5.5488482718428093E+207</v>
+        <v>3.2836381745391342E+226</v>
       </c>
       <c r="J53">
         <f t="shared" si="7"/>
-        <v>117057734</v>
+        <v>637621501</v>
       </c>
       <c r="K53">
         <f t="shared" si="8"/>
-        <v>80729472</v>
+        <v>425081001</v>
       </c>
       <c r="L53">
         <f t="shared" si="9"/>
-        <v>2926443342.9137912</v>
+        <v>19128645006.421486</v>
       </c>
       <c r="M53">
         <f t="shared" si="11"/>
-        <v>468230935</v>
+        <v>2125405001</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -4027,47 +4027,47 @@
       </c>
       <c r="B54">
         <f t="shared" si="12"/>
-        <v>16973371388.899988</v>
+        <v>95643225032.107437</v>
       </c>
       <c r="C54">
         <f t="shared" si="13"/>
-        <v>254600570833.49982</v>
+        <v>1434648375481.6116</v>
       </c>
       <c r="E54">
         <f t="shared" si="14"/>
-        <v>8486685694.4499941</v>
+        <v>57385935019.264465</v>
       </c>
       <c r="F54">
         <f t="shared" si="10"/>
-        <v>339467428</v>
+        <v>1594053751</v>
       </c>
       <c r="G54">
         <f t="shared" si="4"/>
-        <v>234115468</v>
+        <v>1062702501</v>
       </c>
       <c r="H54">
         <f t="shared" si="5"/>
-        <v>161458944</v>
+        <v>708468334</v>
       </c>
       <c r="I54">
         <f xml:space="preserve"> I53 * hits_1_round_behind ^ A53</f>
-        <v>9.4182662498643882E+215</v>
+        <v>3.1405774485146487E+235</v>
       </c>
       <c r="J54">
         <f t="shared" si="7"/>
-        <v>169733714</v>
+        <v>956432251</v>
       </c>
       <c r="K54">
         <f t="shared" si="8"/>
-        <v>117057734</v>
+        <v>637621501</v>
       </c>
       <c r="L54">
         <f t="shared" si="9"/>
-        <v>4243342847.224997</v>
+        <v>28692967509.632233</v>
       </c>
       <c r="M54">
         <f t="shared" si="11"/>
-        <v>678934856</v>
+        <v>3188107502</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4076,47 +4076,47 @@
       </c>
       <c r="B55">
         <f t="shared" si="12"/>
-        <v>24611388513.904984</v>
+        <v>143464837548.16116</v>
       </c>
       <c r="C55">
         <f t="shared" si="13"/>
-        <v>369170827708.57477</v>
+        <v>2151972563222.4175</v>
       </c>
       <c r="E55">
         <f t="shared" si="14"/>
-        <v>12305694256.952492</v>
+        <v>86078902528.896683</v>
       </c>
       <c r="F55">
         <f t="shared" si="10"/>
-        <v>492227771</v>
+        <v>2391080626</v>
       </c>
       <c r="G55">
         <f t="shared" si="4"/>
-        <v>339467428</v>
+        <v>1594053751</v>
       </c>
       <c r="H55">
         <f t="shared" si="5"/>
-        <v>234115468</v>
+        <v>1062702501</v>
       </c>
       <c r="I55">
         <f xml:space="preserve"> I54 * hits_1_round_behind ^ A54</f>
-        <v>2.3179660980281134E+224</v>
+        <v>4.5056243345857252E+244</v>
       </c>
       <c r="J55">
         <f t="shared" si="7"/>
-        <v>246113886</v>
+        <v>1434648376</v>
       </c>
       <c r="K55">
         <f t="shared" si="8"/>
-        <v>169733714</v>
+        <v>956432251</v>
       </c>
       <c r="L55">
         <f t="shared" si="9"/>
-        <v>6152847128.4762459</v>
+        <v>43039451264.448341</v>
       </c>
       <c r="M55">
         <f t="shared" si="11"/>
-        <v>984455541</v>
+        <v>4782161252</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -4125,47 +4125,47 @@
       </c>
       <c r="B56">
         <f t="shared" si="12"/>
-        <v>35686513345.162216</v>
+        <v>215197256322.24173</v>
       </c>
       <c r="C56">
         <f t="shared" si="13"/>
-        <v>535297700177.43323</v>
+        <v>3227958844833.626</v>
       </c>
       <c r="E56">
         <f t="shared" si="14"/>
-        <v>17843256672.581108</v>
+        <v>129118353793.34505</v>
       </c>
       <c r="F56">
         <f t="shared" si="10"/>
-        <v>713730267</v>
+        <v>3586620939</v>
       </c>
       <c r="G56">
         <f t="shared" si="4"/>
-        <v>492227771</v>
+        <v>2391080626</v>
       </c>
       <c r="H56">
         <f t="shared" si="5"/>
-        <v>339467428</v>
+        <v>1594053751</v>
       </c>
       <c r="I56">
         <f xml:space="preserve"> I55 * hits_1_round_behind ^ A55</f>
-        <v>8.2720128090913863E+232</v>
+        <v>9.6959799482157414E+253</v>
       </c>
       <c r="J56">
         <f t="shared" si="7"/>
-        <v>356865134</v>
+        <v>2151972564</v>
       </c>
       <c r="K56">
         <f t="shared" si="8"/>
-        <v>246113886</v>
+        <v>1434648376</v>
       </c>
       <c r="L56">
         <f t="shared" si="9"/>
-        <v>8921628336.290554</v>
+        <v>64559176896.672523</v>
       </c>
       <c r="M56">
         <f t="shared" si="11"/>
-        <v>1427460534</v>
+        <v>7173241878</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -4174,47 +4174,47 @@
       </c>
       <c r="B57">
         <f t="shared" si="12"/>
-        <v>51745444350.485229</v>
+        <v>322795884483.36261</v>
       </c>
       <c r="C57">
         <f t="shared" si="13"/>
-        <v>776181665257.27844</v>
+        <v>4841938267250.4395</v>
       </c>
       <c r="E57">
         <f t="shared" si="14"/>
-        <v>25872722175.242615</v>
+        <v>193677530690.01758</v>
       </c>
       <c r="F57">
         <f t="shared" si="10"/>
-        <v>1034908888</v>
+        <v>5379931409</v>
       </c>
       <c r="G57">
         <f t="shared" si="4"/>
-        <v>713730267</v>
+        <v>3586620939</v>
       </c>
       <c r="H57">
         <f t="shared" si="5"/>
-        <v>492227771</v>
+        <v>2391080626</v>
       </c>
       <c r="I57">
         <f xml:space="preserve"> I56 * hits_1_round_behind ^ A56</f>
-        <v>4.280389784793393E+241</v>
+        <v>3.1298224233172488E+263</v>
       </c>
       <c r="J57">
         <f t="shared" si="7"/>
-        <v>517454444</v>
+        <v>3227958845</v>
       </c>
       <c r="K57">
         <f t="shared" si="8"/>
-        <v>356865134</v>
+        <v>2151972564</v>
       </c>
       <c r="L57">
         <f t="shared" si="9"/>
-        <v>12936361087.621307</v>
+        <v>96838765345.008789</v>
       </c>
       <c r="M57">
         <f t="shared" si="11"/>
-        <v>2069817775</v>
+        <v>10759862817</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -4223,47 +4223,47 @@
       </c>
       <c r="B58">
         <f t="shared" si="12"/>
-        <v>75030894308.203583</v>
+        <v>484193826725.04388</v>
       </c>
       <c r="C58">
         <f t="shared" si="13"/>
-        <v>1125463414623.0537</v>
+        <v>7262907400875.6582</v>
       </c>
       <c r="E58">
         <f t="shared" si="14"/>
-        <v>37515447154.101791</v>
+        <v>290516296035.02631</v>
       </c>
       <c r="F58">
         <f t="shared" si="10"/>
-        <v>1500617887</v>
+        <v>8069897113</v>
       </c>
       <c r="G58">
         <f t="shared" si="4"/>
-        <v>1034908888</v>
+        <v>5379931409</v>
       </c>
       <c r="H58">
         <f t="shared" si="5"/>
-        <v>713730267</v>
+        <v>3586620939</v>
       </c>
       <c r="I58">
         <f xml:space="preserve"> I57 * hits_1_round_behind ^ A57</f>
-        <v>3.2116147354074732E+250</v>
+        <v>1.5154406961158288E+273</v>
       </c>
       <c r="J58">
         <f t="shared" si="7"/>
-        <v>750308944</v>
+        <v>4841938268</v>
       </c>
       <c r="K58">
         <f t="shared" si="8"/>
-        <v>517454444</v>
+        <v>3227958845</v>
       </c>
       <c r="L58">
         <f t="shared" si="9"/>
-        <v>18757723577.050896</v>
+        <v>145258148017.51315</v>
       </c>
       <c r="M58">
         <f t="shared" si="11"/>
-        <v>3001235773</v>
+        <v>16139794225</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4272,47 +4272,47 @@
       </c>
       <c r="B59">
         <f t="shared" si="12"/>
-        <v>108794796746.89519</v>
+        <v>726290740087.56592</v>
       </c>
       <c r="C59">
         <f t="shared" si="13"/>
-        <v>1631921951203.4277</v>
+        <v>10894361101313.488</v>
       </c>
       <c r="E59">
         <f t="shared" si="14"/>
-        <v>54397398373.447594</v>
+        <v>435774444052.53955</v>
       </c>
       <c r="F59">
         <f t="shared" si="10"/>
-        <v>2175895935</v>
+        <v>12104845669</v>
       </c>
       <c r="G59">
         <f t="shared" si="4"/>
-        <v>1500617887</v>
+        <v>8069897113</v>
       </c>
       <c r="H59">
         <f t="shared" si="5"/>
-        <v>1034908888</v>
+        <v>5379931409</v>
       </c>
       <c r="I59">
         <f xml:space="preserve"> I58 * hits_1_round_behind ^ A58</f>
-        <v>3.4940697236798963E+259</v>
+        <v>1.1006505447407814E+283</v>
       </c>
       <c r="J59">
         <f t="shared" si="7"/>
-        <v>1087947968</v>
+        <v>7262907401</v>
       </c>
       <c r="K59">
         <f t="shared" si="8"/>
-        <v>750308944</v>
+        <v>4841938268</v>
       </c>
       <c r="L59">
         <f t="shared" si="9"/>
-        <v>27198699186.723797</v>
+        <v>217887222026.26978</v>
       </c>
       <c r="M59">
         <f t="shared" si="11"/>
-        <v>4351791870</v>
+        <v>24209691337</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4321,47 +4321,47 @@
       </c>
       <c r="B60">
         <f t="shared" si="12"/>
-        <v>157752455282.99805</v>
+        <v>1089436110131.3488</v>
       </c>
       <c r="C60">
         <f t="shared" si="13"/>
-        <v>2366286829244.9707</v>
+        <v>16341541651970.23</v>
       </c>
       <c r="E60">
         <f t="shared" si="14"/>
-        <v>78876227641.499023</v>
+        <v>653661666078.80933</v>
       </c>
       <c r="F60">
         <f t="shared" si="10"/>
-        <v>3155049106</v>
+        <v>18157268503</v>
       </c>
       <c r="G60">
         <f t="shared" si="4"/>
-        <v>2175895935</v>
+        <v>12104845669</v>
       </c>
       <c r="H60">
         <f t="shared" si="5"/>
-        <v>1500617887</v>
+        <v>8069897113</v>
       </c>
       <c r="I60">
         <f xml:space="preserve"> I59 * hits_1_round_behind ^ A59</f>
-        <v>5.5119807784049018E+268</v>
+        <v>1.1990884480763469E+293</v>
       </c>
       <c r="J60">
         <f t="shared" si="7"/>
-        <v>1577524553</v>
+        <v>10894361102</v>
       </c>
       <c r="K60">
         <f t="shared" si="8"/>
-        <v>1087947968</v>
+        <v>7262907401</v>
       </c>
       <c r="L60">
         <f t="shared" si="9"/>
-        <v>39438113820.749512</v>
+        <v>326830833039.40466</v>
       </c>
       <c r="M60">
         <f t="shared" si="11"/>
-        <v>6310098212</v>
+        <v>36314537005</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -4370,47 +4370,47 @@
       </c>
       <c r="B61">
         <f t="shared" si="12"/>
-        <v>228741060160.34714</v>
+        <v>1634154165197.0232</v>
       </c>
       <c r="C61">
         <f t="shared" si="13"/>
-        <v>3431115902405.207</v>
+        <v>24512312477955.348</v>
       </c>
       <c r="E61">
         <f t="shared" si="14"/>
-        <v>114370530080.17357</v>
+        <v>980492499118.21387</v>
       </c>
       <c r="F61">
         <f t="shared" si="10"/>
-        <v>4574821204</v>
+        <v>27235902754</v>
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
-        <v>3155049106</v>
+        <v>18157268503</v>
       </c>
       <c r="H61">
         <f t="shared" si="5"/>
-        <v>2175895935</v>
+        <v>12104845669</v>
       </c>
       <c r="I61">
         <f xml:space="preserve"> I60 * hits_1_round_behind ^ A60</f>
-        <v>1.2608163268357926E+278</v>
+        <v>1.9594953818635967E+303</v>
       </c>
       <c r="J61">
         <f t="shared" si="7"/>
-        <v>2287410602</v>
+        <v>16341541652</v>
       </c>
       <c r="K61">
         <f t="shared" si="8"/>
-        <v>1577524553</v>
+        <v>10894361102</v>
       </c>
       <c r="L61">
         <f t="shared" si="9"/>
-        <v>57185265040.086784</v>
+        <v>490246249559.10693</v>
       </c>
       <c r="M61">
         <f t="shared" si="11"/>
-        <v>9149642407</v>
+        <v>54471805507</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4419,47 +4419,47 @@
       </c>
       <c r="B62">
         <f t="shared" si="12"/>
-        <v>331674537232.50336</v>
+        <v>2451231247795.5347</v>
       </c>
       <c r="C62">
         <f t="shared" si="13"/>
-        <v>4975118058487.5508</v>
+        <v>36768468716933.023</v>
       </c>
       <c r="E62">
         <f t="shared" ref="E62:E84" si="15" xml:space="preserve"> base_damage * hits_1_round_behind ^ A61</f>
-        <v>165837268616.25168</v>
+        <v>1470738748677.321</v>
       </c>
       <c r="F62">
         <f t="shared" ref="F62:F84" si="16">ROUNDUP(B62/base_damage, 0)</f>
-        <v>6633490745</v>
+        <v>40853854130</v>
       </c>
       <c r="G62">
         <f t="shared" si="4"/>
-        <v>4574821204</v>
+        <v>27235902754</v>
       </c>
       <c r="H62">
         <f t="shared" si="5"/>
-        <v>3155049106</v>
-      </c>
-      <c r="I62">
+        <v>18157268503</v>
+      </c>
+      <c r="I62" t="e">
         <f xml:space="preserve"> I61 * hits_1_round_behind ^ A61</f>
-        <v>4.1818067173844624E+287</v>
+        <v>#NUM!</v>
       </c>
       <c r="J62">
         <f t="shared" si="7"/>
-        <v>3316745373</v>
+        <v>24512312478</v>
       </c>
       <c r="K62">
         <f t="shared" si="8"/>
-        <v>2287410602</v>
+        <v>16341541652</v>
       </c>
       <c r="L62">
         <f t="shared" ref="L62:L84" si="17">E62/2</f>
-        <v>82918634308.125839</v>
+        <v>735369374338.66052</v>
       </c>
       <c r="M62">
         <f t="shared" ref="M62:M84" si="18">ROUNDUP(B62/explosion_shot_base, 0)</f>
-        <v>13266981490</v>
+        <v>81707708260</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -4468,47 +4468,47 @@
       </c>
       <c r="B63">
         <f t="shared" si="12"/>
-        <v>480928078987.12988</v>
+        <v>3676846871693.3022</v>
       </c>
       <c r="C63">
         <f t="shared" si="13"/>
-        <v>7213921184806.9482</v>
+        <v>55152703075399.531</v>
       </c>
       <c r="E63">
         <f t="shared" si="15"/>
-        <v>240464039493.56494</v>
+        <v>2206108123015.9814</v>
       </c>
       <c r="F63">
         <f t="shared" si="16"/>
-        <v>9618561580</v>
+        <v>61280781195</v>
       </c>
       <c r="G63">
         <f t="shared" si="4"/>
-        <v>6633490745</v>
+        <v>40853854130</v>
       </c>
       <c r="H63">
         <f t="shared" si="5"/>
-        <v>4574821204</v>
-      </c>
-      <c r="I63">
+        <v>27235902754</v>
+      </c>
+      <c r="I63" t="e">
         <f xml:space="preserve"> I62 * hits_1_round_behind ^ A62</f>
-        <v>2.0111482712871849E+297</v>
+        <v>#NUM!</v>
       </c>
       <c r="J63">
         <f t="shared" si="7"/>
-        <v>4809280790</v>
+        <v>36768468717</v>
       </c>
       <c r="K63">
         <f t="shared" si="8"/>
-        <v>3316745373</v>
+        <v>24512312478</v>
       </c>
       <c r="L63">
         <f t="shared" si="17"/>
-        <v>120232019746.78247</v>
+        <v>1103054061507.9907</v>
       </c>
       <c r="M63">
         <f t="shared" si="18"/>
-        <v>19237123160</v>
+        <v>122561562390</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -4517,47 +4517,47 @@
       </c>
       <c r="B64">
         <f t="shared" si="12"/>
-        <v>697345714531.33813</v>
+        <v>5515270307539.9531</v>
       </c>
       <c r="C64">
         <f t="shared" si="13"/>
-        <v>10460185717970.072</v>
+        <v>82729054613099.297</v>
       </c>
       <c r="E64">
         <f t="shared" si="15"/>
-        <v>348672857265.66907</v>
+        <v>3309162184523.9717</v>
       </c>
       <c r="F64">
         <f t="shared" si="16"/>
-        <v>13946914291</v>
+        <v>91921171793</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
-        <v>9618561580</v>
+        <v>61280781195</v>
       </c>
       <c r="H64">
         <f t="shared" si="5"/>
-        <v>6633490745</v>
-      </c>
-      <c r="I64">
+        <v>40853854130</v>
+      </c>
+      <c r="I64" t="e">
         <f xml:space="preserve"> I63 * hits_1_round_behind ^ A63</f>
-        <v>1.4024656282692273E+307</v>
+        <v>#NUM!</v>
       </c>
       <c r="J64">
         <f t="shared" si="7"/>
-        <v>6973457146</v>
+        <v>55152703076</v>
       </c>
       <c r="K64">
         <f t="shared" si="8"/>
-        <v>4809280790</v>
+        <v>36768468717</v>
       </c>
       <c r="L64">
         <f t="shared" si="17"/>
-        <v>174336428632.83453</v>
+        <v>1654581092261.9858</v>
       </c>
       <c r="M64">
         <f t="shared" si="18"/>
-        <v>27893828582</v>
+        <v>183842343585</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -4566,27 +4566,27 @@
       </c>
       <c r="B65">
         <f t="shared" si="12"/>
-        <v>1011151286070.4404</v>
+        <v>8272905461309.9307</v>
       </c>
       <c r="C65">
         <f t="shared" si="13"/>
-        <v>15167269291056.605</v>
+        <v>124093581919648.95</v>
       </c>
       <c r="E65">
         <f t="shared" si="15"/>
-        <v>505575643035.22021</v>
+        <v>4963743276785.958</v>
       </c>
       <c r="F65">
         <f t="shared" si="16"/>
-        <v>20223025722</v>
+        <v>137881757689</v>
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
-        <v>13946914291</v>
+        <v>91921171793</v>
       </c>
       <c r="H65">
         <f t="shared" si="5"/>
-        <v>9618561580</v>
+        <v>61280781195</v>
       </c>
       <c r="I65" t="e">
         <f xml:space="preserve"> I64 * hits_1_round_behind ^ A64</f>
@@ -4594,19 +4594,19 @@
       </c>
       <c r="J65">
         <f t="shared" si="7"/>
-        <v>10111512861</v>
+        <v>82729054614</v>
       </c>
       <c r="K65">
         <f t="shared" si="8"/>
-        <v>6973457146</v>
+        <v>55152703076</v>
       </c>
       <c r="L65">
         <f t="shared" si="17"/>
-        <v>252787821517.61011</v>
+        <v>2481871638392.979</v>
       </c>
       <c r="M65">
         <f t="shared" si="18"/>
-        <v>40446051443</v>
+        <v>275763515377</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -4615,27 +4615,27 @@
       </c>
       <c r="B66">
         <f t="shared" si="12"/>
-        <v>1466169364802.1387</v>
+        <v>12409358191964.895</v>
       </c>
       <c r="C66">
         <f t="shared" si="13"/>
-        <v>21992540472032.078</v>
+        <v>186140372879473.41</v>
       </c>
       <c r="E66">
         <f t="shared" si="15"/>
-        <v>733084682401.06934</v>
+        <v>7445614915178.9365</v>
       </c>
       <c r="F66">
         <f t="shared" si="16"/>
-        <v>29323387297</v>
+        <v>206822636533</v>
       </c>
       <c r="G66">
         <f t="shared" si="4"/>
-        <v>20223025722</v>
+        <v>137881757689</v>
       </c>
       <c r="H66">
         <f t="shared" si="5"/>
-        <v>13946914291</v>
+        <v>91921171793</v>
       </c>
       <c r="I66" t="e">
         <f xml:space="preserve"> I65 * hits_1_round_behind ^ A65</f>
@@ -4643,19 +4643,19 @@
       </c>
       <c r="J66">
         <f t="shared" si="7"/>
-        <v>14661693649</v>
+        <v>124093581920</v>
       </c>
       <c r="K66">
         <f t="shared" si="8"/>
-        <v>10111512861</v>
+        <v>82729054614</v>
       </c>
       <c r="L66">
         <f t="shared" si="17"/>
-        <v>366542341200.53467</v>
+        <v>3722807457589.4683</v>
       </c>
       <c r="M66">
         <f t="shared" si="18"/>
-        <v>58646774593</v>
+        <v>413645273066</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -4664,27 +4664,27 @@
       </c>
       <c r="B67">
         <f t="shared" si="12"/>
-        <v>2125945578963.1011</v>
+        <v>18614037287947.344</v>
       </c>
       <c r="C67">
         <f t="shared" si="13"/>
-        <v>31889183684446.516</v>
+        <v>279210559319210.16</v>
       </c>
       <c r="E67">
         <f t="shared" si="15"/>
-        <v>1062972789481.5505</v>
+        <v>11168422372768.404</v>
       </c>
       <c r="F67">
         <f t="shared" si="16"/>
-        <v>42518911580</v>
+        <v>310233954800</v>
       </c>
       <c r="G67">
         <f t="shared" si="4"/>
-        <v>29323387297</v>
+        <v>206822636533</v>
       </c>
       <c r="H67">
         <f t="shared" si="5"/>
-        <v>20223025722</v>
+        <v>137881757689</v>
       </c>
       <c r="I67" t="e">
         <f xml:space="preserve"> I66 * hits_1_round_behind ^ A66</f>
@@ -4692,19 +4692,19 @@
       </c>
       <c r="J67">
         <f t="shared" si="7"/>
-        <v>21259455790</v>
+        <v>186140372880</v>
       </c>
       <c r="K67">
         <f t="shared" si="8"/>
-        <v>14661693649</v>
+        <v>124093581920</v>
       </c>
       <c r="L67">
         <f t="shared" si="17"/>
-        <v>531486394740.77527</v>
+        <v>5584211186384.2021</v>
       </c>
       <c r="M67">
         <f t="shared" si="18"/>
-        <v>85037823159</v>
+        <v>620467909599</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -4713,27 +4713,27 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B102" si="19" xml:space="preserve"> $B$3 * hits_1_round_behind ^ A67</f>
-        <v>3082621089496.4966</v>
+        <v>27921055931921.016</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C102" si="20" xml:space="preserve"> $B$3*hits_1_round_behind^A67*brute_life_multiplier</f>
-        <v>46239316342447.445</v>
+        <v>418815838978815.25</v>
       </c>
       <c r="E68">
         <f t="shared" si="15"/>
-        <v>1541310544748.2483</v>
+        <v>16752633559152.609</v>
       </c>
       <c r="F68">
         <f t="shared" si="16"/>
-        <v>61652421790</v>
+        <v>465350932199</v>
       </c>
       <c r="G68">
         <f t="shared" ref="G68:G92" si="21">ROUNDUP(B68/$E$4, 0)</f>
-        <v>42518911580</v>
+        <v>310233954800</v>
       </c>
       <c r="H68">
         <f t="shared" ref="H68:H102" si="22">ROUNDUP(B68/$E$5, 0)</f>
-        <v>29323387297</v>
+        <v>206822636533</v>
       </c>
       <c r="I68" t="e">
         <f xml:space="preserve"> I67 * hits_1_round_behind ^ A67</f>
@@ -4741,19 +4741,19 @@
       </c>
       <c r="J68">
         <f t="shared" si="7"/>
-        <v>30826210895</v>
+        <v>279210559320</v>
       </c>
       <c r="K68">
         <f t="shared" si="8"/>
-        <v>21259455790</v>
+        <v>186140372880</v>
       </c>
       <c r="L68">
         <f t="shared" si="17"/>
-        <v>770655272374.12415</v>
+        <v>8376316779576.3047</v>
       </c>
       <c r="M68">
         <f t="shared" si="18"/>
-        <v>123304843580</v>
+        <v>930701864398</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -4762,27 +4762,27 @@
       </c>
       <c r="B69">
         <f t="shared" si="19"/>
-        <v>4469800579769.9199</v>
+        <v>41881583897881.516</v>
       </c>
       <c r="C69">
         <f t="shared" si="20"/>
-        <v>67047008696548.797</v>
+        <v>628223758468222.75</v>
       </c>
       <c r="E69">
         <f t="shared" si="15"/>
-        <v>2234900289884.96</v>
+        <v>25128950338728.91</v>
       </c>
       <c r="F69">
         <f t="shared" si="16"/>
-        <v>89396011596</v>
+        <v>698026398299</v>
       </c>
       <c r="G69">
         <f t="shared" si="21"/>
-        <v>61652421790</v>
+        <v>465350932199</v>
       </c>
       <c r="H69">
         <f t="shared" si="22"/>
-        <v>42518911580</v>
+        <v>310233954800</v>
       </c>
       <c r="I69" t="e">
         <f xml:space="preserve"> I68 * hits_1_round_behind ^ A68</f>
@@ -4790,19 +4790,19 @@
       </c>
       <c r="J69">
         <f t="shared" ref="J69:J102" si="23">ROUNDUP(B69/$I$3, 0)</f>
-        <v>44698005798</v>
+        <v>418815838979</v>
       </c>
       <c r="K69">
         <f t="shared" ref="K69:K102" si="24">ROUNDUP(B69/$I$4, 0)</f>
-        <v>30826210895</v>
+        <v>279210559320</v>
       </c>
       <c r="L69">
         <f t="shared" si="17"/>
-        <v>1117450144942.48</v>
+        <v>12564475169364.455</v>
       </c>
       <c r="M69">
         <f t="shared" si="18"/>
-        <v>178792023191</v>
+        <v>1396052796597</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -4811,27 +4811,27 @@
       </c>
       <c r="B70">
         <f t="shared" si="19"/>
-        <v>6481210840666.3838</v>
+        <v>62822375846822.281</v>
       </c>
       <c r="C70">
         <f t="shared" si="20"/>
-        <v>97218162609995.75</v>
+        <v>942335637702334.25</v>
       </c>
       <c r="E70">
         <f t="shared" si="15"/>
-        <v>3240605420333.1919</v>
+        <v>37693425508093.367</v>
       </c>
       <c r="F70">
         <f t="shared" si="16"/>
-        <v>129624216814</v>
+        <v>1047039597448</v>
       </c>
       <c r="G70">
         <f t="shared" si="21"/>
-        <v>89396011596</v>
+        <v>698026398299</v>
       </c>
       <c r="H70">
         <f t="shared" si="22"/>
-        <v>61652421790</v>
+        <v>465350932199</v>
       </c>
       <c r="I70" t="e">
         <f xml:space="preserve"> I69 * hits_1_round_behind ^ A69</f>
@@ -4839,19 +4839,19 @@
       </c>
       <c r="J70">
         <f t="shared" si="23"/>
-        <v>64812108407</v>
+        <v>628223758469</v>
       </c>
       <c r="K70">
         <f t="shared" si="24"/>
-        <v>44698005798</v>
+        <v>418815838979</v>
       </c>
       <c r="L70">
         <f t="shared" si="17"/>
-        <v>1620302710166.5959</v>
+        <v>18846712754046.684</v>
       </c>
       <c r="M70">
         <f t="shared" si="18"/>
-        <v>259248433627</v>
+        <v>2094079194895</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -4860,27 +4860,27 @@
       </c>
       <c r="B71">
         <f t="shared" si="19"/>
-        <v>9397755718966.2559</v>
+        <v>94233563770233.422</v>
       </c>
       <c r="C71">
         <f t="shared" si="20"/>
-        <v>140966335784493.84</v>
+        <v>1413503456553501.3</v>
       </c>
       <c r="E71">
         <f t="shared" si="15"/>
-        <v>4698877859483.1279</v>
+        <v>56540138262140.055</v>
       </c>
       <c r="F71">
         <f t="shared" si="16"/>
-        <v>187955114380</v>
+        <v>1570559396171</v>
       </c>
       <c r="G71">
         <f t="shared" si="21"/>
-        <v>129624216814</v>
+        <v>1047039597448</v>
       </c>
       <c r="H71">
         <f t="shared" si="22"/>
-        <v>89396011596</v>
+        <v>698026398299</v>
       </c>
       <c r="I71" t="e">
         <f xml:space="preserve"> I70 * hits_1_round_behind ^ A70</f>
@@ -4888,19 +4888,19 @@
       </c>
       <c r="J71">
         <f t="shared" si="23"/>
-        <v>93977557190</v>
+        <v>942335637703</v>
       </c>
       <c r="K71">
         <f t="shared" si="24"/>
-        <v>64812108407</v>
+        <v>628223758469</v>
       </c>
       <c r="L71">
         <f t="shared" si="17"/>
-        <v>2349438929741.564</v>
+        <v>28270069131070.027</v>
       </c>
       <c r="M71">
         <f t="shared" si="18"/>
-        <v>375910228759</v>
+        <v>3141118792342</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -4909,27 +4909,27 @@
       </c>
       <c r="B72">
         <f t="shared" si="19"/>
-        <v>13626745792501.07</v>
+        <v>141350345655350.13</v>
       </c>
       <c r="C72">
         <f t="shared" si="20"/>
-        <v>204401186887516.06</v>
+        <v>2120255184830252</v>
       </c>
       <c r="E72">
         <f t="shared" si="15"/>
-        <v>6813372896250.5352</v>
+        <v>84810207393210.078</v>
       </c>
       <c r="F72">
         <f t="shared" si="16"/>
-        <v>272534915851</v>
+        <v>2355839094256</v>
       </c>
       <c r="G72">
         <f t="shared" si="21"/>
-        <v>187955114380</v>
+        <v>1570559396171</v>
       </c>
       <c r="H72">
         <f t="shared" si="22"/>
-        <v>129624216814</v>
+        <v>1047039597448</v>
       </c>
       <c r="I72" t="e">
         <f xml:space="preserve"> I71 * hits_1_round_behind ^ A71</f>
@@ -4937,19 +4937,19 @@
       </c>
       <c r="J72">
         <f t="shared" si="23"/>
-        <v>136267457926</v>
+        <v>1413503456554</v>
       </c>
       <c r="K72">
         <f t="shared" si="24"/>
-        <v>93977557190</v>
+        <v>942335637703</v>
       </c>
       <c r="L72">
         <f t="shared" si="17"/>
-        <v>3406686448125.2676</v>
+        <v>42405103696605.039</v>
       </c>
       <c r="M72">
         <f t="shared" si="18"/>
-        <v>545069831701</v>
+        <v>4711678188512</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -4958,27 +4958,27 @@
       </c>
       <c r="B73">
         <f t="shared" si="19"/>
-        <v>19758781399126.555</v>
+        <v>212025518483025.19</v>
       </c>
       <c r="C73">
         <f t="shared" si="20"/>
-        <v>296381720986898.31</v>
+        <v>3180382777245378</v>
       </c>
       <c r="E73">
         <f t="shared" si="15"/>
-        <v>9879390699563.2773</v>
+        <v>127215311089815.13</v>
       </c>
       <c r="F73">
         <f t="shared" si="16"/>
-        <v>395175627983</v>
+        <v>3533758641384</v>
       </c>
       <c r="G73">
         <f t="shared" si="21"/>
-        <v>272534915851</v>
+        <v>2355839094256</v>
       </c>
       <c r="H73">
         <f t="shared" si="22"/>
-        <v>187955114380</v>
+        <v>1570559396171</v>
       </c>
       <c r="I73" t="e">
         <f xml:space="preserve"> I72 * hits_1_round_behind ^ A72</f>
@@ -4986,19 +4986,19 @@
       </c>
       <c r="J73">
         <f t="shared" si="23"/>
-        <v>197587813992</v>
+        <v>2120255184831</v>
       </c>
       <c r="K73">
         <f t="shared" si="24"/>
-        <v>136267457926</v>
+        <v>1413503456554</v>
       </c>
       <c r="L73">
         <f t="shared" si="17"/>
-        <v>4939695349781.6387</v>
+        <v>63607655544907.563</v>
       </c>
       <c r="M73">
         <f t="shared" si="18"/>
-        <v>790351255966</v>
+        <v>7067517282768</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -5007,27 +5007,27 @@
       </c>
       <c r="B74">
         <f t="shared" si="19"/>
-        <v>28650233028733.504</v>
+        <v>318038277724537.81</v>
       </c>
       <c r="C74">
         <f t="shared" si="20"/>
-        <v>429753495431002.56</v>
+        <v>4770574165868067</v>
       </c>
       <c r="E74">
         <f t="shared" si="15"/>
-        <v>14325116514366.752</v>
+        <v>190822966634722.69</v>
       </c>
       <c r="F74">
         <f t="shared" si="16"/>
-        <v>573004660575</v>
+        <v>5300637962076</v>
       </c>
       <c r="G74">
         <f t="shared" si="21"/>
-        <v>395175627983</v>
+        <v>3533758641384</v>
       </c>
       <c r="H74">
         <f t="shared" si="22"/>
-        <v>272534915851</v>
+        <v>2355839094256</v>
       </c>
       <c r="I74" t="e">
         <f xml:space="preserve"> I73 * hits_1_round_behind ^ A73</f>
@@ -5035,19 +5035,19 @@
       </c>
       <c r="J74">
         <f t="shared" si="23"/>
-        <v>286502330288</v>
+        <v>3180382777246</v>
       </c>
       <c r="K74">
         <f t="shared" si="24"/>
-        <v>197587813992</v>
+        <v>2120255184831</v>
       </c>
       <c r="L74">
         <f t="shared" si="17"/>
-        <v>7162558257183.376</v>
+        <v>95411483317361.344</v>
       </c>
       <c r="M74">
         <f t="shared" si="18"/>
-        <v>1146009321150</v>
+        <v>10601275924152</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -5056,27 +5056,27 @@
       </c>
       <c r="B75">
         <f t="shared" si="19"/>
-        <v>41542837891663.578</v>
+        <v>477057416586806.63</v>
       </c>
       <c r="C75">
         <f t="shared" si="20"/>
-        <v>623142568374953.63</v>
+        <v>7155861248802099</v>
       </c>
       <c r="E75">
         <f t="shared" si="15"/>
-        <v>20771418945831.789</v>
+        <v>286234449952084</v>
       </c>
       <c r="F75">
         <f t="shared" si="16"/>
-        <v>830856757834</v>
+        <v>7950956943114</v>
       </c>
       <c r="G75">
         <f t="shared" si="21"/>
-        <v>573004660575</v>
+        <v>5300637962076</v>
       </c>
       <c r="H75">
         <f t="shared" si="22"/>
-        <v>395175627983</v>
+        <v>3533758641384</v>
       </c>
       <c r="I75" t="e">
         <f xml:space="preserve"> I74 * hits_1_round_behind ^ A74</f>
@@ -5084,19 +5084,19 @@
       </c>
       <c r="J75">
         <f t="shared" si="23"/>
-        <v>415428378917</v>
+        <v>4770574165869</v>
       </c>
       <c r="K75">
         <f t="shared" si="24"/>
-        <v>286502330288</v>
+        <v>3180382777246</v>
       </c>
       <c r="L75">
         <f t="shared" si="17"/>
-        <v>10385709472915.895</v>
+        <v>143117224976042</v>
       </c>
       <c r="M75">
         <f t="shared" si="18"/>
-        <v>1661713515667</v>
+        <v>15901913886227</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -5105,27 +5105,27 @@
       </c>
       <c r="B76">
         <f t="shared" si="19"/>
-        <v>60237114942912.195</v>
+        <v>715586124880210</v>
       </c>
       <c r="C76">
         <f t="shared" si="20"/>
-        <v>903556724143682.88</v>
+        <v>1.073379187320315E+16</v>
       </c>
       <c r="E76">
         <f t="shared" si="15"/>
-        <v>30118557471456.098</v>
+        <v>429351674928126.06</v>
       </c>
       <c r="F76">
         <f t="shared" si="16"/>
-        <v>1204742298859</v>
+        <v>11926435414671</v>
       </c>
       <c r="G76">
         <f t="shared" si="21"/>
-        <v>830856757834</v>
+        <v>7950956943114</v>
       </c>
       <c r="H76">
         <f t="shared" si="22"/>
-        <v>573004660575</v>
+        <v>5300637962076</v>
       </c>
       <c r="I76" t="e">
         <f xml:space="preserve"> I75 * hits_1_round_behind ^ A75</f>
@@ -5133,19 +5133,19 @@
       </c>
       <c r="J76">
         <f t="shared" si="23"/>
-        <v>602371149430</v>
+        <v>7155861248803</v>
       </c>
       <c r="K76">
         <f t="shared" si="24"/>
-        <v>415428378917</v>
+        <v>4770574165869</v>
       </c>
       <c r="L76">
         <f t="shared" si="17"/>
-        <v>15059278735728.049</v>
+        <v>214675837464063.03</v>
       </c>
       <c r="M76">
         <f t="shared" si="18"/>
-        <v>2409484597717</v>
+        <v>23852870829341</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -5154,27 +5154,27 @@
       </c>
       <c r="B77">
         <f t="shared" si="19"/>
-        <v>87343816667222.688</v>
+        <v>1073379187320315</v>
       </c>
       <c r="C77">
         <f t="shared" si="20"/>
-        <v>1310157250008340.3</v>
+        <v>1.6100687809804724E+16</v>
       </c>
       <c r="E77">
         <f t="shared" si="15"/>
-        <v>43671908333611.344</v>
+        <v>644027512392189</v>
       </c>
       <c r="F77">
         <f t="shared" si="16"/>
-        <v>1746876333345</v>
+        <v>17889653122006</v>
       </c>
       <c r="G77">
         <f t="shared" si="21"/>
-        <v>1204742298859</v>
+        <v>11926435414671</v>
       </c>
       <c r="H77">
         <f t="shared" si="22"/>
-        <v>830856757834</v>
+        <v>7950956943114</v>
       </c>
       <c r="I77" t="e">
         <f xml:space="preserve"> I76 * hits_1_round_behind ^ A76</f>
@@ -5182,19 +5182,19 @@
       </c>
       <c r="J77">
         <f t="shared" si="23"/>
-        <v>873438166673</v>
+        <v>10733791873204</v>
       </c>
       <c r="K77">
         <f t="shared" si="24"/>
-        <v>602371149430</v>
+        <v>7155861248803</v>
       </c>
       <c r="L77">
         <f t="shared" si="17"/>
-        <v>21835954166805.672</v>
+        <v>322013756196094.5</v>
       </c>
       <c r="M77">
         <f t="shared" si="18"/>
-        <v>3493752666689</v>
+        <v>35779306244011</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -5203,27 +5203,27 @@
       </c>
       <c r="B78">
         <f t="shared" si="19"/>
-        <v>126648534167472.91</v>
+        <v>1610068780980472.5</v>
       </c>
       <c r="C78">
         <f t="shared" si="20"/>
-        <v>1899728012512093.5</v>
+        <v>2.4151031714707088E+16</v>
       </c>
       <c r="E78">
         <f t="shared" si="15"/>
-        <v>63324267083736.453</v>
+        <v>966041268588283.5</v>
       </c>
       <c r="F78">
         <f t="shared" si="16"/>
-        <v>2532970683350</v>
+        <v>26834479683008</v>
       </c>
       <c r="G78">
         <f t="shared" si="21"/>
-        <v>1746876333345</v>
+        <v>17889653122006</v>
       </c>
       <c r="H78">
         <f t="shared" si="22"/>
-        <v>1204742298859</v>
+        <v>11926435414671</v>
       </c>
       <c r="I78" t="e">
         <f xml:space="preserve"> I77 * hits_1_round_behind ^ A77</f>
@@ -5231,19 +5231,19 @@
       </c>
       <c r="J78">
         <f t="shared" si="23"/>
-        <v>1266485341675</v>
+        <v>16100687809805</v>
       </c>
       <c r="K78">
         <f t="shared" si="24"/>
-        <v>873438166673</v>
+        <v>10733791873204</v>
       </c>
       <c r="L78">
         <f t="shared" si="17"/>
-        <v>31662133541868.227</v>
+        <v>483020634294141.75</v>
       </c>
       <c r="M78">
         <f t="shared" si="18"/>
-        <v>5065941366699</v>
+        <v>53668959366016</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -5252,27 +5252,27 @@
       </c>
       <c r="B79">
         <f t="shared" si="19"/>
-        <v>183640374542835.69</v>
+        <v>2415103171470709</v>
       </c>
       <c r="C79">
         <f t="shared" si="20"/>
-        <v>2754605618142535.5</v>
+        <v>3.6226547572060632E+16</v>
       </c>
       <c r="E79">
         <f t="shared" si="15"/>
-        <v>91820187271417.844</v>
+        <v>1449061902882425.5</v>
       </c>
       <c r="F79">
         <f t="shared" si="16"/>
-        <v>3672807490857</v>
+        <v>40251719524512</v>
       </c>
       <c r="G79">
         <f t="shared" si="21"/>
-        <v>2532970683350</v>
+        <v>26834479683008</v>
       </c>
       <c r="H79">
         <f t="shared" si="22"/>
-        <v>1746876333345</v>
+        <v>17889653122006</v>
       </c>
       <c r="I79" t="e">
         <f xml:space="preserve"> I78 * hits_1_round_behind ^ A78</f>
@@ -5280,19 +5280,19 @@
       </c>
       <c r="J79">
         <f t="shared" si="23"/>
-        <v>1836403745429</v>
+        <v>24151031714708</v>
       </c>
       <c r="K79">
         <f t="shared" si="24"/>
-        <v>1266485341675</v>
+        <v>16100687809805</v>
       </c>
       <c r="L79">
         <f t="shared" si="17"/>
-        <v>45910093635708.922</v>
+        <v>724530951441212.75</v>
       </c>
       <c r="M79">
         <f t="shared" si="18"/>
-        <v>7345614981714</v>
+        <v>80503439049024</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -5301,27 +5301,27 @@
       </c>
       <c r="B80">
         <f t="shared" si="19"/>
-        <v>266278543087111.72</v>
+        <v>3622654757206063.5</v>
       </c>
       <c r="C80">
         <f t="shared" si="20"/>
-        <v>3994178146306676</v>
+        <v>5.4339821358090952E+16</v>
       </c>
       <c r="E80">
         <f t="shared" si="15"/>
-        <v>133139271543555.86</v>
+        <v>2173592854323638</v>
       </c>
       <c r="F80">
         <f t="shared" si="16"/>
-        <v>5325570861743</v>
+        <v>60377579286768</v>
       </c>
       <c r="G80">
         <f t="shared" si="21"/>
-        <v>3672807490857</v>
+        <v>40251719524512</v>
       </c>
       <c r="H80">
         <f t="shared" si="22"/>
-        <v>2532970683350</v>
+        <v>26834479683008</v>
       </c>
       <c r="I80" t="e">
         <f xml:space="preserve"> I79 * hits_1_round_behind ^ A79</f>
@@ -5329,19 +5329,19 @@
       </c>
       <c r="J80">
         <f t="shared" si="23"/>
-        <v>2662785430872</v>
+        <v>36226547572061</v>
       </c>
       <c r="K80">
         <f t="shared" si="24"/>
-        <v>1836403745429</v>
+        <v>24151031714708</v>
       </c>
       <c r="L80">
         <f t="shared" si="17"/>
-        <v>66569635771777.93</v>
+        <v>1086796427161819</v>
       </c>
       <c r="M80">
         <f t="shared" si="18"/>
-        <v>10651141723485</v>
+        <v>120755158573535</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -5350,27 +5350,27 @@
       </c>
       <c r="B81">
         <f t="shared" si="19"/>
-        <v>386103887476312</v>
+        <v>5433982135809095</v>
       </c>
       <c r="C81">
         <f t="shared" si="20"/>
-        <v>5791558312144680</v>
+        <v>8.1509732037136432E+16</v>
       </c>
       <c r="E81">
         <f t="shared" si="15"/>
-        <v>193051943738156</v>
+        <v>3260389281485456.5</v>
       </c>
       <c r="F81">
         <f t="shared" si="16"/>
-        <v>7722077749527</v>
+        <v>90566368930152</v>
       </c>
       <c r="G81">
         <f t="shared" si="21"/>
-        <v>5325570861743</v>
+        <v>60377579286768</v>
       </c>
       <c r="H81">
         <f t="shared" si="22"/>
-        <v>3672807490857</v>
+        <v>40251719524512</v>
       </c>
       <c r="I81" t="e">
         <f xml:space="preserve"> I80 * hits_1_round_behind ^ A80</f>
@@ -5378,19 +5378,19 @@
       </c>
       <c r="J81">
         <f t="shared" si="23"/>
-        <v>3861038874764</v>
+        <v>54339821358091</v>
       </c>
       <c r="K81">
         <f t="shared" si="24"/>
-        <v>2662785430872</v>
+        <v>36226547572061</v>
       </c>
       <c r="L81">
         <f t="shared" si="17"/>
-        <v>96525971869078</v>
+        <v>1630194640742728.3</v>
       </c>
       <c r="M81">
         <f t="shared" si="18"/>
-        <v>15444155499053</v>
+        <v>181132737860303</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -5399,27 +5399,27 @@
       </c>
       <c r="B82">
         <f t="shared" si="19"/>
-        <v>559850636840652.44</v>
+        <v>8150973203713642</v>
       </c>
       <c r="C82">
         <f t="shared" si="20"/>
-        <v>8397759552609787</v>
+        <v>1.2226459805570462E+17</v>
       </c>
       <c r="E82">
         <f t="shared" si="15"/>
-        <v>279925318420326.22</v>
+        <v>4890583922228185</v>
       </c>
       <c r="F82">
         <f t="shared" si="16"/>
-        <v>11197012736813</v>
+        <v>135849553395227</v>
       </c>
       <c r="G82">
         <f t="shared" si="21"/>
-        <v>7722077749527</v>
+        <v>90566368930152</v>
       </c>
       <c r="H82">
         <f t="shared" si="22"/>
-        <v>5325570861743</v>
+        <v>60377579286768</v>
       </c>
       <c r="I82" t="e">
         <f xml:space="preserve"> I81 * hits_1_round_behind ^ A81</f>
@@ -5427,19 +5427,19 @@
       </c>
       <c r="J82">
         <f t="shared" si="23"/>
-        <v>5598506368407</v>
+        <v>81509732037137</v>
       </c>
       <c r="K82">
         <f t="shared" si="24"/>
-        <v>3861038874764</v>
+        <v>54339821358091</v>
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>139962659210163.11</v>
+        <v>2445291961114092.5</v>
       </c>
       <c r="M82">
         <f t="shared" si="18"/>
-        <v>22394025473627</v>
+        <v>271699106790455</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5448,27 +5448,27 @@
       </c>
       <c r="B83">
         <f t="shared" si="19"/>
-        <v>811783423418946.13</v>
+        <v>1.2226459805570464E+16</v>
       </c>
       <c r="C83">
         <f t="shared" si="20"/>
-        <v>1.2176751351284192E+16</v>
+        <v>1.8339689708355696E+17</v>
       </c>
       <c r="E83">
         <f t="shared" si="15"/>
-        <v>405891711709473.06</v>
+        <v>7335875883342278</v>
       </c>
       <c r="F83">
         <f t="shared" si="16"/>
-        <v>16235668468379</v>
+        <v>203774330092841</v>
       </c>
       <c r="G83">
         <f t="shared" si="21"/>
-        <v>11197012736814</v>
+        <v>135849553395227</v>
       </c>
       <c r="H83">
         <f t="shared" si="22"/>
-        <v>7722077749527</v>
+        <v>90566368930152</v>
       </c>
       <c r="I83" t="e">
         <f xml:space="preserve"> I82 * hits_1_round_behind ^ A82</f>
@@ -5476,19 +5476,19 @@
       </c>
       <c r="J83">
         <f t="shared" si="23"/>
-        <v>8117834234190</v>
+        <v>122264598055705</v>
       </c>
       <c r="K83">
         <f t="shared" si="24"/>
-        <v>5598506368407</v>
+        <v>81509732037137</v>
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>202945855854736.53</v>
+        <v>3667937941671139</v>
       </c>
       <c r="M83">
         <f t="shared" si="18"/>
-        <v>32471336936758</v>
+        <v>407548660185682</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -5497,27 +5497,27 @@
       </c>
       <c r="B84">
         <f t="shared" si="19"/>
-        <v>1177085963957472</v>
+        <v>1.8339689708355692E+16</v>
       </c>
       <c r="C84">
         <f t="shared" si="20"/>
-        <v>1.765628945936208E+16</v>
+        <v>2.7509534562533539E+17</v>
       </c>
       <c r="E84">
         <f t="shared" si="15"/>
-        <v>588542981978736</v>
+        <v>1.1003813825013416E+16</v>
       </c>
       <c r="F84">
         <f t="shared" si="16"/>
-        <v>23541719279150</v>
+        <v>305661495139262</v>
       </c>
       <c r="G84">
         <f t="shared" si="21"/>
-        <v>16235668468379</v>
+        <v>203774330092841</v>
       </c>
       <c r="H84">
         <f t="shared" si="22"/>
-        <v>11197012736814</v>
+        <v>135849553395227</v>
       </c>
       <c r="I84" t="e">
         <f xml:space="preserve"> I83 * hits_1_round_behind ^ A83</f>
@@ -5525,19 +5525,19 @@
       </c>
       <c r="J84">
         <f t="shared" si="23"/>
-        <v>11770859639575</v>
+        <v>183396897083557</v>
       </c>
       <c r="K84">
         <f t="shared" si="24"/>
-        <v>8117834234190</v>
+        <v>122264598055705</v>
       </c>
       <c r="L84">
         <f t="shared" si="17"/>
-        <v>294271490989368</v>
+        <v>5501906912506708</v>
       </c>
       <c r="M84">
         <f t="shared" si="18"/>
-        <v>47083438558299</v>
+        <v>611322990278523</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -5546,27 +5546,27 @@
       </c>
       <c r="B85">
         <f t="shared" si="19"/>
-        <v>1706774647738334.3</v>
+        <v>2.7509534562533544E+16</v>
       </c>
       <c r="C85">
         <f t="shared" si="20"/>
-        <v>2.5601619716075012E+16</v>
+        <v>4.1264301843800314E+17</v>
       </c>
       <c r="E85">
         <f t="shared" ref="E85:E102" si="25" xml:space="preserve"> base_damage * hits_1_round_behind ^ A84</f>
-        <v>853387323869167.13</v>
+        <v>1.6505720737520126E+16</v>
       </c>
       <c r="F85">
         <f t="shared" ref="F85:F102" si="26">ROUNDUP(B85/base_damage, 0)</f>
-        <v>34135492954767</v>
+        <v>458492242708892</v>
       </c>
       <c r="G85">
         <f t="shared" si="21"/>
-        <v>23541719279150</v>
+        <v>305661495139262</v>
       </c>
       <c r="H85">
         <f t="shared" si="22"/>
-        <v>16235668468379</v>
+        <v>203774330092841</v>
       </c>
       <c r="I85" t="e">
         <f xml:space="preserve"> I84 * hits_1_round_behind ^ A84</f>
@@ -5574,19 +5574,19 @@
       </c>
       <c r="J85">
         <f t="shared" si="23"/>
-        <v>17067746477384</v>
+        <v>275095345625335</v>
       </c>
       <c r="K85">
         <f t="shared" si="24"/>
-        <v>11770859639575</v>
+        <v>183396897083557</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85:L102" si="27">E85/2</f>
-        <v>426693661934583.56</v>
+        <v>8252860368760063</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85:M102" si="28">ROUNDUP(B85/explosion_shot_base, 0)</f>
-        <v>68270985909534</v>
+        <v>916984485417785</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -5595,27 +5595,27 @@
       </c>
       <c r="B86">
         <f t="shared" si="19"/>
-        <v>2474823239220584.5</v>
+        <v>4.1264301843800312E+16</v>
       </c>
       <c r="C86">
         <f t="shared" si="20"/>
-        <v>3.7122348588308768E+16</v>
+        <v>6.1896452765700467E+17</v>
       </c>
       <c r="E86">
         <f t="shared" si="25"/>
-        <v>1237411619610292.3</v>
+        <v>2.4758581106280188E+16</v>
       </c>
       <c r="F86">
         <f t="shared" si="26"/>
-        <v>49496464784412</v>
+        <v>687738364063339</v>
       </c>
       <c r="G86">
         <f t="shared" si="21"/>
-        <v>34135492954767</v>
+        <v>458492242708892</v>
       </c>
       <c r="H86">
         <f t="shared" si="22"/>
-        <v>23541719279150</v>
+        <v>305661495139262</v>
       </c>
       <c r="I86" t="e">
         <f xml:space="preserve"> I85 * hits_1_round_behind ^ A85</f>
@@ -5623,19 +5623,19 @@
       </c>
       <c r="J86">
         <f t="shared" si="23"/>
-        <v>24748232392206</v>
+        <v>412643018438003</v>
       </c>
       <c r="K86">
         <f t="shared" si="24"/>
-        <v>17067746477384</v>
+        <v>275095345625335</v>
       </c>
       <c r="L86">
         <f t="shared" si="27"/>
-        <v>618705809805146.13</v>
+        <v>1.2379290553140094E+16</v>
       </c>
       <c r="M86">
         <f t="shared" si="28"/>
-        <v>98992929568824</v>
+        <v>1375476728126680</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -5644,27 +5644,27 @@
       </c>
       <c r="B87">
         <f t="shared" si="19"/>
-        <v>3588493696869847.5</v>
+        <v>6.1896452765700472E+16</v>
       </c>
       <c r="C87">
         <f t="shared" si="20"/>
-        <v>5.3827405453047712E+16</v>
+        <v>9.2844679148550707E+17</v>
       </c>
       <c r="E87">
         <f t="shared" si="25"/>
-        <v>1794246848434923.8</v>
+        <v>3.7137871659420288E+16</v>
       </c>
       <c r="F87">
         <f t="shared" si="26"/>
-        <v>71769873937397</v>
+        <v>1031607546095010</v>
       </c>
       <c r="G87">
         <f t="shared" si="21"/>
-        <v>49496464784412</v>
+        <v>687738364063339</v>
       </c>
       <c r="H87">
         <f t="shared" si="22"/>
-        <v>34135492954767</v>
+        <v>458492242708892</v>
       </c>
       <c r="I87" t="e">
         <f xml:space="preserve"> I86 * hits_1_round_behind ^ A86</f>
@@ -5672,19 +5672,19 @@
       </c>
       <c r="J87">
         <f t="shared" si="23"/>
-        <v>35884936968699</v>
+        <v>618964527657005</v>
       </c>
       <c r="K87">
         <f t="shared" si="24"/>
-        <v>24748232392206</v>
+        <v>412643018438003</v>
       </c>
       <c r="L87">
         <f t="shared" si="27"/>
-        <v>897123424217461.88</v>
+        <v>1.8568935829710144E+16</v>
       </c>
       <c r="M87">
         <f t="shared" si="28"/>
-        <v>143539747874794</v>
+        <v>2063215092190020</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -5693,27 +5693,27 @@
       </c>
       <c r="B88">
         <f t="shared" si="19"/>
-        <v>5203315860461278</v>
+        <v>9.284467914855072E+16</v>
       </c>
       <c r="C88">
         <f t="shared" si="20"/>
-        <v>7.8049737906919168E+16</v>
+        <v>1.3926701872282609E+18</v>
       </c>
       <c r="E88">
         <f t="shared" si="25"/>
-        <v>2601657930230639</v>
+        <v>5.5706807489130424E+16</v>
       </c>
       <c r="F88">
         <f t="shared" si="26"/>
-        <v>104066317209226</v>
+        <v>1547411319142510</v>
       </c>
       <c r="G88">
         <f t="shared" si="21"/>
-        <v>71769873937397</v>
+        <v>1031607546095010</v>
       </c>
       <c r="H88">
         <f t="shared" si="22"/>
-        <v>49496464784412</v>
+        <v>687738364063339</v>
       </c>
       <c r="I88" t="e">
         <f xml:space="preserve"> I87 * hits_1_round_behind ^ A87</f>
@@ -5721,19 +5721,19 @@
       </c>
       <c r="J88">
         <f t="shared" si="23"/>
-        <v>52033158604613</v>
+        <v>928446791485507</v>
       </c>
       <c r="K88">
         <f t="shared" si="24"/>
-        <v>35884936968699</v>
+        <v>618964527657005</v>
       </c>
       <c r="L88">
         <f t="shared" si="27"/>
-        <v>1300828965115319.5</v>
+        <v>2.7853403744565212E+16</v>
       </c>
       <c r="M88">
         <f t="shared" si="28"/>
-        <v>208132634418451</v>
+        <v>3094822638285020</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -5742,27 +5742,27 @@
       </c>
       <c r="B89">
         <f t="shared" si="19"/>
-        <v>7544807997668855</v>
+        <v>1.3926701872282605E+17</v>
       </c>
       <c r="C89">
         <f t="shared" si="20"/>
-        <v>1.1317211996503283E+17</v>
+        <v>2.0890052808423908E+18</v>
       </c>
       <c r="E89">
         <f t="shared" si="25"/>
-        <v>3772403998834427.5</v>
+        <v>8.3560211233695632E+16</v>
       </c>
       <c r="F89">
         <f t="shared" si="26"/>
-        <v>150896159953377</v>
+        <v>2321116978713770</v>
       </c>
       <c r="G89">
         <f t="shared" si="21"/>
-        <v>104066317209226</v>
+        <v>1547411319142510</v>
       </c>
       <c r="H89">
         <f t="shared" si="22"/>
-        <v>71769873937397</v>
+        <v>1031607546095010</v>
       </c>
       <c r="I89" t="e">
         <f xml:space="preserve"> I88 * hits_1_round_behind ^ A88</f>
@@ -5770,19 +5770,19 @@
       </c>
       <c r="J89">
         <f t="shared" si="23"/>
-        <v>75448079976689</v>
+        <v>1392670187228260</v>
       </c>
       <c r="K89">
         <f t="shared" si="24"/>
-        <v>52033158604613</v>
+        <v>928446791485507</v>
       </c>
       <c r="L89">
         <f t="shared" si="27"/>
-        <v>1886201999417213.8</v>
+        <v>4.1780105616847816E+16</v>
       </c>
       <c r="M89">
         <f t="shared" si="28"/>
-        <v>301792319906754</v>
+        <v>4642233957427540</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -5791,27 +5791,27 @@
       </c>
       <c r="B90">
         <f t="shared" si="19"/>
-        <v>1.093997159661984E+16</v>
+        <v>2.089005280842391E+17</v>
       </c>
       <c r="C90">
         <f t="shared" si="20"/>
-        <v>1.640995739492976E+17</v>
+        <v>3.1335079212635863E+18</v>
       </c>
       <c r="E90">
         <f t="shared" si="25"/>
-        <v>5469985798309920</v>
+        <v>1.2534031685054346E+17</v>
       </c>
       <c r="F90">
         <f t="shared" si="26"/>
-        <v>218799431932397</v>
+        <v>3481675468070650</v>
       </c>
       <c r="G90">
         <f t="shared" si="21"/>
-        <v>150896159953377</v>
+        <v>2321116978713770</v>
       </c>
       <c r="H90">
         <f t="shared" si="22"/>
-        <v>104066317209226</v>
+        <v>1547411319142510</v>
       </c>
       <c r="I90" t="e">
         <f xml:space="preserve"> I89 * hits_1_round_behind ^ A89</f>
@@ -5819,19 +5819,19 @@
       </c>
       <c r="J90">
         <f t="shared" si="23"/>
-        <v>109399715966198</v>
+        <v>2089005280842390</v>
       </c>
       <c r="K90">
         <f t="shared" si="24"/>
-        <v>75448079976689</v>
+        <v>1392670187228260</v>
       </c>
       <c r="L90">
         <f t="shared" si="27"/>
-        <v>2734992899154960</v>
+        <v>6.2670158425271728E+16</v>
       </c>
       <c r="M90">
         <f t="shared" si="28"/>
-        <v>437598863864794</v>
+        <v>6963350936141300</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -5840,27 +5840,27 @@
       </c>
       <c r="B91">
         <f t="shared" si="19"/>
-        <v>1.5862958815098768E+16</v>
+        <v>3.1335079212635866E+17</v>
       </c>
       <c r="C91">
         <f t="shared" si="20"/>
-        <v>2.3794438222648154E+17</v>
+        <v>4.70026188189538E+18</v>
       </c>
       <c r="E91">
         <f t="shared" si="25"/>
-        <v>7931479407549384</v>
+        <v>1.880104752758152E+17</v>
       </c>
       <c r="F91">
         <f t="shared" si="26"/>
-        <v>317259176301975</v>
+        <v>5222513202105980</v>
       </c>
       <c r="G91">
         <f t="shared" si="21"/>
-        <v>218799431932397</v>
+        <v>3481675468070650</v>
       </c>
       <c r="H91">
         <f t="shared" si="22"/>
-        <v>150896159953377</v>
+        <v>2321116978713770</v>
       </c>
       <c r="I91" t="e">
         <f xml:space="preserve"> I90 * hits_1_round_behind ^ A90</f>
@@ -5868,19 +5868,19 @@
       </c>
       <c r="J91">
         <f t="shared" si="23"/>
-        <v>158629588150988</v>
+        <v>3133507921263590</v>
       </c>
       <c r="K91">
         <f t="shared" si="24"/>
-        <v>109399715966198</v>
+        <v>2089005280842390</v>
       </c>
       <c r="L91">
         <f t="shared" si="27"/>
-        <v>3965739703774692</v>
+        <v>9.40052376379076E+16</v>
       </c>
       <c r="M91">
         <f t="shared" si="28"/>
-        <v>634518352603951</v>
+        <v>1.0445026404212E+16</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -5889,27 +5889,27 @@
       </c>
       <c r="B92">
         <f t="shared" si="19"/>
-        <v>2.3001290281893212E+16</v>
+        <v>4.7002618818953798E+17</v>
       </c>
       <c r="C92">
         <f t="shared" si="20"/>
-        <v>3.4501935422839821E+17</v>
+        <v>7.0503928228430694E+18</v>
       </c>
       <c r="E92">
         <f t="shared" si="25"/>
-        <v>1.1500645140946606E+16</v>
+        <v>2.8201571291372282E+17</v>
       </c>
       <c r="F92">
         <f t="shared" si="26"/>
-        <v>460025805637864</v>
+        <v>7833769803158970</v>
       </c>
       <c r="G92">
         <f t="shared" si="21"/>
-        <v>317259176301975</v>
+        <v>5222513202105980</v>
       </c>
       <c r="H92">
         <f t="shared" si="22"/>
-        <v>218799431932397</v>
+        <v>3481675468070650</v>
       </c>
       <c r="I92" t="e">
         <f xml:space="preserve"> I91 * hits_1_round_behind ^ A91</f>
@@ -5917,19 +5917,19 @@
       </c>
       <c r="J92">
         <f t="shared" si="23"/>
-        <v>230012902818932</v>
+        <v>4700261881895380</v>
       </c>
       <c r="K92">
         <f t="shared" si="24"/>
-        <v>158629588150988</v>
+        <v>3133507921263590</v>
       </c>
       <c r="L92">
         <f t="shared" si="27"/>
-        <v>5750322570473303</v>
+        <v>1.4100785645686141E+17</v>
       </c>
       <c r="M92">
         <f t="shared" si="28"/>
-        <v>920051611275729</v>
+        <v>1.56675396063179E+16</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -5938,27 +5938,27 @@
       </c>
       <c r="B93">
         <f t="shared" si="19"/>
-        <v>3.3351870908745156E+16</v>
+        <v>7.0503928228430694E+17</v>
       </c>
       <c r="C93">
         <f t="shared" si="20"/>
-        <v>5.0027806363117734E+17</v>
+        <v>1.0575589234264605E+19</v>
       </c>
       <c r="E93">
         <f t="shared" si="25"/>
-        <v>1.6675935454372578E+16</v>
+        <v>4.2302356937058413E+17</v>
       </c>
       <c r="F93">
         <f t="shared" si="26"/>
-        <v>667037418174903</v>
+        <v>1.17506547047385E+16</v>
       </c>
       <c r="G93">
         <f>ROUNDUP(B93/$E$4, 0)</f>
-        <v>460025805637864</v>
+        <v>7833769803158970</v>
       </c>
       <c r="H93">
         <f t="shared" si="22"/>
-        <v>317259176301975</v>
+        <v>5222513202105980</v>
       </c>
       <c r="I93" t="e">
         <f xml:space="preserve"> I92 * hits_1_round_behind ^ A92</f>
@@ -5966,19 +5966,19 @@
       </c>
       <c r="J93">
         <f t="shared" si="23"/>
-        <v>333518709087452</v>
+        <v>7050392822843070</v>
       </c>
       <c r="K93">
         <f t="shared" si="24"/>
-        <v>230012902818932</v>
+        <v>4700261881895380</v>
       </c>
       <c r="L93">
         <f t="shared" si="27"/>
-        <v>8337967727186289</v>
+        <v>2.1151178468529206E+17</v>
       </c>
       <c r="M93">
         <f t="shared" si="28"/>
-        <v>1334074836349810</v>
+        <v>2.35013094094769E+16</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -5987,27 +5987,27 @@
       </c>
       <c r="B94">
         <f t="shared" si="19"/>
-        <v>4.8360212817680472E+16</v>
+        <v>1.0575589234264604E+18</v>
       </c>
       <c r="C94">
         <f t="shared" si="20"/>
-        <v>7.2540319226520704E+17</v>
+        <v>1.5863383851396907E+19</v>
       </c>
       <c r="E94">
         <f t="shared" si="25"/>
-        <v>2.4180106408840236E+16</v>
+        <v>6.3453535405587622E+17</v>
       </c>
       <c r="F94">
         <f t="shared" si="26"/>
-        <v>967204256353610</v>
+        <v>1.76259820571077E+16</v>
       </c>
       <c r="G94">
         <f t="shared" ref="G94:G102" si="29">ROUNDUP(B94/$E$4, 0)</f>
-        <v>667037418174903</v>
+        <v>1.17506547047385E+16</v>
       </c>
       <c r="H94">
         <f t="shared" si="22"/>
-        <v>460025805637864</v>
+        <v>7833769803158970</v>
       </c>
       <c r="I94" t="e">
         <f xml:space="preserve"> I93 * hits_1_round_behind ^ A93</f>
@@ -6015,19 +6015,19 @@
       </c>
       <c r="J94">
         <f t="shared" si="23"/>
-        <v>483602128176805</v>
+        <v>1.05755892342646E+16</v>
       </c>
       <c r="K94">
         <f t="shared" si="24"/>
-        <v>333518709087452</v>
+        <v>7050392822843070</v>
       </c>
       <c r="L94">
         <f t="shared" si="27"/>
-        <v>1.2090053204420118E+16</v>
+        <v>3.1726767702793811E+17</v>
       </c>
       <c r="M94">
         <f t="shared" si="28"/>
-        <v>1934408512707220</v>
+        <v>3.52519641142153E+16</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -6036,27 +6036,27 @@
       </c>
       <c r="B95">
         <f t="shared" si="19"/>
-        <v>7.0122308585636704E+16</v>
+        <v>1.5863383851396905E+18</v>
       </c>
       <c r="C95">
         <f t="shared" si="20"/>
-        <v>1.0518346287845505E+18</v>
+        <v>2.3795075777095356E+19</v>
       </c>
       <c r="E95">
         <f t="shared" si="25"/>
-        <v>3.5061154292818352E+16</v>
+        <v>9.518030310838144E+17</v>
       </c>
       <c r="F95">
         <f t="shared" si="26"/>
-        <v>1402446171712730</v>
+        <v>2.64389730856615E+16</v>
       </c>
       <c r="G95">
         <f t="shared" si="29"/>
-        <v>967204256353610</v>
+        <v>1.76259820571077E+16</v>
       </c>
       <c r="H95">
         <f t="shared" si="22"/>
-        <v>667037418174903</v>
+        <v>1.17506547047384E+16</v>
       </c>
       <c r="I95" t="e">
         <f xml:space="preserve"> I94 * hits_1_round_behind ^ A94</f>
@@ -6064,19 +6064,19 @@
       </c>
       <c r="J95">
         <f t="shared" si="23"/>
-        <v>701223085856367</v>
+        <v>1.58633838513969E+16</v>
       </c>
       <c r="K95">
         <f t="shared" si="24"/>
-        <v>483602128176805</v>
+        <v>1.05755892342646E+16</v>
       </c>
       <c r="L95">
         <f t="shared" si="27"/>
-        <v>1.7530577146409176E+16</v>
+        <v>4.759015155419072E+17</v>
       </c>
       <c r="M95">
         <f t="shared" si="28"/>
-        <v>2804892343425470</v>
+        <v>5.2877946171323E+16</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -6085,27 +6085,27 @@
       </c>
       <c r="B96">
         <f t="shared" si="19"/>
-        <v>1.0167734744917317E+17</v>
+        <v>2.3795075777095363E+18</v>
       </c>
       <c r="C96">
         <f t="shared" si="20"/>
-        <v>1.5251602117375974E+18</v>
+        <v>3.5692613665643045E+19</v>
       </c>
       <c r="E96">
         <f t="shared" si="25"/>
-        <v>5.0838673724586584E+16</v>
+        <v>1.4277045466257216E+18</v>
       </c>
       <c r="F96">
         <f t="shared" si="26"/>
-        <v>2033546948983460</v>
+        <v>3.9658459628492304E+16</v>
       </c>
       <c r="G96">
         <f t="shared" si="29"/>
-        <v>1402446171712730</v>
+        <v>2.64389730856615E+16</v>
       </c>
       <c r="H96">
         <f t="shared" si="22"/>
-        <v>967204256353609</v>
+        <v>1.76259820571077E+16</v>
       </c>
       <c r="I96" t="e">
         <f xml:space="preserve"> I95 * hits_1_round_behind ^ A95</f>
@@ -6113,19 +6113,19 @@
       </c>
       <c r="J96">
         <f t="shared" si="23"/>
-        <v>1016773474491730</v>
+        <v>2.37950757770954E+16</v>
       </c>
       <c r="K96">
         <f t="shared" si="24"/>
-        <v>701223085856367</v>
+        <v>1.58633838513969E+16</v>
       </c>
       <c r="L96">
         <f t="shared" si="27"/>
-        <v>2.5419336862293292E+16</v>
+        <v>7.138522733128608E+17</v>
       </c>
       <c r="M96">
         <f t="shared" si="28"/>
-        <v>4067093897966930</v>
+        <v>7.9316919256984496E+16</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -6134,27 +6134,27 @@
       </c>
       <c r="B97">
         <f t="shared" si="19"/>
-        <v>1.4743215380130115E+17</v>
+        <v>3.5692613665643039E+18</v>
       </c>
       <c r="C97">
         <f t="shared" si="20"/>
-        <v>2.2114823070195172E+18</v>
+        <v>5.3538920498464555E+19</v>
       </c>
       <c r="E97">
         <f t="shared" si="25"/>
-        <v>7.3716076900650576E+16</v>
+        <v>2.1415568199385825E+18</v>
       </c>
       <c r="F97">
         <f t="shared" si="26"/>
-        <v>2948643076026020</v>
+        <v>5.94876894427384E+16</v>
       </c>
       <c r="G97">
         <f t="shared" si="29"/>
-        <v>2033546948983460</v>
+        <v>3.9658459628492304E+16</v>
       </c>
       <c r="H97">
         <f t="shared" si="22"/>
-        <v>1402446171712730</v>
+        <v>2.64389730856615E+16</v>
       </c>
       <c r="I97" t="e">
         <f xml:space="preserve"> I96 * hits_1_round_behind ^ A96</f>
@@ -6162,19 +6162,19 @@
       </c>
       <c r="J97">
         <f t="shared" si="23"/>
-        <v>1474321538013010</v>
+        <v>3.5692613665643E+16</v>
       </c>
       <c r="K97">
         <f t="shared" si="24"/>
-        <v>1016773474491730</v>
+        <v>2.37950757770954E+16</v>
       </c>
       <c r="L97">
         <f t="shared" si="27"/>
-        <v>3.6858038450325288E+16</v>
+        <v>1.0707784099692913E+18</v>
       </c>
       <c r="M97">
         <f t="shared" si="28"/>
-        <v>5897286152052050</v>
+        <v>1.1897537888547699E+17</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -6183,27 +6183,27 @@
       </c>
       <c r="B98">
         <f t="shared" si="19"/>
-        <v>2.1377662301188666E+17</v>
+        <v>5.3538920498464563E+18</v>
       </c>
       <c r="C98">
         <f t="shared" si="20"/>
-        <v>3.2066493451782999E+18</v>
+        <v>8.0308380747696849E+19</v>
       </c>
       <c r="E98">
         <f t="shared" si="25"/>
-        <v>1.0688831150594333E+17</v>
+        <v>3.2123352299078738E+18</v>
       </c>
       <c r="F98">
         <f t="shared" si="26"/>
-        <v>4275532460237730</v>
+        <v>8.92315341641076E+16</v>
       </c>
       <c r="G98">
         <f t="shared" si="29"/>
-        <v>2948643076026020</v>
+        <v>5.94876894427384E+16</v>
       </c>
       <c r="H98">
         <f t="shared" si="22"/>
-        <v>2033546948983460</v>
+        <v>3.9658459628492304E+16</v>
       </c>
       <c r="I98" t="e">
         <f xml:space="preserve"> I97 * hits_1_round_behind ^ A97</f>
@@ -6211,19 +6211,19 @@
       </c>
       <c r="J98">
         <f t="shared" si="23"/>
-        <v>2137766230118870</v>
+        <v>5.35389204984646E+16</v>
       </c>
       <c r="K98">
         <f t="shared" si="24"/>
-        <v>1474321538013010</v>
+        <v>3.5692613665643E+16</v>
       </c>
       <c r="L98">
         <f t="shared" si="27"/>
-        <v>5.3444155752971664E+16</v>
+        <v>1.6061676149539369E+18</v>
       </c>
       <c r="M98">
         <f t="shared" si="28"/>
-        <v>8551064920475470</v>
+        <v>1.7846306832821501E+17</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -6232,27 +6232,27 @@
       </c>
       <c r="B99">
         <f t="shared" si="19"/>
-        <v>3.0997610336723565E+17</v>
+        <v>8.0308380747696835E+18</v>
       </c>
       <c r="C99">
         <f t="shared" si="20"/>
-        <v>4.6496415505085348E+18</v>
+        <v>1.2046257112154525E+20</v>
       </c>
       <c r="E99">
         <f t="shared" si="25"/>
-        <v>1.5498805168361782E+17</v>
+        <v>4.8185028448618097E+18</v>
       </c>
       <c r="F99">
         <f t="shared" si="26"/>
-        <v>6199522067344710</v>
+        <v>1.3384730124616099E+17</v>
       </c>
       <c r="G99">
         <f t="shared" si="29"/>
-        <v>4275532460237730</v>
+        <v>8.92315341641076E+16</v>
       </c>
       <c r="H99">
         <f t="shared" si="22"/>
-        <v>2948643076026020</v>
+        <v>5.94876894427384E+16</v>
       </c>
       <c r="I99" t="e">
         <f xml:space="preserve"> I98 * hits_1_round_behind ^ A98</f>
@@ -6260,19 +6260,19 @@
       </c>
       <c r="J99">
         <f t="shared" si="23"/>
-        <v>3099761033672360</v>
+        <v>8.03083807476968E+16</v>
       </c>
       <c r="K99">
         <f t="shared" si="24"/>
-        <v>2137766230118870</v>
+        <v>5.35389204984646E+16</v>
       </c>
       <c r="L99">
         <f t="shared" si="27"/>
-        <v>7.7494025841808912E+16</v>
+        <v>2.4092514224309048E+18</v>
       </c>
       <c r="M99">
         <f t="shared" si="28"/>
-        <v>1.23990441346894E+16</v>
+        <v>2.6769460249232301E+17</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -6281,27 +6281,27 @@
       </c>
       <c r="B100">
         <f t="shared" si="19"/>
-        <v>4.4946534988249171E+17</v>
+        <v>1.2046257112154526E+19</v>
       </c>
       <c r="C100">
         <f t="shared" si="20"/>
-        <v>6.7419802482373755E+18</v>
+        <v>1.8069385668231787E+20</v>
       </c>
       <c r="E100">
         <f t="shared" si="25"/>
-        <v>2.2473267494124586E+17</v>
+        <v>7.227754267292715E+18</v>
       </c>
       <c r="F100">
         <f t="shared" si="26"/>
-        <v>8989306997649830</v>
+        <v>2.0077095186924198E+17</v>
       </c>
       <c r="G100">
         <f t="shared" si="29"/>
-        <v>6199522067344710</v>
+        <v>1.3384730124616099E+17</v>
       </c>
       <c r="H100">
         <f t="shared" si="22"/>
-        <v>4275532460237730</v>
+        <v>8.92315341641076E+16</v>
       </c>
       <c r="I100" t="e">
         <f xml:space="preserve"> I99 * hits_1_round_behind ^ A99</f>
@@ -6309,19 +6309,19 @@
       </c>
       <c r="J100">
         <f t="shared" si="23"/>
-        <v>4494653498824920</v>
+        <v>1.2046257112154499E+17</v>
       </c>
       <c r="K100">
         <f t="shared" si="24"/>
-        <v>3099761033672360</v>
+        <v>8.03083807476968E+16</v>
       </c>
       <c r="L100">
         <f t="shared" si="27"/>
-        <v>1.1236633747062293E+17</v>
+        <v>3.6138771336463575E+18</v>
       </c>
       <c r="M100">
         <f t="shared" si="28"/>
-        <v>1.79786139952997E+16</v>
+        <v>4.0154190373848397E+17</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -6330,27 +6330,27 @@
       </c>
       <c r="B101">
         <f t="shared" si="19"/>
-        <v>6.5172475732961293E+17</v>
+        <v>1.8069385668231786E+19</v>
       </c>
       <c r="C101">
         <f t="shared" si="20"/>
-        <v>9.775871359944194E+18</v>
+        <v>2.7104078502347679E+20</v>
       </c>
       <c r="E101">
         <f t="shared" si="25"/>
-        <v>3.2586237866480646E+17</v>
+        <v>1.0841631400939071E+19</v>
       </c>
       <c r="F101">
         <f t="shared" si="26"/>
-        <v>1.30344951465923E+16</v>
+        <v>3.0115642780386298E+17</v>
       </c>
       <c r="G101">
         <f t="shared" si="29"/>
-        <v>8989306997649830</v>
+        <v>2.0077095186924198E+17</v>
       </c>
       <c r="H101">
         <f t="shared" si="22"/>
-        <v>6199522067344710</v>
+        <v>1.3384730124616099E+17</v>
       </c>
       <c r="I101" t="e">
         <f xml:space="preserve"> I100 * hits_1_round_behind ^ A100</f>
@@ -6358,19 +6358,19 @@
       </c>
       <c r="J101">
         <f t="shared" si="23"/>
-        <v>6517247573296130</v>
+        <v>1.8069385668231802E+17</v>
       </c>
       <c r="K101">
         <f t="shared" si="24"/>
-        <v>4494653498824920</v>
+        <v>1.2046257112154499E+17</v>
       </c>
       <c r="L101">
         <f t="shared" si="27"/>
-        <v>1.6293118933240323E+17</v>
+        <v>5.4208157004695357E+18</v>
       </c>
       <c r="M101">
         <f t="shared" si="28"/>
-        <v>2.60689902931845E+16</v>
+        <v>6.0231285560772595E+17</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -6379,27 +6379,27 @@
       </c>
       <c r="B102">
         <f t="shared" si="19"/>
-        <v>9.4500089812793882E+17</v>
+        <v>2.7104078502347682E+19</v>
       </c>
       <c r="C102">
         <f t="shared" si="20"/>
-        <v>1.4175013471919081E+19</v>
+        <v>4.0656117753521524E+20</v>
       </c>
       <c r="E102">
         <f t="shared" si="25"/>
-        <v>4.7250044906396941E+17</v>
+        <v>1.6262447101408608E+19</v>
       </c>
       <c r="F102">
         <f t="shared" si="26"/>
-        <v>1.89000179625588E+16</v>
+        <v>4.5173464170579501E+17</v>
       </c>
       <c r="G102">
         <f t="shared" si="29"/>
-        <v>1.30344951465923E+16</v>
+        <v>3.0115642780386298E+17</v>
       </c>
       <c r="H102">
         <f t="shared" si="22"/>
-        <v>8989306997649830</v>
+        <v>2.0077095186924198E+17</v>
       </c>
       <c r="I102" t="e">
         <f xml:space="preserve"> I101 * hits_1_round_behind ^ A101</f>
@@ -6407,19 +6407,19 @@
       </c>
       <c r="J102">
         <f t="shared" si="23"/>
-        <v>9450008981279390</v>
+        <v>2.7104078502347699E+17</v>
       </c>
       <c r="K102">
         <f t="shared" si="24"/>
-        <v>6517247573296130</v>
+        <v>1.8069385668231802E+17</v>
       </c>
       <c r="L102">
         <f t="shared" si="27"/>
-        <v>2.362502245319847E+17</v>
+        <v>8.1312235507043041E+18</v>
       </c>
       <c r="M102">
         <f t="shared" si="28"/>
-        <v>3.78000359251176E+16</v>
+        <v>9.0346928341158899E+17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Balance/Balance.xlsx
+++ b/docs/Balance/Balance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaume\Desktop\Uni repos\Tankerfield\docs\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC706507-0FE2-4FF6-B5AF-569734E0658E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D160D7CE-E007-428E-9ED1-C62D1E1EA711}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
